--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -704,9 +704,6 @@
     <t>Panda</t>
   </si>
   <si>
-    <t>Frankentibbers</t>
-  </si>
-  <si>
     <t>Sweetheart</t>
   </si>
   <si>
@@ -1211,9 +1208,6 @@
     <t>Dino</t>
   </si>
   <si>
-    <t>El Léon</t>
-  </si>
-  <si>
     <t>Scuba</t>
   </si>
   <si>
@@ -2237,9 +2231,6 @@
     <t>Jack of Hearts</t>
   </si>
   <si>
-    <t>The Magnificient</t>
-  </si>
-  <si>
     <t>Musketeer</t>
   </si>
   <si>
@@ -2628,6 +2619,15 @@
   </si>
   <si>
     <t>Firelight</t>
+  </si>
+  <si>
+    <t>FrankenTibbers</t>
+  </si>
+  <si>
+    <t>The Magnificent</t>
+  </si>
+  <si>
+    <t>El León</t>
   </si>
 </sst>
 </file>
@@ -3280,8 +3280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3296,48 +3296,48 @@
         <v>44500</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B2" s="28" t="s">
+        <v>812</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>813</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>814</v>
+      </c>
+      <c r="E2" s="31" t="s">
         <v>815</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="F2" s="32" t="s">
         <v>816</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="G2" s="33" t="s">
         <v>817</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="H2" s="34" t="s">
         <v>818</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="I2" s="35" t="s">
         <v>819</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="J2" s="36" t="s">
+        <v>821</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>822</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>823</v>
+      </c>
+      <c r="M2" s="39" t="s">
         <v>820</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>821</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>822</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>824</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>825</v>
-      </c>
-      <c r="L2" s="38" t="s">
-        <v>826</v>
-      </c>
-      <c r="M2" s="39" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -3450,7 +3450,7 @@
         <v>177</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="2"/>
@@ -3503,7 +3503,7 @@
         <v>177</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="2"/>
@@ -3511,16 +3511,16 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -3631,7 +3631,7 @@
         <v>208</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="2"/>
@@ -3672,7 +3672,7 @@
         <v>215</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="2"/>
@@ -3704,28 +3704,28 @@
         <v>221</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>223</v>
+        <v>862</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>222</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>196</v>
       </c>
       <c r="M12" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="N12" s="11" t="s">
         <v>225</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>226</v>
       </c>
       <c r="O12" s="13" t="s">
         <v>199</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="2"/>
@@ -3739,7 +3739,7 @@
         <v>157</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>199</v>
@@ -3756,22 +3756,22 @@
         <v>157</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="G14" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="9" t="s">
         <v>232</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>233</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>193</v>
@@ -3780,19 +3780,19 @@
         <v>185</v>
       </c>
       <c r="K14" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="N14" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="N14" s="9" t="s">
-        <v>237</v>
-      </c>
       <c r="O14" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="2"/>
@@ -3806,13 +3806,13 @@
         <v>157</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>159</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="2"/>
@@ -3826,16 +3826,16 @@
         <v>157</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>194</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>174</v>
@@ -3855,16 +3855,16 @@
         <v>174</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="2"/>
@@ -3877,40 +3877,40 @@
         <v>157</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="E18" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="F18" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="G18" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="H18" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="I18" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="J18" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="N18" s="14" t="s">
         <v>255</v>
-      </c>
-      <c r="N18" s="14" t="s">
-        <v>256</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>163</v>
@@ -3926,34 +3926,34 @@
         <v>157</v>
       </c>
       <c r="C19" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="F19" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="G19" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="H19" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="H19" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="I19" s="7" t="s">
+      <c r="J19" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>263</v>
-      </c>
       <c r="K19" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="2"/>
@@ -3966,25 +3966,25 @@
         <v>157</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="E20" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="F20" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>269</v>
-      </c>
       <c r="I20" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q20" s="3"/>
       <c r="R20" s="2"/>
@@ -3997,43 +3997,43 @@
         <v>157</v>
       </c>
       <c r="C21" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="E21" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="F21" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="G21" s="17" t="s">
         <v>273</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>274</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>183</v>
       </c>
       <c r="I21" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="J21" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="K21" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>170</v>
       </c>
       <c r="M21" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="N21" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="N21" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="O21" s="1" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="2"/>
@@ -4046,16 +4046,16 @@
         <v>157</v>
       </c>
       <c r="C22" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="F22" s="9" t="s">
         <v>282</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>283</v>
       </c>
       <c r="Q22" s="3"/>
       <c r="R22" s="2"/>
@@ -4068,25 +4068,25 @@
         <v>157</v>
       </c>
       <c r="C23" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="E23" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="F23" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="G23" s="11" t="s">
         <v>287</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>288</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>175</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="2"/>
@@ -4099,28 +4099,28 @@
         <v>157</v>
       </c>
       <c r="C24" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="E24" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="F24" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="G24" s="11" t="s">
         <v>292</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>293</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>212</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="Q24" s="3"/>
       <c r="R24" s="2"/>
@@ -4133,34 +4133,34 @@
         <v>157</v>
       </c>
       <c r="C25" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="E25" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="F25" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="G25" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="H25" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="I25" s="13" t="s">
         <v>300</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>301</v>
       </c>
       <c r="J25" s="12" t="s">
         <v>170</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="2"/>
@@ -4173,34 +4173,34 @@
         <v>157</v>
       </c>
       <c r="C26" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="E26" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="F26" s="12" t="s">
         <v>305</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>306</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>176</v>
       </c>
       <c r="H26" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="I26" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="I26" s="9" t="s">
-        <v>308</v>
-      </c>
       <c r="J26" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K26" s="14" t="s">
         <v>199</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="Q26" s="3"/>
       <c r="R26" s="2"/>
@@ -4213,10 +4213,10 @@
         <v>157</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>309</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>310</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>179</v>
@@ -4225,22 +4225,22 @@
         <v>161</v>
       </c>
       <c r="G27" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="I27" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="I27" s="9" t="s">
+      <c r="J27" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="J27" s="9" t="s">
-        <v>313</v>
-      </c>
       <c r="K27" s="8" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="Q27" s="3"/>
       <c r="R27" s="2"/>
@@ -4253,34 +4253,34 @@
         <v>157</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="E28" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="F28" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G28" s="14" t="s">
         <v>316</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>317</v>
       </c>
       <c r="H28" s="14" t="s">
         <v>126</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J28" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K28" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="K28" s="12" t="s">
-        <v>319</v>
-      </c>
       <c r="L28" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q28" s="3"/>
       <c r="R28" s="2"/>
@@ -4293,34 +4293,34 @@
         <v>157</v>
       </c>
       <c r="C29" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="E29" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="F29" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="G29" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="H29" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="I29" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="J29" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="K29" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="J29" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="K29" s="14" t="s">
+      <c r="L29" s="11" t="s">
         <v>327</v>
-      </c>
-      <c r="L29" s="11" t="s">
-        <v>328</v>
       </c>
       <c r="Q29" s="3"/>
       <c r="R29" s="2"/>
@@ -4333,7 +4333,7 @@
         <v>157</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>176</v>
@@ -4345,16 +4345,16 @@
         <v>194</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>186</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="Q30" s="3"/>
       <c r="R30" s="2"/>
@@ -4367,7 +4367,7 @@
         <v>157</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>163</v>
@@ -4379,13 +4379,13 @@
         <v>194</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="Q31" s="3"/>
       <c r="R31" s="2"/>
@@ -4398,16 +4398,16 @@
         <v>157</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D32" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="F32" s="14" t="s">
         <v>334</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>335</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>161</v>
@@ -4419,13 +4419,13 @@
         <v>173</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K32" s="11" t="s">
         <v>177</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q32" s="3"/>
       <c r="R32" s="2"/>
@@ -4438,28 +4438,28 @@
         <v>157</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="E33" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>338</v>
-      </c>
       <c r="F33" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="I33" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="G33" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="I33" s="7" t="s">
+      <c r="J33" s="11" t="s">
         <v>341</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>342</v>
       </c>
       <c r="K33" s="12" t="s">
         <v>170</v>
@@ -4468,22 +4468,22 @@
         <v>171</v>
       </c>
       <c r="M33" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="N33" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="N33" s="12" t="s">
+      <c r="O33" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P33" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="O33" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="P33" s="11" t="s">
+      <c r="Q33" s="18" t="s">
         <v>345</v>
       </c>
-      <c r="Q33" s="18" t="s">
-        <v>346</v>
-      </c>
       <c r="R33" s="2" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -4494,31 +4494,31 @@
         <v>157</v>
       </c>
       <c r="C34" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="E34" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="F34" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="G34" s="11" t="s">
         <v>350</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>351</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>207</v>
       </c>
       <c r="I34" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="11" t="s">
         <v>353</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>354</v>
       </c>
       <c r="Q34" s="3"/>
       <c r="R34" s="2"/>
@@ -4531,40 +4531,40 @@
         <v>157</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="E35" s="11" t="s">
         <v>356</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>357</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>185</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H35" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="I35" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="I35" s="12" t="s">
-        <v>359</v>
-      </c>
       <c r="J35" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L35" s="12" t="s">
         <v>199</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q35" s="3"/>
       <c r="R35" s="2"/>
@@ -4577,34 +4577,34 @@
         <v>157</v>
       </c>
       <c r="C36" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D36" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="E36" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="F36" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="G36" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="H36" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="I36" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="I36" s="11" t="s">
+      <c r="J36" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="J36" s="12" t="s">
+      <c r="K36" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="K36" s="12" t="s">
+      <c r="L36" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="Q36" s="3"/>
       <c r="R36" s="2"/>
@@ -4617,28 +4617,28 @@
         <v>157</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>196</v>
       </c>
       <c r="E37" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="F37" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="G37" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="H37" s="14" t="s">
         <v>372</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>373</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>179</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Q37" s="3"/>
       <c r="R37" s="2"/>
@@ -4651,34 +4651,34 @@
         <v>157</v>
       </c>
       <c r="C38" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="E38" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="F38" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="G38" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="H38" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="I38" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="J38" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="K38" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="L38" s="9" t="s">
         <v>381</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="K38" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="L38" s="9" t="s">
-        <v>382</v>
       </c>
       <c r="Q38" s="3"/>
       <c r="R38" s="2"/>
@@ -4691,43 +4691,43 @@
         <v>157</v>
       </c>
       <c r="C39" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="E39" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="F39" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="E39" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="F39" s="12" t="s">
+      <c r="G39" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="H39" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="H39" s="14" t="s">
+      <c r="I39" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="I39" s="12" t="s">
+      <c r="J39" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="L39" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="J39" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="L39" s="14" t="s">
+      <c r="M39" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N39" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="M39" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="N39" s="9" t="s">
-        <v>390</v>
-      </c>
       <c r="O39" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q39" s="3"/>
       <c r="R39" s="2"/>
@@ -4740,25 +4740,25 @@
         <v>157</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>864</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="I40" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>174</v>
@@ -4774,37 +4774,37 @@
         <v>157</v>
       </c>
       <c r="C41" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="F41" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="G41" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="H41" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="E41" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="F41" s="12" t="s">
+      <c r="I41" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="G41" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="H41" s="11" t="s">
+      <c r="J41" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="K41" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="I41" s="14" t="s">
+      <c r="L41" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="M41" s="11" t="s">
         <v>397</v>
-      </c>
-      <c r="J41" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="K41" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="M41" s="11" t="s">
-        <v>399</v>
       </c>
       <c r="Q41" s="3"/>
       <c r="R41" s="2"/>
@@ -4817,37 +4817,37 @@
         <v>157</v>
       </c>
       <c r="C42" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H42" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="D42" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>403</v>
-      </c>
       <c r="I42" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J42" s="9" t="s">
         <v>163</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="Q42" s="3"/>
       <c r="R42" s="2"/>
@@ -4860,10 +4860,10 @@
         <v>157</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="Q43" s="3"/>
       <c r="R43" s="2"/>
@@ -4876,13 +4876,13 @@
         <v>157</v>
       </c>
       <c r="C44" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>405</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>407</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>170</v>
@@ -4891,16 +4891,16 @@
         <v>174</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Q44" s="3"/>
       <c r="R44" s="2"/>
@@ -4913,25 +4913,25 @@
         <v>157</v>
       </c>
       <c r="C45" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="F45" s="14" t="s">
         <v>410</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="G45" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="E45" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="F45" s="14" t="s">
+      <c r="H45" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="G45" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>414</v>
-      </c>
       <c r="I45" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q45" s="3"/>
       <c r="R45" s="2"/>
@@ -4944,13 +4944,13 @@
         <v>157</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="Q46" s="3"/>
       <c r="R46" s="2"/>
@@ -4963,37 +4963,37 @@
         <v>157</v>
       </c>
       <c r="C47" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="E47" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="F47" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="G47" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="H47" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="G47" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>422</v>
-      </c>
       <c r="I47" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J47" s="11" t="s">
         <v>185</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="L47" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="Q47" s="3"/>
       <c r="R47" s="2"/>
@@ -5006,13 +5006,13 @@
         <v>157</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="Q48" s="3"/>
       <c r="R48" s="2"/>
@@ -5025,40 +5025,40 @@
         <v>157</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>163</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>171</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L49" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="Q49" s="3"/>
       <c r="R49" s="2"/>
@@ -5071,40 +5071,40 @@
         <v>157</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F50" s="12" t="s">
         <v>163</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K50" s="12" t="s">
         <v>196</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M50" s="14" t="s">
         <v>199</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="2"/>
@@ -5117,43 +5117,43 @@
         <v>157</v>
       </c>
       <c r="C51" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="F51" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="D51" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="E51" s="10" t="s">
+      <c r="G51" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="H51" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="G51" s="14" t="s">
+      <c r="I51" s="12" t="s">
         <v>434</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>436</v>
       </c>
       <c r="J51" s="12" t="s">
         <v>194</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N51" s="7" t="s">
         <v>197</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="2"/>
@@ -5166,25 +5166,25 @@
         <v>157</v>
       </c>
       <c r="C52" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F52" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="D52" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>441</v>
-      </c>
       <c r="G52" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="Q52" s="3"/>
       <c r="R52" s="2"/>
@@ -5197,7 +5197,7 @@
         <v>157</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>161</v>
@@ -5209,13 +5209,13 @@
         <v>185</v>
       </c>
       <c r="G53" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="I53" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="2"/>
@@ -5228,19 +5228,19 @@
         <v>157</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>171</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H54" s="14" t="s">
         <v>164</v>
@@ -5249,10 +5249,10 @@
         <v>185</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="Q54" s="3"/>
       <c r="R54" s="2"/>
@@ -5265,7 +5265,7 @@
         <v>157</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>172</v>
@@ -5274,7 +5274,7 @@
         <v>173</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>170</v>
@@ -5283,10 +5283,10 @@
         <v>177</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="Q55" s="3"/>
       <c r="R55" s="2"/>
@@ -5302,7 +5302,7 @@
         <v>161</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>194</v>
@@ -5321,40 +5321,40 @@
         <v>157</v>
       </c>
       <c r="C57" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="F57" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="H57" s="12" t="s">
         <v>451</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="H57" s="12" t="s">
-        <v>453</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>197</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L57" s="9" t="s">
         <v>164</v>
       </c>
       <c r="M57" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N57" s="9" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="R57" s="2"/>
     </row>
@@ -5366,28 +5366,28 @@
         <v>157</v>
       </c>
       <c r="C58" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="E58" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="F58" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="G58" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="H58" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>179</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="Q58" s="3"/>
       <c r="R58" s="2"/>
@@ -5400,28 +5400,28 @@
         <v>157</v>
       </c>
       <c r="C59" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="E59" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="F59" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="G59" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="F59" s="11" t="s">
+      <c r="H59" s="11" t="s">
         <v>463</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>465</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>196</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="Q59" s="3"/>
       <c r="R59" s="2"/>
@@ -5434,43 +5434,43 @@
         <v>157</v>
       </c>
       <c r="C60" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="E60" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="F60" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="G60" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="H60" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="I60" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="G60" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="H60" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>471</v>
-      </c>
       <c r="J60" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>185</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N60" s="7" t="s">
         <v>161</v>
       </c>
       <c r="O60" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q60" s="3"/>
       <c r="R60" s="2"/>
@@ -5483,40 +5483,40 @@
         <v>157</v>
       </c>
       <c r="C61" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="E61" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="F61" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="G61" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="H61" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="I61" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="J61" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="H61" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="I61" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="J61" s="12" t="s">
-        <v>479</v>
-      </c>
       <c r="K61" s="14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N61" s="12" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="Q61" s="3"/>
       <c r="R61" s="2"/>
@@ -5529,16 +5529,16 @@
         <v>157</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>164</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="Q62" s="3"/>
       <c r="R62" s="2"/>
@@ -5551,31 +5551,31 @@
         <v>157</v>
       </c>
       <c r="C63" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="E63" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="F63" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="E63" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>484</v>
-      </c>
       <c r="G63" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H63" s="12" t="s">
         <v>161</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Q63" s="3"/>
       <c r="R63" s="2"/>
@@ -5591,16 +5591,16 @@
         <v>159</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H64" s="12" t="s">
         <v>164</v>
@@ -5616,16 +5616,16 @@
         <v>157</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>175</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="Q65" s="3"/>
       <c r="R65" s="2"/>
@@ -5638,10 +5638,10 @@
         <v>157</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E66" s="14" t="s">
         <v>193</v>
@@ -5657,40 +5657,40 @@
         <v>157</v>
       </c>
       <c r="C67" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="E67" s="14" t="s">
         <v>489</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="F67" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="G67" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="F67" s="13" t="s">
+      <c r="H67" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="G67" s="12" t="s">
+      <c r="I67" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="J67" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="H67" s="10" t="s">
+      <c r="K67" s="12" t="s">
         <v>494</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="J67" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="K67" s="12" t="s">
-        <v>496</v>
       </c>
       <c r="L67" s="7" t="s">
         <v>196</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="Q67" s="3"/>
       <c r="R67" s="2"/>
@@ -5703,37 +5703,37 @@
         <v>157</v>
       </c>
       <c r="C68" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="E68" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="F68" s="10" t="s">
         <v>500</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>502</v>
       </c>
       <c r="G68" s="11" t="s">
         <v>174</v>
       </c>
       <c r="H68" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="J68" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="I68" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>281</v>
-      </c>
       <c r="K68" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q68" s="3"/>
       <c r="R68" s="2"/>
@@ -5746,43 +5746,43 @@
         <v>157</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D69" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="F69" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="E69" s="14" t="s">
-        <v>504</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>505</v>
-      </c>
       <c r="G69" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H69" s="14" t="s">
         <v>194</v>
       </c>
       <c r="I69" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="K69" s="14" t="s">
         <v>506</v>
       </c>
-      <c r="J69" s="9" t="s">
+      <c r="L69" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M69" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="K69" s="14" t="s">
-        <v>508</v>
-      </c>
-      <c r="L69" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M69" s="7" t="s">
-        <v>509</v>
-      </c>
       <c r="N69" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O69" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q69" s="3"/>
       <c r="R69" s="2"/>
@@ -5795,43 +5795,43 @@
         <v>157</v>
       </c>
       <c r="C70" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="E70" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="D70" s="14" t="s">
-        <v>511</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>512</v>
-      </c>
       <c r="F70" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G70" s="11" t="s">
         <v>185</v>
       </c>
       <c r="H70" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="J70" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="I70" s="9" t="s">
+      <c r="K70" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="M70" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="N70" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="J70" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L70" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M70" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="N70" s="7" t="s">
-        <v>516</v>
-      </c>
       <c r="O70" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q70" s="3"/>
       <c r="R70" s="2"/>
@@ -5847,7 +5847,7 @@
         <v>175</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q71" s="3"/>
       <c r="R71" s="2"/>
@@ -5860,22 +5860,22 @@
         <v>157</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E72" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="F72" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F72" s="7" t="s">
-        <v>281</v>
-      </c>
       <c r="G72" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="Q72" s="3"/>
       <c r="R72" s="2"/>
@@ -5888,34 +5888,34 @@
         <v>157</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>185</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K73" s="10" t="s">
         <v>163</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q73" s="3"/>
       <c r="R73" s="2"/>
@@ -5928,34 +5928,34 @@
         <v>157</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H74" s="9" t="s">
         <v>171</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K74" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L74" s="14" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="Q74" s="3"/>
       <c r="R74" s="2"/>
@@ -5968,52 +5968,52 @@
         <v>157</v>
       </c>
       <c r="C75" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="F75" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="D75" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>525</v>
-      </c>
       <c r="G75" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H75" s="11" t="s">
         <v>171</v>
       </c>
       <c r="I75" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="J75" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="K75" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="M75" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="N75" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="O75" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="J75" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="K75" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="L75" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M75" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="N75" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="O75" s="9" t="s">
-        <v>528</v>
-      </c>
       <c r="P75" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
@@ -6024,40 +6024,40 @@
         <v>157</v>
       </c>
       <c r="C76" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="E76" s="13" t="s">
         <v>529</v>
       </c>
-      <c r="D76" s="14" t="s">
+      <c r="F76" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="E76" s="13" t="s">
+      <c r="G76" s="14" t="s">
         <v>531</v>
-      </c>
-      <c r="F76" s="12" t="s">
-        <v>532</v>
-      </c>
-      <c r="G76" s="14" t="s">
-        <v>533</v>
       </c>
       <c r="H76" s="7" t="s">
         <v>159</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J76" s="12" t="s">
         <v>164</v>
       </c>
       <c r="K76" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L76" s="14" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="M76" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N76" s="9" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="Q76" s="3"/>
       <c r="R76" s="2"/>
@@ -6070,34 +6070,34 @@
         <v>157</v>
       </c>
       <c r="C77" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="E77" s="11" t="s">
         <v>536</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="F77" s="14" t="s">
         <v>537</v>
       </c>
-      <c r="E77" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="F77" s="14" t="s">
-        <v>539</v>
-      </c>
       <c r="G77" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I77" s="12" t="s">
         <v>196</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q77" s="3"/>
       <c r="R77" s="2"/>
@@ -6110,31 +6110,31 @@
         <v>157</v>
       </c>
       <c r="C78" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="E78" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="F78" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="G78" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="H78" s="14" t="s">
         <v>544</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="G78" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="H78" s="14" t="s">
-        <v>546</v>
       </c>
       <c r="I78" s="7" t="s">
         <v>163</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K78" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q78" s="3"/>
       <c r="R78" s="2"/>
@@ -6147,16 +6147,16 @@
         <v>157</v>
       </c>
       <c r="C79" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="E79" s="14" t="s">
         <v>547</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="F79" s="12" t="s">
         <v>548</v>
-      </c>
-      <c r="E79" s="14" t="s">
-        <v>549</v>
-      </c>
-      <c r="F79" s="12" t="s">
-        <v>550</v>
       </c>
       <c r="G79" s="12" t="s">
         <v>183</v>
@@ -6165,22 +6165,22 @@
         <v>185</v>
       </c>
       <c r="I79" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="K79" s="11" t="s">
         <v>551</v>
-      </c>
-      <c r="J79" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="K79" s="11" t="s">
-        <v>553</v>
       </c>
       <c r="L79" s="10" t="s">
         <v>161</v>
       </c>
       <c r="M79" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q79" s="3"/>
       <c r="R79" s="2"/>
@@ -6193,49 +6193,49 @@
         <v>157</v>
       </c>
       <c r="C80" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="E80" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="F80" s="11" t="s">
         <v>555</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="G80" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="F80" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="G80" s="14" t="s">
-        <v>558</v>
-      </c>
       <c r="H80" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I80" s="10" t="s">
         <v>170</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L80" s="8" t="s">
         <v>171</v>
       </c>
       <c r="M80" s="12" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="N80" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="Q80" s="44" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="R80" s="2"/>
     </row>
@@ -6247,28 +6247,28 @@
         <v>157</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D81" s="11" t="s">
         <v>179</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I81" s="11" t="s">
         <v>185</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="Q81" s="3"/>
       <c r="R81" s="2"/>
@@ -6281,40 +6281,40 @@
         <v>157</v>
       </c>
       <c r="C82" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="E82" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="F82" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="E82" s="12" t="s">
+      <c r="G82" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>567</v>
       </c>
       <c r="H82" s="10" t="s">
         <v>163</v>
       </c>
       <c r="I82" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M82" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="N82" s="8" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="Q82" s="3"/>
       <c r="R82" s="2"/>
@@ -6327,31 +6327,31 @@
         <v>157</v>
       </c>
       <c r="C83" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="E83" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="D83" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>571</v>
-      </c>
       <c r="F83" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G83" s="12" t="s">
         <v>194</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K83" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q83" s="3"/>
       <c r="R83" s="2"/>
@@ -6364,34 +6364,34 @@
         <v>157</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>200</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G84" s="10" t="s">
         <v>179</v>
       </c>
       <c r="H84" s="14" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L84" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q84" s="3"/>
       <c r="R84" s="2"/>
@@ -6404,25 +6404,25 @@
         <v>157</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>197</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="Q85" s="3"/>
       <c r="R85" s="2"/>
@@ -6435,16 +6435,16 @@
         <v>157</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>171</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="Q86" s="3"/>
       <c r="R86" s="2"/>
@@ -6457,40 +6457,40 @@
         <v>157</v>
       </c>
       <c r="C87" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="E87" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>582</v>
       </c>
       <c r="F87" s="9" t="s">
         <v>200</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H87" s="11" t="s">
         <v>183</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J87" s="11" t="s">
         <v>169</v>
       </c>
       <c r="K87" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L87" s="12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="M87" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="N87" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Q87" s="3"/>
       <c r="R87" s="2"/>
@@ -6503,25 +6503,25 @@
         <v>157</v>
       </c>
       <c r="C88" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="F88" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="D88" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="E88" s="12" t="s">
+      <c r="G88" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="H88" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="F88" s="14" t="s">
-        <v>586</v>
-      </c>
-      <c r="G88" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="H88" s="11" t="s">
-        <v>587</v>
-      </c>
       <c r="I88" s="7" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="J88" s="7" t="s">
         <v>196</v>
@@ -6537,31 +6537,31 @@
         <v>157</v>
       </c>
       <c r="C89" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="E89" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="D89" s="12" t="s">
+      <c r="F89" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="E89" s="12" t="s">
+      <c r="G89" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="F89" s="11" t="s">
-        <v>591</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>592</v>
-      </c>
       <c r="H89" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I89" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J89" s="7" t="s">
         <v>214</v>
       </c>
       <c r="K89" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q89" s="3"/>
       <c r="R89" s="2"/>
@@ -6574,34 +6574,34 @@
         <v>157</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G90" s="12" t="s">
         <v>193</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I90" s="11" t="s">
         <v>194</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="L90" s="14" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="Q90" s="3"/>
       <c r="R90" s="2"/>
@@ -6614,31 +6614,31 @@
         <v>157</v>
       </c>
       <c r="C91" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="E91" s="14" t="s">
         <v>595</v>
       </c>
-      <c r="D91" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="E91" s="14" t="s">
-        <v>597</v>
-      </c>
       <c r="F91" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H91" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J91" s="10" t="s">
         <v>163</v>
       </c>
       <c r="K91" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q91" s="3"/>
       <c r="R91" s="2"/>
@@ -6651,7 +6651,7 @@
         <v>157</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>174</v>
@@ -6667,37 +6667,37 @@
         <v>157</v>
       </c>
       <c r="C93" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="E93" s="9" t="s">
         <v>599</v>
       </c>
-      <c r="D93" s="14" t="s">
+      <c r="F93" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G93" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="E93" s="9" t="s">
+      <c r="H93" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="I93" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="J93" s="11" t="s">
         <v>601</v>
       </c>
-      <c r="F93" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="I93" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="J93" s="11" t="s">
-        <v>603</v>
-      </c>
       <c r="K93" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M93" s="7" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="Q93" s="3"/>
       <c r="R93" s="2"/>
@@ -6710,37 +6710,37 @@
         <v>157</v>
       </c>
       <c r="C94" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="E94" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="D94" s="11" t="s">
+      <c r="F94" s="14" t="s">
         <v>605</v>
       </c>
-      <c r="E94" s="9" t="s">
+      <c r="G94" s="11" t="s">
         <v>606</v>
       </c>
-      <c r="F94" s="14" t="s">
+      <c r="H94" s="12" t="s">
         <v>607</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>608</v>
-      </c>
-      <c r="H94" s="12" t="s">
-        <v>609</v>
       </c>
       <c r="I94" s="9" t="s">
         <v>171</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K94" s="11" t="s">
         <v>196</v>
       </c>
       <c r="L94" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M94" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q94" s="3"/>
       <c r="R94" s="2"/>
@@ -6753,7 +6753,7 @@
         <v>157</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>161</v>
@@ -6762,10 +6762,10 @@
         <v>185</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="Q95" s="3"/>
       <c r="R95" s="2"/>
@@ -6778,19 +6778,19 @@
         <v>157</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>186</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="Q96" s="3"/>
       <c r="R96" s="2"/>
@@ -6803,19 +6803,19 @@
         <v>157</v>
       </c>
       <c r="C97" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="E97" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="D97" s="12" t="s">
-        <v>614</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>615</v>
-      </c>
       <c r="F97" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="Q97" s="3"/>
       <c r="R97" s="2"/>
@@ -6828,16 +6828,16 @@
         <v>157</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G98" s="11" t="s">
         <v>171</v>
@@ -6856,25 +6856,25 @@
         <v>157</v>
       </c>
       <c r="C99" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>616</v>
+      </c>
+      <c r="E99" s="12" t="s">
         <v>617</v>
       </c>
-      <c r="D99" s="14" t="s">
+      <c r="F99" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="G99" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="E99" s="12" t="s">
-        <v>619</v>
-      </c>
-      <c r="F99" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="G99" s="14" t="s">
-        <v>620</v>
-      </c>
       <c r="H99" s="12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J99" s="14" t="s">
         <v>192</v>
@@ -6883,7 +6883,7 @@
         <v>196</v>
       </c>
       <c r="L99" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q99" s="3"/>
       <c r="R99" s="2"/>
@@ -6896,10 +6896,10 @@
         <v>157</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>198</v>
@@ -6918,20 +6918,20 @@
         <v>157</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q101" s="3"/>
       <c r="R101" s="2"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B102" s="17" t="s">
         <v>157</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q102" s="3"/>
       <c r="R102" s="2"/>
@@ -6944,22 +6944,22 @@
         <v>157</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D103" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="F103" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="E103" s="11" t="s">
+      <c r="G103" s="12" t="s">
         <v>622</v>
       </c>
-      <c r="F103" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="G103" s="12" t="s">
-        <v>624</v>
-      </c>
       <c r="H103" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I103" s="7" t="s">
         <v>212</v>
@@ -6968,7 +6968,7 @@
         <v>194</v>
       </c>
       <c r="K103" s="10" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="L103" s="9" t="s">
         <v>196</v>
@@ -6993,22 +6993,22 @@
         <v>183</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F104" s="12" t="s">
         <v>159</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="Q104" s="3"/>
       <c r="R104" s="2"/>
@@ -7021,43 +7021,43 @@
         <v>157</v>
       </c>
       <c r="C105" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="D105" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="E105" s="12" t="s">
         <v>629</v>
       </c>
-      <c r="D105" s="14" t="s">
+      <c r="F105" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G105" s="12" t="s">
         <v>630</v>
-      </c>
-      <c r="E105" s="12" t="s">
-        <v>631</v>
-      </c>
-      <c r="F105" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="G105" s="12" t="s">
-        <v>632</v>
       </c>
       <c r="H105" s="7" t="s">
         <v>170</v>
       </c>
       <c r="I105" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="K105" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="L105" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="M105" s="9" t="s">
         <v>633</v>
-      </c>
-      <c r="J105" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="K105" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="L105" s="9" t="s">
-        <v>634</v>
-      </c>
-      <c r="M105" s="9" t="s">
-        <v>635</v>
       </c>
       <c r="N105" s="10" t="s">
         <v>175</v>
       </c>
       <c r="O105" s="9" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="Q105" s="3"/>
       <c r="R105" s="2"/>
@@ -7070,19 +7070,19 @@
         <v>157</v>
       </c>
       <c r="C106" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="F106" s="11" t="s">
         <v>636</v>
       </c>
-      <c r="D106" s="14" t="s">
-        <v>637</v>
-      </c>
-      <c r="E106" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="F106" s="11" t="s">
-        <v>638</v>
-      </c>
       <c r="G106" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q106" s="3"/>
       <c r="R106" s="2"/>
@@ -7095,40 +7095,40 @@
         <v>157</v>
       </c>
       <c r="C107" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="E107" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="D107" s="12" t="s">
+      <c r="F107" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="E107" s="10" t="s">
+      <c r="G107" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="H107" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="I107" s="14" t="s">
         <v>642</v>
       </c>
-      <c r="G107" s="10" t="s">
+      <c r="J107" s="14" t="s">
         <v>643</v>
       </c>
-      <c r="H107" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="I107" s="14" t="s">
+      <c r="K107" s="12" t="s">
         <v>644</v>
-      </c>
-      <c r="J107" s="14" t="s">
-        <v>645</v>
-      </c>
-      <c r="K107" s="12" t="s">
-        <v>646</v>
       </c>
       <c r="L107" s="14" t="s">
         <v>194</v>
       </c>
       <c r="M107" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N107" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="Q107" s="3"/>
       <c r="R107" s="2"/>
@@ -7141,10 +7141,10 @@
         <v>157</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q108" s="3"/>
       <c r="R108" s="2"/>
@@ -7157,28 +7157,28 @@
         <v>157</v>
       </c>
       <c r="C109" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="F109" s="11" t="s">
         <v>647</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="G109" s="12" t="s">
         <v>648</v>
       </c>
-      <c r="E109" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="F109" s="11" t="s">
+      <c r="H109" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="I109" s="14" t="s">
         <v>649</v>
       </c>
-      <c r="G109" s="12" t="s">
-        <v>650</v>
-      </c>
-      <c r="H109" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="I109" s="14" t="s">
-        <v>651</v>
-      </c>
       <c r="J109" s="11" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K109" s="9" t="s">
         <v>196</v>
@@ -7200,10 +7200,10 @@
         <v>186</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F110" s="14" t="s">
         <v>185</v>
@@ -7219,16 +7219,16 @@
         <v>157</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="Q111" s="3"/>
       <c r="R111" s="2"/>
@@ -7241,19 +7241,19 @@
         <v>157</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="Q112" s="3"/>
       <c r="R112" s="2"/>
@@ -7266,34 +7266,34 @@
         <v>157</v>
       </c>
       <c r="C113" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>653</v>
+      </c>
+      <c r="E113" s="14" t="s">
         <v>654</v>
       </c>
-      <c r="D113" s="13" t="s">
+      <c r="F113" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="G113" s="14" t="s">
         <v>655</v>
       </c>
-      <c r="E113" s="14" t="s">
+      <c r="H113" s="11" t="s">
         <v>656</v>
       </c>
-      <c r="F113" s="13" t="s">
-        <v>589</v>
-      </c>
-      <c r="G113" s="14" t="s">
+      <c r="I113" s="10" t="s">
         <v>657</v>
       </c>
-      <c r="H113" s="11" t="s">
-        <v>658</v>
-      </c>
-      <c r="I113" s="10" t="s">
-        <v>659</v>
-      </c>
       <c r="J113" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K113" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L113" s="7" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="Q113" s="3"/>
       <c r="R113" s="2"/>
@@ -7306,34 +7306,34 @@
         <v>157</v>
       </c>
       <c r="C114" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="E114" s="10" t="s">
         <v>660</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>661</v>
-      </c>
-      <c r="E114" s="10" t="s">
-        <v>662</v>
       </c>
       <c r="F114" s="11" t="s">
         <v>161</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I114" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J114" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K114" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="Q114" s="3"/>
       <c r="R114" s="2"/>
@@ -7346,25 +7346,25 @@
         <v>157</v>
       </c>
       <c r="C115" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="E115" s="14" t="s">
         <v>664</v>
       </c>
-      <c r="D115" s="12" t="s">
+      <c r="F115" s="7" t="s">
         <v>665</v>
       </c>
-      <c r="E115" s="14" t="s">
-        <v>666</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>667</v>
-      </c>
       <c r="G115" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H115" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I115" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q115" s="3"/>
       <c r="R115" s="2"/>
@@ -7377,34 +7377,34 @@
         <v>157</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D116" s="24" t="s">
         <v>196</v>
       </c>
       <c r="E116" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="G116" s="12" t="s">
         <v>669</v>
       </c>
-      <c r="F116" s="14" t="s">
+      <c r="H116" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="I116" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="J116" s="11" t="s">
         <v>670</v>
       </c>
-      <c r="G116" s="12" t="s">
+      <c r="K116" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="H116" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="I116" s="14" t="s">
-        <v>627</v>
-      </c>
-      <c r="J116" s="11" t="s">
-        <v>672</v>
-      </c>
-      <c r="K116" s="7" t="s">
-        <v>673</v>
-      </c>
       <c r="L116" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q116" s="3"/>
       <c r="R116" s="2"/>
@@ -7420,19 +7420,19 @@
         <v>196</v>
       </c>
       <c r="D117" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="F117" s="12" t="s">
         <v>674</v>
       </c>
-      <c r="E117" s="11" t="s">
+      <c r="G117" s="10" t="s">
         <v>675</v>
       </c>
-      <c r="F117" s="12" t="s">
-        <v>676</v>
-      </c>
-      <c r="G117" s="10" t="s">
-        <v>677</v>
-      </c>
       <c r="H117" s="11" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I117" s="11" t="s">
         <v>198</v>
@@ -7448,34 +7448,34 @@
         <v>157</v>
       </c>
       <c r="C118" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="E118" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="D118" s="12" t="s">
+      <c r="F118" s="11" t="s">
         <v>679</v>
       </c>
-      <c r="E118" s="14" t="s">
+      <c r="G118" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="H118" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="F118" s="11" t="s">
-        <v>681</v>
-      </c>
-      <c r="G118" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="H118" s="6" t="s">
-        <v>682</v>
-      </c>
       <c r="I118" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J118" s="9" t="s">
         <v>163</v>
       </c>
       <c r="K118" s="12" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="L118" s="11" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="M118" s="8" t="s">
         <v>161</v>
@@ -7484,7 +7484,7 @@
         <v>164</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="Q118" s="3"/>
       <c r="R118" s="2"/>
@@ -7497,19 +7497,19 @@
         <v>157</v>
       </c>
       <c r="C119" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="E119" s="12" t="s">
         <v>685</v>
       </c>
-      <c r="D119" s="14" t="s">
+      <c r="F119" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="G119" s="11" t="s">
         <v>686</v>
-      </c>
-      <c r="E119" s="12" t="s">
-        <v>687</v>
-      </c>
-      <c r="F119" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="G119" s="11" t="s">
-        <v>688</v>
       </c>
       <c r="Q119" s="3"/>
       <c r="R119" s="2"/>
@@ -7522,34 +7522,34 @@
         <v>157</v>
       </c>
       <c r="C120" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="F120" s="11" t="s">
         <v>689</v>
-      </c>
-      <c r="D120" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="F120" s="11" t="s">
-        <v>691</v>
       </c>
       <c r="G120" s="14" t="s">
         <v>170</v>
       </c>
       <c r="H120" s="12" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="I120" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J120" s="9" t="s">
         <v>164</v>
       </c>
       <c r="K120" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L120" s="14" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="Q120" s="3"/>
       <c r="R120" s="2"/>
@@ -7562,43 +7562,43 @@
         <v>157</v>
       </c>
       <c r="C121" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="E121" s="14" t="s">
         <v>693</v>
       </c>
-      <c r="D121" s="11" t="s">
+      <c r="F121" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="G121" s="11" t="s">
         <v>694</v>
       </c>
-      <c r="E121" s="14" t="s">
-        <v>695</v>
-      </c>
-      <c r="F121" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="G121" s="11" t="s">
-        <v>696</v>
-      </c>
       <c r="H121" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I121" s="8" t="s">
         <v>171</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K121" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L121" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="M121" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N121" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="Q121" s="3"/>
       <c r="R121" s="2"/>
@@ -7611,22 +7611,22 @@
         <v>157</v>
       </c>
       <c r="C122" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="F122" s="9" t="s">
         <v>697</v>
-      </c>
-      <c r="D122" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>698</v>
-      </c>
-      <c r="F122" s="9" t="s">
-        <v>699</v>
       </c>
       <c r="G122" s="9" t="s">
         <v>196</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="Q122" s="3"/>
       <c r="R122" s="2"/>
@@ -7639,16 +7639,16 @@
         <v>157</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E123" s="12" t="s">
         <v>185</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="Q123" s="3"/>
       <c r="R123" s="2"/>
@@ -7664,13 +7664,13 @@
         <v>158</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G124" s="7" t="s">
         <v>194</v>
@@ -7679,13 +7679,13 @@
         <v>171</v>
       </c>
       <c r="I124" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="K124" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q124" s="3"/>
       <c r="R124" s="2"/>
@@ -7698,16 +7698,16 @@
         <v>157</v>
       </c>
       <c r="C125" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="E125" s="7" t="s">
         <v>703</v>
       </c>
-      <c r="D125" s="13" t="s">
-        <v>704</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>705</v>
-      </c>
       <c r="F125" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q125" s="3"/>
       <c r="R125" s="2"/>
@@ -7720,13 +7720,13 @@
         <v>157</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q126" s="3"/>
       <c r="R126" s="2"/>
@@ -7739,28 +7739,28 @@
         <v>157</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D127" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="E127" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="E127" s="11" t="s">
-        <v>632</v>
-      </c>
       <c r="F127" s="11" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G127" s="7" t="s">
         <v>161</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="I127" s="12" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J127" s="10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="Q127" s="3"/>
       <c r="R127" s="2"/>
@@ -7773,19 +7773,19 @@
         <v>157</v>
       </c>
       <c r="C128" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="F128" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="G128" s="11" t="s">
         <v>709</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>710</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>517</v>
-      </c>
-      <c r="F128" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="G128" s="11" t="s">
-        <v>711</v>
       </c>
       <c r="Q128" s="3"/>
       <c r="R128" s="2"/>
@@ -7798,43 +7798,43 @@
         <v>157</v>
       </c>
       <c r="C129" s="13" t="s">
+        <v>710</v>
+      </c>
+      <c r="D129" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="E129" s="14" t="s">
         <v>712</v>
       </c>
-      <c r="D129" s="14" t="s">
-        <v>713</v>
-      </c>
-      <c r="E129" s="14" t="s">
-        <v>714</v>
-      </c>
       <c r="F129" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H129" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I129" s="12" t="s">
         <v>222</v>
       </c>
       <c r="J129" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K129" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L129" s="7" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="M129" s="7" t="s">
         <v>175</v>
       </c>
       <c r="N129" s="11" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="Q129" s="3"/>
       <c r="R129" s="2"/>
@@ -7847,40 +7847,40 @@
         <v>157</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E130" s="7" t="s">
         <v>161</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I130" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J130" s="14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K130" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L130" s="11" t="s">
         <v>175</v>
       </c>
       <c r="M130" s="12" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="N130" s="9" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="Q130" s="3"/>
       <c r="R130" s="2"/>
@@ -7893,43 +7893,43 @@
         <v>157</v>
       </c>
       <c r="C131" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="E131" s="12" t="s">
         <v>718</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="F131" s="14" t="s">
         <v>719</v>
       </c>
-      <c r="E131" s="12" t="s">
+      <c r="G131" s="12" t="s">
         <v>720</v>
       </c>
-      <c r="F131" s="14" t="s">
+      <c r="H131" s="12" t="s">
         <v>721</v>
       </c>
-      <c r="G131" s="12" t="s">
+      <c r="I131" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="J131" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="K131" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="L131" s="14" t="s">
         <v>722</v>
       </c>
-      <c r="H131" s="12" t="s">
+      <c r="M131" s="14" t="s">
         <v>723</v>
-      </c>
-      <c r="I131" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="J131" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="K131" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="L131" s="14" t="s">
-        <v>724</v>
-      </c>
-      <c r="M131" s="14" t="s">
-        <v>725</v>
       </c>
       <c r="N131" s="9" t="s">
         <v>196</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="Q131" s="3"/>
       <c r="R131" s="2"/>
@@ -7942,22 +7942,22 @@
         <v>157</v>
       </c>
       <c r="C132" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="D132" s="14" t="s">
+        <v>725</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="F132" s="14" t="s">
         <v>726</v>
       </c>
-      <c r="D132" s="14" t="s">
-        <v>727</v>
-      </c>
-      <c r="E132" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="F132" s="14" t="s">
-        <v>728</v>
-      </c>
       <c r="G132" s="12" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q132" s="3"/>
       <c r="R132" s="2"/>
@@ -7970,37 +7970,37 @@
         <v>157</v>
       </c>
       <c r="C133" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="F133" s="14" t="s">
         <v>729</v>
       </c>
-      <c r="D133" s="11" t="s">
-        <v>617</v>
-      </c>
-      <c r="E133" s="12" t="s">
+      <c r="G133" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="H133" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="I133" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J133" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K133" s="12" t="s">
         <v>730</v>
-      </c>
-      <c r="F133" s="14" t="s">
-        <v>731</v>
-      </c>
-      <c r="G133" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="H133" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="I133" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="J133" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="K133" s="12" t="s">
-        <v>732</v>
       </c>
       <c r="L133" s="9" t="s">
         <v>161</v>
       </c>
       <c r="M133" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q133" s="3"/>
       <c r="R133" s="2"/>
@@ -8013,46 +8013,46 @@
         <v>157</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D134" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="E134" s="14" t="s">
+        <v>863</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="H134" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="I134" s="11" t="s">
         <v>733</v>
       </c>
-      <c r="E134" s="14" t="s">
+      <c r="J134" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="K134" s="14" t="s">
         <v>734</v>
-      </c>
-      <c r="F134" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G134" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="H134" s="14" t="s">
-        <v>735</v>
-      </c>
-      <c r="I134" s="11" t="s">
-        <v>736</v>
-      </c>
-      <c r="J134" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="K134" s="14" t="s">
-        <v>737</v>
       </c>
       <c r="L134" s="7" t="s">
         <v>161</v>
       </c>
       <c r="M134" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N134" s="12" t="s">
         <v>164</v>
       </c>
       <c r="O134" s="14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="P134" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="Q134" s="3"/>
       <c r="R134" s="2"/>
@@ -8065,37 +8065,37 @@
         <v>157</v>
       </c>
       <c r="C135" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="D135" s="13" t="s">
+        <v>736</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>737</v>
+      </c>
+      <c r="F135" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="G135" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="H135" s="12" t="s">
         <v>738</v>
       </c>
-      <c r="D135" s="13" t="s">
+      <c r="I135" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="J135" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="K135" s="11" t="s">
         <v>739</v>
       </c>
-      <c r="E135" s="14" t="s">
+      <c r="L135" s="11" t="s">
         <v>740</v>
       </c>
-      <c r="F135" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="G135" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="H135" s="12" t="s">
-        <v>741</v>
-      </c>
-      <c r="I135" s="14" t="s">
-        <v>627</v>
-      </c>
-      <c r="J135" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="K135" s="11" t="s">
-        <v>742</v>
-      </c>
-      <c r="L135" s="11" t="s">
-        <v>743</v>
-      </c>
       <c r="M135" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q135" s="3"/>
       <c r="R135" s="2"/>
@@ -8108,19 +8108,19 @@
         <v>157</v>
       </c>
       <c r="C136" s="14" t="s">
+        <v>741</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="F136" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="G136" s="12" t="s">
         <v>744</v>
-      </c>
-      <c r="D136" s="12" t="s">
-        <v>745</v>
-      </c>
-      <c r="E136" s="11" t="s">
-        <v>746</v>
-      </c>
-      <c r="F136" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="G136" s="12" t="s">
-        <v>747</v>
       </c>
       <c r="Q136" s="3"/>
       <c r="R136" s="2"/>
@@ -8133,19 +8133,19 @@
         <v>157</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q137" s="3"/>
       <c r="R137" s="2"/>
@@ -8158,22 +8158,22 @@
         <v>157</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F138" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="H138" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I138" s="9" t="s">
         <v>197</v>
@@ -8182,7 +8182,7 @@
         <v>179</v>
       </c>
       <c r="K138" s="9" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="L138" s="9" t="s">
         <v>185</v>
@@ -8198,43 +8198,43 @@
         <v>157</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F139" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G139" s="12" t="s">
         <v>194</v>
       </c>
       <c r="H139" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I139" s="9" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="J139" s="12" t="s">
         <v>185</v>
       </c>
       <c r="K139" s="11" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L139" s="11" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="M139" s="11" t="s">
         <v>175</v>
       </c>
       <c r="N139" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O139" s="9" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="Q139" s="3"/>
       <c r="R139" s="2"/>
@@ -8247,40 +8247,40 @@
         <v>157</v>
       </c>
       <c r="C140" s="13" t="s">
+        <v>753</v>
+      </c>
+      <c r="D140" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>755</v>
+      </c>
+      <c r="F140" s="13" t="s">
         <v>756</v>
       </c>
-      <c r="D140" s="13" t="s">
+      <c r="G140" s="14" t="s">
         <v>757</v>
       </c>
-      <c r="E140" s="12" t="s">
+      <c r="H140" s="14" t="s">
         <v>758</v>
       </c>
-      <c r="F140" s="13" t="s">
+      <c r="I140" s="14" t="s">
         <v>759</v>
       </c>
-      <c r="G140" s="14" t="s">
+      <c r="J140" s="11" t="s">
         <v>760</v>
       </c>
-      <c r="H140" s="14" t="s">
-        <v>761</v>
-      </c>
-      <c r="I140" s="14" t="s">
-        <v>762</v>
-      </c>
-      <c r="J140" s="11" t="s">
-        <v>763</v>
-      </c>
       <c r="K140" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L140" s="14" t="s">
         <v>174</v>
       </c>
       <c r="M140" s="11" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="N140" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q140" s="3"/>
       <c r="R140" s="2"/>
@@ -8293,13 +8293,13 @@
         <v>157</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E141" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F141" s="9" t="s">
         <v>179</v>
@@ -8312,13 +8312,13 @@
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B142" s="12" t="s">
         <v>157</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D142" s="17"/>
       <c r="E142" s="17"/>
@@ -8334,31 +8334,31 @@
         <v>157</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H143" s="10" t="s">
         <v>185</v>
       </c>
       <c r="I143" s="12" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="J143" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="Q143" s="3"/>
       <c r="R143" s="2"/>
@@ -8374,7 +8374,7 @@
         <v>199</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="Q144" s="3"/>
       <c r="R144" s="2"/>
@@ -8387,19 +8387,19 @@
         <v>157</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q145" s="3"/>
       <c r="R145" s="2"/>
@@ -8412,37 +8412,37 @@
         <v>157</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E146" s="14" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="H146" s="10" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="I146" s="14" t="s">
         <v>176</v>
       </c>
       <c r="J146" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K146" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L146" s="9" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="Q146" s="3"/>
       <c r="R146" s="2"/>
@@ -8455,28 +8455,28 @@
         <v>157</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D147" s="12" t="s">
+        <v>772</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="F147" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="G147" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="H147" s="9" t="s">
         <v>775</v>
       </c>
-      <c r="E147" s="11" t="s">
-        <v>776</v>
-      </c>
-      <c r="F147" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="G147" s="14" t="s">
-        <v>777</v>
-      </c>
-      <c r="H147" s="9" t="s">
-        <v>778</v>
-      </c>
       <c r="I147" s="7" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="J147" s="9" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="Q147" s="3"/>
       <c r="R147" s="2"/>
@@ -8489,40 +8489,40 @@
         <v>157</v>
       </c>
       <c r="C148" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="D148" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="E148" s="14" t="s">
+        <v>778</v>
+      </c>
+      <c r="F148" s="12" t="s">
         <v>779</v>
       </c>
-      <c r="D148" s="14" t="s">
+      <c r="G148" s="12" t="s">
         <v>780</v>
       </c>
-      <c r="E148" s="14" t="s">
+      <c r="H148" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="F148" s="12" t="s">
+      <c r="I148" s="14" t="s">
         <v>782</v>
-      </c>
-      <c r="G148" s="12" t="s">
-        <v>783</v>
-      </c>
-      <c r="H148" s="9" t="s">
-        <v>784</v>
-      </c>
-      <c r="I148" s="14" t="s">
-        <v>785</v>
       </c>
       <c r="J148" s="11" t="s">
         <v>193</v>
       </c>
       <c r="K148" s="14" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="L148" s="11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="M148" s="11" t="s">
         <v>185</v>
       </c>
       <c r="N148" s="9" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="Q148" s="3"/>
       <c r="R148" s="2"/>
@@ -8535,25 +8535,25 @@
         <v>157</v>
       </c>
       <c r="C149" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="E149" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F149" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="G149" s="11" t="s">
         <v>787</v>
       </c>
-      <c r="D149" s="10" t="s">
+      <c r="H149" s="9" t="s">
         <v>788</v>
       </c>
-      <c r="E149" s="12" t="s">
-        <v>789</v>
-      </c>
-      <c r="F149" s="12" t="s">
-        <v>736</v>
-      </c>
-      <c r="G149" s="11" t="s">
-        <v>790</v>
-      </c>
-      <c r="H149" s="9" t="s">
-        <v>791</v>
-      </c>
       <c r="I149" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q149" s="3"/>
       <c r="R149" s="2"/>
@@ -8566,13 +8566,13 @@
         <v>157</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F150" s="9" t="s">
         <v>171</v>
@@ -8581,10 +8581,10 @@
         <v>174</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="Q150" s="3"/>
       <c r="R150" s="2"/>
@@ -8597,22 +8597,22 @@
         <v>157</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F151" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H151" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q151" s="3"/>
       <c r="R151" s="2"/>
@@ -8625,34 +8625,34 @@
         <v>157</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E152" s="11" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H152" s="14" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="I152" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="K152" s="7" t="s">
         <v>193</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="Q152" s="3"/>
       <c r="R152" s="2"/>
@@ -8665,7 +8665,7 @@
         <v>157</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>185</v>
@@ -8674,28 +8674,28 @@
         <v>161</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G153" s="11" t="s">
         <v>164</v>
       </c>
       <c r="H153" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I153" s="7" t="s">
         <v>186</v>
       </c>
       <c r="J153" s="11" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K153" s="8" t="s">
         <v>175</v>
       </c>
       <c r="L153" s="8" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="M153" s="6" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="Q153" s="3"/>
       <c r="R153" s="2"/>
@@ -8711,10 +8711,10 @@
         <v>175</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Q154" s="3"/>
       <c r="R154" s="2"/>
@@ -8727,22 +8727,22 @@
         <v>157</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F155" s="14" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="G155" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H155" s="13" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="Q155" s="3"/>
       <c r="R155" s="2"/>
@@ -8755,16 +8755,16 @@
         <v>157</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="F156" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q156" s="3"/>
       <c r="R156" s="2"/>
@@ -8777,16 +8777,16 @@
         <v>157</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E157" s="12" t="s">
         <v>194</v>
       </c>
       <c r="F157" s="11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="Q157" s="3"/>
       <c r="R157" s="2"/>
@@ -8799,7 +8799,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D158" s="11" t="s">
         <v>194</v>
@@ -8808,35 +8808,35 @@
         <v>185</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G158" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H158" s="8" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="I158" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J158" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q158" s="3"/>
       <c r="R158" s="2"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B159" s="17" t="s">
         <v>157</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D159" s="17"/>
       <c r="E159" s="17"/>
@@ -8856,28 +8856,28 @@
         <v>157</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G160" s="9" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="H160" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I160" s="12" t="s">
         <v>164</v>
       </c>
       <c r="J160" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K160" s="11" t="s">
         <v>196</v>
@@ -8893,22 +8893,22 @@
         <v>157</v>
       </c>
       <c r="C161" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="D161" s="13" t="s">
+        <v>804</v>
+      </c>
+      <c r="E161" s="12" t="s">
+        <v>805</v>
+      </c>
+      <c r="F161" s="14" t="s">
         <v>806</v>
-      </c>
-      <c r="D161" s="13" t="s">
-        <v>807</v>
-      </c>
-      <c r="E161" s="12" t="s">
-        <v>808</v>
-      </c>
-      <c r="F161" s="14" t="s">
-        <v>809</v>
       </c>
       <c r="G161" s="7" t="s">
         <v>161</v>
       </c>
       <c r="H161" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q161" s="3"/>
       <c r="R161" s="2"/>
@@ -8921,19 +8921,19 @@
         <v>157</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E162" s="9" t="s">
         <v>171</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G162" s="10" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="Q162" s="3"/>
       <c r="R162" s="2"/>
@@ -8946,28 +8946,28 @@
         <v>157</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D163" s="21" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E163" s="23" t="s">
         <v>194</v>
       </c>
       <c r="F163" s="22" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="G163" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H163" s="21" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="I163" s="41" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="J163" s="21" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="K163" s="4"/>
       <c r="L163" s="4"/>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrik\Documents\Angular\tierlistgui\src\assets\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrik\Documents\Privat\Sonstiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="866">
   <si>
     <t>Aatrox</t>
   </si>
@@ -2612,15 +2612,6 @@
     <t>Zeri</t>
   </si>
   <si>
-    <t>Renata Glasc</t>
-  </si>
-  <si>
-    <t>Admiral Glasc</t>
-  </si>
-  <si>
-    <t>Firelight</t>
-  </si>
-  <si>
     <t>FrankenTibbers</t>
   </si>
   <si>
@@ -2628,6 +2619,18 @@
   </si>
   <si>
     <t>El León</t>
+  </si>
+  <si>
+    <t>Orbeeanna</t>
+  </si>
+  <si>
+    <t>Heimerstinger</t>
+  </si>
+  <si>
+    <t>BZZZiggs</t>
+  </si>
+  <si>
+    <t>Nunu &amp; Beelump</t>
   </si>
 </sst>
 </file>
@@ -3278,10 +3281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V163"/>
+  <dimension ref="A1:V162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="C67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L89" sqref="L89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3704,7 +3707,7 @@
         <v>221</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>222</v>
@@ -4353,9 +4356,6 @@
       <c r="I30" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>861</v>
-      </c>
       <c r="Q30" s="3"/>
       <c r="R30" s="2"/>
     </row>
@@ -4749,7 +4749,7 @@
         <v>242</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>224</v>
@@ -4933,6 +4933,9 @@
       <c r="I45" s="12" t="s">
         <v>276</v>
       </c>
+      <c r="J45" s="1" t="s">
+        <v>863</v>
+      </c>
       <c r="Q45" s="3"/>
       <c r="R45" s="2"/>
     </row>
@@ -5420,9 +5423,6 @@
       <c r="I59" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="J59" s="1" t="s">
-        <v>799</v>
-      </c>
       <c r="Q59" s="3"/>
       <c r="R59" s="2"/>
     </row>
@@ -6563,6 +6563,9 @@
       <c r="K89" s="14" t="s">
         <v>255</v>
       </c>
+      <c r="L89" s="1" t="s">
+        <v>865</v>
+      </c>
       <c r="Q89" s="3"/>
       <c r="R89" s="2"/>
     </row>
@@ -6640,6 +6643,9 @@
       <c r="K91" s="11" t="s">
         <v>276</v>
       </c>
+      <c r="L91" s="1" t="s">
+        <v>862</v>
+      </c>
       <c r="Q91" s="3"/>
       <c r="R91" s="2"/>
     </row>
@@ -6789,9 +6795,6 @@
       <c r="F96" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="G96" s="1" t="s">
-        <v>799</v>
-      </c>
       <c r="Q96" s="3"/>
       <c r="R96" s="2"/>
     </row>
@@ -6925,89 +6928,125 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="B102" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>860</v>
+        <v>142</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="G102" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="H102" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="J102" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="K102" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="L102" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="M102" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="N102" s="12" t="s">
+        <v>185</v>
       </c>
       <c r="Q102" s="3"/>
       <c r="R102" s="2"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C103" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>619</v>
+        <v>78</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>624</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="G103" s="12" t="s">
-        <v>622</v>
-      </c>
-      <c r="H103" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="I103" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="J103" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="K103" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="L103" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="M103" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="N103" s="12" t="s">
-        <v>185</v>
+        <v>159</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>829</v>
       </c>
       <c r="Q103" s="3"/>
       <c r="R103" s="2"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>624</v>
-      </c>
-      <c r="E104" s="11" t="s">
-        <v>625</v>
-      </c>
-      <c r="F104" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="G104" s="13" t="s">
-        <v>626</v>
-      </c>
-      <c r="H104" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="I104" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G104" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I104" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="J104" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="K104" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="L104" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="M104" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="N104" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="O104" s="9" t="s">
         <v>829</v>
       </c>
       <c r="Q104" s="3"/>
@@ -7015,175 +7054,148 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C105" s="11" t="s">
-        <v>627</v>
+      <c r="C105" s="12" t="s">
+        <v>634</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>628</v>
-      </c>
-      <c r="E105" s="12" t="s">
-        <v>629</v>
+        <v>635</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>224</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="G105" s="12" t="s">
-        <v>630</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="I105" s="11" t="s">
-        <v>631</v>
-      </c>
-      <c r="J105" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="K105" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="L105" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="M105" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="N105" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="O105" s="9" t="s">
-        <v>829</v>
+        <v>636</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="Q105" s="3"/>
       <c r="R105" s="2"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>634</v>
-      </c>
-      <c r="D106" s="14" t="s">
-        <v>635</v>
+        <v>80</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>638</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="F106" s="11" t="s">
-        <v>636</v>
-      </c>
-      <c r="G106" s="13" t="s">
-        <v>255</v>
+        <v>639</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="G106" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="H106" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="I106" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="J106" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="K106" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="L106" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="M106" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="N106" s="12" t="s">
+        <v>427</v>
       </c>
       <c r="Q106" s="3"/>
       <c r="R106" s="2"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="D107" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="E107" s="10" t="s">
-        <v>639</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="G107" s="10" t="s">
-        <v>641</v>
-      </c>
-      <c r="H107" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="I107" s="14" t="s">
-        <v>642</v>
-      </c>
-      <c r="J107" s="14" t="s">
-        <v>643</v>
-      </c>
-      <c r="K107" s="12" t="s">
-        <v>644</v>
-      </c>
-      <c r="L107" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="M107" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="N107" s="12" t="s">
-        <v>427</v>
+        <v>144</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="D107" s="14" t="s">
+        <v>255</v>
       </c>
       <c r="Q107" s="3"/>
       <c r="R107" s="2"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="D108" s="14" t="s">
-        <v>255</v>
+        <v>81</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="H108" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="I108" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="J108" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="K108" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="L108" s="11" t="s">
+        <v>185</v>
       </c>
       <c r="Q108" s="3"/>
       <c r="R108" s="2"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="B109" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C109" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="E109" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="F109" s="11" t="s">
-        <v>647</v>
-      </c>
-      <c r="G109" s="12" t="s">
-        <v>648</v>
-      </c>
-      <c r="H109" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="I109" s="14" t="s">
-        <v>649</v>
-      </c>
-      <c r="J109" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="K109" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="L109" s="11" t="s">
+      <c r="C109" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F109" s="14" t="s">
         <v>185</v>
       </c>
       <c r="Q109" s="3"/>
@@ -7191,1792 +7203,1770 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B110" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B110" s="7" t="s">
         <v>157</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>186</v>
+        <v>825</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="F110" s="14" t="s">
-        <v>185</v>
+        <v>826</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>836</v>
       </c>
       <c r="Q110" s="3"/>
       <c r="R110" s="2"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>825</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>826</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>827</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>836</v>
+        <v>83</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>443</v>
       </c>
       <c r="Q111" s="3"/>
       <c r="R111" s="2"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="E112" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="F112" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>443</v>
+        <v>84</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>653</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="F112" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="G112" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="I112" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="J112" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="K112" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="L112" s="7" t="s">
+        <v>834</v>
       </c>
       <c r="Q112" s="3"/>
       <c r="R112" s="2"/>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C113" s="13" t="s">
-        <v>652</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>653</v>
-      </c>
-      <c r="E113" s="14" t="s">
-        <v>654</v>
-      </c>
-      <c r="F113" s="13" t="s">
-        <v>587</v>
-      </c>
-      <c r="G113" s="14" t="s">
-        <v>655</v>
-      </c>
-      <c r="H113" s="11" t="s">
-        <v>656</v>
-      </c>
-      <c r="I113" s="10" t="s">
-        <v>657</v>
-      </c>
-      <c r="J113" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="K113" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="L113" s="7" t="s">
-        <v>834</v>
+        <v>85</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="H113" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="J113" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K113" s="12" t="s">
+        <v>344</v>
       </c>
       <c r="Q113" s="3"/>
       <c r="R113" s="2"/>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B114" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B114" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>658</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>659</v>
-      </c>
-      <c r="E114" s="10" t="s">
-        <v>660</v>
-      </c>
-      <c r="F114" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="H114" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="I114" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J114" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="K114" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="L114" s="1" t="s">
-        <v>799</v>
+        <v>662</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="H114" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="I114" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="Q114" s="3"/>
       <c r="R114" s="2"/>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>662</v>
-      </c>
-      <c r="D115" s="12" t="s">
-        <v>663</v>
+        <v>87</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="D115" s="24" t="s">
+        <v>196</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>664</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>665</v>
+        <v>667</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>668</v>
       </c>
       <c r="G115" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="H115" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="I115" s="12" t="s">
-        <v>318</v>
+        <v>669</v>
+      </c>
+      <c r="H115" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="I115" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="J115" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="K115" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="L115" s="11" t="s">
+        <v>269</v>
       </c>
       <c r="Q115" s="3"/>
       <c r="R115" s="2"/>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C116" s="13" t="s">
-        <v>666</v>
-      </c>
-      <c r="D116" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C116" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E116" s="14" t="s">
-        <v>667</v>
-      </c>
-      <c r="F116" s="14" t="s">
-        <v>668</v>
-      </c>
-      <c r="G116" s="12" t="s">
-        <v>669</v>
-      </c>
-      <c r="H116" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="I116" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="J116" s="11" t="s">
-        <v>670</v>
-      </c>
-      <c r="K116" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="L116" s="11" t="s">
-        <v>269</v>
+      <c r="D116" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="G116" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="I116" s="11" t="s">
+        <v>198</v>
       </c>
       <c r="Q116" s="3"/>
       <c r="R116" s="2"/>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>196</v>
+        <v>89</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C117" s="15" t="s">
+        <v>676</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>672</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>673</v>
-      </c>
-      <c r="F117" s="12" t="s">
-        <v>674</v>
-      </c>
-      <c r="G117" s="10" t="s">
-        <v>675</v>
-      </c>
-      <c r="H117" s="11" t="s">
-        <v>538</v>
+        <v>677</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="F117" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="G117" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>680</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>198</v>
+        <v>397</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="K117" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="L117" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="M117" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="N117" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>852</v>
       </c>
       <c r="Q117" s="3"/>
       <c r="R117" s="2"/>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B118" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C118" s="15" t="s">
-        <v>676</v>
-      </c>
-      <c r="D118" s="12" t="s">
-        <v>677</v>
-      </c>
-      <c r="E118" s="14" t="s">
-        <v>678</v>
+        <v>146</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D118" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>685</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>679</v>
+        <v>427</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="H118" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="I118" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="J118" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="K118" s="12" t="s">
-        <v>681</v>
-      </c>
-      <c r="L118" s="11" t="s">
-        <v>682</v>
-      </c>
-      <c r="M118" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="N118" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="O118" s="1" t="s">
-        <v>852</v>
+        <v>686</v>
       </c>
       <c r="Q118" s="3"/>
       <c r="R118" s="2"/>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B119" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B119" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D119" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="E119" s="12" t="s">
-        <v>685</v>
+        <v>687</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>688</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="G119" s="11" t="s">
-        <v>686</v>
+        <v>689</v>
+      </c>
+      <c r="G119" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="H119" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="I119" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K119" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="L119" s="14" t="s">
+        <v>838</v>
       </c>
       <c r="Q119" s="3"/>
       <c r="R119" s="2"/>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C120" s="12" t="s">
-        <v>687</v>
-      </c>
-      <c r="D120" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>688</v>
+        <v>91</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="E120" s="14" t="s">
+        <v>693</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>689</v>
-      </c>
-      <c r="G120" s="14" t="s">
-        <v>170</v>
+        <v>404</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>694</v>
       </c>
       <c r="H120" s="12" t="s">
-        <v>690</v>
-      </c>
-      <c r="I120" s="10" t="s">
-        <v>223</v>
+        <v>279</v>
+      </c>
+      <c r="I120" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="K120" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="L120" s="14" t="s">
-        <v>838</v>
+        <v>343</v>
+      </c>
+      <c r="K120" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="L120" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="M120" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="N120" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="O120" s="1" t="s">
+        <v>852</v>
       </c>
       <c r="Q120" s="3"/>
       <c r="R120" s="2"/>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B121" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B121" s="10" t="s">
         <v>157</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>691</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>692</v>
-      </c>
-      <c r="E121" s="14" t="s">
-        <v>693</v>
-      </c>
-      <c r="F121" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="G121" s="11" t="s">
-        <v>694</v>
-      </c>
-      <c r="H121" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="I121" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="J121" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="K121" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="L121" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="M121" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="N121" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="O121" s="1" t="s">
-        <v>852</v>
+        <v>695</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>698</v>
       </c>
       <c r="Q121" s="3"/>
       <c r="R121" s="2"/>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>695</v>
-      </c>
-      <c r="D122" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>696</v>
-      </c>
-      <c r="F122" s="9" t="s">
-        <v>697</v>
-      </c>
-      <c r="G122" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="H122" s="9" t="s">
-        <v>698</v>
+        <v>92</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>421</v>
       </c>
       <c r="Q122" s="3"/>
       <c r="R122" s="2"/>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B123" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>227</v>
+        <v>93</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>360</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>185</v>
+        <v>699</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>421</v>
+        <v>242</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I123" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="J123" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="K123" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="Q123" s="3"/>
       <c r="R123" s="2"/>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B124" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C124" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D124" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="E124" s="12" t="s">
-        <v>699</v>
-      </c>
-      <c r="F124" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H124" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="I124" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="J124" s="6" t="s">
-        <v>700</v>
-      </c>
-      <c r="K124" s="7" t="s">
-        <v>331</v>
+      <c r="C124" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="Q124" s="3"/>
       <c r="R124" s="2"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>701</v>
-      </c>
-      <c r="D125" s="13" t="s">
-        <v>702</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>282</v>
+        <v>95</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>276</v>
       </c>
       <c r="Q125" s="3"/>
       <c r="R125" s="2"/>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C126" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="E126" s="14" t="s">
-        <v>276</v>
+        <v>96</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="D126" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="F126" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H126" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="I126" s="12" t="s">
+        <v>706</v>
+      </c>
+      <c r="J126" s="10" t="s">
+        <v>700</v>
       </c>
       <c r="Q126" s="3"/>
       <c r="R126" s="2"/>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B127" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C127" s="12" t="s">
-        <v>704</v>
-      </c>
-      <c r="D127" s="14" t="s">
-        <v>628</v>
-      </c>
-      <c r="E127" s="11" t="s">
-        <v>630</v>
-      </c>
-      <c r="F127" s="11" t="s">
-        <v>625</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H127" s="9" t="s">
-        <v>705</v>
-      </c>
-      <c r="I127" s="12" t="s">
-        <v>706</v>
-      </c>
-      <c r="J127" s="10" t="s">
-        <v>700</v>
+      <c r="C127" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="G127" s="11" t="s">
+        <v>709</v>
       </c>
       <c r="Q127" s="3"/>
       <c r="R127" s="2"/>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>708</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>515</v>
+        <v>97</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>710</v>
+      </c>
+      <c r="D128" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>712</v>
       </c>
       <c r="F128" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="G128" s="11" t="s">
-        <v>709</v>
+        <v>243</v>
+      </c>
+      <c r="G128" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="H128" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="I128" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="J128" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="K128" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="L128" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="M128" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="N128" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="O128" s="1" t="s">
+        <v>443</v>
       </c>
       <c r="Q128" s="3"/>
       <c r="R128" s="2"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B129" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C129" s="13" t="s">
-        <v>710</v>
-      </c>
-      <c r="D129" s="14" t="s">
-        <v>711</v>
-      </c>
-      <c r="E129" s="14" t="s">
-        <v>712</v>
+        <v>98</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>243</v>
+        <v>625</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="H129" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="I129" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="J129" s="10" t="s">
-        <v>365</v>
+        <v>293</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="I129" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="J129" s="14" t="s">
+        <v>517</v>
       </c>
       <c r="K129" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="L129" s="7" t="s">
-        <v>713</v>
-      </c>
-      <c r="M129" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L129" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="N129" s="11" t="s">
-        <v>714</v>
-      </c>
-      <c r="O129" s="1" t="s">
-        <v>443</v>
+      <c r="M129" s="12" t="s">
+        <v>831</v>
+      </c>
+      <c r="N129" s="9" t="s">
+        <v>845</v>
       </c>
       <c r="Q129" s="3"/>
       <c r="R129" s="2"/>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>715</v>
+        <v>99</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C130" s="14" t="s">
+        <v>716</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>161</v>
+        <v>717</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>718</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>625</v>
+        <v>719</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="H130" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="I130" s="14" t="s">
-        <v>275</v>
+        <v>720</v>
+      </c>
+      <c r="H130" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>412</v>
       </c>
       <c r="J130" s="14" t="s">
-        <v>517</v>
+        <v>331</v>
       </c>
       <c r="K130" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="L130" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="M130" s="12" t="s">
-        <v>831</v>
+        <v>365</v>
+      </c>
+      <c r="L130" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="M130" s="14" t="s">
+        <v>723</v>
       </c>
       <c r="N130" s="9" t="s">
-        <v>845</v>
+        <v>196</v>
+      </c>
+      <c r="O130" s="1" t="s">
+        <v>443</v>
       </c>
       <c r="Q130" s="3"/>
       <c r="R130" s="2"/>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B131" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B131" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>716</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>717</v>
+        <v>724</v>
+      </c>
+      <c r="D131" s="14" t="s">
+        <v>725</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>718</v>
+        <v>450</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>720</v>
-      </c>
-      <c r="H131" s="12" t="s">
-        <v>721</v>
-      </c>
-      <c r="I131" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="J131" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="K131" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="L131" s="14" t="s">
-        <v>722</v>
-      </c>
-      <c r="M131" s="14" t="s">
-        <v>723</v>
-      </c>
-      <c r="N131" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="O131" s="1" t="s">
-        <v>443</v>
+        <v>538</v>
+      </c>
+      <c r="H131" s="11" t="s">
+        <v>263</v>
       </c>
       <c r="Q131" s="3"/>
       <c r="R131" s="2"/>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B132" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C132" s="14" t="s">
-        <v>724</v>
-      </c>
-      <c r="D132" s="14" t="s">
-        <v>725</v>
+      <c r="C132" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>615</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>450</v>
+        <v>728</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="G132" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="H132" s="11" t="s">
-        <v>263</v>
+        <v>379</v>
+      </c>
+      <c r="H132" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="I132" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J132" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K132" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="L132" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="M132" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="Q132" s="3"/>
       <c r="R132" s="2"/>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C133" s="11" t="s">
-        <v>727</v>
+        <v>102</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>431</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="E133" s="12" t="s">
-        <v>728</v>
-      </c>
-      <c r="F133" s="14" t="s">
-        <v>729</v>
-      </c>
-      <c r="G133" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="H133" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="I133" s="12" t="s">
-        <v>288</v>
+        <v>731</v>
+      </c>
+      <c r="E133" s="14" t="s">
+        <v>860</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="H133" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="I133" s="11" t="s">
+        <v>733</v>
       </c>
       <c r="J133" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="K133" s="12" t="s">
-        <v>730</v>
-      </c>
-      <c r="L133" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="K133" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="L133" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="M133" s="7" t="s">
-        <v>226</v>
+      <c r="M133" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="N133" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="O133" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="P133" s="9" t="s">
+        <v>834</v>
       </c>
       <c r="Q133" s="3"/>
       <c r="R133" s="2"/>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C134" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="D134" s="11" t="s">
-        <v>731</v>
+        <v>103</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="D134" s="13" t="s">
+        <v>736</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>863</v>
-      </c>
-      <c r="F134" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G134" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="H134" s="14" t="s">
-        <v>732</v>
-      </c>
-      <c r="I134" s="11" t="s">
-        <v>733</v>
-      </c>
-      <c r="J134" s="14" t="s">
-        <v>465</v>
-      </c>
-      <c r="K134" s="14" t="s">
-        <v>734</v>
-      </c>
-      <c r="L134" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="M134" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="N134" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="O134" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="P134" s="9" t="s">
-        <v>834</v>
+        <v>737</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="G134" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="H134" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="I134" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="J134" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="K134" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="L134" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="M134" s="12" t="s">
+        <v>263</v>
       </c>
       <c r="Q134" s="3"/>
       <c r="R134" s="2"/>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B135" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C135" s="12" t="s">
-        <v>735</v>
-      </c>
-      <c r="D135" s="13" t="s">
-        <v>736</v>
-      </c>
-      <c r="E135" s="14" t="s">
-        <v>737</v>
-      </c>
-      <c r="F135" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="G135" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="H135" s="12" t="s">
-        <v>738</v>
-      </c>
-      <c r="I135" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="J135" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="K135" s="11" t="s">
-        <v>739</v>
-      </c>
-      <c r="L135" s="11" t="s">
-        <v>740</v>
-      </c>
-      <c r="M135" s="12" t="s">
-        <v>263</v>
+        <v>104</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C135" s="14" t="s">
+        <v>741</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="G135" s="12" t="s">
+        <v>744</v>
       </c>
       <c r="Q135" s="3"/>
       <c r="R135" s="2"/>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C136" s="14" t="s">
-        <v>741</v>
-      </c>
-      <c r="D136" s="12" t="s">
-        <v>742</v>
+        <v>105</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>592</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>743</v>
+        <v>493</v>
       </c>
       <c r="F136" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="G136" s="12" t="s">
-        <v>744</v>
+        <v>235</v>
+      </c>
+      <c r="G136" s="14" t="s">
+        <v>745</v>
       </c>
       <c r="Q136" s="3"/>
       <c r="R136" s="2"/>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C137" s="9" t="s">
-        <v>824</v>
-      </c>
-      <c r="D137" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="E137" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="F137" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="G137" s="14" t="s">
-        <v>745</v>
+      <c r="C137" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F137" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="G137" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="H137" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="I137" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="J137" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="K137" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="L137" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="Q137" s="3"/>
       <c r="R137" s="2"/>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C138" s="12" t="s">
-        <v>746</v>
-      </c>
-      <c r="D138" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="D138" s="13" t="s">
+        <v>750</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="F138" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="G138" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="H138" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="E138" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="F138" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="G138" s="11" t="s">
-        <v>747</v>
-      </c>
-      <c r="H138" s="11" t="s">
-        <v>293</v>
-      </c>
       <c r="I138" s="9" t="s">
-        <v>197</v>
+        <v>751</v>
       </c>
       <c r="J138" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="K138" s="9" t="s">
-        <v>748</v>
-      </c>
-      <c r="L138" s="9" t="s">
         <v>185</v>
+      </c>
+      <c r="K138" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="L138" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="M138" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="N138" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="O138" s="9" t="s">
+        <v>829</v>
       </c>
       <c r="Q138" s="3"/>
       <c r="R138" s="2"/>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B139" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C139" s="11" t="s">
-        <v>749</v>
+        <v>108</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>753</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>750</v>
-      </c>
-      <c r="E139" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="F139" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="G139" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="H139" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="I139" s="9" t="s">
-        <v>751</v>
-      </c>
-      <c r="J139" s="12" t="s">
-        <v>185</v>
+        <v>754</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>755</v>
+      </c>
+      <c r="F139" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="G139" s="14" t="s">
+        <v>757</v>
+      </c>
+      <c r="H139" s="14" t="s">
+        <v>758</v>
+      </c>
+      <c r="I139" s="14" t="s">
+        <v>759</v>
+      </c>
+      <c r="J139" s="11" t="s">
+        <v>760</v>
       </c>
       <c r="K139" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="L139" s="11" t="s">
-        <v>752</v>
+        <v>365</v>
+      </c>
+      <c r="L139" s="14" t="s">
+        <v>174</v>
       </c>
       <c r="M139" s="11" t="s">
-        <v>175</v>
+        <v>761</v>
       </c>
       <c r="N139" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="O139" s="9" t="s">
-        <v>829</v>
+        <v>243</v>
       </c>
       <c r="Q139" s="3"/>
       <c r="R139" s="2"/>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C140" s="13" t="s">
-        <v>753</v>
-      </c>
-      <c r="D140" s="13" t="s">
-        <v>754</v>
-      </c>
-      <c r="E140" s="12" t="s">
-        <v>755</v>
-      </c>
-      <c r="F140" s="13" t="s">
-        <v>756</v>
-      </c>
-      <c r="G140" s="14" t="s">
-        <v>757</v>
-      </c>
-      <c r="H140" s="14" t="s">
-        <v>758</v>
-      </c>
-      <c r="I140" s="14" t="s">
-        <v>759</v>
-      </c>
-      <c r="J140" s="11" t="s">
-        <v>760</v>
-      </c>
-      <c r="K140" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="L140" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="M140" s="11" t="s">
-        <v>761</v>
-      </c>
-      <c r="N140" s="12" t="s">
-        <v>243</v>
+        <v>109</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E140" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G140" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="Q140" s="3"/>
       <c r="R140" s="2"/>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="D141" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E141" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="F141" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G141" s="9" t="s">
-        <v>198</v>
-      </c>
+        <v>840</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="17"/>
       <c r="Q141" s="3"/>
       <c r="R141" s="2"/>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="B142" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C142" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="D142" s="17"/>
-      <c r="E142" s="17"/>
-      <c r="F142" s="17"/>
+        <v>110</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C142" s="14" t="s">
+        <v>762</v>
+      </c>
+      <c r="D142" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="E142" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="F142" s="14" t="s">
+        <v>763</v>
+      </c>
+      <c r="G142" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="H142" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I142" s="12" t="s">
+        <v>764</v>
+      </c>
+      <c r="J142" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>850</v>
+      </c>
       <c r="Q142" s="3"/>
       <c r="R142" s="2"/>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C143" s="14" t="s">
-        <v>762</v>
-      </c>
-      <c r="D143" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="E143" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="F143" s="14" t="s">
-        <v>763</v>
-      </c>
-      <c r="G143" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="H143" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="I143" s="12" t="s">
-        <v>764</v>
-      </c>
-      <c r="J143" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="K143" s="1" t="s">
-        <v>850</v>
+        <v>149</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>839</v>
       </c>
       <c r="Q143" s="3"/>
       <c r="R143" s="2"/>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C144" s="7" t="s">
-        <v>199</v>
+      <c r="C144" s="14" t="s">
+        <v>765</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>839</v>
+        <v>766</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="G144" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="Q144" s="3"/>
       <c r="R144" s="2"/>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C145" s="14" t="s">
-        <v>765</v>
-      </c>
-      <c r="D145" s="12" t="s">
-        <v>766</v>
-      </c>
-      <c r="E145" s="11" t="s">
-        <v>767</v>
-      </c>
-      <c r="F145" s="7" t="s">
-        <v>470</v>
+        <v>150</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="E145" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="F145" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>344</v>
+        <v>770</v>
+      </c>
+      <c r="H145" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="I145" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="J145" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K145" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="L145" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="M145" s="1" t="s">
+        <v>852</v>
       </c>
       <c r="Q145" s="3"/>
       <c r="R145" s="2"/>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B146" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="D146" s="10" t="s">
-        <v>768</v>
-      </c>
-      <c r="E146" s="14" t="s">
-        <v>769</v>
-      </c>
-      <c r="F146" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="G146" s="11" t="s">
-        <v>770</v>
-      </c>
-      <c r="H146" s="10" t="s">
-        <v>751</v>
-      </c>
-      <c r="I146" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="J146" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="K146" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="L146" s="9" t="s">
-        <v>771</v>
-      </c>
-      <c r="M146" s="1" t="s">
-        <v>852</v>
+        <v>112</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>772</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="F146" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="G146" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="H146" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="I146" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="J146" s="9" t="s">
+        <v>848</v>
       </c>
       <c r="Q146" s="3"/>
       <c r="R146" s="2"/>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="D147" s="12" t="s">
-        <v>772</v>
-      </c>
-      <c r="E147" s="11" t="s">
-        <v>773</v>
+        <v>113</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="D147" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="E147" s="14" t="s">
+        <v>778</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="G147" s="14" t="s">
-        <v>774</v>
+        <v>779</v>
+      </c>
+      <c r="G147" s="12" t="s">
+        <v>780</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>775</v>
-      </c>
-      <c r="I147" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="J147" s="9" t="s">
-        <v>848</v>
+        <v>781</v>
+      </c>
+      <c r="I147" s="14" t="s">
+        <v>782</v>
+      </c>
+      <c r="J147" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="K147" s="14" t="s">
+        <v>783</v>
+      </c>
+      <c r="L147" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="M147" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="N147" s="9" t="s">
+        <v>833</v>
       </c>
       <c r="Q147" s="3"/>
       <c r="R147" s="2"/>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C148" s="12" t="s">
-        <v>776</v>
-      </c>
-      <c r="D148" s="14" t="s">
-        <v>777</v>
-      </c>
-      <c r="E148" s="14" t="s">
-        <v>778</v>
+        <v>151</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C148" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>786</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>779</v>
-      </c>
-      <c r="G148" s="12" t="s">
-        <v>780</v>
+        <v>733</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>787</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>781</v>
-      </c>
-      <c r="I148" s="14" t="s">
-        <v>782</v>
-      </c>
-      <c r="J148" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="K148" s="14" t="s">
-        <v>783</v>
-      </c>
-      <c r="L148" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="M148" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="N148" s="9" t="s">
-        <v>833</v>
+        <v>788</v>
+      </c>
+      <c r="I148" s="13" t="s">
+        <v>278</v>
       </c>
       <c r="Q148" s="3"/>
       <c r="R148" s="2"/>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B149" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C149" s="14" t="s">
-        <v>784</v>
-      </c>
-      <c r="D149" s="10" t="s">
-        <v>785</v>
-      </c>
-      <c r="E149" s="12" t="s">
-        <v>786</v>
-      </c>
-      <c r="F149" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="G149" s="11" t="s">
-        <v>787</v>
+        <v>114</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G149" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>788</v>
-      </c>
-      <c r="I149" s="13" t="s">
-        <v>278</v>
+        <v>835</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>857</v>
       </c>
       <c r="Q149" s="3"/>
       <c r="R149" s="2"/>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>789</v>
-      </c>
-      <c r="D150" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="E150" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="F150" s="9" t="s">
-        <v>171</v>
+        <v>115</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>790</v>
+      </c>
+      <c r="D150" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="F150" s="12" t="s">
+        <v>427</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="H150" s="9" t="s">
-        <v>835</v>
-      </c>
-      <c r="I150" s="1" t="s">
-        <v>857</v>
+        <v>293</v>
+      </c>
+      <c r="H150" s="12" t="s">
+        <v>282</v>
       </c>
       <c r="Q150" s="3"/>
       <c r="R150" s="2"/>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B151" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B151" s="7" t="s">
         <v>157</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>790</v>
-      </c>
-      <c r="D151" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="E151" s="12" t="s">
-        <v>622</v>
-      </c>
-      <c r="F151" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="G151" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="H151" s="12" t="s">
-        <v>282</v>
+        <v>370</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>791</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H151" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="I151" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J151" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="K151" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>443</v>
       </c>
       <c r="Q151" s="3"/>
       <c r="R151" s="2"/>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C152" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="D152" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>791</v>
-      </c>
-      <c r="F152" s="9" t="s">
-        <v>792</v>
-      </c>
-      <c r="G152" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="H152" s="14" t="s">
-        <v>554</v>
-      </c>
-      <c r="I152" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="J152" s="6" t="s">
-        <v>793</v>
-      </c>
-      <c r="K152" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L152" s="1" t="s">
-        <v>443</v>
+      <c r="C152" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H152" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="I152" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="J152" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="K152" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="L152" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="M152" s="6" t="s">
+        <v>843</v>
       </c>
       <c r="Q152" s="3"/>
       <c r="R152" s="2"/>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F153" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="G153" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="H153" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="I153" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="J153" s="11" t="s">
-        <v>610</v>
-      </c>
-      <c r="K153" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C153" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="L153" s="8" t="s">
-        <v>842</v>
-      </c>
-      <c r="M153" s="6" t="s">
-        <v>843</v>
+      <c r="D153" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>452</v>
       </c>
       <c r="Q153" s="3"/>
       <c r="R153" s="2"/>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D154" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="E154" s="8" t="s">
-        <v>452</v>
+        <v>118</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>794</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="F154" s="14" t="s">
+        <v>795</v>
+      </c>
+      <c r="G154" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="H154" s="13" t="s">
+        <v>838</v>
       </c>
       <c r="Q154" s="3"/>
       <c r="R154" s="2"/>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B155" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C155" s="11" t="s">
-        <v>794</v>
+        <v>119</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C155" s="12" t="s">
+        <v>796</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="E155" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="F155" s="14" t="s">
-        <v>795</v>
-      </c>
-      <c r="G155" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="H155" s="13" t="s">
-        <v>838</v>
+        <v>232</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="F155" s="10" t="s">
+        <v>331</v>
       </c>
       <c r="Q155" s="3"/>
       <c r="R155" s="2"/>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B156" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>796</v>
-      </c>
-      <c r="D156" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="E156" s="7" t="s">
-        <v>797</v>
-      </c>
-      <c r="F156" s="10" t="s">
-        <v>331</v>
+        <v>798</v>
+      </c>
+      <c r="D156" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F156" s="11" t="s">
+        <v>493</v>
       </c>
       <c r="Q156" s="3"/>
       <c r="R156" s="2"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B157" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C157" s="12" t="s">
-        <v>798</v>
-      </c>
-      <c r="D157" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="E157" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="D157" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="F157" s="11" t="s">
-        <v>493</v>
+      <c r="E157" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="G157" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="H157" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="I157" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="J157" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="Q157" s="3"/>
       <c r="R157" s="2"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>799</v>
-      </c>
-      <c r="D158" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="E158" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="F158" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="G158" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="H158" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="I158" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="J158" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="K158" s="1" t="s">
-        <v>340</v>
-      </c>
+        <v>858</v>
+      </c>
+      <c r="B158" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="D158" s="17"/>
+      <c r="E158" s="17"/>
+      <c r="F158" s="17"/>
+      <c r="G158" s="17"/>
+      <c r="H158" s="17"/>
+      <c r="I158" s="17"/>
+      <c r="J158" s="17"/>
       <c r="Q158" s="3"/>
       <c r="R158" s="2"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="B159" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C159" s="17" t="s">
-        <v>700</v>
-      </c>
-      <c r="D159" s="17"/>
-      <c r="E159" s="17"/>
-      <c r="F159" s="17"/>
-      <c r="G159" s="17"/>
-      <c r="H159" s="17"/>
-      <c r="I159" s="17"/>
-      <c r="J159" s="17"/>
+        <v>121</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C159" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="D159" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="E159" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="F159" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="G159" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="H159" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="I159" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J159" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="K159" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>864</v>
+      </c>
       <c r="Q159" s="3"/>
       <c r="R159" s="2"/>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B160" s="12" t="s">
         <v>157</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>668</v>
-      </c>
-      <c r="D160" s="14" t="s">
-        <v>801</v>
+        <v>803</v>
+      </c>
+      <c r="D160" s="13" t="s">
+        <v>804</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="F160" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="G160" s="9" t="s">
-        <v>802</v>
+        <v>805</v>
+      </c>
+      <c r="F160" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="G160" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="H160" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="I160" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="J160" s="14" t="s">
         <v>268</v>
-      </c>
-      <c r="K160" s="11" t="s">
-        <v>196</v>
       </c>
       <c r="Q160" s="3"/>
       <c r="R160" s="2"/>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="B161" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C161" s="14" t="s">
-        <v>803</v>
-      </c>
-      <c r="D161" s="13" t="s">
-        <v>804</v>
-      </c>
-      <c r="E161" s="12" t="s">
-        <v>805</v>
-      </c>
-      <c r="F161" s="14" t="s">
-        <v>806</v>
-      </c>
-      <c r="G161" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H161" s="12" t="s">
-        <v>268</v>
+      <c r="C161" s="11" t="s">
+        <v>807</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F161" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="G161" s="10" t="s">
+        <v>808</v>
       </c>
       <c r="Q161" s="3"/>
       <c r="R161" s="2"/>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B162" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C162" s="11" t="s">
-        <v>807</v>
-      </c>
-      <c r="D162" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="E162" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F162" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="G162" s="10" t="s">
-        <v>808</v>
-      </c>
-      <c r="Q162" s="3"/>
-      <c r="R162" s="2"/>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A163" s="5" t="s">
+      <c r="A162" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B163" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C163" s="20" t="s">
+      <c r="B162" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C162" s="20" t="s">
         <v>809</v>
       </c>
-      <c r="D163" s="21" t="s">
+      <c r="D162" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="E163" s="23" t="s">
+      <c r="E162" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="F163" s="22" t="s">
+      <c r="F162" s="22" t="s">
         <v>810</v>
       </c>
-      <c r="G163" s="19" t="s">
+      <c r="G162" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="H163" s="21" t="s">
+      <c r="H162" s="21" t="s">
         <v>811</v>
       </c>
-      <c r="I163" s="41" t="s">
+      <c r="I162" s="41" t="s">
         <v>698</v>
       </c>
-      <c r="J163" s="21" t="s">
+      <c r="J162" s="21" t="s">
         <v>834</v>
       </c>
-      <c r="K163" s="4"/>
-      <c r="L163" s="4"/>
-      <c r="M163" s="4"/>
-      <c r="N163" s="4"/>
-      <c r="O163" s="4"/>
-      <c r="P163" s="4"/>
-      <c r="Q163" s="4"/>
-      <c r="R163" s="5"/>
+      <c r="K162" s="4"/>
+      <c r="L162" s="4"/>
+      <c r="M162" s="4"/>
+      <c r="N162" s="4"/>
+      <c r="O162" s="4"/>
+      <c r="P162" s="4"/>
+      <c r="Q162" s="4"/>
+      <c r="R162" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrik\Documents\Privat\Sonstiges\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrik\Documents\Angular\tierlistgui\src\assets\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="872">
   <si>
     <t>Aatrox</t>
   </si>
@@ -2631,6 +2631,24 @@
   </si>
   <si>
     <t>Nunu &amp; Beelump</t>
+  </si>
+  <si>
+    <t>Battle Bunny Prime</t>
+  </si>
+  <si>
+    <t>Battle Cat</t>
+  </si>
+  <si>
+    <t>Battle Bat</t>
+  </si>
+  <si>
+    <t>Battle Wolf</t>
+  </si>
+  <si>
+    <t>Battle Cat Prestige</t>
+  </si>
+  <si>
+    <t>Ashen Knight</t>
   </si>
 </sst>
 </file>
@@ -3283,8 +3301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L89" sqref="L89"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5257,6 +5275,12 @@
       <c r="K54" s="1" t="s">
         <v>850</v>
       </c>
+      <c r="L54" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>870</v>
+      </c>
       <c r="Q54" s="3"/>
       <c r="R54" s="2"/>
     </row>
@@ -6237,7 +6261,9 @@
       <c r="Q80" s="44" t="s">
         <v>318</v>
       </c>
-      <c r="R80" s="2"/>
+      <c r="R80" s="2" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
@@ -6773,6 +6799,9 @@
       <c r="G95" s="9" t="s">
         <v>829</v>
       </c>
+      <c r="H95" s="1" t="s">
+        <v>871</v>
+      </c>
       <c r="Q95" s="3"/>
       <c r="R95" s="2"/>
     </row>
@@ -7049,6 +7078,9 @@
       <c r="O104" s="9" t="s">
         <v>829</v>
       </c>
+      <c r="P104" s="1" t="s">
+        <v>866</v>
+      </c>
       <c r="Q104" s="3"/>
       <c r="R104" s="2"/>
     </row>
@@ -7637,6 +7669,9 @@
       <c r="F122" s="12" t="s">
         <v>421</v>
       </c>
+      <c r="G122" s="1" t="s">
+        <v>869</v>
+      </c>
       <c r="Q122" s="3"/>
       <c r="R122" s="2"/>
     </row>
@@ -8222,6 +8257,9 @@
       </c>
       <c r="O138" s="9" t="s">
         <v>829</v>
+      </c>
+      <c r="P138" s="1" t="s">
+        <v>868</v>
       </c>
       <c r="Q138" s="3"/>
       <c r="R138" s="2"/>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -3301,8 +3301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5423,7 +5423,7 @@
       <c r="A59" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="17" t="s">
         <v>157</v>
       </c>
       <c r="C59" s="12" t="s">

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="872">
   <si>
     <t>Aatrox</t>
   </si>
@@ -3301,8 +3301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J149" sqref="J149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3473,7 +3473,9 @@
       <c r="P6" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="Q6" s="3"/>
+      <c r="Q6" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="R6" s="2"/>
       <c r="U6" s="17"/>
     </row>
@@ -4920,6 +4922,9 @@
       <c r="K44" s="11" t="s">
         <v>407</v>
       </c>
+      <c r="L44" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="Q44" s="3"/>
       <c r="R44" s="2"/>
     </row>
@@ -6877,6 +6882,9 @@
       <c r="H98" s="11" t="s">
         <v>174</v>
       </c>
+      <c r="I98" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="Q98" s="3"/>
       <c r="R98" s="2"/>
     </row>
@@ -7151,6 +7159,9 @@
       </c>
       <c r="N106" s="12" t="s">
         <v>427</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="Q106" s="3"/>
       <c r="R106" s="2"/>
@@ -8610,6 +8621,9 @@
       </c>
       <c r="I149" s="1" t="s">
         <v>857</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="Q149" s="3"/>
       <c r="R149" s="2"/>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="876">
   <si>
     <t>Aatrox</t>
   </si>
@@ -2649,6 +2649,18 @@
   </si>
   <si>
     <t>Ashen Knight</t>
+  </si>
+  <si>
+    <t>Sun-Eater</t>
+  </si>
+  <si>
+    <t>Lunar Eclipse Prestige</t>
+  </si>
+  <si>
+    <t>Gangplank the Betrayer</t>
+  </si>
+  <si>
+    <t>Sea Dog</t>
   </si>
 </sst>
 </file>
@@ -3301,8 +3313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J149" sqref="J149"/>
+    <sheetView tabSelected="1" topLeftCell="E130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N152" sqref="N152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3417,6 +3429,9 @@
       <c r="I5" s="12" t="s">
         <v>164</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>513</v>
+      </c>
       <c r="Q5" s="43"/>
       <c r="R5" s="2"/>
       <c r="S5" s="3"/>
@@ -4700,6 +4715,9 @@
       <c r="L38" s="9" t="s">
         <v>381</v>
       </c>
+      <c r="M38" s="1" t="s">
+        <v>874</v>
+      </c>
       <c r="Q38" s="3"/>
       <c r="R38" s="2"/>
     </row>
@@ -5547,6 +5565,9 @@
       <c r="N61" s="12" t="s">
         <v>838</v>
       </c>
+      <c r="O61" s="1" t="s">
+        <v>872</v>
+      </c>
       <c r="Q61" s="3"/>
       <c r="R61" s="2"/>
     </row>
@@ -7219,6 +7240,9 @@
       <c r="L108" s="11" t="s">
         <v>185</v>
       </c>
+      <c r="M108" s="1" t="s">
+        <v>512</v>
+      </c>
       <c r="Q108" s="3"/>
       <c r="R108" s="2"/>
     </row>
@@ -7241,6 +7265,12 @@
       <c r="F109" s="14" t="s">
         <v>185</v>
       </c>
+      <c r="G109" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>873</v>
+      </c>
       <c r="Q109" s="3"/>
       <c r="R109" s="2"/>
     </row>
@@ -7515,6 +7545,9 @@
       </c>
       <c r="O117" s="1" t="s">
         <v>852</v>
+      </c>
+      <c r="P117" s="1" t="s">
+        <v>512</v>
       </c>
       <c r="Q117" s="3"/>
       <c r="R117" s="2"/>
@@ -8735,6 +8768,9 @@
       </c>
       <c r="M152" s="6" t="s">
         <v>843</v>
+      </c>
+      <c r="N152" s="1" t="s">
+        <v>875</v>
       </c>
       <c r="Q152" s="3"/>
       <c r="R152" s="2"/>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="881">
   <si>
     <t>Aatrox</t>
   </si>
@@ -521,9 +521,6 @@
     <t>Blood Moon</t>
   </si>
   <si>
-    <t>Blood Moon Prestige</t>
-  </si>
-  <si>
     <t>Victorious</t>
   </si>
   <si>
@@ -554,9 +551,6 @@
     <t>K/DA</t>
   </si>
   <si>
-    <t>K/DA Prestige</t>
-  </si>
-  <si>
     <t>Elderwood</t>
   </si>
   <si>
@@ -866,9 +860,6 @@
     <t>Pool Party</t>
   </si>
   <si>
-    <t>Arcade Prestige</t>
-  </si>
-  <si>
     <t>Battle Academia</t>
   </si>
   <si>
@@ -971,9 +962,6 @@
     <t>Battle Queen</t>
   </si>
   <si>
-    <t>Battle Queen Prestige</t>
-  </si>
-  <si>
     <t>Soul Reaver</t>
   </si>
   <si>
@@ -1070,9 +1058,6 @@
     <t>PsyOps</t>
   </si>
   <si>
-    <t>PsyOps Prestige</t>
-  </si>
-  <si>
     <t>Spectral</t>
   </si>
   <si>
@@ -1112,9 +1097,6 @@
     <t>Heartpiercer</t>
   </si>
   <si>
-    <t>Lunar Beast Prestige</t>
-  </si>
-  <si>
     <t>Atlantean</t>
   </si>
   <si>
@@ -1136,9 +1118,6 @@
     <t>Fuzz</t>
   </si>
   <si>
-    <t>Fuzz Prestige</t>
-  </si>
-  <si>
     <t>Little Devil</t>
   </si>
   <si>
@@ -1202,9 +1181,6 @@
     <t>Demacia Vice</t>
   </si>
   <si>
-    <t>Mecha Kingdoms Prestige</t>
-  </si>
-  <si>
     <t>Dino</t>
   </si>
   <si>
@@ -1298,9 +1274,6 @@
     <t>Divine Sword</t>
   </si>
   <si>
-    <t>PROJECT Prestige</t>
-  </si>
-  <si>
     <t>Candy King</t>
   </si>
   <si>
@@ -1343,9 +1316,6 @@
     <t>God Staff</t>
   </si>
   <si>
-    <t>Conqueror Prestige</t>
-  </si>
-  <si>
     <t>Full Metal</t>
   </si>
   <si>
@@ -1376,9 +1346,6 @@
     <t>Bullet Angel</t>
   </si>
   <si>
-    <t>K/DA ALL OUT Prestige</t>
-  </si>
-  <si>
     <t>Sun Goddess</t>
   </si>
   <si>
@@ -1556,9 +1523,6 @@
     <t>Playmaker</t>
   </si>
   <si>
-    <t>Nightbringer Prestige</t>
-  </si>
-  <si>
     <t>Valkyrie</t>
   </si>
   <si>
@@ -1577,27 +1541,18 @@
     <t>Lunar Eclipse</t>
   </si>
   <si>
-    <t>Battle Academia Prestige</t>
-  </si>
-  <si>
     <t>Bloodstone</t>
   </si>
   <si>
     <t>Blade Queen</t>
   </si>
   <si>
-    <t>Pulsefire Prestige</t>
-  </si>
-  <si>
     <t>Bittersweet</t>
   </si>
   <si>
     <t>Cosmic Enchantress</t>
   </si>
   <si>
-    <t>Space Groove Prestige</t>
-  </si>
-  <si>
     <t>Sorceress</t>
   </si>
   <si>
@@ -1634,9 +1589,6 @@
     <t>Ironside</t>
   </si>
   <si>
-    <t>Dark Star Prestige</t>
-  </si>
-  <si>
     <t>Vizier</t>
   </si>
   <si>
@@ -1709,9 +1661,6 @@
     <t>Gun Goddess</t>
   </si>
   <si>
-    <t>Bewitching Prestige</t>
-  </si>
-  <si>
     <t>Dragon Knight</t>
   </si>
   <si>
@@ -1766,9 +1715,6 @@
     <t>Subterranean</t>
   </si>
   <si>
-    <t>Star Guardian Prestige</t>
-  </si>
-  <si>
     <t>Snow Bunny</t>
   </si>
   <si>
@@ -1865,9 +1811,6 @@
     <t>Sand Wraith</t>
   </si>
   <si>
-    <t>True Damage Prestige</t>
-  </si>
-  <si>
     <t>Phoenix</t>
   </si>
   <si>
@@ -1934,9 +1877,6 @@
     <t>Valiant Sword</t>
   </si>
   <si>
-    <t>Valiant Sword Prestige</t>
-  </si>
-  <si>
     <t>Rumble in the Jungle</t>
   </si>
   <si>
@@ -1988,9 +1928,6 @@
     <t>Obsidian Dragon</t>
   </si>
   <si>
-    <t>Obsidian Dragon Prestige</t>
-  </si>
-  <si>
     <t>Mad Hatter</t>
   </si>
   <si>
@@ -2177,9 +2114,6 @@
     <t>Beemo</t>
   </si>
   <si>
-    <t>Spirit Blossom Prestige</t>
-  </si>
-  <si>
     <t>Deep Terror</t>
   </si>
   <si>
@@ -2291,9 +2225,6 @@
     <t>Soulstealer</t>
   </si>
   <si>
-    <t>Firecracker Prestige</t>
-  </si>
-  <si>
     <t>White Mage</t>
   </si>
   <si>
@@ -2459,18 +2390,12 @@
     <t>Cyber Pop</t>
   </si>
   <si>
-    <t>Arcanist Prestige</t>
-  </si>
-  <si>
     <t>Wildfire</t>
   </si>
   <si>
     <t>Dragon Sorceress</t>
   </si>
   <si>
-    <t>Coven Prestige</t>
-  </si>
-  <si>
     <t>Mitleids-SS</t>
   </si>
   <si>
@@ -2525,9 +2450,6 @@
     <t>Sentinel</t>
   </si>
   <si>
-    <t>Ascended Prestige</t>
-  </si>
-  <si>
     <t>Unbound</t>
   </si>
   <si>
@@ -2579,9 +2501,6 @@
     <t>Duality Dragon</t>
   </si>
   <si>
-    <t>Duality Dragon Prestige</t>
-  </si>
-  <si>
     <t>Patch 11.21</t>
   </si>
   <si>
@@ -2594,21 +2513,12 @@
     <t>Cafe Cuties</t>
   </si>
   <si>
-    <t>Debonair Prestige</t>
-  </si>
-  <si>
     <t>Porcelain Protector</t>
   </si>
   <si>
     <t>Porcelain</t>
   </si>
   <si>
-    <t>Porcelain Prestige</t>
-  </si>
-  <si>
-    <t>Brave Phoenix Prestige</t>
-  </si>
-  <si>
     <t>Zeri</t>
   </si>
   <si>
@@ -2645,22 +2555,127 @@
     <t>Battle Wolf</t>
   </si>
   <si>
-    <t>Battle Cat Prestige</t>
-  </si>
-  <si>
     <t>Ashen Knight</t>
   </si>
   <si>
     <t>Sun-Eater</t>
   </si>
   <si>
-    <t>Lunar Eclipse Prestige</t>
-  </si>
-  <si>
     <t>Gangplank the Betrayer</t>
   </si>
   <si>
     <t>Sea Dog</t>
+  </si>
+  <si>
+    <t>Firelight</t>
+  </si>
+  <si>
+    <t>Renata Glasc</t>
+  </si>
+  <si>
+    <t>Admiral Glasc</t>
+  </si>
+  <si>
+    <t>EDG</t>
+  </si>
+  <si>
+    <t>Prestige Blood Moon</t>
+  </si>
+  <si>
+    <t>Prestige K/DA</t>
+  </si>
+  <si>
+    <t>Prestige Debonair</t>
+  </si>
+  <si>
+    <t>Prestige Arcade</t>
+  </si>
+  <si>
+    <t>Prestige Battle Queen</t>
+  </si>
+  <si>
+    <t>Prestige PsyOps</t>
+  </si>
+  <si>
+    <t>Prestige Lunar Beast</t>
+  </si>
+  <si>
+    <t>Prestige Fuzz</t>
+  </si>
+  <si>
+    <t>Prestige Mecha Kingdoms</t>
+  </si>
+  <si>
+    <t>Prestige PROJECT</t>
+  </si>
+  <si>
+    <t>Prestige Conqueror</t>
+  </si>
+  <si>
+    <t>Prestige Battle Cat</t>
+  </si>
+  <si>
+    <t>Prestige K/DA ALL OUT</t>
+  </si>
+  <si>
+    <t>Prestige Nightbringer</t>
+  </si>
+  <si>
+    <t>Prestige Coven</t>
+  </si>
+  <si>
+    <t>Prestige Battle Academia</t>
+  </si>
+  <si>
+    <t>Prestige Pulsefire</t>
+  </si>
+  <si>
+    <t>Prestige Space Groove</t>
+  </si>
+  <si>
+    <t>Prestige Porcelain</t>
+  </si>
+  <si>
+    <t>Prestige Dark Star</t>
+  </si>
+  <si>
+    <t>Prestige Bewitching</t>
+  </si>
+  <si>
+    <t>Prestige Star Guardian</t>
+  </si>
+  <si>
+    <t>Prestige Ascended</t>
+  </si>
+  <si>
+    <t>Prestige True Damage</t>
+  </si>
+  <si>
+    <t>Prestige Valiant Sword</t>
+  </si>
+  <si>
+    <t>Prestige Lunar Eclipse</t>
+  </si>
+  <si>
+    <t>Prestige Obsidian Dragon</t>
+  </si>
+  <si>
+    <t>Prestige High Noon</t>
+  </si>
+  <si>
+    <t>Prestige Spirit Blossom</t>
+  </si>
+  <si>
+    <t>Prestige Firecracker</t>
+  </si>
+  <si>
+    <t>Prestige Duality Dragon</t>
+  </si>
+  <si>
+    <t>Prestige Brave Phoenix</t>
+  </si>
+  <si>
+    <t>Prestige Arcanist</t>
   </si>
 </sst>
 </file>
@@ -3311,10 +3326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V162"/>
+  <dimension ref="A1:V163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N152" sqref="N152"/>
+    <sheetView tabSelected="1" topLeftCell="G44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3329,48 +3344,48 @@
         <v>44500</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>849</v>
+        <v>822</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>828</v>
+        <v>803</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>812</v>
+        <v>787</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>813</v>
+        <v>788</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>814</v>
+        <v>789</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>815</v>
+        <v>790</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>816</v>
+        <v>791</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>817</v>
+        <v>792</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>818</v>
+        <v>793</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>819</v>
+        <v>794</v>
       </c>
       <c r="J2" s="36" t="s">
-        <v>821</v>
+        <v>796</v>
       </c>
       <c r="K2" s="37" t="s">
-        <v>822</v>
+        <v>797</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>823</v>
+        <v>798</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>820</v>
+        <v>795</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -3421,16 +3436,16 @@
         <v>161</v>
       </c>
       <c r="G5" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="I5" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>164</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="Q5" s="43"/>
       <c r="R5" s="2"/>
@@ -3447,49 +3462,49 @@
         <v>157</v>
       </c>
       <c r="C6" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="L6" s="10" t="s">
+        <v>849</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="N6" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="M6" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="N6" s="9" t="s">
+      <c r="O6" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="O6" s="8" t="s">
-        <v>177</v>
-      </c>
       <c r="P6" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="R6" s="2"/>
       <c r="U6" s="17"/>
@@ -3502,46 +3517,46 @@
         <v>157</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="F7" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>181</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>161</v>
       </c>
       <c r="H7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="K7" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="M7" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="N7" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="O7" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>834</v>
+        <v>808</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="2"/>
@@ -3549,16 +3564,16 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>832</v>
+        <v>806</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>698</v>
+        <v>677</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -3583,46 +3598,46 @@
         <v>157</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="F9" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="G9" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="H9" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="J9" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="I9" s="14" t="s">
+      <c r="K9" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="L9" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="M9" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="N9" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="O9" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="P9" s="11" t="s">
         <v>197</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="2"/>
@@ -3636,40 +3651,40 @@
         <v>157</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="F10" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="G10" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="H10" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="I10" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="J10" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="K10" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="M10" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="J10" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>208</v>
-      </c>
       <c r="N10" s="1" t="s">
-        <v>855</v>
+        <v>827</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="2"/>
@@ -3683,34 +3698,34 @@
         <v>157</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="F11" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="I11" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="J11" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="L11" s="6" t="s">
-        <v>837</v>
+        <v>811</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="2"/>
@@ -3724,46 +3739,46 @@
         <v>157</v>
       </c>
       <c r="C12" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="F12" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="G12" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="H12" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="I12" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="K12" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="I12" s="14" t="s">
-        <v>859</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="L12" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M12" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="N12" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>225</v>
-      </c>
       <c r="O12" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>852</v>
+        <v>825</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="2"/>
@@ -3777,10 +3792,13 @@
         <v>157</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>847</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="2"/>
@@ -3794,43 +3812,43 @@
         <v>157</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="F14" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="H14" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="I14" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="L14" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="I14" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="K14" s="9" t="s">
+      <c r="M14" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="N14" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="M14" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>236</v>
-      </c>
       <c r="O14" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="2"/>
@@ -3844,13 +3862,13 @@
         <v>157</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>159</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="2"/>
@@ -3864,19 +3882,19 @@
         <v>157</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>241</v>
-      </c>
       <c r="G16" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="2"/>
@@ -3890,19 +3908,19 @@
         <v>157</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>852</v>
+        <v>825</v>
       </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="2"/>
@@ -3915,43 +3933,43 @@
         <v>157</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="F18" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="G18" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="H18" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="I18" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="J18" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="K18" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="M18" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="N18" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="M18" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="N18" s="14" t="s">
-        <v>255</v>
-      </c>
       <c r="O18" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q18" s="3"/>
       <c r="R18" s="2"/>
@@ -3964,34 +3982,34 @@
         <v>157</v>
       </c>
       <c r="C19" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="F19" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="G19" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="H19" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="J19" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="H19" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>262</v>
-      </c>
       <c r="K19" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="2"/>
@@ -4004,25 +4022,25 @@
         <v>157</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="F20" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="G20" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>268</v>
-      </c>
       <c r="I20" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q20" s="3"/>
       <c r="R20" s="2"/>
@@ -4035,43 +4053,43 @@
         <v>157</v>
       </c>
       <c r="C21" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="F21" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="G21" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="H21" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="I21" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="J21" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="I21" s="14" t="s">
+      <c r="K21" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="L21" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="N21" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>278</v>
-      </c>
       <c r="O21" s="1" t="s">
-        <v>850</v>
+        <v>823</v>
       </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="2"/>
@@ -4084,16 +4102,16 @@
         <v>157</v>
       </c>
       <c r="C22" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>279</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>282</v>
       </c>
       <c r="Q22" s="3"/>
       <c r="R22" s="2"/>
@@ -4106,25 +4124,25 @@
         <v>157</v>
       </c>
       <c r="C23" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="G23" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>287</v>
-      </c>
       <c r="H23" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="2"/>
@@ -4137,28 +4155,28 @@
         <v>157</v>
       </c>
       <c r="C24" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="G24" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="H24" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>293</v>
-      </c>
       <c r="J24" s="9" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="Q24" s="3"/>
       <c r="R24" s="2"/>
@@ -4171,34 +4189,34 @@
         <v>157</v>
       </c>
       <c r="C25" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F25" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="G25" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="H25" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="I25" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="J25" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="K25" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>301</v>
-      </c>
       <c r="L25" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="2"/>
@@ -4211,34 +4229,34 @@
         <v>157</v>
       </c>
       <c r="C26" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="G26" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="H26" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="I26" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>307</v>
-      </c>
       <c r="J26" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>834</v>
+        <v>808</v>
       </c>
       <c r="Q26" s="3"/>
       <c r="R26" s="2"/>
@@ -4251,34 +4269,34 @@
         <v>157</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>161</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>312</v>
+        <v>852</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>829</v>
+        <v>804</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="Q27" s="3"/>
       <c r="R27" s="2"/>
@@ -4291,34 +4309,34 @@
         <v>157</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H28" s="14" t="s">
         <v>126</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="Q28" s="3"/>
       <c r="R28" s="2"/>
@@ -4331,34 +4349,34 @@
         <v>157</v>
       </c>
       <c r="C29" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="H29" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="I29" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="J29" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="K29" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="L29" s="11" t="s">
         <v>323</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="L29" s="11" t="s">
-        <v>327</v>
       </c>
       <c r="Q29" s="3"/>
       <c r="R29" s="2"/>
@@ -4371,25 +4389,28 @@
         <v>157</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>844</v>
       </c>
       <c r="Q30" s="3"/>
       <c r="R30" s="2"/>
@@ -4402,25 +4423,25 @@
         <v>157</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>161</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="Q31" s="3"/>
       <c r="R31" s="2"/>
@@ -4433,34 +4454,34 @@
         <v>157</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>161</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>173</v>
+        <v>849</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q32" s="3"/>
       <c r="R32" s="2"/>
@@ -4473,52 +4494,52 @@
         <v>157</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F33" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="G33" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="I33" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="J33" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="K33" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="N33" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="O33" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="H33" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="I33" s="7" t="s">
+      <c r="P33" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="J33" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="K33" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="M33" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="N33" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="P33" s="11" t="s">
-        <v>344</v>
-      </c>
       <c r="Q33" s="18" t="s">
-        <v>345</v>
+        <v>853</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>854</v>
+        <v>826</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -4529,31 +4550,31 @@
         <v>157</v>
       </c>
       <c r="C34" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="I34" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="J34" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="K34" s="11" t="s">
         <v>348</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>353</v>
       </c>
       <c r="Q34" s="3"/>
       <c r="R34" s="2"/>
@@ -4566,40 +4587,40 @@
         <v>157</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>359</v>
+        <v>854</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q35" s="3"/>
       <c r="R35" s="2"/>
@@ -4612,34 +4633,34 @@
         <v>157</v>
       </c>
       <c r="C36" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="J36" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="K36" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="Q36" s="3"/>
       <c r="R36" s="2"/>
@@ -4652,28 +4673,28 @@
         <v>157</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="Q37" s="3"/>
       <c r="R37" s="2"/>
@@ -4686,37 +4707,37 @@
         <v>157</v>
       </c>
       <c r="C38" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="K38" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="L38" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="D38" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="K38" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="L38" s="9" t="s">
-        <v>381</v>
-      </c>
       <c r="M38" s="1" t="s">
-        <v>874</v>
+        <v>842</v>
       </c>
       <c r="Q38" s="3"/>
       <c r="R38" s="2"/>
@@ -4729,43 +4750,43 @@
         <v>157</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>389</v>
+        <v>856</v>
       </c>
       <c r="O39" s="11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Q39" s="3"/>
       <c r="R39" s="2"/>
@@ -4778,28 +4799,28 @@
         <v>157</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>861</v>
+        <v>831</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q40" s="3"/>
       <c r="R40" s="2"/>
@@ -4812,37 +4833,37 @@
         <v>157</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="Q41" s="3"/>
       <c r="R41" s="2"/>
@@ -4855,37 +4876,40 @@
         <v>157</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>829</v>
+        <v>804</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>847</v>
       </c>
       <c r="Q42" s="3"/>
       <c r="R42" s="2"/>
@@ -4898,10 +4922,10 @@
         <v>157</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>852</v>
+        <v>825</v>
       </c>
       <c r="Q43" s="3"/>
       <c r="R43" s="2"/>
@@ -4914,34 +4938,34 @@
         <v>157</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q44" s="3"/>
       <c r="R44" s="2"/>
@@ -4954,28 +4978,28 @@
         <v>157</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>863</v>
+        <v>833</v>
       </c>
       <c r="Q45" s="3"/>
       <c r="R45" s="2"/>
@@ -4988,13 +5012,13 @@
         <v>157</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="Q46" s="3"/>
       <c r="R46" s="2"/>
@@ -5007,37 +5031,37 @@
         <v>157</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>421</v>
+        <v>857</v>
       </c>
       <c r="L47" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>829</v>
+        <v>804</v>
       </c>
       <c r="Q47" s="3"/>
       <c r="R47" s="2"/>
@@ -5050,13 +5074,13 @@
         <v>157</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>833</v>
+        <v>807</v>
       </c>
       <c r="Q48" s="3"/>
       <c r="R48" s="2"/>
@@ -5069,40 +5093,40 @@
         <v>157</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L49" s="11" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>698</v>
+        <v>677</v>
       </c>
       <c r="Q49" s="3"/>
       <c r="R49" s="2"/>
@@ -5115,40 +5139,40 @@
         <v>157</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>841</v>
+        <v>815</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="2"/>
@@ -5161,43 +5185,43 @@
         <v>157</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>436</v>
+        <v>858</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="2"/>
@@ -5210,25 +5234,25 @@
         <v>157</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>850</v>
+        <v>823</v>
       </c>
       <c r="Q52" s="3"/>
       <c r="R52" s="2"/>
@@ -5241,25 +5265,25 @@
         <v>157</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>161</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="2"/>
@@ -5272,37 +5296,37 @@
         <v>157</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>850</v>
+        <v>823</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>867</v>
+        <v>837</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="Q54" s="3"/>
       <c r="R54" s="2"/>
@@ -5315,28 +5339,28 @@
         <v>157</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>173</v>
+        <v>849</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>447</v>
+        <v>860</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>844</v>
+        <v>818</v>
       </c>
       <c r="Q55" s="3"/>
       <c r="R55" s="2"/>
@@ -5352,13 +5376,13 @@
         <v>161</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Q56" s="3"/>
       <c r="R56" s="2"/>
@@ -5371,40 +5395,40 @@
         <v>157</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M57" s="17" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="N57" s="9" t="s">
-        <v>846</v>
+        <v>820</v>
       </c>
       <c r="R57" s="2"/>
     </row>
@@ -5416,28 +5440,28 @@
         <v>157</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>838</v>
+        <v>812</v>
       </c>
       <c r="Q58" s="3"/>
       <c r="R58" s="2"/>
@@ -5450,25 +5474,28 @@
         <v>157</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>776</v>
       </c>
       <c r="Q59" s="3"/>
       <c r="R59" s="2"/>
@@ -5481,43 +5508,46 @@
         <v>157</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="N60" s="7" t="s">
         <v>161</v>
       </c>
       <c r="O60" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="Q60" s="3"/>
       <c r="R60" s="2"/>
@@ -5530,43 +5560,43 @@
         <v>157</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N61" s="12" t="s">
-        <v>838</v>
+        <v>812</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>872</v>
+        <v>841</v>
       </c>
       <c r="Q61" s="3"/>
       <c r="R61" s="2"/>
@@ -5579,16 +5609,16 @@
         <v>157</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>507</v>
+        <v>861</v>
       </c>
       <c r="Q62" s="3"/>
       <c r="R62" s="2"/>
@@ -5601,31 +5631,31 @@
         <v>157</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="H63" s="12" t="s">
         <v>161</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="Q63" s="3"/>
       <c r="R63" s="2"/>
@@ -5641,19 +5671,19 @@
         <v>159</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q64" s="3"/>
       <c r="R64" s="2"/>
@@ -5666,16 +5696,16 @@
         <v>157</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>855</v>
+        <v>827</v>
       </c>
       <c r="Q65" s="3"/>
       <c r="R65" s="2"/>
@@ -5688,13 +5718,13 @@
         <v>157</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Q66" s="3"/>
       <c r="R66" s="2"/>
@@ -5707,40 +5737,40 @@
         <v>157</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="Q67" s="3"/>
       <c r="R67" s="2"/>
@@ -5753,37 +5783,37 @@
         <v>157</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K68" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>811</v>
+        <v>862</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="Q68" s="3"/>
       <c r="R68" s="2"/>
@@ -5796,43 +5826,43 @@
         <v>157</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="K69" s="14" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>507</v>
+        <v>861</v>
       </c>
       <c r="N69" s="12" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="O69" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Q69" s="3"/>
       <c r="R69" s="2"/>
@@ -5845,43 +5875,46 @@
         <v>157</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M70" s="12" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>514</v>
+        <v>863</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="Q70" s="3"/>
       <c r="R70" s="2"/>
@@ -5894,10 +5927,10 @@
         <v>157</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q71" s="3"/>
       <c r="R71" s="2"/>
@@ -5910,22 +5943,22 @@
         <v>157</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>855</v>
+        <v>827</v>
       </c>
       <c r="Q72" s="3"/>
       <c r="R72" s="2"/>
@@ -5938,34 +5971,34 @@
         <v>157</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>517</v>
+        <v>864</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q73" s="3"/>
       <c r="R73" s="2"/>
@@ -5978,34 +6011,34 @@
         <v>157</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="K74" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L74" s="14" t="s">
-        <v>520</v>
+        <v>865</v>
       </c>
       <c r="Q74" s="3"/>
       <c r="R74" s="2"/>
@@ -6018,52 +6051,52 @@
         <v>157</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="K75" s="14" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>514</v>
+        <v>863</v>
       </c>
       <c r="N75" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="P75" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>855</v>
+        <v>827</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
@@ -6074,40 +6107,40 @@
         <v>157</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="H76" s="7" t="s">
         <v>159</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K76" s="14" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L76" s="14" t="s">
-        <v>533</v>
+        <v>867</v>
       </c>
       <c r="M76" s="14" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="N76" s="9" t="s">
-        <v>833</v>
+        <v>807</v>
       </c>
       <c r="Q76" s="3"/>
       <c r="R76" s="2"/>
@@ -6120,34 +6153,34 @@
         <v>157</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="Q77" s="3"/>
       <c r="R77" s="2"/>
@@ -6160,31 +6193,31 @@
         <v>157</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="K78" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Q78" s="3"/>
       <c r="R78" s="2"/>
@@ -6197,40 +6230,40 @@
         <v>157</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="G79" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="H79" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="H79" s="11" t="s">
-        <v>185</v>
-      </c>
       <c r="I79" s="9" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="K79" s="11" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="L79" s="10" t="s">
         <v>161</v>
       </c>
       <c r="M79" s="11" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="Q79" s="3"/>
       <c r="R79" s="2"/>
@@ -6243,52 +6276,52 @@
         <v>157</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I80" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K80" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="L80" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="J80" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K80" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="L80" s="8" t="s">
-        <v>171</v>
-      </c>
       <c r="M80" s="12" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="N80" s="9" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>558</v>
+        <v>868</v>
       </c>
       <c r="Q80" s="44" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="R80" s="2" t="s">
-        <v>629</v>
+        <v>610</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
@@ -6299,28 +6332,31 @@
         <v>157</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>838</v>
+        <v>812</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="Q81" s="3"/>
       <c r="R81" s="2"/>
@@ -6333,40 +6369,40 @@
         <v>157</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I82" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M82" s="8" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="N82" s="8" t="s">
-        <v>558</v>
+        <v>868</v>
       </c>
       <c r="Q82" s="3"/>
       <c r="R82" s="2"/>
@@ -6379,31 +6415,31 @@
         <v>157</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="K83" s="11" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q83" s="3"/>
       <c r="R83" s="2"/>
@@ -6416,34 +6452,34 @@
         <v>157</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H84" s="14" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="L84" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Q84" s="3"/>
       <c r="R84" s="2"/>
@@ -6456,25 +6492,25 @@
         <v>157</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>851</v>
+        <v>824</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="Q85" s="3"/>
       <c r="R85" s="2"/>
@@ -6487,16 +6523,16 @@
         <v>157</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>577</v>
+        <v>869</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="Q86" s="3"/>
       <c r="R86" s="2"/>
@@ -6509,40 +6545,40 @@
         <v>157</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J87" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K87" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L87" s="12" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="M87" s="9" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="N87" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="Q87" s="3"/>
       <c r="R87" s="2"/>
@@ -6555,28 +6591,28 @@
         <v>157</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>833</v>
+        <v>807</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Q88" s="3"/>
       <c r="R88" s="2"/>
@@ -6589,34 +6625,34 @@
         <v>157</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I89" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K89" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>865</v>
+        <v>835</v>
       </c>
       <c r="Q89" s="3"/>
       <c r="R89" s="2"/>
@@ -6629,34 +6665,34 @@
         <v>157</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>829</v>
+        <v>804</v>
       </c>
       <c r="L90" s="14" t="s">
-        <v>838</v>
+        <v>812</v>
       </c>
       <c r="Q90" s="3"/>
       <c r="R90" s="2"/>
@@ -6669,34 +6705,34 @@
         <v>157</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="H91" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K91" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>862</v>
+        <v>832</v>
       </c>
       <c r="Q91" s="3"/>
       <c r="R91" s="2"/>
@@ -6709,10 +6745,10 @@
         <v>157</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q92" s="3"/>
       <c r="R92" s="2"/>
@@ -6725,37 +6761,37 @@
         <v>157</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I93" s="14" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="J93" s="11" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M93" s="7" t="s">
-        <v>830</v>
+        <v>870</v>
       </c>
       <c r="Q93" s="3"/>
       <c r="R93" s="2"/>
@@ -6768,37 +6804,37 @@
         <v>157</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="K94" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L94" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M94" s="11" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q94" s="3"/>
       <c r="R94" s="2"/>
@@ -6811,22 +6847,22 @@
         <v>157</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>161</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>829</v>
+        <v>804</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>871</v>
+        <v>840</v>
       </c>
       <c r="Q95" s="3"/>
       <c r="R95" s="2"/>
@@ -6839,16 +6875,19 @@
         <v>157</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>610</v>
+        <v>871</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>311</v>
+        <v>308</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>776</v>
       </c>
       <c r="Q96" s="3"/>
       <c r="R96" s="2"/>
@@ -6861,19 +6900,19 @@
         <v>157</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>612</v>
+        <v>593</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>613</v>
+        <v>594</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="Q97" s="3"/>
       <c r="R97" s="2"/>
@@ -6886,25 +6925,25 @@
         <v>157</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>614</v>
+        <v>595</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q98" s="3"/>
       <c r="R98" s="2"/>
@@ -6917,34 +6956,34 @@
         <v>157</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>617</v>
+        <v>598</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="J99" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L99" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Q99" s="3"/>
       <c r="R99" s="2"/>
@@ -6957,16 +6996,16 @@
         <v>157</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q100" s="3"/>
       <c r="R100" s="2"/>
@@ -6979,2082 +7018,2116 @@
         <v>157</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q101" s="3"/>
       <c r="R101" s="2"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>619</v>
-      </c>
-      <c r="E102" s="11" t="s">
-        <v>620</v>
-      </c>
-      <c r="F102" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="G102" s="12" t="s">
-        <v>622</v>
-      </c>
-      <c r="H102" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="I102" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="J102" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="K102" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="L102" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="M102" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="N102" s="12" t="s">
-        <v>185</v>
+        <v>845</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>846</v>
       </c>
       <c r="Q102" s="3"/>
       <c r="R102" s="2"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C103" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="G103" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="H103" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="J103" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="K103" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="L103" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="M103" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="N103" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>624</v>
-      </c>
-      <c r="E103" s="11" t="s">
-        <v>625</v>
-      </c>
-      <c r="F103" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="G103" s="13" t="s">
-        <v>626</v>
-      </c>
-      <c r="H103" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="I103" s="9" t="s">
-        <v>829</v>
       </c>
       <c r="Q103" s="3"/>
       <c r="R103" s="2"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="D104" s="14" t="s">
-        <v>628</v>
-      </c>
-      <c r="E104" s="12" t="s">
-        <v>629</v>
-      </c>
-      <c r="F104" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="G104" s="12" t="s">
-        <v>630</v>
-      </c>
-      <c r="H104" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="I104" s="11" t="s">
-        <v>631</v>
-      </c>
-      <c r="J104" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="K104" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="L104" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="M104" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="N104" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="O104" s="9" t="s">
-        <v>829</v>
-      </c>
-      <c r="P104" s="1" t="s">
-        <v>866</v>
+        <v>78</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="I104" s="9" t="s">
+        <v>804</v>
       </c>
       <c r="Q104" s="3"/>
       <c r="R104" s="2"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C105" s="12" t="s">
-        <v>634</v>
+      <c r="C105" s="11" t="s">
+        <v>608</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="E105" s="10" t="s">
-        <v>224</v>
+        <v>609</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>610</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>636</v>
-      </c>
-      <c r="G105" s="13" t="s">
-        <v>255</v>
+        <v>231</v>
+      </c>
+      <c r="G105" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="I105" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="K105" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="L105" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="M105" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="N105" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="O105" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="P105" s="1" t="s">
+        <v>836</v>
       </c>
       <c r="Q105" s="3"/>
       <c r="R105" s="2"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="D106" s="12" t="s">
-        <v>638</v>
+        <v>143</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>615</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>639</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="G106" s="10" t="s">
-        <v>641</v>
-      </c>
-      <c r="H106" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="I106" s="14" t="s">
-        <v>642</v>
-      </c>
-      <c r="J106" s="14" t="s">
-        <v>643</v>
-      </c>
-      <c r="K106" s="12" t="s">
-        <v>644</v>
-      </c>
-      <c r="L106" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="M106" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="N106" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="O106" s="1" t="s">
-        <v>282</v>
+        <v>222</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>253</v>
       </c>
       <c r="Q106" s="3"/>
       <c r="R106" s="2"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="D107" s="14" t="s">
-        <v>255</v>
+        <v>80</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="G107" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="H107" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="I107" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="J107" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="K107" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="L107" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="M107" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="N107" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="Q107" s="3"/>
       <c r="R107" s="2"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="E108" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="F108" s="11" t="s">
-        <v>647</v>
-      </c>
-      <c r="G108" s="12" t="s">
-        <v>648</v>
-      </c>
-      <c r="H108" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="I108" s="14" t="s">
-        <v>649</v>
-      </c>
-      <c r="J108" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="K108" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="L108" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="M108" s="1" t="s">
-        <v>512</v>
+        <v>144</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>253</v>
       </c>
       <c r="Q108" s="3"/>
       <c r="R108" s="2"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="B109" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C109" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="D109" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="F109" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>873</v>
+      <c r="C109" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="H109" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="I109" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="J109" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="K109" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="L109" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>500</v>
       </c>
       <c r="Q109" s="3"/>
       <c r="R109" s="2"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B110" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B110" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>825</v>
+        <v>184</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>826</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>827</v>
-      </c>
-      <c r="F110" s="11" t="s">
-        <v>836</v>
+        <v>871</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="F110" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>873</v>
       </c>
       <c r="Q110" s="3"/>
       <c r="R110" s="2"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="F111" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>443</v>
+        <v>82</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>810</v>
       </c>
       <c r="Q111" s="3"/>
       <c r="R111" s="2"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C112" s="13" t="s">
-        <v>652</v>
-      </c>
-      <c r="D112" s="13" t="s">
-        <v>653</v>
-      </c>
-      <c r="E112" s="14" t="s">
-        <v>654</v>
-      </c>
-      <c r="F112" s="13" t="s">
-        <v>587</v>
-      </c>
-      <c r="G112" s="14" t="s">
-        <v>655</v>
-      </c>
-      <c r="H112" s="11" t="s">
-        <v>656</v>
-      </c>
-      <c r="I112" s="10" t="s">
-        <v>657</v>
-      </c>
-      <c r="J112" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="K112" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="L112" s="7" t="s">
-        <v>834</v>
+        <v>83</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="Q112" s="3"/>
       <c r="R112" s="2"/>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>658</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>659</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>660</v>
-      </c>
-      <c r="F113" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="H113" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="I113" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J113" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="K113" s="12" t="s">
-        <v>344</v>
+        <v>84</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>632</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>569</v>
+      </c>
+      <c r="G113" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="H113" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="I113" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="J113" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="K113" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="L113" s="7" t="s">
+        <v>808</v>
       </c>
       <c r="Q113" s="3"/>
       <c r="R113" s="2"/>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B114" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B114" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>662</v>
-      </c>
-      <c r="D114" s="12" t="s">
-        <v>663</v>
-      </c>
-      <c r="E114" s="14" t="s">
-        <v>664</v>
-      </c>
-      <c r="F114" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="G114" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="H114" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="I114" s="12" t="s">
-        <v>318</v>
+        <v>637</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="H114" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="I114" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="J114" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K114" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>776</v>
       </c>
       <c r="Q114" s="3"/>
       <c r="R114" s="2"/>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C115" s="13" t="s">
-        <v>666</v>
-      </c>
-      <c r="D115" s="24" t="s">
-        <v>196</v>
+        <v>86</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>642</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>667</v>
-      </c>
-      <c r="F115" s="14" t="s">
-        <v>668</v>
+        <v>643</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>644</v>
       </c>
       <c r="G115" s="12" t="s">
-        <v>669</v>
-      </c>
-      <c r="H115" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="I115" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="J115" s="11" t="s">
-        <v>670</v>
-      </c>
-      <c r="K115" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="L115" s="11" t="s">
-        <v>269</v>
+        <v>231</v>
+      </c>
+      <c r="H115" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="I115" s="12" t="s">
+        <v>314</v>
       </c>
       <c r="Q115" s="3"/>
       <c r="R115" s="2"/>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C116" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>672</v>
-      </c>
-      <c r="E116" s="11" t="s">
-        <v>673</v>
-      </c>
-      <c r="F116" s="12" t="s">
-        <v>674</v>
-      </c>
-      <c r="G116" s="10" t="s">
-        <v>675</v>
-      </c>
-      <c r="H116" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="I116" s="11" t="s">
-        <v>198</v>
+        <v>87</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="D116" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>646</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="H116" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="I116" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="J116" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="K116" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="L116" s="11" t="s">
+        <v>267</v>
       </c>
       <c r="Q116" s="3"/>
       <c r="R116" s="2"/>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>676</v>
+        <v>88</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>677</v>
-      </c>
-      <c r="E117" s="14" t="s">
-        <v>678</v>
-      </c>
-      <c r="F117" s="11" t="s">
-        <v>679</v>
-      </c>
-      <c r="G117" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="H117" s="6" t="s">
-        <v>680</v>
+        <v>651</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="G117" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="H117" s="11" t="s">
+        <v>522</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="J117" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="K117" s="12" t="s">
-        <v>681</v>
-      </c>
-      <c r="L117" s="11" t="s">
-        <v>682</v>
-      </c>
-      <c r="M117" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="N117" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="O117" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="P117" s="1" t="s">
-        <v>512</v>
+        <v>196</v>
       </c>
       <c r="Q117" s="3"/>
       <c r="R117" s="2"/>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D118" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="E118" s="12" t="s">
-        <v>685</v>
+        <v>89</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>657</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>427</v>
+        <v>658</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>686</v>
+        <v>422</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="I118" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="J118" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K118" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="L118" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="M118" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="N118" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="P118" s="1" t="s">
+        <v>500</v>
       </c>
       <c r="Q118" s="3"/>
       <c r="R118" s="2"/>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B119" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B119" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>687</v>
-      </c>
-      <c r="D119" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="E119" s="7" t="s">
-        <v>688</v>
+        <v>662</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>664</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>689</v>
-      </c>
-      <c r="G119" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="H119" s="12" t="s">
-        <v>690</v>
-      </c>
-      <c r="I119" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="J119" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="K119" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="L119" s="14" t="s">
-        <v>838</v>
+        <v>418</v>
+      </c>
+      <c r="G119" s="11" t="s">
+        <v>665</v>
       </c>
       <c r="Q119" s="3"/>
       <c r="R119" s="2"/>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B120" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>691</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>692</v>
-      </c>
-      <c r="E120" s="14" t="s">
-        <v>693</v>
+        <v>90</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>667</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="G120" s="11" t="s">
-        <v>694</v>
+        <v>668</v>
+      </c>
+      <c r="G120" s="14" t="s">
+        <v>169</v>
       </c>
       <c r="H120" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="I120" s="8" t="s">
-        <v>171</v>
+        <v>669</v>
+      </c>
+      <c r="I120" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="K120" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="L120" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="M120" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="N120" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="O120" s="1" t="s">
-        <v>852</v>
+        <v>163</v>
+      </c>
+      <c r="K120" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="L120" s="14" t="s">
+        <v>812</v>
       </c>
       <c r="Q120" s="3"/>
       <c r="R120" s="2"/>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B121" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B121" s="12" t="s">
         <v>157</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>695</v>
-      </c>
-      <c r="D121" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="E121" s="9" t="s">
-        <v>696</v>
-      </c>
-      <c r="F121" s="9" t="s">
-        <v>697</v>
-      </c>
-      <c r="G121" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="H121" s="9" t="s">
-        <v>698</v>
+        <v>670</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="E121" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="H121" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="I121" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="J121" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="K121" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="L121" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="M121" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="N121" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="O121" s="1" t="s">
+        <v>825</v>
       </c>
       <c r="Q121" s="3"/>
       <c r="R121" s="2"/>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B122" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="E122" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="F122" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>869</v>
+        <v>147</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="G122" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>677</v>
       </c>
       <c r="Q122" s="3"/>
       <c r="R122" s="2"/>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C123" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>360</v>
+        <v>92</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>699</v>
+        <v>183</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H123" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="I123" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="J123" s="6" t="s">
-        <v>700</v>
-      </c>
-      <c r="K123" s="7" t="s">
-        <v>331</v>
+        <v>857</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>839</v>
       </c>
       <c r="Q123" s="3"/>
       <c r="R123" s="2"/>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B124" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C124" s="10" t="s">
-        <v>701</v>
-      </c>
-      <c r="D124" s="13" t="s">
-        <v>702</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>282</v>
+      <c r="C124" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H124" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I124" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="K124" s="7" t="s">
+        <v>327</v>
       </c>
       <c r="Q124" s="3"/>
       <c r="R124" s="2"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C125" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="E125" s="14" t="s">
-        <v>276</v>
+        <v>94</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="Q125" s="3"/>
       <c r="R125" s="2"/>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C126" s="12" t="s">
-        <v>704</v>
-      </c>
-      <c r="D126" s="14" t="s">
-        <v>628</v>
-      </c>
-      <c r="E126" s="11" t="s">
-        <v>630</v>
-      </c>
-      <c r="F126" s="11" t="s">
-        <v>625</v>
-      </c>
-      <c r="G126" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H126" s="9" t="s">
-        <v>705</v>
-      </c>
-      <c r="I126" s="12" t="s">
-        <v>706</v>
-      </c>
-      <c r="J126" s="10" t="s">
-        <v>700</v>
+        <v>95</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>274</v>
       </c>
       <c r="Q126" s="3"/>
       <c r="R126" s="2"/>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="B127" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C127" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>708</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="F127" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="G127" s="11" t="s">
-        <v>709</v>
+      <c r="C127" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="F127" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="I127" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="J127" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>875</v>
       </c>
       <c r="Q127" s="3"/>
       <c r="R127" s="2"/>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C128" s="13" t="s">
-        <v>710</v>
-      </c>
-      <c r="D128" s="14" t="s">
-        <v>711</v>
-      </c>
-      <c r="E128" s="14" t="s">
-        <v>712</v>
+        <v>148</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>502</v>
       </c>
       <c r="F128" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="G128" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="H128" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="I128" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="J128" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="K128" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="L128" s="7" t="s">
-        <v>713</v>
-      </c>
-      <c r="M128" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="N128" s="11" t="s">
-        <v>714</v>
-      </c>
-      <c r="O128" s="1" t="s">
-        <v>443</v>
+        <v>274</v>
+      </c>
+      <c r="G128" s="11" t="s">
+        <v>688</v>
       </c>
       <c r="Q128" s="3"/>
       <c r="R128" s="2"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>715</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>161</v>
+        <v>97</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="D129" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>691</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>625</v>
+        <v>241</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="H129" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="I129" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="J129" s="14" t="s">
-        <v>517</v>
+        <v>358</v>
+      </c>
+      <c r="H129" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I129" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="J129" s="10" t="s">
+        <v>359</v>
       </c>
       <c r="K129" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="L129" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="M129" s="12" t="s">
-        <v>831</v>
-      </c>
-      <c r="N129" s="9" t="s">
-        <v>845</v>
+        <v>361</v>
+      </c>
+      <c r="L129" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="M129" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="N129" s="11" t="s">
+        <v>876</v>
+      </c>
+      <c r="O129" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="Q129" s="3"/>
       <c r="R129" s="2"/>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B130" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C130" s="14" t="s">
-        <v>716</v>
+        <v>98</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>693</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>717</v>
-      </c>
-      <c r="E130" s="12" t="s">
-        <v>718</v>
+        <v>231</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>719</v>
+        <v>606</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>720</v>
-      </c>
-      <c r="H130" s="12" t="s">
-        <v>721</v>
-      </c>
-      <c r="I130" s="7" t="s">
-        <v>412</v>
+        <v>290</v>
+      </c>
+      <c r="H130" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="I130" s="14" t="s">
+        <v>273</v>
       </c>
       <c r="J130" s="14" t="s">
-        <v>331</v>
+        <v>864</v>
       </c>
       <c r="K130" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="L130" s="14" t="s">
-        <v>722</v>
-      </c>
-      <c r="M130" s="14" t="s">
-        <v>723</v>
+        <v>374</v>
+      </c>
+      <c r="L130" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="M130" s="12" t="s">
+        <v>805</v>
       </c>
       <c r="N130" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="O130" s="1" t="s">
-        <v>443</v>
+        <v>819</v>
       </c>
       <c r="Q130" s="3"/>
       <c r="R130" s="2"/>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B131" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B131" s="12" t="s">
         <v>157</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>724</v>
-      </c>
-      <c r="D131" s="14" t="s">
-        <v>725</v>
+        <v>694</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>695</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>450</v>
+        <v>696</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>726</v>
+        <v>697</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="H131" s="11" t="s">
-        <v>263</v>
+        <v>698</v>
+      </c>
+      <c r="H131" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="I131" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="J131" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="K131" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="L131" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="M131" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="N131" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O131" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="Q131" s="3"/>
       <c r="R131" s="2"/>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B132" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C132" s="11" t="s">
-        <v>727</v>
-      </c>
-      <c r="D132" s="11" t="s">
-        <v>615</v>
+      <c r="C132" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="D132" s="14" t="s">
+        <v>703</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>728</v>
+        <v>439</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>729</v>
+        <v>704</v>
       </c>
       <c r="G132" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="H132" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="I132" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="J132" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="K132" s="12" t="s">
-        <v>730</v>
-      </c>
-      <c r="L132" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="M132" s="7" t="s">
-        <v>226</v>
+        <v>522</v>
+      </c>
+      <c r="H132" s="11" t="s">
+        <v>261</v>
       </c>
       <c r="Q132" s="3"/>
       <c r="R132" s="2"/>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C133" s="14" t="s">
-        <v>431</v>
+        <v>101</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>705</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>731</v>
-      </c>
-      <c r="E133" s="14" t="s">
-        <v>860</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G133" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="H133" s="14" t="s">
-        <v>732</v>
-      </c>
-      <c r="I133" s="11" t="s">
-        <v>733</v>
+        <v>596</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>706</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="G133" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="H133" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="I133" s="12" t="s">
+        <v>285</v>
       </c>
       <c r="J133" s="14" t="s">
-        <v>465</v>
-      </c>
-      <c r="K133" s="14" t="s">
-        <v>734</v>
-      </c>
-      <c r="L133" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K133" s="12" t="s">
+        <v>708</v>
+      </c>
+      <c r="L133" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="M133" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="N133" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="O133" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="P133" s="9" t="s">
-        <v>834</v>
+      <c r="M133" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="Q133" s="3"/>
       <c r="R133" s="2"/>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B134" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C134" s="12" t="s">
-        <v>735</v>
-      </c>
-      <c r="D134" s="13" t="s">
-        <v>736</v>
+        <v>102</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C134" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>709</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>737</v>
-      </c>
-      <c r="F134" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="G134" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="H134" s="12" t="s">
-        <v>738</v>
-      </c>
-      <c r="I134" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="J134" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="K134" s="11" t="s">
-        <v>739</v>
-      </c>
-      <c r="L134" s="11" t="s">
-        <v>740</v>
-      </c>
-      <c r="M134" s="12" t="s">
-        <v>263</v>
+        <v>830</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="H134" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="I134" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="J134" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="K134" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="L134" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M134" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="N134" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="O134" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="P134" s="9" t="s">
+        <v>808</v>
       </c>
       <c r="Q134" s="3"/>
       <c r="R134" s="2"/>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C135" s="14" t="s">
-        <v>741</v>
-      </c>
-      <c r="D135" s="12" t="s">
-        <v>742</v>
-      </c>
-      <c r="E135" s="11" t="s">
-        <v>743</v>
-      </c>
-      <c r="F135" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="G135" s="12" t="s">
-        <v>744</v>
+        <v>103</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="D135" s="13" t="s">
+        <v>714</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>715</v>
+      </c>
+      <c r="F135" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="G135" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="H135" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="I135" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="J135" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="K135" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="L135" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="M135" s="12" t="s">
+        <v>261</v>
       </c>
       <c r="Q135" s="3"/>
       <c r="R135" s="2"/>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>824</v>
-      </c>
-      <c r="D136" s="11" t="s">
-        <v>592</v>
+        <v>104</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C136" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>720</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>493</v>
+        <v>721</v>
       </c>
       <c r="F136" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="G136" s="14" t="s">
-        <v>745</v>
+        <v>246</v>
+      </c>
+      <c r="G136" s="12" t="s">
+        <v>722</v>
       </c>
       <c r="Q136" s="3"/>
       <c r="R136" s="2"/>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C137" s="12" t="s">
-        <v>746</v>
-      </c>
-      <c r="D137" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="E137" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="F137" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="G137" s="11" t="s">
-        <v>747</v>
-      </c>
-      <c r="H137" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="I137" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="J137" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="K137" s="9" t="s">
-        <v>748</v>
-      </c>
-      <c r="L137" s="9" t="s">
-        <v>185</v>
+      <c r="C137" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="G137" s="14" t="s">
+        <v>723</v>
       </c>
       <c r="Q137" s="3"/>
       <c r="R137" s="2"/>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B138" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C138" s="11" t="s">
-        <v>749</v>
-      </c>
-      <c r="D138" s="13" t="s">
-        <v>750</v>
-      </c>
-      <c r="E138" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="F138" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="G138" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="H138" s="9" t="s">
-        <v>261</v>
+        <v>106</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="H138" s="11" t="s">
+        <v>290</v>
       </c>
       <c r="I138" s="9" t="s">
-        <v>751</v>
+        <v>195</v>
       </c>
       <c r="J138" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="K138" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="L138" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="M138" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="N138" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="O138" s="9" t="s">
-        <v>829</v>
-      </c>
-      <c r="P138" s="1" t="s">
-        <v>868</v>
+        <v>177</v>
+      </c>
+      <c r="K138" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="L138" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="Q138" s="3"/>
       <c r="R138" s="2"/>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C139" s="13" t="s">
-        <v>753</v>
+        <v>107</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>727</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>754</v>
-      </c>
-      <c r="E139" s="12" t="s">
-        <v>755</v>
-      </c>
-      <c r="F139" s="13" t="s">
-        <v>756</v>
-      </c>
-      <c r="G139" s="14" t="s">
-        <v>757</v>
-      </c>
-      <c r="H139" s="14" t="s">
-        <v>758</v>
-      </c>
-      <c r="I139" s="14" t="s">
-        <v>759</v>
-      </c>
-      <c r="J139" s="11" t="s">
-        <v>760</v>
+        <v>728</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="F139" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="G139" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="I139" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="J139" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="K139" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="L139" s="14" t="s">
-        <v>174</v>
+        <v>433</v>
+      </c>
+      <c r="L139" s="11" t="s">
+        <v>877</v>
       </c>
       <c r="M139" s="11" t="s">
-        <v>761</v>
+        <v>173</v>
       </c>
       <c r="N139" s="12" t="s">
-        <v>243</v>
+        <v>374</v>
+      </c>
+      <c r="O139" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="P139" s="1" t="s">
+        <v>838</v>
       </c>
       <c r="Q139" s="3"/>
       <c r="R139" s="2"/>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="D140" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E140" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="F140" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G140" s="9" t="s">
-        <v>198</v>
+        <v>108</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="D140" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="F140" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="G140" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="H140" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="I140" s="14" t="s">
+        <v>736</v>
+      </c>
+      <c r="J140" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="K140" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="L140" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="M140" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="N140" s="12" t="s">
+        <v>241</v>
       </c>
       <c r="Q140" s="3"/>
       <c r="R140" s="2"/>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="B141" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C141" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="D141" s="17"/>
-      <c r="E141" s="17"/>
-      <c r="F141" s="17"/>
+        <v>109</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E141" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="Q141" s="3"/>
       <c r="R141" s="2"/>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C142" s="14" t="s">
-        <v>762</v>
-      </c>
-      <c r="D142" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="E142" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="F142" s="14" t="s">
-        <v>763</v>
-      </c>
-      <c r="G142" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="H142" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="I142" s="12" t="s">
-        <v>764</v>
-      </c>
-      <c r="J142" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="K142" s="1" t="s">
-        <v>850</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="D142" s="17"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="17"/>
       <c r="Q142" s="3"/>
       <c r="R142" s="2"/>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D143" s="12" t="s">
-        <v>839</v>
+        <v>110</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C143" s="14" t="s">
+        <v>739</v>
+      </c>
+      <c r="D143" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="E143" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="F143" s="14" t="s">
+        <v>740</v>
+      </c>
+      <c r="G143" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H143" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="I143" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="J143" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>823</v>
       </c>
       <c r="Q143" s="3"/>
       <c r="R143" s="2"/>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C144" s="14" t="s">
-        <v>765</v>
+      <c r="C144" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>766</v>
-      </c>
-      <c r="E144" s="11" t="s">
-        <v>767</v>
-      </c>
-      <c r="F144" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="G144" s="11" t="s">
-        <v>344</v>
+        <v>813</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>847</v>
       </c>
       <c r="Q144" s="3"/>
       <c r="R144" s="2"/>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B145" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="D145" s="10" t="s">
-        <v>768</v>
-      </c>
-      <c r="E145" s="14" t="s">
-        <v>769</v>
-      </c>
-      <c r="F145" s="14" t="s">
-        <v>257</v>
+        <v>111</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>742</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>459</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>770</v>
-      </c>
-      <c r="H145" s="10" t="s">
-        <v>751</v>
-      </c>
-      <c r="I145" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="J145" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="K145" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="L145" s="9" t="s">
-        <v>771</v>
-      </c>
-      <c r="M145" s="1" t="s">
-        <v>852</v>
+        <v>340</v>
       </c>
       <c r="Q145" s="3"/>
       <c r="R145" s="2"/>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="D146" s="12" t="s">
-        <v>772</v>
-      </c>
-      <c r="E146" s="11" t="s">
-        <v>773</v>
-      </c>
-      <c r="F146" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="G146" s="14" t="s">
-        <v>774</v>
-      </c>
-      <c r="H146" s="9" t="s">
-        <v>775</v>
-      </c>
-      <c r="I146" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="J146" s="9" t="s">
-        <v>848</v>
+        <v>150</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="E146" s="14" t="s">
+        <v>746</v>
+      </c>
+      <c r="F146" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="H146" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="I146" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="J146" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K146" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L146" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>825</v>
       </c>
       <c r="Q146" s="3"/>
       <c r="R146" s="2"/>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C147" s="12" t="s">
-        <v>776</v>
-      </c>
-      <c r="D147" s="14" t="s">
-        <v>777</v>
-      </c>
-      <c r="E147" s="14" t="s">
-        <v>778</v>
+        <v>112</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>749</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>750</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>779</v>
-      </c>
-      <c r="G147" s="12" t="s">
-        <v>780</v>
+        <v>373</v>
+      </c>
+      <c r="G147" s="14" t="s">
+        <v>751</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>781</v>
-      </c>
-      <c r="I147" s="14" t="s">
-        <v>782</v>
-      </c>
-      <c r="J147" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="K147" s="14" t="s">
-        <v>783</v>
-      </c>
-      <c r="L147" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="M147" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="N147" s="9" t="s">
-        <v>833</v>
+        <v>752</v>
+      </c>
+      <c r="I147" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="J147" s="9" t="s">
+        <v>878</v>
       </c>
       <c r="Q147" s="3"/>
       <c r="R147" s="2"/>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C148" s="14" t="s">
-        <v>784</v>
-      </c>
-      <c r="D148" s="10" t="s">
-        <v>785</v>
-      </c>
-      <c r="E148" s="12" t="s">
-        <v>786</v>
+        <v>113</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D148" s="14" t="s">
+        <v>754</v>
+      </c>
+      <c r="E148" s="14" t="s">
+        <v>755</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="G148" s="11" t="s">
-        <v>787</v>
+        <v>756</v>
+      </c>
+      <c r="G148" s="12" t="s">
+        <v>757</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>788</v>
-      </c>
-      <c r="I148" s="13" t="s">
-        <v>278</v>
+        <v>758</v>
+      </c>
+      <c r="I148" s="14" t="s">
+        <v>759</v>
+      </c>
+      <c r="J148" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="K148" s="14" t="s">
+        <v>760</v>
+      </c>
+      <c r="L148" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="M148" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="N148" s="9" t="s">
+        <v>807</v>
       </c>
       <c r="Q148" s="3"/>
       <c r="R148" s="2"/>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>789</v>
-      </c>
-      <c r="D149" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="E149" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="F149" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="G149" s="9" t="s">
-        <v>174</v>
+        <v>151</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C149" s="14" t="s">
+        <v>761</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="E149" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="F149" s="12" t="s">
+        <v>711</v>
+      </c>
+      <c r="G149" s="11" t="s">
+        <v>764</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>835</v>
-      </c>
-      <c r="I149" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="J149" s="1" t="s">
-        <v>282</v>
+        <v>765</v>
+      </c>
+      <c r="I149" s="13" t="s">
+        <v>275</v>
       </c>
       <c r="Q149" s="3"/>
       <c r="R149" s="2"/>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B150" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C150" s="12" t="s">
-        <v>790</v>
-      </c>
-      <c r="D150" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="E150" s="12" t="s">
-        <v>622</v>
-      </c>
-      <c r="F150" s="12" t="s">
-        <v>427</v>
+        <v>114</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E150" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="H150" s="12" t="s">
-        <v>282</v>
+        <v>172</v>
+      </c>
+      <c r="H150" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="Q150" s="3"/>
       <c r="R150" s="2"/>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B151" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B151" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="D151" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="E151" s="11" t="s">
-        <v>791</v>
-      </c>
-      <c r="F151" s="9" t="s">
-        <v>792</v>
-      </c>
-      <c r="G151" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="H151" s="14" t="s">
-        <v>554</v>
-      </c>
-      <c r="I151" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="J151" s="6" t="s">
-        <v>793</v>
-      </c>
-      <c r="K151" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L151" s="1" t="s">
-        <v>443</v>
+        <v>767</v>
+      </c>
+      <c r="D151" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="F151" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="G151" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="H151" s="12" t="s">
+        <v>279</v>
       </c>
       <c r="Q151" s="3"/>
       <c r="R151" s="2"/>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C152" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E152" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F152" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="G152" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="H152" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="I152" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="J152" s="11" t="s">
-        <v>610</v>
-      </c>
-      <c r="K152" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="L152" s="8" t="s">
-        <v>842</v>
-      </c>
-      <c r="M152" s="6" t="s">
-        <v>843</v>
-      </c>
-      <c r="N152" s="1" t="s">
-        <v>875</v>
+      <c r="C152" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>768</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H152" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="I152" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="J152" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="K152" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="Q152" s="3"/>
       <c r="R152" s="2"/>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D153" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="E153" s="8" t="s">
-        <v>452</v>
+        <v>117</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G153" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H153" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="I153" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="J153" s="11" t="s">
+        <v>871</v>
+      </c>
+      <c r="K153" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="L153" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="M153" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="N153" s="1" t="s">
+        <v>843</v>
       </c>
       <c r="Q153" s="3"/>
       <c r="R153" s="2"/>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B154" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C154" s="11" t="s">
-        <v>794</v>
-      </c>
-      <c r="D154" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="E154" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="F154" s="14" t="s">
-        <v>795</v>
-      </c>
-      <c r="G154" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="H154" s="13" t="s">
-        <v>838</v>
+        <v>152</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>441</v>
       </c>
       <c r="Q154" s="3"/>
       <c r="R154" s="2"/>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B155" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C155" s="12" t="s">
-        <v>796</v>
+        <v>118</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>771</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="E155" s="7" t="s">
-        <v>797</v>
-      </c>
-      <c r="F155" s="10" t="s">
-        <v>331</v>
+        <v>445</v>
+      </c>
+      <c r="E155" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F155" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="G155" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="H155" s="13" t="s">
+        <v>812</v>
       </c>
       <c r="Q155" s="3"/>
       <c r="R155" s="2"/>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B156" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B156" s="10" t="s">
         <v>157</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>798</v>
-      </c>
-      <c r="D156" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="E156" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="F156" s="11" t="s">
-        <v>493</v>
+        <v>773</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="F156" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>847</v>
       </c>
       <c r="Q156" s="3"/>
       <c r="R156" s="2"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>799</v>
-      </c>
-      <c r="D157" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="E157" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="F157" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="G157" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="H157" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="I157" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="J157" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="K157" s="1" t="s">
-        <v>340</v>
+        <v>154</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C157" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="D157" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F157" s="11" t="s">
+        <v>482</v>
       </c>
       <c r="Q157" s="3"/>
       <c r="R157" s="2"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="B158" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C158" s="17" t="s">
-        <v>700</v>
-      </c>
-      <c r="D158" s="17"/>
-      <c r="E158" s="17"/>
-      <c r="F158" s="17"/>
-      <c r="G158" s="17"/>
-      <c r="H158" s="17"/>
-      <c r="I158" s="17"/>
-      <c r="J158" s="17"/>
+        <v>120</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E158" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G158" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="H158" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="I158" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="J158" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>336</v>
+      </c>
       <c r="Q158" s="3"/>
       <c r="R158" s="2"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B159" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C159" s="14" t="s">
-        <v>668</v>
-      </c>
-      <c r="D159" s="14" t="s">
-        <v>801</v>
-      </c>
-      <c r="E159" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="F159" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="G159" s="9" t="s">
-        <v>802</v>
-      </c>
-      <c r="H159" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="I159" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="J159" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="K159" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="L159" s="1" t="s">
-        <v>864</v>
-      </c>
+        <v>828</v>
+      </c>
+      <c r="B159" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>679</v>
+      </c>
+      <c r="D159" s="17"/>
+      <c r="E159" s="17"/>
+      <c r="F159" s="17"/>
+      <c r="G159" s="17"/>
+      <c r="H159" s="17"/>
+      <c r="I159" s="17"/>
+      <c r="J159" s="17"/>
       <c r="Q159" s="3"/>
       <c r="R159" s="2"/>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B160" s="12" t="s">
         <v>157</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>803</v>
-      </c>
-      <c r="D160" s="13" t="s">
-        <v>804</v>
+        <v>647</v>
+      </c>
+      <c r="D160" s="14" t="s">
+        <v>778</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>805</v>
-      </c>
-      <c r="F160" s="14" t="s">
-        <v>806</v>
-      </c>
-      <c r="G160" s="7" t="s">
-        <v>161</v>
+        <v>274</v>
+      </c>
+      <c r="F160" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="G160" s="9" t="s">
+        <v>779</v>
       </c>
       <c r="H160" s="12" t="s">
-        <v>268</v>
+        <v>249</v>
+      </c>
+      <c r="I160" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="J160" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="K160" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>834</v>
       </c>
       <c r="Q160" s="3"/>
       <c r="R160" s="2"/>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="B161" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C161" s="11" t="s">
-        <v>807</v>
-      </c>
-      <c r="D161" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="E161" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F161" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="G161" s="10" t="s">
-        <v>808</v>
+      <c r="C161" s="14" t="s">
+        <v>780</v>
+      </c>
+      <c r="D161" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="E161" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="F161" s="14" t="s">
+        <v>783</v>
+      </c>
+      <c r="G161" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H161" s="12" t="s">
+        <v>266</v>
       </c>
       <c r="Q161" s="3"/>
       <c r="R161" s="2"/>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A162" s="5" t="s">
+      <c r="A162" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="E162" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F162" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="G162" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="Q162" s="3"/>
+      <c r="R162" s="2"/>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A163" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B162" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C162" s="20" t="s">
-        <v>809</v>
-      </c>
-      <c r="D162" s="21" t="s">
-        <v>543</v>
-      </c>
-      <c r="E162" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="F162" s="22" t="s">
-        <v>810</v>
-      </c>
-      <c r="G162" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="H162" s="21" t="s">
-        <v>811</v>
-      </c>
-      <c r="I162" s="41" t="s">
-        <v>698</v>
-      </c>
-      <c r="J162" s="21" t="s">
-        <v>834</v>
-      </c>
-      <c r="K162" s="4"/>
-      <c r="L162" s="4"/>
-      <c r="M162" s="4"/>
-      <c r="N162" s="4"/>
-      <c r="O162" s="4"/>
-      <c r="P162" s="4"/>
-      <c r="Q162" s="4"/>
-      <c r="R162" s="5"/>
+      <c r="B163" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C163" s="20" t="s">
+        <v>785</v>
+      </c>
+      <c r="D163" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="E163" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="F163" s="22" t="s">
+        <v>786</v>
+      </c>
+      <c r="G163" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="H163" s="21" t="s">
+        <v>862</v>
+      </c>
+      <c r="I163" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="J163" s="21" t="s">
+        <v>808</v>
+      </c>
+      <c r="K163" s="4"/>
+      <c r="L163" s="4"/>
+      <c r="M163" s="4"/>
+      <c r="N163" s="4"/>
+      <c r="O163" s="4"/>
+      <c r="P163" s="4"/>
+      <c r="Q163" s="4"/>
+      <c r="R163" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="881">
   <si>
     <t>Aatrox</t>
   </si>
@@ -3328,8 +3328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView tabSelected="1" topLeftCell="E110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N135" sqref="N135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7252,6 +7252,9 @@
       <c r="D108" s="14" t="s">
         <v>253</v>
       </c>
+      <c r="E108" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="Q108" s="3"/>
       <c r="R108" s="2"/>
     </row>
@@ -7552,6 +7555,9 @@
       <c r="I117" s="11" t="s">
         <v>196</v>
       </c>
+      <c r="J117" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="Q117" s="3"/>
       <c r="R117" s="2"/>
     </row>
@@ -7830,6 +7836,9 @@
       <c r="F125" s="7" t="s">
         <v>279</v>
       </c>
+      <c r="G125" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="Q125" s="3"/>
       <c r="R125" s="2"/>
     </row>
@@ -8223,6 +8232,9 @@
       </c>
       <c r="M135" s="12" t="s">
         <v>261</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="Q135" s="3"/>
       <c r="R135" s="2"/>
@@ -8536,6 +8548,9 @@
       </c>
       <c r="G145" s="11" t="s">
         <v>340</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="Q145" s="3"/>
       <c r="R145" s="2"/>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="884">
   <si>
     <t>Aatrox</t>
   </si>
@@ -2676,6 +2676,15 @@
   </si>
   <si>
     <t>Prestige Arcanist</t>
+  </si>
+  <si>
+    <t>Bel'Veth</t>
+  </si>
+  <si>
+    <t>Ocean Song</t>
+  </si>
+  <si>
+    <t>Prestige Ocean Song</t>
   </si>
 </sst>
 </file>
@@ -3326,10 +3335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V163"/>
+  <dimension ref="A1:V164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N135" sqref="N135"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3850,6 +3859,9 @@
       <c r="O14" s="9" t="s">
         <v>277</v>
       </c>
+      <c r="P14" s="1" t="s">
+        <v>882</v>
+      </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="2"/>
       <c r="U14" s="17"/>
@@ -3927,2611 +3939,2605 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="J18" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="N18" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>162</v>
-      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>256</v>
+      <c r="C19" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>244</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="H19" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>850</v>
+      <c r="K19" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="2"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>262</v>
+      <c r="C20" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>274</v>
+        <v>256</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>850</v>
       </c>
       <c r="Q20" s="3"/>
       <c r="R20" s="2"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>271</v>
+      <c r="C21" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>265</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="K21" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="I21" s="12" t="s">
         <v>274</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>851</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>823</v>
       </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>279</v>
+      <c r="C22" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>823</v>
       </c>
       <c r="Q22" s="3"/>
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="I23" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>277</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>279</v>
       </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="2"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>286</v>
+        <v>15</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>281</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>288</v>
+        <v>282</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>283</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>431</v>
+        <v>284</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>277</v>
       </c>
       <c r="Q24" s="3"/>
       <c r="R24" s="2"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>292</v>
+        <v>16</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>286</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="L25" s="11" t="s">
-        <v>241</v>
+        <v>287</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>431</v>
       </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="2"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>302</v>
+        <v>17</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>294</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>808</v>
+        <v>295</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>241</v>
       </c>
       <c r="Q26" s="3"/>
       <c r="R26" s="2"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>307</v>
+        <v>18</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>852</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>433</v>
+        <v>304</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>808</v>
       </c>
       <c r="Q27" s="3"/>
       <c r="R27" s="2"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>157</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>310</v>
+        <v>305</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>306</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>314</v>
+        <v>177</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>852</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>804</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>336</v>
+        <v>433</v>
       </c>
       <c r="Q28" s="3"/>
       <c r="R28" s="2"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="J29" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="K29" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="L29" s="11" t="s">
-        <v>323</v>
+      <c r="G29" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="Q29" s="3"/>
       <c r="R29" s="2"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>184</v>
+      <c r="C30" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>320</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>844</v>
+        <v>321</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>323</v>
       </c>
       <c r="Q30" s="3"/>
       <c r="R30" s="2"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F31" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>679</v>
+      <c r="G31" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>844</v>
       </c>
       <c r="Q31" s="3"/>
       <c r="R31" s="2"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>334</v>
+      <c r="C32" s="12" t="s">
+        <v>326</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>328</v>
+        <v>162</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>329</v>
+        <v>161</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>330</v>
+        <v>192</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>849</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>277</v>
+        <v>222</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>679</v>
       </c>
       <c r="Q32" s="3"/>
       <c r="R32" s="2"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>157</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>332</v>
+        <v>334</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>328</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>273</v>
+        <v>329</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>336</v>
+        <v>171</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>849</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="K33" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="M33" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="N33" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="P33" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q33" s="18" t="s">
-        <v>853</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>826</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="2"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>342</v>
+      <c r="C34" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>332</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P34" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q34" s="18" t="s">
+        <v>853</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>826</v>
+      </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>183</v>
+        <v>23</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>352</v>
+        <v>345</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="M35" s="14" t="s">
-        <v>854</v>
-      </c>
-      <c r="N35" s="11" t="s">
-        <v>327</v>
+        <v>346</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q35" s="3"/>
       <c r="R35" s="2"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>355</v>
+      <c r="C36" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>350</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>357</v>
+        <v>351</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>360</v>
+        <v>274</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>278</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>855</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>361</v>
+        <v>273</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="M36" s="14" t="s">
+        <v>854</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="Q36" s="3"/>
       <c r="R36" s="2"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>363</v>
+        <v>25</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>356</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>365</v>
+        <v>357</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>222</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>366</v>
+        <v>359</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>361</v>
       </c>
       <c r="Q37" s="3"/>
       <c r="R37" s="2"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="K38" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="L38" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>842</v>
+        <v>129</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="Q38" s="3"/>
       <c r="R38" s="2"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>380</v>
+      <c r="C39" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>373</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="L39" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="N39" s="9" t="s">
-        <v>856</v>
-      </c>
-      <c r="O39" s="11" t="s">
-        <v>275</v>
+        <v>303</v>
+      </c>
+      <c r="K39" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>842</v>
       </c>
       <c r="Q39" s="3"/>
       <c r="R39" s="2"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>831</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>172</v>
+        <v>27</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="L40" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>856</v>
+      </c>
+      <c r="O40" s="11" t="s">
+        <v>275</v>
       </c>
       <c r="Q40" s="3"/>
       <c r="R40" s="2"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="I41" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="J41" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="K41" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="M41" s="11" t="s">
-        <v>389</v>
+        <v>28</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>831</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="Q41" s="3"/>
       <c r="R41" s="2"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>265</v>
+        <v>29</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>264</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="K42" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="L42" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="M42" s="9" t="s">
-        <v>804</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>847</v>
+        <v>385</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>389</v>
       </c>
       <c r="Q42" s="3"/>
       <c r="R42" s="2"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>825</v>
+      <c r="C43" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>847</v>
       </c>
       <c r="Q43" s="3"/>
       <c r="R43" s="2"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="K44" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>279</v>
+        <v>31</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>825</v>
       </c>
       <c r="Q44" s="3"/>
       <c r="R44" s="2"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>833</v>
+        <v>32</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="Q45" s="3"/>
       <c r="R45" s="2"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>157</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>406</v>
+        <v>400</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>833</v>
       </c>
       <c r="Q46" s="3"/>
       <c r="R46" s="2"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>408</v>
+        <v>34</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>857</v>
-      </c>
-      <c r="L47" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="M47" s="9" t="s">
-        <v>804</v>
+        <v>406</v>
       </c>
       <c r="Q47" s="3"/>
       <c r="R47" s="2"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C48" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>807</v>
+      <c r="C48" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>804</v>
       </c>
       <c r="Q48" s="3"/>
       <c r="R48" s="2"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L49" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="M49" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>677</v>
+        <v>130</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>807</v>
       </c>
       <c r="Q49" s="3"/>
       <c r="R49" s="2"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="F50" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>162</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H50" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="H50" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="I50" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="K50" s="12" t="s">
-        <v>194</v>
+      <c r="I50" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>327</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="M50" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="N50" s="8" t="s">
-        <v>815</v>
+        <v>418</v>
+      </c>
+      <c r="M50" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>677</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="2"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>421</v>
+        <v>131</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>419</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="G51" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="J51" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="K51" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="L51" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="M51" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="N51" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="O51" s="7" t="s">
-        <v>858</v>
+        <v>162</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="M51" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>815</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="2"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>823</v>
+      <c r="C52" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="N52" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>858</v>
       </c>
       <c r="Q52" s="3"/>
       <c r="R52" s="2"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>432</v>
+        <v>38</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>823</v>
       </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="2"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B54" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="H54" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="I54" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F54" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="J54" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>859</v>
+      <c r="G54" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>432</v>
       </c>
       <c r="Q54" s="3"/>
       <c r="R54" s="2"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>849</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>860</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>818</v>
+        <v>40</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>859</v>
       </c>
       <c r="Q55" s="3"/>
       <c r="R55" s="2"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>192</v>
+        <v>132</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>849</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>191</v>
+        <v>278</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>818</v>
       </c>
       <c r="Q56" s="3"/>
       <c r="R56" s="2"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B57" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" s="12" t="s">
         <v>157</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="H57" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="J57" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="L57" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="M57" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="N57" s="9" t="s">
-        <v>820</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q57" s="3"/>
       <c r="R57" s="2"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>446</v>
+        <v>133</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>440</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>812</v>
-      </c>
-      <c r="Q58" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="M58" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>820</v>
+      </c>
       <c r="R58" s="2"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>447</v>
+        <v>41</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>442</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="I59" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>776</v>
+        <v>443</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>812</v>
       </c>
       <c r="Q59" s="3"/>
       <c r="R59" s="2"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B60" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="17" t="s">
         <v>157</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>455</v>
+        <v>447</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>449</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="H60" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L60" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="M60" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="N60" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="O60" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>233</v>
+        <v>451</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>776</v>
       </c>
       <c r="Q60" s="3"/>
       <c r="R60" s="2"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="I61" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="J61" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="K61" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="L61" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="M61" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="N61" s="12" t="s">
-        <v>812</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>841</v>
+        <v>43</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="M61" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="N61" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="O61" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="Q61" s="3"/>
       <c r="R61" s="2"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>224</v>
+        <v>44</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>462</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>861</v>
+        <v>463</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="J62" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="K62" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="L62" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="N62" s="12" t="s">
+        <v>812</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>841</v>
       </c>
       <c r="Q62" s="3"/>
       <c r="R62" s="2"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>470</v>
+        <v>45</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="I63" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>432</v>
+        <v>861</v>
       </c>
       <c r="Q63" s="3"/>
       <c r="R63" s="2"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>231</v>
+        <v>135</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>390</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>432</v>
       </c>
       <c r="Q64" s="3"/>
       <c r="R64" s="2"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>222</v>
+        <v>46</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>418</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>827</v>
+        <v>326</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="Q65" s="3"/>
       <c r="R65" s="2"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>475</v>
-      </c>
-      <c r="E66" s="14" t="s">
-        <v>191</v>
+        <v>47</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>827</v>
       </c>
       <c r="Q66" s="3"/>
       <c r="R66" s="2"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>476</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>477</v>
+        <v>136</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>475</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="J67" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="K67" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="L67" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="M67" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="N67" s="7" t="s">
-        <v>485</v>
+        <v>191</v>
       </c>
       <c r="Q67" s="3"/>
       <c r="R67" s="2"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B68" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>172</v>
+        <v>476</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>480</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="I68" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="K68" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="L68" s="9" t="s">
-        <v>862</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>336</v>
+        <v>481</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J68" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="K68" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="L68" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M68" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="N68" s="7" t="s">
+        <v>485</v>
       </c>
       <c r="Q68" s="3"/>
       <c r="R68" s="2"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="E69" s="14" t="s">
-        <v>491</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H69" s="14" t="s">
-        <v>192</v>
+        <v>49</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>276</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="J69" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="K69" s="14" t="s">
-        <v>495</v>
-      </c>
-      <c r="L69" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M69" s="7" t="s">
-        <v>861</v>
-      </c>
-      <c r="N69" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="O69" s="11" t="s">
-        <v>236</v>
+        <v>278</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="Q69" s="3"/>
       <c r="R69" s="2"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>497</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="F70" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="G70" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="G70" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="I70" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="J70" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>313</v>
+      <c r="H70" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="K70" s="14" t="s">
+        <v>495</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="M70" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="N70" s="7" t="s">
-        <v>863</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="P70" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
+      </c>
+      <c r="M70" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="N70" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="O70" s="11" t="s">
+        <v>236</v>
       </c>
       <c r="Q70" s="3"/>
       <c r="R70" s="2"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>224</v>
+        <v>51</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L71" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M71" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="N71" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="Q71" s="3"/>
       <c r="R71" s="2"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>502</v>
+        <v>52</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>827</v>
+        <v>224</v>
       </c>
       <c r="Q72" s="3"/>
       <c r="R72" s="2"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>391</v>
+        <v>53</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>502</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F73" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="H73" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="I73" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="J73" s="11" t="s">
-        <v>864</v>
-      </c>
-      <c r="K73" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="L73" s="7" t="s">
-        <v>279</v>
+        <v>503</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>827</v>
       </c>
       <c r="Q73" s="3"/>
       <c r="R73" s="2"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="D74" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="I74" s="10" t="s">
-        <v>505</v>
+        <v>54</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>273</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="K74" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="L74" s="14" t="s">
-        <v>865</v>
+        <v>864</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="Q74" s="3"/>
       <c r="R74" s="2"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>508</v>
+        <v>55</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>440</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="H75" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="H75" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="I75" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="J75" s="10" t="s">
-        <v>510</v>
+      <c r="I75" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>339</v>
       </c>
       <c r="K75" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="L75" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="M75" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="N75" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="O75" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="P75" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="Q75" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="R75" s="2" t="s">
-        <v>866</v>
-      </c>
+      <c r="L75" s="14" t="s">
+        <v>865</v>
+      </c>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="2"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>512</v>
-      </c>
-      <c r="D76" s="14" t="s">
-        <v>513</v>
+        <v>56</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>507</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>514</v>
-      </c>
-      <c r="F76" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="G76" s="14" t="s">
-        <v>516</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="I76" s="14" t="s">
-        <v>517</v>
-      </c>
-      <c r="J76" s="12" t="s">
-        <v>163</v>
+        <v>363</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="J76" s="10" t="s">
+        <v>510</v>
       </c>
       <c r="K76" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="L76" s="14" t="s">
-        <v>867</v>
-      </c>
-      <c r="M76" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="N76" s="9" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q76" s="3"/>
-      <c r="R76" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="L76" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M76" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="N76" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="O76" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="P76" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="R76" s="2" t="s">
+        <v>866</v>
+      </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="F77" s="14" t="s">
-        <v>521</v>
-      </c>
-      <c r="G77" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="I77" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="J77" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="K77" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>336</v>
+        <v>57</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I77" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="K77" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="L77" s="14" t="s">
+        <v>867</v>
+      </c>
+      <c r="M77" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="N77" s="9" t="s">
+        <v>807</v>
       </c>
       <c r="Q77" s="3"/>
       <c r="R77" s="2"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="G78" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="H78" s="14" t="s">
-        <v>528</v>
-      </c>
-      <c r="I78" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="J78" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="J78" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="K78" s="11" t="s">
-        <v>241</v>
+      <c r="K78" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="Q78" s="3"/>
       <c r="R78" s="2"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>529</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="E79" s="14" t="s">
-        <v>531</v>
-      </c>
-      <c r="F79" s="12" t="s">
-        <v>532</v>
-      </c>
-      <c r="G79" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="H79" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="I79" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="J79" s="9" t="s">
-        <v>534</v>
+        <v>58</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="H79" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J79" s="12" t="s">
+        <v>522</v>
       </c>
       <c r="K79" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="L79" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="M79" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="N79" s="1" t="s">
-        <v>336</v>
+        <v>241</v>
       </c>
       <c r="Q79" s="3"/>
       <c r="R79" s="2"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="F80" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="G80" s="14" t="s">
-        <v>540</v>
+        <v>59</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>181</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="I80" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="J80" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="K80" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="L80" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="M80" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="N80" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="O80" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="P80" s="7" t="s">
-        <v>868</v>
-      </c>
-      <c r="Q80" s="44" t="s">
-        <v>314</v>
-      </c>
-      <c r="R80" s="2" t="s">
-        <v>610</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="K80" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="L80" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="M80" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="2"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>445</v>
+        <v>60</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>538</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="I81" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="J81" s="11" t="s">
-        <v>812</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q81" s="3"/>
-      <c r="R81" s="2"/>
+        <v>539</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="I81" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K81" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="M81" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="N81" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="O81" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P81" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q81" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="R81" s="2" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C82" s="14" t="s">
-        <v>544</v>
+      <c r="C82" s="12" t="s">
+        <v>542</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>546</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>547</v>
+        <v>177</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>299</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="H82" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="I82" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="J82" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="K82" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="L82" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="M82" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="N82" s="8" t="s">
-        <v>868</v>
+        <v>543</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="Q82" s="3"/>
       <c r="R82" s="2"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>551</v>
+        <v>62</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>545</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="G83" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="I83" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="J83" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="K83" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="I83" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="J83" s="9" t="s">
         <v>327</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="M83" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="N83" s="8" t="s">
+        <v>868</v>
       </c>
       <c r="Q83" s="3"/>
       <c r="R83" s="2"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>198</v>
+        <v>63</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>551</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>555</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="H84" s="14" t="s">
-        <v>556</v>
-      </c>
-      <c r="I84" s="10" t="s">
-        <v>522</v>
+        <v>552</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>553</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="K84" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="L84" s="13" t="s">
-        <v>253</v>
+        <v>554</v>
+      </c>
+      <c r="K84" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="Q84" s="3"/>
       <c r="R84" s="2"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>558</v>
-      </c>
-      <c r="D85" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>824</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G85" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="I85" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="H85" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>431</v>
+      <c r="J85" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K85" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="L85" s="13" t="s">
+        <v>253</v>
       </c>
       <c r="Q85" s="3"/>
       <c r="R85" s="2"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>869</v>
-      </c>
-      <c r="F86" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="I86" s="7" t="s">
         <v>431</v>
       </c>
       <c r="Q86" s="3"/>
@@ -6539,2233 +6545,2236 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>560</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="G87" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="H87" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="I87" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="J87" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="K87" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="L87" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="M87" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="N87" s="7" t="s">
-        <v>432</v>
+        <v>138</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>869</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>431</v>
       </c>
       <c r="Q87" s="3"/>
       <c r="R87" s="2"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C88" s="14" t="s">
-        <v>564</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>565</v>
-      </c>
-      <c r="F88" s="14" t="s">
-        <v>566</v>
+      <c r="C88" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>567</v>
+        <v>181</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>807</v>
-      </c>
-      <c r="J88" s="7" t="s">
-        <v>194</v>
+        <v>239</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="K88" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="L88" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="M88" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="N88" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>882</v>
       </c>
       <c r="Q88" s="3"/>
       <c r="R88" s="2"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B89" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>568</v>
+        <v>139</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>564</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>569</v>
+        <v>357</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="H89" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="I89" s="14" t="s">
-        <v>257</v>
+        <v>565</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>807</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="K89" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="L89" s="1" t="s">
-        <v>835</v>
+        <v>194</v>
       </c>
       <c r="Q89" s="3"/>
       <c r="R89" s="2"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="E90" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="F90" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="G90" s="12" t="s">
-        <v>191</v>
+        <v>67</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>572</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>574</v>
-      </c>
-      <c r="I90" s="11" t="s">
-        <v>192</v>
+        <v>321</v>
+      </c>
+      <c r="I90" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="K90" s="7" t="s">
-        <v>804</v>
-      </c>
-      <c r="L90" s="14" t="s">
-        <v>812</v>
+        <v>212</v>
+      </c>
+      <c r="K90" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>835</v>
       </c>
       <c r="Q90" s="3"/>
       <c r="R90" s="2"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>575</v>
-      </c>
-      <c r="D91" s="13" t="s">
-        <v>576</v>
+        <v>68</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>516</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>577</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="H91" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="I91" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="J91" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="K91" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="L91" s="1" t="s">
-        <v>832</v>
+        <v>573</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="I91" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="L91" s="14" t="s">
+        <v>812</v>
       </c>
       <c r="Q91" s="3"/>
       <c r="R91" s="2"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C92" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>172</v>
+      <c r="C92" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="H92" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="J92" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>832</v>
       </c>
       <c r="Q92" s="3"/>
       <c r="R92" s="2"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B93" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B93" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="D93" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="I93" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="J93" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="K93" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="L93" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="M93" s="7" t="s">
-        <v>870</v>
+        <v>578</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="Q93" s="3"/>
       <c r="R93" s="2"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>584</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>585</v>
+        <v>70</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>580</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>586</v>
-      </c>
-      <c r="F94" s="14" t="s">
-        <v>587</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>588</v>
-      </c>
-      <c r="H94" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="I94" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="J94" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="K94" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="L94" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="M94" s="11" t="s">
-        <v>327</v>
+        <v>581</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="I94" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="K94" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="L94" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="M94" s="7" t="s">
+        <v>870</v>
       </c>
       <c r="Q94" s="3"/>
       <c r="R94" s="2"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B95" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C95" s="10" t="s">
-        <v>591</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G95" s="9" t="s">
-        <v>804</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>840</v>
+      <c r="C95" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="K95" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="L95" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="M95" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="Q95" s="3"/>
       <c r="R95" s="2"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B96" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B96" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="E96" s="12" t="s">
-        <v>871</v>
-      </c>
-      <c r="F96" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>776</v>
+        <v>591</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>840</v>
       </c>
       <c r="Q96" s="3"/>
       <c r="R96" s="2"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C97" s="9" t="s">
-        <v>592</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>593</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="F97" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>389</v>
+      <c r="C97" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>776</v>
       </c>
       <c r="Q97" s="3"/>
       <c r="R97" s="2"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C98" s="11" t="s">
-        <v>595</v>
+      <c r="C98" s="9" t="s">
+        <v>592</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="E98" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G98" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="H98" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>279</v>
+        <v>593</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="Q98" s="3"/>
       <c r="R98" s="2"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>596</v>
-      </c>
-      <c r="D99" s="14" t="s">
-        <v>597</v>
+        <v>75</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="F99" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="G99" s="14" t="s">
-        <v>599</v>
-      </c>
-      <c r="H99" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="I99" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="J99" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="K99" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="L99" s="14" t="s">
-        <v>241</v>
+        <v>338</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="Q99" s="3"/>
       <c r="R99" s="2"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B100" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C100" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="D100" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>172</v>
+      <c r="C100" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="G100" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="H100" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="I100" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="J100" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="K100" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="L100" s="14" t="s">
+        <v>241</v>
       </c>
       <c r="Q100" s="3"/>
       <c r="R100" s="2"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B101" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>308</v>
+        <v>77</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="Q101" s="3"/>
       <c r="R101" s="2"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="B102" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>846</v>
+        <v>141</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>308</v>
       </c>
       <c r="Q102" s="3"/>
       <c r="R102" s="2"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C103" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>600</v>
-      </c>
-      <c r="E103" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="F103" s="12" t="s">
-        <v>602</v>
-      </c>
-      <c r="G103" s="12" t="s">
-        <v>603</v>
-      </c>
-      <c r="H103" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="I103" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="J103" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="K103" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="L103" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="M103" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="N103" s="12" t="s">
-        <v>183</v>
+        <v>845</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>846</v>
       </c>
       <c r="Q103" s="3"/>
       <c r="R103" s="2"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>605</v>
+        <v>142</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>600</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="G104" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="H104" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="I104" s="9" t="s">
-        <v>804</v>
+        <v>602</v>
+      </c>
+      <c r="G104" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="H104" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="J104" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="K104" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="L104" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="M104" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="N104" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="Q104" s="3"/>
       <c r="R104" s="2"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>608</v>
-      </c>
-      <c r="D105" s="14" t="s">
-        <v>609</v>
-      </c>
-      <c r="E105" s="12" t="s">
-        <v>610</v>
-      </c>
-      <c r="F105" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G105" s="12" t="s">
-        <v>611</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="I105" s="11" t="s">
-        <v>612</v>
-      </c>
-      <c r="J105" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="K105" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="L105" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="M105" s="9" t="s">
-        <v>872</v>
-      </c>
-      <c r="N105" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="O105" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="H105" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="I105" s="9" t="s">
         <v>804</v>
-      </c>
-      <c r="P105" s="1" t="s">
-        <v>836</v>
       </c>
       <c r="Q105" s="3"/>
       <c r="R105" s="2"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="B106" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C106" s="12" t="s">
-        <v>614</v>
+      <c r="C106" s="11" t="s">
+        <v>608</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>615</v>
-      </c>
-      <c r="E106" s="10" t="s">
-        <v>222</v>
+        <v>609</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>610</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>616</v>
-      </c>
-      <c r="G106" s="13" t="s">
-        <v>253</v>
+        <v>231</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="I106" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="J106" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="K106" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="L106" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="M106" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="N106" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="O106" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>836</v>
       </c>
       <c r="Q106" s="3"/>
       <c r="R106" s="2"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="D107" s="12" t="s">
-        <v>618</v>
+        <v>143</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="D107" s="14" t="s">
+        <v>615</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>619</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="G107" s="10" t="s">
-        <v>621</v>
-      </c>
-      <c r="H107" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="I107" s="14" t="s">
-        <v>622</v>
-      </c>
-      <c r="J107" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="K107" s="12" t="s">
-        <v>624</v>
-      </c>
-      <c r="L107" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="M107" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="N107" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="O107" s="1" t="s">
-        <v>279</v>
+        <v>222</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="G107" s="13" t="s">
+        <v>253</v>
       </c>
       <c r="Q107" s="3"/>
       <c r="R107" s="2"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="D108" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>233</v>
+        <v>80</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="I108" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="J108" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="K108" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="L108" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="M108" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="N108" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="Q108" s="3"/>
       <c r="R108" s="2"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="E109" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="F109" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="G109" s="12" t="s">
-        <v>628</v>
-      </c>
-      <c r="H109" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="I109" s="14" t="s">
-        <v>629</v>
-      </c>
-      <c r="J109" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="K109" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="L109" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="M109" s="1" t="s">
-        <v>500</v>
+        <v>144</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="Q109" s="3"/>
       <c r="R109" s="2"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="B110" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C110" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>871</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="F110" s="14" t="s">
+      <c r="C110" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="H110" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="I110" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="J110" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="K110" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="L110" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="G110" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>873</v>
+      <c r="M110" s="1" t="s">
+        <v>500</v>
       </c>
       <c r="Q110" s="3"/>
       <c r="R110" s="2"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B111" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B111" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>800</v>
+        <v>184</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>801</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>802</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>810</v>
+        <v>871</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>873</v>
       </c>
       <c r="Q111" s="3"/>
       <c r="R111" s="2"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="E112" s="10" t="s">
-        <v>874</v>
-      </c>
-      <c r="F112" s="12" t="s">
-        <v>274</v>
+        <v>82</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>810</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>433</v>
+        <v>882</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>883</v>
       </c>
       <c r="Q112" s="3"/>
       <c r="R112" s="2"/>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C113" s="13" t="s">
-        <v>631</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>632</v>
-      </c>
-      <c r="E113" s="14" t="s">
-        <v>633</v>
-      </c>
-      <c r="F113" s="13" t="s">
-        <v>569</v>
-      </c>
-      <c r="G113" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="H113" s="11" t="s">
-        <v>635</v>
-      </c>
-      <c r="I113" s="10" t="s">
-        <v>636</v>
-      </c>
-      <c r="J113" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="K113" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="L113" s="7" t="s">
-        <v>808</v>
+        <v>83</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="Q113" s="3"/>
       <c r="R113" s="2"/>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>637</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>638</v>
-      </c>
-      <c r="E114" s="10" t="s">
-        <v>639</v>
-      </c>
-      <c r="F114" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="H114" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="I114" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="J114" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K114" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="L114" s="1" t="s">
-        <v>776</v>
+        <v>84</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>632</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>569</v>
+      </c>
+      <c r="G114" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="I114" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="J114" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="K114" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="L114" s="7" t="s">
+        <v>808</v>
       </c>
       <c r="Q114" s="3"/>
       <c r="R114" s="2"/>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B115" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B115" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>641</v>
-      </c>
-      <c r="D115" s="12" t="s">
-        <v>642</v>
-      </c>
-      <c r="E115" s="14" t="s">
-        <v>643</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="G115" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="H115" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="I115" s="12" t="s">
-        <v>314</v>
+        <v>637</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="H115" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="J115" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K115" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>776</v>
       </c>
       <c r="Q115" s="3"/>
       <c r="R115" s="2"/>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C116" s="13" t="s">
-        <v>645</v>
-      </c>
-      <c r="D116" s="24" t="s">
-        <v>194</v>
+        <v>86</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>642</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>646</v>
-      </c>
-      <c r="F116" s="14" t="s">
-        <v>647</v>
+        <v>643</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>644</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>648</v>
-      </c>
-      <c r="H116" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="I116" s="14" t="s">
-        <v>606</v>
-      </c>
-      <c r="J116" s="11" t="s">
-        <v>649</v>
-      </c>
-      <c r="K116" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="L116" s="11" t="s">
-        <v>267</v>
+        <v>231</v>
+      </c>
+      <c r="H116" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="I116" s="12" t="s">
+        <v>314</v>
       </c>
       <c r="Q116" s="3"/>
       <c r="R116" s="2"/>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C117" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="D117" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="D117" s="12" t="s">
-        <v>651</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>652</v>
-      </c>
-      <c r="F117" s="12" t="s">
-        <v>653</v>
-      </c>
-      <c r="G117" s="10" t="s">
-        <v>654</v>
-      </c>
-      <c r="H117" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="I117" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>233</v>
+      <c r="E117" s="14" t="s">
+        <v>646</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="H117" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="I117" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="J117" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="K117" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="L117" s="11" t="s">
+        <v>267</v>
       </c>
       <c r="Q117" s="3"/>
       <c r="R117" s="2"/>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B118" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C118" s="15" t="s">
-        <v>655</v>
+        <v>88</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="E118" s="14" t="s">
-        <v>657</v>
-      </c>
-      <c r="F118" s="11" t="s">
-        <v>658</v>
-      </c>
-      <c r="G118" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="H118" s="6" t="s">
-        <v>659</v>
+        <v>651</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="G118" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>522</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="J118" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="K118" s="12" t="s">
-        <v>660</v>
-      </c>
-      <c r="L118" s="11" t="s">
-        <v>661</v>
-      </c>
-      <c r="M118" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="N118" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="O118" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="P118" s="1" t="s">
-        <v>500</v>
+        <v>196</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="Q118" s="3"/>
       <c r="R118" s="2"/>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>662</v>
-      </c>
-      <c r="D119" s="14" t="s">
-        <v>663</v>
-      </c>
-      <c r="E119" s="12" t="s">
-        <v>664</v>
+        <v>89</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>657</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>418</v>
+        <v>658</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>665</v>
+        <v>422</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="I119" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K119" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="L119" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="M119" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="N119" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="P119" s="1" t="s">
+        <v>500</v>
       </c>
       <c r="Q119" s="3"/>
       <c r="R119" s="2"/>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B120" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B120" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>666</v>
-      </c>
-      <c r="D120" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>667</v>
+        <v>662</v>
+      </c>
+      <c r="D120" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>664</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>668</v>
-      </c>
-      <c r="G120" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="H120" s="12" t="s">
-        <v>669</v>
-      </c>
-      <c r="I120" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="J120" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="K120" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="L120" s="14" t="s">
-        <v>812</v>
+        <v>418</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>665</v>
       </c>
       <c r="Q120" s="3"/>
       <c r="R120" s="2"/>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B121" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>670</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>671</v>
-      </c>
-      <c r="E121" s="14" t="s">
-        <v>672</v>
+        <v>90</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>667</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="G121" s="11" t="s">
-        <v>673</v>
+        <v>668</v>
+      </c>
+      <c r="G121" s="14" t="s">
+        <v>169</v>
       </c>
       <c r="H121" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="I121" s="8" t="s">
-        <v>170</v>
+        <v>669</v>
+      </c>
+      <c r="I121" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="K121" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="L121" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="M121" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="N121" s="8" t="s">
-        <v>869</v>
-      </c>
-      <c r="O121" s="1" t="s">
-        <v>825</v>
+        <v>163</v>
+      </c>
+      <c r="K121" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="L121" s="14" t="s">
+        <v>812</v>
       </c>
       <c r="Q121" s="3"/>
       <c r="R121" s="2"/>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B122" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B122" s="12" t="s">
         <v>157</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>674</v>
-      </c>
-      <c r="D122" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="F122" s="9" t="s">
-        <v>676</v>
-      </c>
-      <c r="G122" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="H122" s="9" t="s">
-        <v>677</v>
+        <v>670</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="G122" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="H122" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="I122" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="J122" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="K122" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="L122" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="M122" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="N122" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>825</v>
       </c>
       <c r="Q122" s="3"/>
       <c r="R122" s="2"/>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B123" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="E123" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="F123" s="12" t="s">
-        <v>857</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>839</v>
+        <v>147</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>677</v>
       </c>
       <c r="Q123" s="3"/>
       <c r="R123" s="2"/>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C124" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D124" s="11" t="s">
-        <v>354</v>
+        <v>92</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>678</v>
+        <v>183</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H124" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="I124" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="J124" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="K124" s="7" t="s">
-        <v>327</v>
+        <v>857</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>839</v>
       </c>
       <c r="Q124" s="3"/>
       <c r="R124" s="2"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B125" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C125" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="D125" s="13" t="s">
-        <v>681</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>233</v>
+      <c r="C125" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H125" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I125" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="J125" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="K125" s="7" t="s">
+        <v>327</v>
       </c>
       <c r="Q125" s="3"/>
       <c r="R125" s="2"/>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C126" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="E126" s="14" t="s">
-        <v>274</v>
+        <v>94</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="Q126" s="3"/>
       <c r="R126" s="2"/>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C127" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D127" s="14" t="s">
-        <v>609</v>
-      </c>
-      <c r="E127" s="11" t="s">
-        <v>611</v>
-      </c>
-      <c r="F127" s="11" t="s">
-        <v>606</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H127" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="I127" s="12" t="s">
-        <v>685</v>
-      </c>
-      <c r="J127" s="10" t="s">
-        <v>679</v>
-      </c>
-      <c r="K127" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="L127" s="1" t="s">
-        <v>875</v>
+        <v>95</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>274</v>
       </c>
       <c r="Q127" s="3"/>
       <c r="R127" s="2"/>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="B128" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C128" s="9" t="s">
-        <v>686</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>687</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="F128" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="G128" s="11" t="s">
-        <v>688</v>
+      <c r="C128" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D128" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H128" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="I128" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="J128" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>875</v>
       </c>
       <c r="Q128" s="3"/>
       <c r="R128" s="2"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B129" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C129" s="13" t="s">
-        <v>689</v>
-      </c>
-      <c r="D129" s="14" t="s">
-        <v>690</v>
-      </c>
-      <c r="E129" s="14" t="s">
-        <v>691</v>
+        <v>148</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>502</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="G129" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="H129" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="I129" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="J129" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="K129" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="L129" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="M129" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="N129" s="11" t="s">
-        <v>876</v>
-      </c>
-      <c r="O129" s="1" t="s">
-        <v>433</v>
+        <v>274</v>
+      </c>
+      <c r="G129" s="11" t="s">
+        <v>688</v>
       </c>
       <c r="Q129" s="3"/>
       <c r="R129" s="2"/>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>693</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>161</v>
+        <v>97</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="D130" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>691</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>606</v>
+        <v>241</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="H130" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="I130" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="J130" s="14" t="s">
-        <v>864</v>
+        <v>358</v>
+      </c>
+      <c r="H130" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I130" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="J130" s="10" t="s">
+        <v>359</v>
       </c>
       <c r="K130" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="L130" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="L130" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="M130" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="M130" s="12" t="s">
-        <v>805</v>
-      </c>
-      <c r="N130" s="9" t="s">
-        <v>819</v>
+      <c r="N130" s="11" t="s">
+        <v>876</v>
+      </c>
+      <c r="O130" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="Q130" s="3"/>
       <c r="R130" s="2"/>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B131" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C131" s="14" t="s">
-        <v>694</v>
+        <v>98</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>693</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>695</v>
-      </c>
-      <c r="E131" s="12" t="s">
-        <v>696</v>
+        <v>231</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>697</v>
+        <v>606</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>698</v>
-      </c>
-      <c r="H131" s="12" t="s">
-        <v>699</v>
-      </c>
-      <c r="I131" s="7" t="s">
-        <v>404</v>
+        <v>290</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="I131" s="14" t="s">
+        <v>273</v>
       </c>
       <c r="J131" s="14" t="s">
-        <v>327</v>
+        <v>864</v>
       </c>
       <c r="K131" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="L131" s="14" t="s">
-        <v>700</v>
-      </c>
-      <c r="M131" s="14" t="s">
-        <v>701</v>
+        <v>374</v>
+      </c>
+      <c r="L131" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="M131" s="12" t="s">
+        <v>805</v>
       </c>
       <c r="N131" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="O131" s="1" t="s">
-        <v>433</v>
+        <v>819</v>
       </c>
       <c r="Q131" s="3"/>
       <c r="R131" s="2"/>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B132" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B132" s="12" t="s">
         <v>157</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>702</v>
-      </c>
-      <c r="D132" s="14" t="s">
-        <v>703</v>
+        <v>694</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>695</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>439</v>
+        <v>696</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="G132" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="H132" s="11" t="s">
-        <v>261</v>
+        <v>698</v>
+      </c>
+      <c r="H132" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="I132" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="J132" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="K132" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="L132" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="M132" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="N132" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="Q132" s="3"/>
       <c r="R132" s="2"/>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B133" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C133" s="11" t="s">
-        <v>705</v>
-      </c>
-      <c r="D133" s="11" t="s">
-        <v>596</v>
+      <c r="C133" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="D133" s="14" t="s">
+        <v>703</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>706</v>
+        <v>439</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="G133" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="H133" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="I133" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="J133" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="K133" s="12" t="s">
-        <v>708</v>
-      </c>
-      <c r="L133" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="M133" s="7" t="s">
-        <v>224</v>
+        <v>522</v>
+      </c>
+      <c r="H133" s="11" t="s">
+        <v>261</v>
       </c>
       <c r="Q133" s="3"/>
       <c r="R133" s="2"/>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C134" s="14" t="s">
-        <v>422</v>
+        <v>101</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>705</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>709</v>
-      </c>
-      <c r="E134" s="14" t="s">
-        <v>830</v>
-      </c>
-      <c r="F134" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G134" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="H134" s="14" t="s">
-        <v>710</v>
-      </c>
-      <c r="I134" s="11" t="s">
-        <v>711</v>
+        <v>596</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>706</v>
+      </c>
+      <c r="F134" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="G134" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="H134" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="I134" s="12" t="s">
+        <v>285</v>
       </c>
       <c r="J134" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="K134" s="14" t="s">
-        <v>712</v>
-      </c>
-      <c r="L134" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K134" s="12" t="s">
+        <v>708</v>
+      </c>
+      <c r="L134" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="M134" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="N134" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="O134" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="P134" s="9" t="s">
-        <v>808</v>
+      <c r="M134" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="Q134" s="3"/>
       <c r="R134" s="2"/>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B135" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C135" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="D135" s="13" t="s">
-        <v>714</v>
+        <v>102</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C135" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>709</v>
       </c>
       <c r="E135" s="14" t="s">
-        <v>715</v>
-      </c>
-      <c r="F135" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="G135" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="H135" s="12" t="s">
-        <v>716</v>
-      </c>
-      <c r="I135" s="14" t="s">
-        <v>606</v>
-      </c>
-      <c r="J135" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="K135" s="11" t="s">
-        <v>717</v>
-      </c>
-      <c r="L135" s="11" t="s">
-        <v>718</v>
-      </c>
-      <c r="M135" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="N135" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G135" s="9" t="s">
         <v>233</v>
+      </c>
+      <c r="H135" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="I135" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="J135" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="K135" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="L135" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M135" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="N135" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="O135" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="P135" s="9" t="s">
+        <v>808</v>
       </c>
       <c r="Q135" s="3"/>
       <c r="R135" s="2"/>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C136" s="14" t="s">
-        <v>719</v>
-      </c>
-      <c r="D136" s="12" t="s">
-        <v>720</v>
-      </c>
-      <c r="E136" s="11" t="s">
-        <v>721</v>
-      </c>
-      <c r="F136" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="G136" s="12" t="s">
-        <v>722</v>
+        <v>103</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="D136" s="13" t="s">
+        <v>714</v>
+      </c>
+      <c r="E136" s="14" t="s">
+        <v>715</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="G136" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="H136" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="I136" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="J136" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="K136" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="L136" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="M136" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="Q136" s="3"/>
       <c r="R136" s="2"/>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>799</v>
-      </c>
-      <c r="D137" s="11" t="s">
-        <v>574</v>
+        <v>104</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C137" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="D137" s="12" t="s">
+        <v>720</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>482</v>
+        <v>721</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="G137" s="14" t="s">
-        <v>723</v>
+        <v>246</v>
+      </c>
+      <c r="G137" s="12" t="s">
+        <v>722</v>
       </c>
       <c r="Q137" s="3"/>
       <c r="R137" s="2"/>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C138" s="12" t="s">
-        <v>724</v>
-      </c>
-      <c r="D138" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="E138" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="F138" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="G138" s="11" t="s">
-        <v>725</v>
-      </c>
-      <c r="H138" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="I138" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="J138" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="K138" s="9" t="s">
-        <v>726</v>
-      </c>
-      <c r="L138" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="M138" s="1" t="s">
+      <c r="C138" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="F138" s="12" t="s">
         <v>233</v>
+      </c>
+      <c r="G138" s="14" t="s">
+        <v>723</v>
       </c>
       <c r="Q138" s="3"/>
       <c r="R138" s="2"/>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B139" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C139" s="11" t="s">
-        <v>727</v>
-      </c>
-      <c r="D139" s="13" t="s">
-        <v>728</v>
-      </c>
-      <c r="E139" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="F139" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F139" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="G139" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="H139" s="9" t="s">
-        <v>259</v>
+      <c r="G139" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="H139" s="11" t="s">
+        <v>290</v>
       </c>
       <c r="I139" s="9" t="s">
-        <v>729</v>
+        <v>195</v>
       </c>
       <c r="J139" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="K139" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="L139" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="K139" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="L139" s="11" t="s">
-        <v>877</v>
-      </c>
-      <c r="M139" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="N139" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="O139" s="9" t="s">
-        <v>804</v>
-      </c>
-      <c r="P139" s="1" t="s">
-        <v>838</v>
+      <c r="M139" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="Q139" s="3"/>
       <c r="R139" s="2"/>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C140" s="13" t="s">
-        <v>730</v>
+        <v>107</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>727</v>
       </c>
       <c r="D140" s="13" t="s">
-        <v>731</v>
-      </c>
-      <c r="E140" s="12" t="s">
-        <v>732</v>
-      </c>
-      <c r="F140" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="G140" s="14" t="s">
-        <v>734</v>
-      </c>
-      <c r="H140" s="14" t="s">
-        <v>735</v>
-      </c>
-      <c r="I140" s="14" t="s">
-        <v>736</v>
-      </c>
-      <c r="J140" s="11" t="s">
-        <v>737</v>
+        <v>728</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="F140" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="G140" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="I140" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="J140" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="K140" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="L140" s="14" t="s">
-        <v>172</v>
+        <v>433</v>
+      </c>
+      <c r="L140" s="11" t="s">
+        <v>877</v>
       </c>
       <c r="M140" s="11" t="s">
-        <v>738</v>
+        <v>173</v>
       </c>
       <c r="N140" s="12" t="s">
-        <v>241</v>
+        <v>374</v>
+      </c>
+      <c r="O140" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="P140" s="1" t="s">
+        <v>838</v>
       </c>
       <c r="Q140" s="3"/>
       <c r="R140" s="2"/>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="D141" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E141" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="F141" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G141" s="9" t="s">
-        <v>196</v>
+        <v>108</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="D141" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="E141" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="F141" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="G141" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="H141" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="I141" s="14" t="s">
+        <v>736</v>
+      </c>
+      <c r="J141" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="K141" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="L141" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="M141" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="N141" s="12" t="s">
+        <v>241</v>
       </c>
       <c r="Q141" s="3"/>
       <c r="R141" s="2"/>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="B142" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C142" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="D142" s="17"/>
-      <c r="E142" s="17"/>
-      <c r="F142" s="17"/>
+        <v>109</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E142" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="Q142" s="3"/>
       <c r="R142" s="2"/>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C143" s="14" t="s">
-        <v>739</v>
-      </c>
-      <c r="D143" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="E143" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="F143" s="14" t="s">
-        <v>740</v>
-      </c>
-      <c r="G143" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="H143" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="I143" s="12" t="s">
-        <v>741</v>
-      </c>
-      <c r="J143" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="K143" s="1" t="s">
-        <v>823</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="D143" s="17"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="17"/>
       <c r="Q143" s="3"/>
       <c r="R143" s="2"/>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D144" s="12" t="s">
-        <v>813</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>847</v>
+        <v>110</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C144" s="14" t="s">
+        <v>739</v>
+      </c>
+      <c r="D144" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="E144" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="F144" s="14" t="s">
+        <v>740</v>
+      </c>
+      <c r="G144" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H144" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="I144" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="J144" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>823</v>
       </c>
       <c r="Q144" s="3"/>
       <c r="R144" s="2"/>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C145" s="14" t="s">
-        <v>742</v>
+      <c r="C145" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>743</v>
-      </c>
-      <c r="E145" s="11" t="s">
-        <v>744</v>
-      </c>
-      <c r="F145" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="G145" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>233</v>
+        <v>813</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>847</v>
       </c>
       <c r="Q145" s="3"/>
       <c r="R145" s="2"/>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B146" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="D146" s="10" t="s">
-        <v>745</v>
-      </c>
-      <c r="E146" s="14" t="s">
-        <v>746</v>
-      </c>
-      <c r="F146" s="14" t="s">
-        <v>255</v>
+        <v>111</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C146" s="14" t="s">
+        <v>742</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>459</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>747</v>
-      </c>
-      <c r="H146" s="10" t="s">
-        <v>729</v>
-      </c>
-      <c r="I146" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="J146" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="K146" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="L146" s="9" t="s">
-        <v>748</v>
-      </c>
-      <c r="M146" s="1" t="s">
-        <v>825</v>
+        <v>340</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="Q146" s="3"/>
       <c r="R146" s="2"/>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>578</v>
-      </c>
-      <c r="D147" s="12" t="s">
-        <v>749</v>
-      </c>
-      <c r="E147" s="11" t="s">
-        <v>750</v>
-      </c>
-      <c r="F147" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="G147" s="14" t="s">
-        <v>751</v>
-      </c>
-      <c r="H147" s="9" t="s">
-        <v>752</v>
-      </c>
-      <c r="I147" s="7" t="s">
-        <v>821</v>
-      </c>
-      <c r="J147" s="9" t="s">
-        <v>878</v>
+        <v>150</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="E147" s="14" t="s">
+        <v>746</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="H147" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="I147" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="J147" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K147" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L147" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="M147" s="1" t="s">
+        <v>825</v>
       </c>
       <c r="Q147" s="3"/>
       <c r="R147" s="2"/>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C148" s="12" t="s">
-        <v>753</v>
-      </c>
-      <c r="D148" s="14" t="s">
-        <v>754</v>
-      </c>
-      <c r="E148" s="14" t="s">
-        <v>755</v>
+        <v>112</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>749</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>750</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>756</v>
-      </c>
-      <c r="G148" s="12" t="s">
-        <v>757</v>
+        <v>373</v>
+      </c>
+      <c r="G148" s="14" t="s">
+        <v>751</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>758</v>
-      </c>
-      <c r="I148" s="14" t="s">
-        <v>759</v>
-      </c>
-      <c r="J148" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="K148" s="14" t="s">
-        <v>760</v>
-      </c>
-      <c r="L148" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="M148" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="N148" s="9" t="s">
-        <v>807</v>
+        <v>752</v>
+      </c>
+      <c r="I148" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="J148" s="9" t="s">
+        <v>878</v>
       </c>
       <c r="Q148" s="3"/>
       <c r="R148" s="2"/>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B149" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C149" s="14" t="s">
-        <v>761</v>
-      </c>
-      <c r="D149" s="10" t="s">
-        <v>762</v>
-      </c>
-      <c r="E149" s="12" t="s">
-        <v>763</v>
+        <v>113</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D149" s="14" t="s">
+        <v>754</v>
+      </c>
+      <c r="E149" s="14" t="s">
+        <v>755</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>711</v>
-      </c>
-      <c r="G149" s="11" t="s">
-        <v>764</v>
+        <v>756</v>
+      </c>
+      <c r="G149" s="12" t="s">
+        <v>757</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>765</v>
-      </c>
-      <c r="I149" s="13" t="s">
-        <v>275</v>
+        <v>758</v>
+      </c>
+      <c r="I149" s="14" t="s">
+        <v>759</v>
+      </c>
+      <c r="J149" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="K149" s="14" t="s">
+        <v>760</v>
+      </c>
+      <c r="L149" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="M149" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="N149" s="9" t="s">
+        <v>807</v>
       </c>
       <c r="Q149" s="3"/>
       <c r="R149" s="2"/>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>766</v>
-      </c>
-      <c r="D150" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="E150" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="F150" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="G150" s="9" t="s">
-        <v>172</v>
+        <v>151</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C150" s="14" t="s">
+        <v>761</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="F150" s="12" t="s">
+        <v>711</v>
+      </c>
+      <c r="G150" s="11" t="s">
+        <v>764</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>809</v>
-      </c>
-      <c r="I150" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="J150" s="1" t="s">
-        <v>279</v>
+        <v>765</v>
+      </c>
+      <c r="I150" s="13" t="s">
+        <v>275</v>
       </c>
       <c r="Q150" s="3"/>
       <c r="R150" s="2"/>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C151" s="12" t="s">
-        <v>767</v>
-      </c>
-      <c r="D151" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="E151" s="12" t="s">
-        <v>603</v>
-      </c>
-      <c r="F151" s="12" t="s">
-        <v>418</v>
+        <v>114</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E151" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="H151" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="H151" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="J151" s="1" t="s">
         <v>279</v>
       </c>
       <c r="Q151" s="3"/>
@@ -8773,376 +8782,409 @@
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B152" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B152" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="D152" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>768</v>
-      </c>
-      <c r="F152" s="9" t="s">
-        <v>769</v>
-      </c>
-      <c r="G152" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H152" s="14" t="s">
-        <v>538</v>
-      </c>
-      <c r="I152" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="J152" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="K152" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L152" s="1" t="s">
-        <v>433</v>
+        <v>767</v>
+      </c>
+      <c r="D152" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="F152" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="G152" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="H152" s="12" t="s">
+        <v>279</v>
       </c>
       <c r="Q152" s="3"/>
       <c r="R152" s="2"/>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C153" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F153" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="G153" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="H153" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="I153" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="J153" s="11" t="s">
-        <v>871</v>
-      </c>
-      <c r="K153" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="L153" s="8" t="s">
-        <v>816</v>
-      </c>
-      <c r="M153" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="N153" s="1" t="s">
-        <v>843</v>
+      <c r="C153" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="D153" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>768</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H153" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="I153" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="J153" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="K153" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="Q153" s="3"/>
       <c r="R153" s="2"/>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C154" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H154" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="I154" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="J154" s="11" t="s">
+        <v>871</v>
+      </c>
+      <c r="K154" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D154" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="E154" s="8" t="s">
-        <v>441</v>
+      <c r="L154" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="M154" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="N154" s="1" t="s">
+        <v>843</v>
       </c>
       <c r="Q154" s="3"/>
       <c r="R154" s="2"/>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B155" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C155" s="11" t="s">
-        <v>771</v>
-      </c>
-      <c r="D155" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="E155" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="F155" s="14" t="s">
-        <v>772</v>
-      </c>
-      <c r="G155" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="H155" s="13" t="s">
-        <v>812</v>
+        <v>152</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>882</v>
       </c>
       <c r="Q155" s="3"/>
       <c r="R155" s="2"/>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B156" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C156" s="12" t="s">
-        <v>773</v>
+        <v>118</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>771</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="E156" s="7" t="s">
-        <v>774</v>
-      </c>
-      <c r="F156" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>847</v>
+        <v>445</v>
+      </c>
+      <c r="E156" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F156" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="G156" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="H156" s="13" t="s">
+        <v>812</v>
       </c>
       <c r="Q156" s="3"/>
       <c r="R156" s="2"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B157" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B157" s="10" t="s">
         <v>157</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>775</v>
-      </c>
-      <c r="D157" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="E157" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="F157" s="11" t="s">
-        <v>482</v>
+        <v>773</v>
+      </c>
+      <c r="D157" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="F157" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>847</v>
       </c>
       <c r="Q157" s="3"/>
       <c r="R157" s="2"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>776</v>
-      </c>
-      <c r="D158" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="D158" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="E158" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="E158" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="F158" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="G158" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="H158" s="8" t="s">
-        <v>777</v>
-      </c>
-      <c r="I158" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="J158" s="7" t="s">
-        <v>857</v>
-      </c>
-      <c r="K158" s="1" t="s">
-        <v>336</v>
+      <c r="F158" s="11" t="s">
+        <v>482</v>
       </c>
       <c r="Q158" s="3"/>
       <c r="R158" s="2"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="B159" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C159" s="17" t="s">
-        <v>679</v>
-      </c>
-      <c r="D159" s="17"/>
-      <c r="E159" s="17"/>
-      <c r="F159" s="17"/>
-      <c r="G159" s="17"/>
-      <c r="H159" s="17"/>
-      <c r="I159" s="17"/>
-      <c r="J159" s="17"/>
+        <v>120</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E159" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G159" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="H159" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="I159" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="J159" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>336</v>
+      </c>
       <c r="Q159" s="3"/>
       <c r="R159" s="2"/>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B160" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C160" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="D160" s="14" t="s">
-        <v>778</v>
-      </c>
-      <c r="E160" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="F160" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="G160" s="9" t="s">
-        <v>779</v>
-      </c>
-      <c r="H160" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="I160" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="J160" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="K160" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="L160" s="1" t="s">
-        <v>834</v>
-      </c>
+        <v>828</v>
+      </c>
+      <c r="B160" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>679</v>
+      </c>
+      <c r="D160" s="17" t="s">
+        <v>882</v>
+      </c>
+      <c r="E160" s="17"/>
+      <c r="F160" s="17"/>
+      <c r="G160" s="17"/>
+      <c r="H160" s="17"/>
+      <c r="I160" s="17"/>
+      <c r="J160" s="17"/>
       <c r="Q160" s="3"/>
       <c r="R160" s="2"/>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B161" s="12" t="s">
         <v>157</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>780</v>
-      </c>
-      <c r="D161" s="13" t="s">
-        <v>781</v>
+        <v>647</v>
+      </c>
+      <c r="D161" s="14" t="s">
+        <v>778</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>782</v>
-      </c>
-      <c r="F161" s="14" t="s">
-        <v>783</v>
-      </c>
-      <c r="G161" s="7" t="s">
-        <v>161</v>
+        <v>274</v>
+      </c>
+      <c r="F161" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="G161" s="9" t="s">
+        <v>779</v>
       </c>
       <c r="H161" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="I161" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="J161" s="14" t="s">
         <v>266</v>
+      </c>
+      <c r="K161" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>834</v>
       </c>
       <c r="Q161" s="3"/>
       <c r="R161" s="2"/>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="B162" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C162" s="11" t="s">
-        <v>784</v>
-      </c>
-      <c r="D162" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="E162" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F162" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="G162" s="10" t="s">
-        <v>880</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>847</v>
+      <c r="C162" s="14" t="s">
+        <v>780</v>
+      </c>
+      <c r="D162" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="E162" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="F162" s="14" t="s">
+        <v>783</v>
+      </c>
+      <c r="G162" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H162" s="12" t="s">
+        <v>266</v>
       </c>
       <c r="Q162" s="3"/>
       <c r="R162" s="2"/>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A163" s="5" t="s">
+      <c r="A163" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B163" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="E163" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F163" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="G163" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="Q163" s="3"/>
+      <c r="R163" s="2"/>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B163" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C163" s="20" t="s">
+      <c r="B164" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C164" s="20" t="s">
         <v>785</v>
       </c>
-      <c r="D163" s="21" t="s">
+      <c r="D164" s="21" t="s">
         <v>527</v>
       </c>
-      <c r="E163" s="23" t="s">
+      <c r="E164" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="F163" s="22" t="s">
+      <c r="F164" s="22" t="s">
         <v>786</v>
       </c>
-      <c r="G163" s="19" t="s">
+      <c r="G164" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="H163" s="21" t="s">
+      <c r="H164" s="21" t="s">
         <v>862</v>
       </c>
-      <c r="I163" s="41" t="s">
+      <c r="I164" s="41" t="s">
         <v>677</v>
       </c>
-      <c r="J163" s="21" t="s">
+      <c r="J164" s="21" t="s">
         <v>808</v>
       </c>
-      <c r="K163" s="4"/>
-      <c r="L163" s="4"/>
-      <c r="M163" s="4"/>
-      <c r="N163" s="4"/>
-      <c r="O163" s="4"/>
-      <c r="P163" s="4"/>
-      <c r="Q163" s="4"/>
-      <c r="R163" s="5"/>
+      <c r="K164" s="4"/>
+      <c r="L164" s="4"/>
+      <c r="M164" s="4"/>
+      <c r="N164" s="4"/>
+      <c r="O164" s="4"/>
+      <c r="P164" s="4"/>
+      <c r="Q164" s="4"/>
+      <c r="R164" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="885">
   <si>
     <t>Aatrox</t>
   </si>
@@ -2685,6 +2685,9 @@
   </si>
   <si>
     <t>Prestige Ocean Song</t>
+  </si>
+  <si>
+    <t>Snow Moon</t>
   </si>
 </sst>
 </file>
@@ -3337,8 +3340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112"/>
+    <sheetView tabSelected="1" topLeftCell="E70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N94" sqref="N94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4119,6 +4122,9 @@
       <c r="O22" s="1" t="s">
         <v>823</v>
       </c>
+      <c r="P22" s="1" t="s">
+        <v>884</v>
+      </c>
       <c r="Q22" s="3"/>
       <c r="R22" s="2"/>
     </row>
@@ -5048,6 +5054,9 @@
       <c r="E47" s="11" t="s">
         <v>406</v>
       </c>
+      <c r="F47" s="1" t="s">
+        <v>884</v>
+      </c>
       <c r="Q47" s="3"/>
       <c r="R47" s="2"/>
     </row>
@@ -5648,6 +5657,9 @@
       <c r="F63" s="7" t="s">
         <v>861</v>
       </c>
+      <c r="G63" s="1" t="s">
+        <v>884</v>
+      </c>
       <c r="Q63" s="3"/>
       <c r="R63" s="2"/>
     </row>
@@ -6823,6 +6835,9 @@
       </c>
       <c r="M94" s="7" t="s">
         <v>870</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>840</v>
       </c>
       <c r="Q94" s="3"/>
       <c r="R94" s="2"/>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="887">
   <si>
     <t>Aatrox</t>
   </si>
@@ -2688,6 +2688,12 @@
   </si>
   <si>
     <t>Snow Moon</t>
+  </si>
+  <si>
+    <t>Star Nemesis</t>
+  </si>
+  <si>
+    <t>Nilah</t>
   </si>
 </sst>
 </file>
@@ -3338,10 +3344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V164"/>
+  <dimension ref="A1:V165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N94" sqref="N94"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4446,6 +4452,12 @@
       <c r="J31" s="1" t="s">
         <v>844</v>
       </c>
+      <c r="K31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>869</v>
+      </c>
       <c r="Q31" s="3"/>
       <c r="R31" s="2"/>
     </row>
@@ -4610,6 +4622,9 @@
       <c r="K35" s="11" t="s">
         <v>348</v>
       </c>
+      <c r="L35" s="1" t="s">
+        <v>885</v>
+      </c>
       <c r="Q35" s="3"/>
       <c r="R35" s="2"/>
     </row>
@@ -5399,6 +5414,9 @@
       <c r="J56" s="7" t="s">
         <v>818</v>
       </c>
+      <c r="K56" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="Q56" s="3"/>
       <c r="R56" s="2"/>
     </row>
@@ -6628,2196 +6646,2195 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>564</v>
-      </c>
-      <c r="D89" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>565</v>
-      </c>
-      <c r="F89" s="14" t="s">
-        <v>566</v>
-      </c>
-      <c r="G89" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="H89" s="11" t="s">
-        <v>567</v>
-      </c>
-      <c r="I89" s="7" t="s">
-        <v>807</v>
-      </c>
-      <c r="J89" s="7" t="s">
-        <v>194</v>
-      </c>
+        <v>886</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
       <c r="Q89" s="3"/>
       <c r="R89" s="2"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>568</v>
+        <v>139</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>564</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>569</v>
+        <v>357</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="H90" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="I90" s="14" t="s">
-        <v>257</v>
+        <v>565</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>807</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="K90" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>835</v>
+        <v>194</v>
       </c>
       <c r="Q90" s="3"/>
       <c r="R90" s="2"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="E91" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="F91" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="G91" s="12" t="s">
-        <v>191</v>
+        <v>67</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>572</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>574</v>
-      </c>
-      <c r="I91" s="11" t="s">
-        <v>192</v>
+        <v>321</v>
+      </c>
+      <c r="I91" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="K91" s="7" t="s">
-        <v>804</v>
-      </c>
-      <c r="L91" s="14" t="s">
-        <v>812</v>
+        <v>212</v>
+      </c>
+      <c r="K91" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>835</v>
       </c>
       <c r="Q91" s="3"/>
       <c r="R91" s="2"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>575</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>576</v>
+        <v>68</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>516</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>577</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="H92" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="I92" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="J92" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="K92" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>832</v>
+        <v>573</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="I92" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="L92" s="14" t="s">
+        <v>812</v>
       </c>
       <c r="Q92" s="3"/>
       <c r="R92" s="2"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C93" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>172</v>
+      <c r="C93" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="H93" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="J93" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="K93" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>832</v>
       </c>
       <c r="Q93" s="3"/>
       <c r="R93" s="2"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B94" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B94" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="D94" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="H94" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="I94" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="J94" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="K94" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="L94" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="M94" s="7" t="s">
-        <v>870</v>
-      </c>
-      <c r="N94" s="1" t="s">
-        <v>840</v>
+        <v>578</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="Q94" s="3"/>
       <c r="R94" s="2"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>584</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>585</v>
+        <v>70</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>580</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>586</v>
-      </c>
-      <c r="F95" s="14" t="s">
-        <v>587</v>
-      </c>
-      <c r="G95" s="11" t="s">
-        <v>588</v>
-      </c>
-      <c r="H95" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="I95" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="J95" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="K95" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="L95" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="M95" s="11" t="s">
-        <v>327</v>
+        <v>581</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="I95" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="J95" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="K95" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="L95" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="M95" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>840</v>
       </c>
       <c r="Q95" s="3"/>
       <c r="R95" s="2"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C96" s="10" t="s">
-        <v>591</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>804</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>840</v>
+      <c r="C96" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="K96" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="L96" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="M96" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="Q96" s="3"/>
       <c r="R96" s="2"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B97" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B97" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="E97" s="12" t="s">
-        <v>871</v>
-      </c>
-      <c r="F97" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>776</v>
+        <v>591</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>840</v>
       </c>
       <c r="Q97" s="3"/>
       <c r="R97" s="2"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C98" s="9" t="s">
-        <v>592</v>
-      </c>
-      <c r="D98" s="12" t="s">
-        <v>593</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="F98" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>389</v>
+      <c r="C98" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>776</v>
       </c>
       <c r="Q98" s="3"/>
       <c r="R98" s="2"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B99" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C99" s="11" t="s">
-        <v>595</v>
+      <c r="C99" s="9" t="s">
+        <v>592</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="E99" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="H99" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>279</v>
+        <v>593</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="Q99" s="3"/>
       <c r="R99" s="2"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>596</v>
-      </c>
-      <c r="D100" s="14" t="s">
-        <v>597</v>
+        <v>75</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="F100" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="G100" s="14" t="s">
-        <v>599</v>
-      </c>
-      <c r="H100" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="I100" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="J100" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="K100" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="L100" s="14" t="s">
-        <v>241</v>
+        <v>338</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="Q100" s="3"/>
       <c r="R100" s="2"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B101" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C101" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="D101" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>172</v>
+      <c r="C101" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="G101" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="H101" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="I101" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="J101" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="K101" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="L101" s="14" t="s">
+        <v>241</v>
       </c>
       <c r="Q101" s="3"/>
       <c r="R101" s="2"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>308</v>
+        <v>77</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="Q102" s="3"/>
       <c r="R102" s="2"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="B103" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>846</v>
+        <v>141</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>308</v>
       </c>
       <c r="Q103" s="3"/>
       <c r="R103" s="2"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C104" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>600</v>
-      </c>
-      <c r="E104" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="F104" s="12" t="s">
-        <v>602</v>
-      </c>
-      <c r="G104" s="12" t="s">
-        <v>603</v>
-      </c>
-      <c r="H104" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="I104" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="J104" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="K104" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="L104" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="M104" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="N104" s="12" t="s">
-        <v>183</v>
+        <v>845</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>846</v>
       </c>
       <c r="Q104" s="3"/>
       <c r="R104" s="2"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>605</v>
+        <v>142</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>600</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="G105" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="H105" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="I105" s="9" t="s">
-        <v>804</v>
+        <v>602</v>
+      </c>
+      <c r="G105" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="H105" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="J105" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="K105" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="L105" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="M105" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="N105" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="Q105" s="3"/>
       <c r="R105" s="2"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>608</v>
-      </c>
-      <c r="D106" s="14" t="s">
-        <v>609</v>
-      </c>
-      <c r="E106" s="12" t="s">
-        <v>610</v>
-      </c>
-      <c r="F106" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G106" s="12" t="s">
-        <v>611</v>
-      </c>
-      <c r="H106" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="I106" s="11" t="s">
-        <v>612</v>
-      </c>
-      <c r="J106" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="K106" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="L106" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="M106" s="9" t="s">
-        <v>872</v>
-      </c>
-      <c r="N106" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="O106" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="H106" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="I106" s="9" t="s">
         <v>804</v>
-      </c>
-      <c r="P106" s="1" t="s">
-        <v>836</v>
       </c>
       <c r="Q106" s="3"/>
       <c r="R106" s="2"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="B107" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C107" s="12" t="s">
-        <v>614</v>
+      <c r="C107" s="11" t="s">
+        <v>608</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>615</v>
-      </c>
-      <c r="E107" s="10" t="s">
-        <v>222</v>
+        <v>609</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>610</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>616</v>
-      </c>
-      <c r="G107" s="13" t="s">
-        <v>253</v>
+        <v>231</v>
+      </c>
+      <c r="G107" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="I107" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="K107" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="L107" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="M107" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="N107" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="O107" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>836</v>
       </c>
       <c r="Q107" s="3"/>
       <c r="R107" s="2"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="D108" s="12" t="s">
-        <v>618</v>
+        <v>143</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>615</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>619</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="G108" s="10" t="s">
-        <v>621</v>
-      </c>
-      <c r="H108" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="I108" s="14" t="s">
-        <v>622</v>
-      </c>
-      <c r="J108" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="K108" s="12" t="s">
-        <v>624</v>
-      </c>
-      <c r="L108" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="M108" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="N108" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="O108" s="1" t="s">
-        <v>279</v>
+        <v>222</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="G108" s="13" t="s">
+        <v>253</v>
       </c>
       <c r="Q108" s="3"/>
       <c r="R108" s="2"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="D109" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>233</v>
+        <v>80</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="H109" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="I109" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="J109" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="K109" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="L109" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="M109" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="N109" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="Q109" s="3"/>
       <c r="R109" s="2"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="E110" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="F110" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="G110" s="12" t="s">
-        <v>628</v>
-      </c>
-      <c r="H110" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="I110" s="14" t="s">
-        <v>629</v>
-      </c>
-      <c r="J110" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="K110" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="L110" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="M110" s="1" t="s">
-        <v>500</v>
+        <v>144</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="Q110" s="3"/>
       <c r="R110" s="2"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="B111" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C111" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>871</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="F111" s="14" t="s">
+      <c r="C111" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="H111" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="I111" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="J111" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="K111" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="L111" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="G111" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>873</v>
+      <c r="M111" s="1" t="s">
+        <v>500</v>
       </c>
       <c r="Q111" s="3"/>
       <c r="R111" s="2"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B112" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B112" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>800</v>
+        <v>184</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>801</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>802</v>
-      </c>
-      <c r="F112" s="11" t="s">
-        <v>810</v>
+        <v>871</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>183</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>882</v>
+        <v>501</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="Q112" s="3"/>
       <c r="R112" s="2"/>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>874</v>
-      </c>
-      <c r="F113" s="12" t="s">
-        <v>274</v>
+        <v>82</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>810</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>433</v>
+        <v>882</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>883</v>
       </c>
       <c r="Q113" s="3"/>
       <c r="R113" s="2"/>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C114" s="13" t="s">
-        <v>631</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>632</v>
-      </c>
-      <c r="E114" s="14" t="s">
-        <v>633</v>
-      </c>
-      <c r="F114" s="13" t="s">
-        <v>569</v>
-      </c>
-      <c r="G114" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="H114" s="11" t="s">
-        <v>635</v>
-      </c>
-      <c r="I114" s="10" t="s">
-        <v>636</v>
-      </c>
-      <c r="J114" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="K114" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="L114" s="7" t="s">
-        <v>808</v>
+        <v>83</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="Q114" s="3"/>
       <c r="R114" s="2"/>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>637</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>638</v>
-      </c>
-      <c r="E115" s="10" t="s">
-        <v>639</v>
-      </c>
-      <c r="F115" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="H115" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="I115" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="J115" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K115" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="L115" s="1" t="s">
-        <v>776</v>
+        <v>84</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>632</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="F115" s="13" t="s">
+        <v>569</v>
+      </c>
+      <c r="G115" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="H115" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="I115" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="J115" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="K115" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="L115" s="7" t="s">
+        <v>808</v>
       </c>
       <c r="Q115" s="3"/>
       <c r="R115" s="2"/>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B116" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B116" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>641</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>642</v>
-      </c>
-      <c r="E116" s="14" t="s">
-        <v>643</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="G116" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="H116" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="I116" s="12" t="s">
-        <v>314</v>
+        <v>637</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="H116" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="J116" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K116" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>776</v>
       </c>
       <c r="Q116" s="3"/>
       <c r="R116" s="2"/>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B117" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C117" s="13" t="s">
-        <v>645</v>
-      </c>
-      <c r="D117" s="24" t="s">
-        <v>194</v>
+        <v>86</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>642</v>
       </c>
       <c r="E117" s="14" t="s">
-        <v>646</v>
-      </c>
-      <c r="F117" s="14" t="s">
-        <v>647</v>
+        <v>643</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>644</v>
       </c>
       <c r="G117" s="12" t="s">
-        <v>648</v>
-      </c>
-      <c r="H117" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="I117" s="14" t="s">
-        <v>606</v>
-      </c>
-      <c r="J117" s="11" t="s">
-        <v>649</v>
-      </c>
-      <c r="K117" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="L117" s="11" t="s">
-        <v>267</v>
+        <v>231</v>
+      </c>
+      <c r="H117" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="I117" s="12" t="s">
+        <v>314</v>
       </c>
       <c r="Q117" s="3"/>
       <c r="R117" s="2"/>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C118" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="D118" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="D118" s="12" t="s">
-        <v>651</v>
-      </c>
-      <c r="E118" s="11" t="s">
-        <v>652</v>
-      </c>
-      <c r="F118" s="12" t="s">
-        <v>653</v>
-      </c>
-      <c r="G118" s="10" t="s">
-        <v>654</v>
-      </c>
-      <c r="H118" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="I118" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>233</v>
+      <c r="E118" s="14" t="s">
+        <v>646</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="H118" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="I118" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="J118" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="K118" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="L118" s="11" t="s">
+        <v>267</v>
       </c>
       <c r="Q118" s="3"/>
       <c r="R118" s="2"/>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B119" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C119" s="15" t="s">
-        <v>655</v>
+        <v>88</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="E119" s="14" t="s">
-        <v>657</v>
-      </c>
-      <c r="F119" s="11" t="s">
-        <v>658</v>
-      </c>
-      <c r="G119" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="H119" s="6" t="s">
-        <v>659</v>
+        <v>651</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="G119" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>522</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="J119" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="K119" s="12" t="s">
-        <v>660</v>
-      </c>
-      <c r="L119" s="11" t="s">
-        <v>661</v>
-      </c>
-      <c r="M119" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="N119" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="O119" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="P119" s="1" t="s">
-        <v>500</v>
+        <v>196</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="Q119" s="3"/>
       <c r="R119" s="2"/>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C120" s="12" t="s">
-        <v>662</v>
-      </c>
-      <c r="D120" s="14" t="s">
-        <v>663</v>
-      </c>
-      <c r="E120" s="12" t="s">
-        <v>664</v>
+        <v>89</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C120" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="E120" s="14" t="s">
+        <v>657</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>418</v>
+        <v>658</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>665</v>
+        <v>422</v>
+      </c>
+      <c r="H120" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="I120" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="J120" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K120" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="L120" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="M120" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="N120" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="O120" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="P120" s="1" t="s">
+        <v>500</v>
       </c>
       <c r="Q120" s="3"/>
       <c r="R120" s="2"/>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B121" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B121" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>666</v>
-      </c>
-      <c r="D121" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>667</v>
+        <v>662</v>
+      </c>
+      <c r="D121" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>664</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>668</v>
-      </c>
-      <c r="G121" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="H121" s="12" t="s">
-        <v>669</v>
-      </c>
-      <c r="I121" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="J121" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="K121" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="L121" s="14" t="s">
-        <v>812</v>
+        <v>418</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>665</v>
       </c>
       <c r="Q121" s="3"/>
       <c r="R121" s="2"/>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B122" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>670</v>
-      </c>
-      <c r="D122" s="11" t="s">
-        <v>671</v>
-      </c>
-      <c r="E122" s="14" t="s">
-        <v>672</v>
+        <v>90</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>667</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="G122" s="11" t="s">
-        <v>673</v>
+        <v>668</v>
+      </c>
+      <c r="G122" s="14" t="s">
+        <v>169</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="I122" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="I122" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="J122" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="K122" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="L122" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="M122" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="J122" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="K122" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="L122" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="M122" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="N122" s="8" t="s">
-        <v>869</v>
-      </c>
-      <c r="O122" s="1" t="s">
-        <v>825</v>
       </c>
       <c r="Q122" s="3"/>
       <c r="R122" s="2"/>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B123" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B123" s="12" t="s">
         <v>157</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>674</v>
-      </c>
-      <c r="D123" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="F123" s="9" t="s">
-        <v>676</v>
-      </c>
-      <c r="G123" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="H123" s="9" t="s">
-        <v>677</v>
+        <v>670</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="G123" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="J123" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="K123" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="L123" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="M123" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="N123" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>825</v>
       </c>
       <c r="Q123" s="3"/>
       <c r="R123" s="2"/>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="E124" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="F124" s="12" t="s">
-        <v>857</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>839</v>
+        <v>147</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>677</v>
       </c>
       <c r="Q124" s="3"/>
       <c r="R124" s="2"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C125" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>354</v>
+        <v>92</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>678</v>
+        <v>183</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H125" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="I125" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="J125" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="K125" s="7" t="s">
-        <v>327</v>
+        <v>857</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>839</v>
       </c>
       <c r="Q125" s="3"/>
       <c r="R125" s="2"/>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B126" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C126" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="D126" s="13" t="s">
-        <v>681</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="F126" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>233</v>
+      <c r="C126" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I126" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="J126" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="K126" s="7" t="s">
+        <v>327</v>
       </c>
       <c r="Q126" s="3"/>
       <c r="R126" s="2"/>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C127" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="E127" s="14" t="s">
-        <v>274</v>
+        <v>94</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="D127" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="Q127" s="3"/>
       <c r="R127" s="2"/>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D128" s="14" t="s">
-        <v>609</v>
-      </c>
-      <c r="E128" s="11" t="s">
-        <v>611</v>
-      </c>
-      <c r="F128" s="11" t="s">
-        <v>606</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H128" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="I128" s="12" t="s">
-        <v>685</v>
-      </c>
-      <c r="J128" s="10" t="s">
-        <v>679</v>
-      </c>
-      <c r="K128" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="L128" s="1" t="s">
-        <v>875</v>
+        <v>95</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>274</v>
       </c>
       <c r="Q128" s="3"/>
       <c r="R128" s="2"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="B129" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C129" s="9" t="s">
-        <v>686</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>687</v>
-      </c>
-      <c r="E129" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="F129" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="G129" s="11" t="s">
-        <v>688</v>
+      <c r="C129" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="D129" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="I129" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="J129" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>875</v>
       </c>
       <c r="Q129" s="3"/>
       <c r="R129" s="2"/>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B130" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C130" s="13" t="s">
-        <v>689</v>
-      </c>
-      <c r="D130" s="14" t="s">
-        <v>690</v>
-      </c>
-      <c r="E130" s="14" t="s">
-        <v>691</v>
+        <v>148</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>502</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="G130" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="H130" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="I130" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="J130" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="K130" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="L130" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="M130" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="N130" s="11" t="s">
-        <v>876</v>
-      </c>
-      <c r="O130" s="1" t="s">
-        <v>433</v>
+        <v>274</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>688</v>
       </c>
       <c r="Q130" s="3"/>
       <c r="R130" s="2"/>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>693</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>161</v>
+        <v>97</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="D131" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="E131" s="14" t="s">
+        <v>691</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>606</v>
+        <v>241</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="H131" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="I131" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="J131" s="14" t="s">
-        <v>864</v>
+        <v>358</v>
+      </c>
+      <c r="H131" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I131" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="J131" s="10" t="s">
+        <v>359</v>
       </c>
       <c r="K131" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="L131" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="L131" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="M131" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="M131" s="12" t="s">
-        <v>805</v>
-      </c>
-      <c r="N131" s="9" t="s">
-        <v>819</v>
+      <c r="N131" s="11" t="s">
+        <v>876</v>
+      </c>
+      <c r="O131" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="Q131" s="3"/>
       <c r="R131" s="2"/>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B132" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C132" s="14" t="s">
-        <v>694</v>
+        <v>98</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>693</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>695</v>
-      </c>
-      <c r="E132" s="12" t="s">
-        <v>696</v>
+        <v>231</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>697</v>
+        <v>606</v>
       </c>
       <c r="G132" s="12" t="s">
-        <v>698</v>
-      </c>
-      <c r="H132" s="12" t="s">
-        <v>699</v>
-      </c>
-      <c r="I132" s="7" t="s">
-        <v>404</v>
+        <v>290</v>
+      </c>
+      <c r="H132" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="I132" s="14" t="s">
+        <v>273</v>
       </c>
       <c r="J132" s="14" t="s">
-        <v>327</v>
+        <v>864</v>
       </c>
       <c r="K132" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="L132" s="14" t="s">
-        <v>700</v>
-      </c>
-      <c r="M132" s="14" t="s">
-        <v>701</v>
+        <v>374</v>
+      </c>
+      <c r="L132" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="M132" s="12" t="s">
+        <v>805</v>
       </c>
       <c r="N132" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="O132" s="1" t="s">
-        <v>433</v>
+        <v>819</v>
       </c>
       <c r="Q132" s="3"/>
       <c r="R132" s="2"/>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B133" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B133" s="12" t="s">
         <v>157</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>702</v>
-      </c>
-      <c r="D133" s="14" t="s">
-        <v>703</v>
+        <v>694</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>695</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>439</v>
+        <v>696</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="G133" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="H133" s="11" t="s">
-        <v>261</v>
+        <v>698</v>
+      </c>
+      <c r="H133" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="I133" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="J133" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="K133" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="L133" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="M133" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="N133" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="Q133" s="3"/>
       <c r="R133" s="2"/>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B134" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C134" s="11" t="s">
-        <v>705</v>
-      </c>
-      <c r="D134" s="11" t="s">
-        <v>596</v>
+      <c r="C134" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="D134" s="14" t="s">
+        <v>703</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>706</v>
+        <v>439</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="G134" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="H134" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="I134" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="J134" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="K134" s="12" t="s">
-        <v>708</v>
-      </c>
-      <c r="L134" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="M134" s="7" t="s">
-        <v>224</v>
+        <v>522</v>
+      </c>
+      <c r="H134" s="11" t="s">
+        <v>261</v>
       </c>
       <c r="Q134" s="3"/>
       <c r="R134" s="2"/>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B135" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C135" s="14" t="s">
-        <v>422</v>
+        <v>101</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>705</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>709</v>
-      </c>
-      <c r="E135" s="14" t="s">
-        <v>830</v>
-      </c>
-      <c r="F135" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G135" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="H135" s="14" t="s">
-        <v>710</v>
-      </c>
-      <c r="I135" s="11" t="s">
-        <v>711</v>
+        <v>596</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>706</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="G135" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="H135" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="I135" s="12" t="s">
+        <v>285</v>
       </c>
       <c r="J135" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="K135" s="14" t="s">
-        <v>712</v>
-      </c>
-      <c r="L135" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K135" s="12" t="s">
+        <v>708</v>
+      </c>
+      <c r="L135" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="M135" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="N135" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="O135" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="P135" s="9" t="s">
-        <v>808</v>
+      <c r="M135" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="Q135" s="3"/>
       <c r="R135" s="2"/>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B136" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="D136" s="13" t="s">
-        <v>714</v>
+        <v>102</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C136" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>709</v>
       </c>
       <c r="E136" s="14" t="s">
-        <v>715</v>
-      </c>
-      <c r="F136" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="G136" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="H136" s="12" t="s">
-        <v>716</v>
-      </c>
-      <c r="I136" s="14" t="s">
-        <v>606</v>
-      </c>
-      <c r="J136" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="K136" s="11" t="s">
-        <v>717</v>
-      </c>
-      <c r="L136" s="11" t="s">
-        <v>718</v>
-      </c>
-      <c r="M136" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="N136" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G136" s="9" t="s">
         <v>233</v>
+      </c>
+      <c r="H136" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="I136" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="J136" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="K136" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="L136" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M136" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="N136" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="O136" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="P136" s="9" t="s">
+        <v>808</v>
       </c>
       <c r="Q136" s="3"/>
       <c r="R136" s="2"/>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C137" s="14" t="s">
-        <v>719</v>
-      </c>
-      <c r="D137" s="12" t="s">
-        <v>720</v>
-      </c>
-      <c r="E137" s="11" t="s">
-        <v>721</v>
-      </c>
-      <c r="F137" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="G137" s="12" t="s">
-        <v>722</v>
+        <v>103</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="D137" s="13" t="s">
+        <v>714</v>
+      </c>
+      <c r="E137" s="14" t="s">
+        <v>715</v>
+      </c>
+      <c r="F137" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="G137" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="H137" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="I137" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="J137" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="K137" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="L137" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="M137" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="Q137" s="3"/>
       <c r="R137" s="2"/>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>799</v>
-      </c>
-      <c r="D138" s="11" t="s">
-        <v>574</v>
+        <v>104</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>720</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>482</v>
+        <v>721</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="G138" s="14" t="s">
-        <v>723</v>
+        <v>246</v>
+      </c>
+      <c r="G138" s="12" t="s">
+        <v>722</v>
       </c>
       <c r="Q138" s="3"/>
       <c r="R138" s="2"/>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C139" s="12" t="s">
-        <v>724</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="E139" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="F139" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="G139" s="11" t="s">
-        <v>725</v>
-      </c>
-      <c r="H139" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="I139" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="J139" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="K139" s="9" t="s">
-        <v>726</v>
-      </c>
-      <c r="L139" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="M139" s="1" t="s">
+      <c r="C139" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="F139" s="12" t="s">
         <v>233</v>
+      </c>
+      <c r="G139" s="14" t="s">
+        <v>723</v>
       </c>
       <c r="Q139" s="3"/>
       <c r="R139" s="2"/>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B140" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C140" s="11" t="s">
-        <v>727</v>
-      </c>
-      <c r="D140" s="13" t="s">
-        <v>728</v>
-      </c>
-      <c r="E140" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="F140" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F140" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="G140" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="H140" s="9" t="s">
-        <v>259</v>
+      <c r="G140" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="H140" s="11" t="s">
+        <v>290</v>
       </c>
       <c r="I140" s="9" t="s">
-        <v>729</v>
+        <v>195</v>
       </c>
       <c r="J140" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="K140" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="L140" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="K140" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="L140" s="11" t="s">
-        <v>877</v>
-      </c>
-      <c r="M140" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="N140" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="O140" s="9" t="s">
-        <v>804</v>
-      </c>
-      <c r="P140" s="1" t="s">
-        <v>838</v>
+      <c r="M140" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="Q140" s="3"/>
       <c r="R140" s="2"/>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C141" s="13" t="s">
-        <v>730</v>
+        <v>107</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>727</v>
       </c>
       <c r="D141" s="13" t="s">
-        <v>731</v>
-      </c>
-      <c r="E141" s="12" t="s">
-        <v>732</v>
-      </c>
-      <c r="F141" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="G141" s="14" t="s">
-        <v>734</v>
-      </c>
-      <c r="H141" s="14" t="s">
-        <v>735</v>
-      </c>
-      <c r="I141" s="14" t="s">
-        <v>736</v>
-      </c>
-      <c r="J141" s="11" t="s">
-        <v>737</v>
+        <v>728</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="F141" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="G141" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="I141" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="J141" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="K141" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="L141" s="14" t="s">
-        <v>172</v>
+        <v>433</v>
+      </c>
+      <c r="L141" s="11" t="s">
+        <v>877</v>
       </c>
       <c r="M141" s="11" t="s">
-        <v>738</v>
+        <v>173</v>
       </c>
       <c r="N141" s="12" t="s">
-        <v>241</v>
+        <v>374</v>
+      </c>
+      <c r="O141" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="P141" s="1" t="s">
+        <v>838</v>
       </c>
       <c r="Q141" s="3"/>
       <c r="R141" s="2"/>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E142" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="F142" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G142" s="9" t="s">
-        <v>196</v>
+        <v>108</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="D142" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="E142" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="F142" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="G142" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="H142" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="I142" s="14" t="s">
+        <v>736</v>
+      </c>
+      <c r="J142" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="K142" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="L142" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="M142" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="N142" s="12" t="s">
+        <v>241</v>
       </c>
       <c r="Q142" s="3"/>
       <c r="R142" s="2"/>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="B143" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C143" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="D143" s="17"/>
-      <c r="E143" s="17"/>
-      <c r="F143" s="17"/>
+        <v>109</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E143" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G143" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="Q143" s="3"/>
       <c r="R143" s="2"/>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B144" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C144" s="14" t="s">
-        <v>739</v>
-      </c>
-      <c r="D144" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="E144" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="F144" s="14" t="s">
-        <v>740</v>
-      </c>
-      <c r="G144" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="H144" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="I144" s="12" t="s">
-        <v>741</v>
-      </c>
-      <c r="J144" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="K144" s="1" t="s">
-        <v>823</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="D144" s="17"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="17"/>
       <c r="Q144" s="3"/>
       <c r="R144" s="2"/>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D145" s="12" t="s">
-        <v>813</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>847</v>
+        <v>110</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>739</v>
+      </c>
+      <c r="D145" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="E145" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="F145" s="14" t="s">
+        <v>740</v>
+      </c>
+      <c r="G145" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H145" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="I145" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="J145" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>823</v>
       </c>
       <c r="Q145" s="3"/>
       <c r="R145" s="2"/>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C146" s="14" t="s">
-        <v>742</v>
+      <c r="C146" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>743</v>
-      </c>
-      <c r="E146" s="11" t="s">
-        <v>744</v>
-      </c>
-      <c r="F146" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="G146" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>233</v>
+        <v>813</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>847</v>
       </c>
       <c r="Q146" s="3"/>
       <c r="R146" s="2"/>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B147" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="D147" s="10" t="s">
-        <v>745</v>
-      </c>
-      <c r="E147" s="14" t="s">
-        <v>746</v>
-      </c>
-      <c r="F147" s="14" t="s">
-        <v>255</v>
+        <v>111</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C147" s="14" t="s">
+        <v>742</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>459</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>747</v>
-      </c>
-      <c r="H147" s="10" t="s">
-        <v>729</v>
-      </c>
-      <c r="I147" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="J147" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="K147" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="L147" s="9" t="s">
-        <v>748</v>
-      </c>
-      <c r="M147" s="1" t="s">
-        <v>825</v>
+        <v>340</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="Q147" s="3"/>
       <c r="R147" s="2"/>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C148" s="9" t="s">
-        <v>578</v>
-      </c>
-      <c r="D148" s="12" t="s">
-        <v>749</v>
-      </c>
-      <c r="E148" s="11" t="s">
-        <v>750</v>
-      </c>
-      <c r="F148" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="G148" s="14" t="s">
-        <v>751</v>
-      </c>
-      <c r="H148" s="9" t="s">
-        <v>752</v>
-      </c>
-      <c r="I148" s="7" t="s">
-        <v>821</v>
-      </c>
-      <c r="J148" s="9" t="s">
-        <v>878</v>
+        <v>150</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="E148" s="14" t="s">
+        <v>746</v>
+      </c>
+      <c r="F148" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="H148" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="I148" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="J148" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K148" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L148" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="M148" s="1" t="s">
+        <v>825</v>
       </c>
       <c r="Q148" s="3"/>
       <c r="R148" s="2"/>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C149" s="12" t="s">
-        <v>753</v>
-      </c>
-      <c r="D149" s="14" t="s">
-        <v>754</v>
-      </c>
-      <c r="E149" s="14" t="s">
-        <v>755</v>
+        <v>112</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="D149" s="12" t="s">
+        <v>749</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>750</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>756</v>
-      </c>
-      <c r="G149" s="12" t="s">
-        <v>757</v>
+        <v>373</v>
+      </c>
+      <c r="G149" s="14" t="s">
+        <v>751</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>758</v>
-      </c>
-      <c r="I149" s="14" t="s">
-        <v>759</v>
-      </c>
-      <c r="J149" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="K149" s="14" t="s">
-        <v>760</v>
-      </c>
-      <c r="L149" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="M149" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="N149" s="9" t="s">
-        <v>807</v>
+        <v>752</v>
+      </c>
+      <c r="I149" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="J149" s="9" t="s">
+        <v>878</v>
       </c>
       <c r="Q149" s="3"/>
       <c r="R149" s="2"/>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B150" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C150" s="14" t="s">
-        <v>761</v>
-      </c>
-      <c r="D150" s="10" t="s">
-        <v>762</v>
-      </c>
-      <c r="E150" s="12" t="s">
-        <v>763</v>
+        <v>113</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D150" s="14" t="s">
+        <v>754</v>
+      </c>
+      <c r="E150" s="14" t="s">
+        <v>755</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>711</v>
-      </c>
-      <c r="G150" s="11" t="s">
-        <v>764</v>
+        <v>756</v>
+      </c>
+      <c r="G150" s="12" t="s">
+        <v>757</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>765</v>
-      </c>
-      <c r="I150" s="13" t="s">
-        <v>275</v>
+        <v>758</v>
+      </c>
+      <c r="I150" s="14" t="s">
+        <v>759</v>
+      </c>
+      <c r="J150" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="K150" s="14" t="s">
+        <v>760</v>
+      </c>
+      <c r="L150" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="M150" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="N150" s="9" t="s">
+        <v>807</v>
       </c>
       <c r="Q150" s="3"/>
       <c r="R150" s="2"/>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>766</v>
-      </c>
-      <c r="D151" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="E151" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="F151" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="G151" s="9" t="s">
-        <v>172</v>
+        <v>151</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C151" s="14" t="s">
+        <v>761</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="F151" s="12" t="s">
+        <v>711</v>
+      </c>
+      <c r="G151" s="11" t="s">
+        <v>764</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>809</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="J151" s="1" t="s">
-        <v>279</v>
+        <v>765</v>
+      </c>
+      <c r="I151" s="13" t="s">
+        <v>275</v>
       </c>
       <c r="Q151" s="3"/>
       <c r="R151" s="2"/>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B152" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C152" s="12" t="s">
-        <v>767</v>
-      </c>
-      <c r="D152" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="E152" s="12" t="s">
-        <v>603</v>
-      </c>
-      <c r="F152" s="12" t="s">
-        <v>418</v>
+        <v>114</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E152" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="H152" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="H152" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="J152" s="1" t="s">
         <v>279</v>
       </c>
       <c r="Q152" s="3"/>
@@ -8825,381 +8842,409 @@
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B153" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B153" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="D153" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="E153" s="11" t="s">
-        <v>768</v>
-      </c>
-      <c r="F153" s="9" t="s">
-        <v>769</v>
-      </c>
-      <c r="G153" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H153" s="14" t="s">
-        <v>538</v>
-      </c>
-      <c r="I153" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="J153" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="K153" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L153" s="1" t="s">
-        <v>433</v>
+        <v>767</v>
+      </c>
+      <c r="D153" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="E153" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="F153" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="G153" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="H153" s="12" t="s">
+        <v>279</v>
       </c>
       <c r="Q153" s="3"/>
       <c r="R153" s="2"/>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C154" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F154" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="G154" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="H154" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="I154" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="J154" s="11" t="s">
-        <v>871</v>
-      </c>
-      <c r="K154" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="L154" s="8" t="s">
-        <v>816</v>
-      </c>
-      <c r="M154" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="N154" s="1" t="s">
-        <v>843</v>
+      <c r="C154" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>768</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H154" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="I154" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="J154" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="K154" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L154" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="Q154" s="3"/>
       <c r="R154" s="2"/>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C155" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H155" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="I155" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="J155" s="11" t="s">
+        <v>871</v>
+      </c>
+      <c r="K155" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D155" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="E155" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>882</v>
+      <c r="L155" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="M155" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="N155" s="1" t="s">
+        <v>843</v>
       </c>
       <c r="Q155" s="3"/>
       <c r="R155" s="2"/>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C156" s="11" t="s">
-        <v>771</v>
-      </c>
-      <c r="D156" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="E156" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="F156" s="14" t="s">
-        <v>772</v>
-      </c>
-      <c r="G156" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="H156" s="13" t="s">
-        <v>812</v>
+        <v>152</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>882</v>
       </c>
       <c r="Q156" s="3"/>
       <c r="R156" s="2"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B157" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C157" s="12" t="s">
-        <v>773</v>
+        <v>118</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>771</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="E157" s="7" t="s">
-        <v>774</v>
-      </c>
-      <c r="F157" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>847</v>
+        <v>445</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F157" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="G157" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="H157" s="13" t="s">
+        <v>812</v>
       </c>
       <c r="Q157" s="3"/>
       <c r="R157" s="2"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B158" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B158" s="10" t="s">
         <v>157</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>775</v>
-      </c>
-      <c r="D158" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="E158" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="F158" s="11" t="s">
-        <v>482</v>
+        <v>773</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="F158" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>847</v>
       </c>
       <c r="Q158" s="3"/>
       <c r="R158" s="2"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>776</v>
-      </c>
-      <c r="D159" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="D159" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="E159" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="E159" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="F159" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="G159" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="H159" s="8" t="s">
-        <v>777</v>
-      </c>
-      <c r="I159" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="J159" s="7" t="s">
-        <v>857</v>
-      </c>
-      <c r="K159" s="1" t="s">
-        <v>336</v>
+      <c r="F159" s="11" t="s">
+        <v>482</v>
       </c>
       <c r="Q159" s="3"/>
       <c r="R159" s="2"/>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="B160" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C160" s="17" t="s">
-        <v>679</v>
-      </c>
-      <c r="D160" s="17" t="s">
-        <v>882</v>
-      </c>
-      <c r="E160" s="17"/>
-      <c r="F160" s="17"/>
-      <c r="G160" s="17"/>
-      <c r="H160" s="17"/>
-      <c r="I160" s="17"/>
-      <c r="J160" s="17"/>
+        <v>120</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E160" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G160" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="H160" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="I160" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="J160" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>336</v>
+      </c>
       <c r="Q160" s="3"/>
       <c r="R160" s="2"/>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B161" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C161" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="D161" s="14" t="s">
-        <v>778</v>
-      </c>
-      <c r="E161" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="F161" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="G161" s="9" t="s">
-        <v>779</v>
-      </c>
-      <c r="H161" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="I161" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="J161" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="K161" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="L161" s="1" t="s">
-        <v>834</v>
-      </c>
+        <v>828</v>
+      </c>
+      <c r="B161" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C161" s="17" t="s">
+        <v>679</v>
+      </c>
+      <c r="D161" s="17" t="s">
+        <v>882</v>
+      </c>
+      <c r="E161" s="17"/>
+      <c r="F161" s="17"/>
+      <c r="G161" s="17"/>
+      <c r="H161" s="17"/>
+      <c r="I161" s="17"/>
+      <c r="J161" s="17"/>
       <c r="Q161" s="3"/>
       <c r="R161" s="2"/>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B162" s="12" t="s">
         <v>157</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>780</v>
-      </c>
-      <c r="D162" s="13" t="s">
-        <v>781</v>
+        <v>647</v>
+      </c>
+      <c r="D162" s="14" t="s">
+        <v>778</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>782</v>
-      </c>
-      <c r="F162" s="14" t="s">
-        <v>783</v>
-      </c>
-      <c r="G162" s="7" t="s">
-        <v>161</v>
+        <v>274</v>
+      </c>
+      <c r="F162" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="G162" s="9" t="s">
+        <v>779</v>
       </c>
       <c r="H162" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="I162" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="J162" s="14" t="s">
         <v>266</v>
+      </c>
+      <c r="K162" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>834</v>
       </c>
       <c r="Q162" s="3"/>
       <c r="R162" s="2"/>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="B163" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C163" s="11" t="s">
-        <v>784</v>
-      </c>
-      <c r="D163" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="E163" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F163" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="G163" s="10" t="s">
-        <v>880</v>
-      </c>
-      <c r="H163" s="1" t="s">
-        <v>847</v>
+      <c r="C163" s="14" t="s">
+        <v>780</v>
+      </c>
+      <c r="D163" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="E163" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="F163" s="14" t="s">
+        <v>783</v>
+      </c>
+      <c r="G163" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H163" s="12" t="s">
+        <v>266</v>
       </c>
       <c r="Q163" s="3"/>
       <c r="R163" s="2"/>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A164" s="5" t="s">
+      <c r="A164" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B164" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="E164" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F164" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="G164" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="Q164" s="3"/>
+      <c r="R164" s="2"/>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B164" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C164" s="20" t="s">
+      <c r="B165" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C165" s="20" t="s">
         <v>785</v>
       </c>
-      <c r="D164" s="21" t="s">
+      <c r="D165" s="21" t="s">
         <v>527</v>
       </c>
-      <c r="E164" s="23" t="s">
+      <c r="E165" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="F164" s="22" t="s">
+      <c r="F165" s="22" t="s">
         <v>786</v>
       </c>
-      <c r="G164" s="19" t="s">
+      <c r="G165" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="H164" s="21" t="s">
+      <c r="H165" s="21" t="s">
         <v>862</v>
       </c>
-      <c r="I164" s="41" t="s">
+      <c r="I165" s="41" t="s">
         <v>677</v>
       </c>
-      <c r="J164" s="21" t="s">
+      <c r="J165" s="21" t="s">
         <v>808</v>
       </c>
-      <c r="K164" s="4"/>
-      <c r="L164" s="4"/>
-      <c r="M164" s="4"/>
-      <c r="N164" s="4"/>
-      <c r="O164" s="4"/>
-      <c r="P164" s="4"/>
-      <c r="Q164" s="4"/>
-      <c r="R164" s="5"/>
+      <c r="K165" s="4"/>
+      <c r="L165" s="4"/>
+      <c r="M165" s="4"/>
+      <c r="N165" s="4"/>
+      <c r="O165" s="4"/>
+      <c r="P165" s="4"/>
+      <c r="Q165" s="4"/>
+      <c r="R165" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="887">
   <si>
     <t>Aatrox</t>
   </si>
@@ -3346,8 +3346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="D94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M126" sqref="M126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3576,7 +3576,9 @@
       <c r="P7" s="7" t="s">
         <v>808</v>
       </c>
-      <c r="Q7" s="3"/>
+      <c r="Q7" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="R7" s="2"/>
       <c r="U7" s="17"/>
     </row>
@@ -6462,6 +6464,9 @@
       <c r="N83" s="8" t="s">
         <v>868</v>
       </c>
+      <c r="O83" s="1" t="s">
+        <v>885</v>
+      </c>
       <c r="Q83" s="3"/>
       <c r="R83" s="2"/>
     </row>
@@ -7002,6 +7007,9 @@
       <c r="G99" s="9" t="s">
         <v>389</v>
       </c>
+      <c r="H99" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="Q99" s="3"/>
       <c r="R99" s="2"/>
     </row>
@@ -7108,6 +7116,9 @@
       <c r="C103" s="12" t="s">
         <v>308</v>
       </c>
+      <c r="D103" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="Q103" s="3"/>
       <c r="R103" s="2"/>
     </row>
@@ -7911,6 +7922,9 @@
       <c r="K126" s="7" t="s">
         <v>327</v>
       </c>
+      <c r="L126" s="1" t="s">
+        <v>869</v>
+      </c>
       <c r="Q126" s="3"/>
       <c r="R126" s="2"/>
     </row>
@@ -7954,6 +7968,9 @@
       </c>
       <c r="E128" s="14" t="s">
         <v>274</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="Q128" s="3"/>
       <c r="R128" s="2"/>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="894">
   <si>
     <t>Aatrox</t>
   </si>
@@ -2694,6 +2694,27 @@
   </si>
   <si>
     <t>Nilah</t>
+  </si>
+  <si>
+    <t>Monster Tamer</t>
+  </si>
+  <si>
+    <t>Zap'Maw</t>
+  </si>
+  <si>
+    <t>Cyber Halo</t>
+  </si>
+  <si>
+    <t>Prestige Cyber Halo</t>
+  </si>
+  <si>
+    <t>Armored Titan</t>
+  </si>
+  <si>
+    <t>Strike Commander</t>
+  </si>
+  <si>
+    <t>Strike Paladin</t>
   </si>
 </sst>
 </file>
@@ -3346,8 +3367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M126" sqref="M126"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4155,6 +4176,9 @@
       <c r="F23" s="9" t="s">
         <v>279</v>
       </c>
+      <c r="G23" s="1" t="s">
+        <v>892</v>
+      </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="2"/>
     </row>
@@ -5182,6 +5206,12 @@
       <c r="N50" s="1" t="s">
         <v>677</v>
       </c>
+      <c r="O50" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>890</v>
+      </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="2"/>
     </row>
@@ -5832,6 +5862,9 @@
       <c r="N68" s="7" t="s">
         <v>485</v>
       </c>
+      <c r="O68" s="1" t="s">
+        <v>888</v>
+      </c>
       <c r="Q68" s="3"/>
       <c r="R68" s="2"/>
     </row>
@@ -6060,6 +6093,9 @@
       <c r="L74" s="7" t="s">
         <v>279</v>
       </c>
+      <c r="M74" s="1" t="s">
+        <v>893</v>
+      </c>
       <c r="Q74" s="3"/>
       <c r="R74" s="2"/>
     </row>
@@ -6100,6 +6136,9 @@
       <c r="L75" s="14" t="s">
         <v>865</v>
       </c>
+      <c r="M75" s="1" t="s">
+        <v>887</v>
+      </c>
       <c r="Q75" s="3"/>
       <c r="R75" s="2"/>
     </row>
@@ -6543,6 +6582,9 @@
       </c>
       <c r="L85" s="13" t="s">
         <v>253</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>891</v>
       </c>
       <c r="Q85" s="3"/>
       <c r="R85" s="2"/>
@@ -8357,22 +8399,22 @@
       <c r="A138" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B138" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C138" s="14" t="s">
+      <c r="B138" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C138" s="17" t="s">
         <v>719</v>
       </c>
-      <c r="D138" s="12" t="s">
+      <c r="D138" s="17" t="s">
         <v>720</v>
       </c>
       <c r="E138" s="11" t="s">
         <v>721</v>
       </c>
-      <c r="F138" s="12" t="s">
+      <c r="F138" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="G138" s="12" t="s">
+      <c r="G138" s="17" t="s">
         <v>722</v>
       </c>
       <c r="Q138" s="3"/>
@@ -8540,6 +8582,9 @@
       </c>
       <c r="N142" s="12" t="s">
         <v>241</v>
+      </c>
+      <c r="O142" s="1" t="s">
+        <v>887</v>
       </c>
       <c r="Q142" s="3"/>
       <c r="R142" s="2"/>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="895">
   <si>
     <t>Aatrox</t>
   </si>
@@ -2715,6 +2715,9 @@
   </si>
   <si>
     <t>Strike Paladin</t>
+  </si>
+  <si>
+    <t>Zenith Games</t>
   </si>
 </sst>
 </file>
@@ -3367,8 +3370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138"/>
+    <sheetView tabSelected="1" topLeftCell="G46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P70" sqref="P70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4031,6 +4034,9 @@
       <c r="O19" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="P19" s="1" t="s">
+        <v>894</v>
+      </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="2"/>
     </row>
@@ -5338,6 +5344,9 @@
       <c r="I53" s="1" t="s">
         <v>823</v>
       </c>
+      <c r="J53" s="1" t="s">
+        <v>894</v>
+      </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="2"/>
     </row>
@@ -5956,6 +5965,9 @@
       </c>
       <c r="O70" s="11" t="s">
         <v>236</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>894</v>
       </c>
       <c r="Q70" s="3"/>
       <c r="R70" s="2"/>
@@ -8683,6 +8695,9 @@
       <c r="E146" s="1" t="s">
         <v>847</v>
       </c>
+      <c r="F146" s="1" t="s">
+        <v>596</v>
+      </c>
       <c r="Q146" s="3"/>
       <c r="R146" s="2"/>
     </row>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="898">
   <si>
     <t>Aatrox</t>
   </si>
@@ -2718,6 +2718,15 @@
   </si>
   <si>
     <t>Zenith Games</t>
+  </si>
+  <si>
+    <t>Ashen Slayer</t>
+  </si>
+  <si>
+    <t>Fright Night</t>
+  </si>
+  <si>
+    <t>Worlds 2022</t>
   </si>
 </sst>
 </file>
@@ -3370,8 +3379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P70" sqref="P70"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3824,7 +3833,9 @@
       <c r="P12" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="Q12" s="3"/>
+      <c r="Q12" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="R12" s="2"/>
       <c r="U12" s="17"/>
     </row>
@@ -3942,6 +3953,9 @@
       </c>
       <c r="G16" s="9" t="s">
         <v>172</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>897</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="2"/>
@@ -4410,6 +4424,9 @@
       <c r="L29" s="1" t="s">
         <v>336</v>
       </c>
+      <c r="M29" s="1" t="s">
+        <v>896</v>
+      </c>
       <c r="Q29" s="3"/>
       <c r="R29" s="2"/>
     </row>
@@ -6628,6 +6645,9 @@
       </c>
       <c r="I86" s="7" t="s">
         <v>431</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>896</v>
       </c>
       <c r="Q86" s="3"/>
       <c r="R86" s="2"/>
@@ -7186,6 +7206,9 @@
       <c r="C104" s="17" t="s">
         <v>846</v>
       </c>
+      <c r="D104" s="1" t="s">
+        <v>896</v>
+      </c>
       <c r="Q104" s="3"/>
       <c r="R104" s="2"/>
     </row>
@@ -7939,6 +7962,9 @@
       <c r="G125" s="1" t="s">
         <v>839</v>
       </c>
+      <c r="H125" s="1" t="s">
+        <v>895</v>
+      </c>
       <c r="Q125" s="3"/>
       <c r="R125" s="2"/>
     </row>
@@ -8263,6 +8289,9 @@
       <c r="H134" s="11" t="s">
         <v>261</v>
       </c>
+      <c r="I134" s="1" t="s">
+        <v>896</v>
+      </c>
       <c r="Q134" s="3"/>
       <c r="R134" s="2"/>
     </row>
@@ -8453,6 +8482,9 @@
       </c>
       <c r="G139" s="14" t="s">
         <v>723</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>896</v>
       </c>
       <c r="Q139" s="3"/>
       <c r="R139" s="2"/>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="898">
   <si>
     <t>Aatrox</t>
   </si>
@@ -3379,8 +3379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I157" sqref="I157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3855,6 +3855,9 @@
       <c r="E13" s="1" t="s">
         <v>847</v>
       </c>
+      <c r="F13" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="2"/>
       <c r="U13" s="17"/>
@@ -4344,6 +4347,9 @@
       <c r="L27" s="12" t="s">
         <v>808</v>
       </c>
+      <c r="M27" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="Q27" s="3"/>
       <c r="R27" s="2"/>
     </row>
@@ -4578,6 +4584,9 @@
       <c r="L33" s="8" t="s">
         <v>277</v>
       </c>
+      <c r="M33" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="Q33" s="3"/>
       <c r="R33" s="2"/>
     </row>
@@ -6392,6 +6401,12 @@
       </c>
       <c r="N80" s="1" t="s">
         <v>336</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>876</v>
       </c>
       <c r="Q80" s="3"/>
       <c r="R80" s="2"/>
@@ -7555,6 +7570,9 @@
       <c r="G114" s="1" t="s">
         <v>433</v>
       </c>
+      <c r="H114" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="Q114" s="3"/>
       <c r="R114" s="2"/>
     </row>
@@ -7909,6 +7927,9 @@
       <c r="O123" s="1" t="s">
         <v>825</v>
       </c>
+      <c r="P123" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="Q123" s="3"/>
       <c r="R123" s="2"/>
     </row>
@@ -8005,6 +8026,9 @@
       <c r="L126" s="1" t="s">
         <v>869</v>
       </c>
+      <c r="M126" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="Q126" s="3"/>
       <c r="R126" s="2"/>
     </row>
@@ -8260,6 +8284,9 @@
       </c>
       <c r="O133" s="1" t="s">
         <v>433</v>
+      </c>
+      <c r="P133" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="Q133" s="3"/>
       <c r="R133" s="2"/>
@@ -9109,6 +9136,9 @@
       </c>
       <c r="H157" s="13" t="s">
         <v>812</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="Q157" s="3"/>
       <c r="R157" s="2"/>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="899">
   <si>
     <t>Aatrox</t>
   </si>
@@ -2727,6 +2727,9 @@
   </si>
   <si>
     <t>Worlds 2022</t>
+  </si>
+  <si>
+    <t>Bewitching Batnivia</t>
   </si>
 </sst>
 </file>
@@ -3379,8 +3382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I157" sqref="I157"/>
+    <sheetView tabSelected="1" topLeftCell="E64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N69" sqref="N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3780,6 +3783,9 @@
       <c r="L11" s="6" t="s">
         <v>811</v>
       </c>
+      <c r="M11" s="1" t="s">
+        <v>898</v>
+      </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="2"/>
       <c r="U11" s="17"/>
@@ -4233,6 +4239,9 @@
       <c r="I24" s="9" t="s">
         <v>277</v>
       </c>
+      <c r="J24" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="Q24" s="3"/>
       <c r="R24" s="2"/>
     </row>
@@ -5943,6 +5952,9 @@
       <c r="M69" s="1" t="s">
         <v>336</v>
       </c>
+      <c r="N69" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="Q69" s="3"/>
       <c r="R69" s="2"/>
     </row>
@@ -6685,6 +6697,9 @@
       </c>
       <c r="F87" s="14" t="s">
         <v>431</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>327</v>
       </c>
       <c r="Q87" s="3"/>
       <c r="R87" s="2"/>
@@ -7517,6 +7532,9 @@
       <c r="H112" s="1" t="s">
         <v>873</v>
       </c>
+      <c r="I112" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="Q112" s="3"/>
       <c r="R112" s="2"/>
     </row>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="902">
   <si>
     <t>Aatrox</t>
   </si>
@@ -2730,6 +2730,15 @@
   </si>
   <si>
     <t>Bewitching Batnivia</t>
+  </si>
+  <si>
+    <t>K'Sante</t>
+  </si>
+  <si>
+    <t>Empyrean</t>
+  </si>
+  <si>
+    <t>Prestige Empyrean</t>
   </si>
 </sst>
 </file>
@@ -3037,13 +3046,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3380,17 +3389,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V165"/>
+  <dimension ref="A1:V166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N69" sqref="N69"/>
+    <sheetView tabSelected="1" topLeftCell="K25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="18" width="25.7109375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="1"/>
+    <col min="2" max="19" width="25.7109375" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -3441,6 +3450,9 @@
       <c r="M2" s="39" t="s">
         <v>795</v>
       </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
@@ -3464,8 +3476,8 @@
       <c r="O4" s="46"/>
       <c r="P4" s="46"/>
       <c r="Q4" s="46"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="3"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="5"/>
       <c r="T4" s="3"/>
       <c r="U4" s="27"/>
       <c r="V4" s="3"/>
@@ -3501,9 +3513,9 @@
       <c r="J5" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="3"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="2"/>
       <c r="T5" s="3"/>
       <c r="U5" s="17"/>
       <c r="V5" s="3"/>
@@ -3560,7 +3572,8 @@
       <c r="Q6" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="R6" s="2"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="2"/>
       <c r="U6" s="17"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -3615,7 +3628,8 @@
       <c r="Q7" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="R7" s="2"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="2"/>
       <c r="U7" s="17"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -3643,7 +3657,8 @@
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="2"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="2"/>
       <c r="U8" s="17"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -3696,7 +3711,8 @@
         <v>197</v>
       </c>
       <c r="Q9" s="3"/>
-      <c r="R9" s="2"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="2"/>
       <c r="U9" s="17"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -3743,7 +3759,8 @@
         <v>827</v>
       </c>
       <c r="Q10" s="3"/>
-      <c r="R10" s="2"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="2"/>
       <c r="U10" s="17"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -3787,7 +3804,8 @@
         <v>898</v>
       </c>
       <c r="Q11" s="3"/>
-      <c r="R11" s="2"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="2"/>
       <c r="U11" s="17"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -3842,7 +3860,8 @@
       <c r="Q12" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="R12" s="2"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="2"/>
       <c r="U12" s="17"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -3865,7 +3884,8 @@
         <v>173</v>
       </c>
       <c r="Q13" s="3"/>
-      <c r="R13" s="2"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="2"/>
       <c r="U13" s="17"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -3918,7 +3938,8 @@
         <v>882</v>
       </c>
       <c r="Q14" s="3"/>
-      <c r="R14" s="2"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="2"/>
       <c r="U14" s="17"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -3938,7 +3959,8 @@
         <v>236</v>
       </c>
       <c r="Q15" s="3"/>
-      <c r="R15" s="2"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="2"/>
       <c r="U15" s="17"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -3967,10 +3989,11 @@
         <v>897</v>
       </c>
       <c r="Q16" s="3"/>
-      <c r="R16" s="2"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="2"/>
       <c r="U16" s="17"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -3993,9 +4016,10 @@
         <v>825</v>
       </c>
       <c r="Q17" s="3"/>
-      <c r="R17" s="2"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R17" s="3"/>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>881</v>
       </c>
@@ -4009,9 +4033,10 @@
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="2"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R18" s="3"/>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -4061,9 +4086,10 @@
         <v>894</v>
       </c>
       <c r="Q19" s="3"/>
-      <c r="R19" s="2"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R19" s="3"/>
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>124</v>
       </c>
@@ -4101,9 +4127,10 @@
         <v>850</v>
       </c>
       <c r="Q20" s="3"/>
-      <c r="R20" s="2"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R20" s="3"/>
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -4132,9 +4159,10 @@
         <v>274</v>
       </c>
       <c r="Q21" s="3"/>
-      <c r="R21" s="2"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R21" s="3"/>
+      <c r="S21" s="2"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -4184,9 +4212,10 @@
         <v>884</v>
       </c>
       <c r="Q22" s="3"/>
-      <c r="R22" s="2"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R22" s="3"/>
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>125</v>
       </c>
@@ -4209,9 +4238,10 @@
         <v>892</v>
       </c>
       <c r="Q23" s="3"/>
-      <c r="R23" s="2"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R23" s="3"/>
+      <c r="S23" s="2"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
@@ -4243,9 +4273,10 @@
         <v>327</v>
       </c>
       <c r="Q24" s="3"/>
-      <c r="R24" s="2"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R24" s="3"/>
+      <c r="S24" s="2"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
@@ -4277,9 +4308,10 @@
         <v>431</v>
       </c>
       <c r="Q25" s="3"/>
-      <c r="R25" s="2"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R25" s="3"/>
+      <c r="S25" s="2"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
@@ -4317,9 +4349,10 @@
         <v>241</v>
       </c>
       <c r="Q26" s="3"/>
-      <c r="R26" s="2"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R26" s="3"/>
+      <c r="S26" s="2"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>18</v>
       </c>
@@ -4360,9 +4393,10 @@
         <v>173</v>
       </c>
       <c r="Q27" s="3"/>
-      <c r="R27" s="2"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R27" s="3"/>
+      <c r="S27" s="2"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>19</v>
       </c>
@@ -4400,9 +4434,10 @@
         <v>433</v>
       </c>
       <c r="Q28" s="3"/>
-      <c r="R28" s="2"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R28" s="3"/>
+      <c r="S28" s="2"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>126</v>
       </c>
@@ -4443,9 +4478,10 @@
         <v>896</v>
       </c>
       <c r="Q29" s="3"/>
-      <c r="R29" s="2"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R29" s="3"/>
+      <c r="S29" s="2"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
@@ -4483,9 +4519,10 @@
         <v>323</v>
       </c>
       <c r="Q30" s="3"/>
-      <c r="R30" s="2"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R30" s="3"/>
+      <c r="S30" s="2"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>127</v>
       </c>
@@ -4523,9 +4560,10 @@
         <v>869</v>
       </c>
       <c r="Q31" s="3"/>
-      <c r="R31" s="2"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R31" s="3"/>
+      <c r="S31" s="2"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>128</v>
       </c>
@@ -4554,9 +4592,10 @@
         <v>679</v>
       </c>
       <c r="Q32" s="3"/>
-      <c r="R32" s="2"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R32" s="3"/>
+      <c r="S32" s="2"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
@@ -4597,9 +4636,10 @@
         <v>173</v>
       </c>
       <c r="Q33" s="3"/>
-      <c r="R33" s="2"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R33" s="3"/>
+      <c r="S33" s="2"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>22</v>
       </c>
@@ -4651,11 +4691,12 @@
       <c r="Q34" s="18" t="s">
         <v>853</v>
       </c>
-      <c r="R34" s="2" t="s">
+      <c r="R34" s="3" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S34" s="2"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>23</v>
       </c>
@@ -4693,9 +4734,10 @@
         <v>885</v>
       </c>
       <c r="Q35" s="3"/>
-      <c r="R35" s="2"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R35" s="3"/>
+      <c r="S35" s="2"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>24</v>
       </c>
@@ -4739,9 +4781,10 @@
         <v>327</v>
       </c>
       <c r="Q36" s="3"/>
-      <c r="R36" s="2"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R36" s="3"/>
+      <c r="S36" s="2"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>25</v>
       </c>
@@ -4779,9 +4822,10 @@
         <v>361</v>
       </c>
       <c r="Q37" s="3"/>
-      <c r="R37" s="2"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R37" s="3"/>
+      <c r="S37" s="2"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>129</v>
       </c>
@@ -4813,9 +4857,10 @@
         <v>366</v>
       </c>
       <c r="Q38" s="3"/>
-      <c r="R38" s="2"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R38" s="3"/>
+      <c r="S38" s="2"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>26</v>
       </c>
@@ -4856,9 +4901,10 @@
         <v>842</v>
       </c>
       <c r="Q39" s="3"/>
-      <c r="R39" s="2"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R39" s="3"/>
+      <c r="S39" s="2"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>27</v>
       </c>
@@ -4905,9 +4951,10 @@
         <v>275</v>
       </c>
       <c r="Q40" s="3"/>
-      <c r="R40" s="2"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R40" s="3"/>
+      <c r="S40" s="2"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>28</v>
       </c>
@@ -4939,9 +4986,10 @@
         <v>172</v>
       </c>
       <c r="Q41" s="3"/>
-      <c r="R41" s="2"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R41" s="3"/>
+      <c r="S41" s="2"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>29</v>
       </c>
@@ -4982,9 +5030,10 @@
         <v>389</v>
       </c>
       <c r="Q42" s="3"/>
-      <c r="R42" s="2"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R42" s="3"/>
+      <c r="S42" s="2"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>30</v>
       </c>
@@ -5028,9 +5077,10 @@
         <v>847</v>
       </c>
       <c r="Q43" s="3"/>
-      <c r="R43" s="2"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R43" s="3"/>
+      <c r="S43" s="2"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>31</v>
       </c>
@@ -5044,9 +5094,10 @@
         <v>825</v>
       </c>
       <c r="Q44" s="3"/>
-      <c r="R44" s="2"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R44" s="3"/>
+      <c r="S44" s="2"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>32</v>
       </c>
@@ -5084,9 +5135,10 @@
         <v>279</v>
       </c>
       <c r="Q45" s="3"/>
-      <c r="R45" s="2"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R45" s="3"/>
+      <c r="S45" s="2"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>33</v>
       </c>
@@ -5118,9 +5170,10 @@
         <v>833</v>
       </c>
       <c r="Q46" s="3"/>
-      <c r="R46" s="2"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R46" s="3"/>
+      <c r="S46" s="2"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>34</v>
       </c>
@@ -5140,9 +5193,10 @@
         <v>884</v>
       </c>
       <c r="Q47" s="3"/>
-      <c r="R47" s="2"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R47" s="3"/>
+      <c r="S47" s="2"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>35</v>
       </c>
@@ -5183,9 +5237,10 @@
         <v>804</v>
       </c>
       <c r="Q48" s="3"/>
-      <c r="R48" s="2"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R48" s="3"/>
+      <c r="S48" s="2"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>130</v>
       </c>
@@ -5202,9 +5257,10 @@
         <v>807</v>
       </c>
       <c r="Q49" s="3"/>
-      <c r="R49" s="2"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R49" s="3"/>
+      <c r="S49" s="2"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>36</v>
       </c>
@@ -5254,9 +5310,10 @@
         <v>890</v>
       </c>
       <c r="Q50" s="3"/>
-      <c r="R50" s="2"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R50" s="3"/>
+      <c r="S50" s="2"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>131</v>
       </c>
@@ -5300,9 +5357,10 @@
         <v>815</v>
       </c>
       <c r="Q51" s="3"/>
-      <c r="R51" s="2"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R51" s="3"/>
+      <c r="S51" s="2"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>37</v>
       </c>
@@ -5348,10 +5406,14 @@
       <c r="O52" s="7" t="s">
         <v>858</v>
       </c>
+      <c r="P52" s="1" t="s">
+        <v>900</v>
+      </c>
       <c r="Q52" s="3"/>
-      <c r="R52" s="2"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R52" s="3"/>
+      <c r="S52" s="2"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>38</v>
       </c>
@@ -5383,9 +5445,10 @@
         <v>894</v>
       </c>
       <c r="Q53" s="3"/>
-      <c r="R53" s="2"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R53" s="3"/>
+      <c r="S53" s="2"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>39</v>
       </c>
@@ -5413,10 +5476,14 @@
       <c r="I54" s="7" t="s">
         <v>432</v>
       </c>
+      <c r="J54" s="1" t="s">
+        <v>900</v>
+      </c>
       <c r="Q54" s="3"/>
-      <c r="R54" s="2"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R54" s="3"/>
+      <c r="S54" s="2"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>40</v>
       </c>
@@ -5457,9 +5524,10 @@
         <v>859</v>
       </c>
       <c r="Q55" s="3"/>
-      <c r="R55" s="2"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R55" s="3"/>
+      <c r="S55" s="2"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>132</v>
       </c>
@@ -5494,9 +5562,10 @@
         <v>170</v>
       </c>
       <c r="Q56" s="3"/>
-      <c r="R56" s="2"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R56" s="3"/>
+      <c r="S56" s="2"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>42</v>
       </c>
@@ -5516,9 +5585,10 @@
         <v>191</v>
       </c>
       <c r="Q57" s="3"/>
-      <c r="R57" s="2"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R57" s="3"/>
+      <c r="S57" s="2"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>133</v>
       </c>
@@ -5561,9 +5631,10 @@
       <c r="N58" s="9" t="s">
         <v>820</v>
       </c>
-      <c r="R58" s="2"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R58" s="3"/>
+      <c r="S58" s="2"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>41</v>
       </c>
@@ -5595,9 +5666,10 @@
         <v>812</v>
       </c>
       <c r="Q59" s="3"/>
-      <c r="R59" s="2"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R59" s="3"/>
+      <c r="S59" s="2"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>134</v>
       </c>
@@ -5629,9 +5701,10 @@
         <v>776</v>
       </c>
       <c r="Q60" s="3"/>
-      <c r="R60" s="2"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R60" s="3"/>
+      <c r="S60" s="2"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>43</v>
       </c>
@@ -5681,9 +5754,10 @@
         <v>233</v>
       </c>
       <c r="Q61" s="3"/>
-      <c r="R61" s="2"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R61" s="3"/>
+      <c r="S61" s="2"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>44</v>
       </c>
@@ -5730,9 +5804,10 @@
         <v>841</v>
       </c>
       <c r="Q62" s="3"/>
-      <c r="R62" s="2"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R62" s="3"/>
+      <c r="S62" s="2"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>45</v>
       </c>
@@ -5755,9 +5830,10 @@
         <v>884</v>
       </c>
       <c r="Q63" s="3"/>
-      <c r="R63" s="2"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R63" s="3"/>
+      <c r="S63" s="2"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>135</v>
       </c>
@@ -5792,9 +5868,10 @@
         <v>432</v>
       </c>
       <c r="Q64" s="3"/>
-      <c r="R64" s="2"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R64" s="3"/>
+      <c r="S64" s="2"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>46</v>
       </c>
@@ -5820,9 +5897,10 @@
         <v>163</v>
       </c>
       <c r="Q65" s="3"/>
-      <c r="R65" s="2"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R65" s="3"/>
+      <c r="S65" s="2"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>47</v>
       </c>
@@ -5842,9 +5920,10 @@
         <v>827</v>
       </c>
       <c r="Q66" s="3"/>
-      <c r="R66" s="2"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R66" s="3"/>
+      <c r="S66" s="2"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>136</v>
       </c>
@@ -5861,9 +5940,10 @@
         <v>191</v>
       </c>
       <c r="Q67" s="3"/>
-      <c r="R67" s="2"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R67" s="3"/>
+      <c r="S67" s="2"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>48</v>
       </c>
@@ -5910,3498 +5990,3636 @@
         <v>888</v>
       </c>
       <c r="Q68" s="3"/>
-      <c r="R68" s="2"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R68" s="3"/>
+      <c r="S68" s="2"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>900</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>901</v>
+      </c>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="2"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C69" s="13" t="s">
+      <c r="B70" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D70" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E70" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="F69" s="10" t="s">
+      <c r="F70" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="G69" s="11" t="s">
+      <c r="G70" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="H69" s="10" t="s">
+      <c r="H70" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="I69" s="11" t="s">
+      <c r="I70" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="J69" s="7" t="s">
+      <c r="J70" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K69" s="11" t="s">
+      <c r="K70" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="L69" s="9" t="s">
+      <c r="L70" s="9" t="s">
         <v>862</v>
       </c>
-      <c r="M69" s="1" t="s">
+      <c r="M70" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="N69" s="1" t="s">
+      <c r="N70" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="2"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="2"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C70" s="12" t="s">
+      <c r="B71" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D71" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E71" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="F70" s="11" t="s">
+      <c r="F71" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G71" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="H70" s="14" t="s">
+      <c r="H71" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="I70" s="11" t="s">
+      <c r="I71" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="J70" s="9" t="s">
+      <c r="J71" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="K70" s="14" t="s">
+      <c r="K71" s="14" t="s">
         <v>495</v>
       </c>
-      <c r="L70" s="7" t="s">
+      <c r="L71" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="M70" s="7" t="s">
+      <c r="M71" s="7" t="s">
         <v>861</v>
       </c>
-      <c r="N70" s="12" t="s">
+      <c r="N71" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="O70" s="11" t="s">
+      <c r="O71" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="P70" s="1" t="s">
+      <c r="P71" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="2"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="2"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C71" s="11" t="s">
+      <c r="B72" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D72" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E72" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F72" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="G71" s="11" t="s">
+      <c r="G72" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="H71" s="7" t="s">
+      <c r="H72" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="I71" s="9" t="s">
+      <c r="I72" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="J71" s="8" t="s">
+      <c r="J72" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="K71" s="7" t="s">
+      <c r="K72" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="L71" s="7" t="s">
+      <c r="L72" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="M71" s="12" t="s">
+      <c r="M72" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="N71" s="7" t="s">
+      <c r="N72" s="7" t="s">
         <v>863</v>
       </c>
-      <c r="O71" s="1" t="s">
+      <c r="O72" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="P71" s="1" t="s">
+      <c r="P72" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="Q71" s="3"/>
-      <c r="R71" s="2"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="2"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C72" s="10" t="s">
+      <c r="B73" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="D73" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="Q72" s="3"/>
-      <c r="R72" s="2"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="2"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B73" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C73" s="11" t="s">
+      <c r="B74" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="D73" s="12" t="s">
+      <c r="D74" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="E74" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F74" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="G74" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="H74" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="Q73" s="3"/>
-      <c r="R73" s="2"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="2"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C74" s="12" t="s">
+      <c r="B75" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="D75" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="E75" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="F74" s="13" t="s">
+      <c r="F75" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="G74" s="8" t="s">
+      <c r="G75" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="H74" s="12" t="s">
+      <c r="H75" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="I74" s="11" t="s">
+      <c r="I75" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="J74" s="11" t="s">
+      <c r="J75" s="11" t="s">
         <v>864</v>
       </c>
-      <c r="K74" s="10" t="s">
+      <c r="K75" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="L74" s="7" t="s">
+      <c r="L75" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="M74" s="1" t="s">
+      <c r="M75" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="2"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="2"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B75" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C75" s="13" t="s">
+      <c r="B76" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="D76" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="E75" s="11" t="s">
+      <c r="E76" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="F76" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="G75" s="11" t="s">
+      <c r="G76" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="H75" s="9" t="s">
+      <c r="H76" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="I75" s="10" t="s">
+      <c r="I76" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="J75" s="11" t="s">
+      <c r="J76" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="K75" s="14" t="s">
+      <c r="K76" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="L75" s="14" t="s">
+      <c r="L76" s="14" t="s">
         <v>865</v>
       </c>
-      <c r="M75" s="1" t="s">
+      <c r="M76" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="2"/>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="2"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C76" s="9" t="s">
+      <c r="B77" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D77" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="E76" s="13" t="s">
+      <c r="E77" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="F76" s="14" t="s">
+      <c r="F77" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="G76" s="11" t="s">
+      <c r="G77" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="H76" s="11" t="s">
+      <c r="H77" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="I76" s="9" t="s">
+      <c r="I77" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="J76" s="10" t="s">
+      <c r="J77" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="K76" s="14" t="s">
+      <c r="K77" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="L76" s="7" t="s">
+      <c r="L77" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="M76" s="9" t="s">
+      <c r="M77" s="9" t="s">
         <v>863</v>
       </c>
-      <c r="N76" s="7" t="s">
+      <c r="N77" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="O76" s="9" t="s">
+      <c r="O77" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="P76" s="11" t="s">
+      <c r="P77" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="Q76" s="3" t="s">
+      <c r="Q77" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="R76" s="2" t="s">
+      <c r="R77" s="3" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="S77" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B77" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C77" s="13" t="s">
+      <c r="B78" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="D78" s="14" t="s">
         <v>513</v>
       </c>
-      <c r="E77" s="13" t="s">
+      <c r="E78" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="F77" s="12" t="s">
+      <c r="F78" s="12" t="s">
         <v>515</v>
       </c>
-      <c r="G77" s="14" t="s">
+      <c r="G78" s="14" t="s">
         <v>516</v>
       </c>
-      <c r="H77" s="7" t="s">
+      <c r="H78" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="I77" s="14" t="s">
+      <c r="I78" s="14" t="s">
         <v>517</v>
       </c>
-      <c r="J77" s="12" t="s">
+      <c r="J78" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="K77" s="14" t="s">
+      <c r="K78" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="L77" s="14" t="s">
+      <c r="L78" s="14" t="s">
         <v>867</v>
       </c>
-      <c r="M77" s="14" t="s">
+      <c r="M78" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="N77" s="9" t="s">
+      <c r="N78" s="9" t="s">
         <v>807</v>
       </c>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="2"/>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="2"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B78" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C78" s="12" t="s">
+      <c r="B79" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D79" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="E79" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="F78" s="14" t="s">
+      <c r="F79" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="G78" s="12" t="s">
+      <c r="G79" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="H78" s="9" t="s">
+      <c r="H79" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="I78" s="12" t="s">
+      <c r="I79" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="J78" s="11" t="s">
+      <c r="J79" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="K78" s="12" t="s">
+      <c r="K79" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="L78" s="1" t="s">
+      <c r="L79" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="2"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="2"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B79" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C79" s="7" t="s">
+      <c r="B80" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D80" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E80" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="F79" s="11" t="s">
+      <c r="F80" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="G79" s="14" t="s">
+      <c r="G80" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="H79" s="14" t="s">
+      <c r="H80" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="I79" s="7" t="s">
+      <c r="I80" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="J79" s="12" t="s">
+      <c r="J80" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="K79" s="11" t="s">
+      <c r="K80" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="Q79" s="3"/>
-      <c r="R79" s="2"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="2"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B80" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C80" s="12" t="s">
+      <c r="B81" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D81" s="11" t="s">
         <v>530</v>
       </c>
-      <c r="E80" s="14" t="s">
+      <c r="E81" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="F80" s="12" t="s">
+      <c r="F81" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="G80" s="12" t="s">
+      <c r="G81" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="H80" s="11" t="s">
+      <c r="H81" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="I80" s="9" t="s">
+      <c r="I81" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="J80" s="9" t="s">
+      <c r="J81" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="K80" s="11" t="s">
+      <c r="K81" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="L80" s="10" t="s">
+      <c r="L81" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="M80" s="11" t="s">
+      <c r="M81" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="N80" s="1" t="s">
+      <c r="N81" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="O80" s="1" t="s">
+      <c r="O81" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="P80" s="1" t="s">
+      <c r="P81" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="Q80" s="3"/>
-      <c r="R80" s="2"/>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="2"/>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B81" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C81" s="9" t="s">
+      <c r="B82" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D82" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E82" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="F81" s="11" t="s">
+      <c r="F82" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="G81" s="14" t="s">
+      <c r="G82" s="14" t="s">
         <v>540</v>
       </c>
-      <c r="H81" s="11" t="s">
+      <c r="H82" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="I81" s="10" t="s">
+      <c r="I82" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="J81" s="7" t="s">
+      <c r="J82" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="K81" s="12" t="s">
+      <c r="K82" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="L81" s="8" t="s">
+      <c r="L82" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="M81" s="12" t="s">
+      <c r="M82" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="N81" s="9" t="s">
+      <c r="N82" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="O81" s="7" t="s">
+      <c r="O82" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="P81" s="7" t="s">
+      <c r="P82" s="7" t="s">
         <v>868</v>
       </c>
-      <c r="Q81" s="44" t="s">
+      <c r="Q82" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="R81" s="2" t="s">
+      <c r="R82" s="3" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="S82" s="2"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B82" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C82" s="12" t="s">
+      <c r="B83" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D83" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E83" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="F82" s="11" t="s">
+      <c r="F83" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="G82" s="7" t="s">
+      <c r="G83" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="H82" s="7" t="s">
+      <c r="H83" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="I82" s="11" t="s">
+      <c r="I83" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="J82" s="11" t="s">
+      <c r="J83" s="11" t="s">
         <v>812</v>
       </c>
-      <c r="K82" s="1" t="s">
+      <c r="K83" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="Q82" s="3"/>
-      <c r="R82" s="2"/>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="2"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B83" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C83" s="14" t="s">
+      <c r="B84" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84" s="14" t="s">
         <v>544</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D84" s="11" t="s">
         <v>545</v>
       </c>
-      <c r="E83" s="12" t="s">
+      <c r="E84" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F84" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="G83" s="7" t="s">
+      <c r="G84" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="H83" s="10" t="s">
+      <c r="H84" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="I83" s="14" t="s">
+      <c r="I84" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J83" s="9" t="s">
+      <c r="J84" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="K83" s="7" t="s">
+      <c r="K84" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="L83" s="6" t="s">
+      <c r="L84" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="M83" s="8" t="s">
+      <c r="M84" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="N83" s="8" t="s">
+      <c r="N84" s="8" t="s">
         <v>868</v>
       </c>
-      <c r="O83" s="1" t="s">
+      <c r="O84" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="Q83" s="3"/>
-      <c r="R83" s="2"/>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="2"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B84" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C84" s="7" t="s">
+      <c r="B85" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="D85" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="E84" s="12" t="s">
+      <c r="E85" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F85" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="G84" s="12" t="s">
+      <c r="G85" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="H84" s="9" t="s">
+      <c r="H85" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="I84" s="8" t="s">
+      <c r="I85" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="J84" s="7" t="s">
+      <c r="J85" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="K84" s="11" t="s">
+      <c r="K85" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="Q84" s="3"/>
-      <c r="R84" s="2"/>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="2"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B85" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85" s="14" t="s">
+      <c r="B86" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C86" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="D86" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="E85" s="12" t="s">
+      <c r="E86" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="F85" s="13" t="s">
+      <c r="F86" s="13" t="s">
         <v>555</v>
       </c>
-      <c r="G85" s="10" t="s">
+      <c r="G86" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="H85" s="14" t="s">
+      <c r="H86" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="I85" s="10" t="s">
+      <c r="I86" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="J85" s="7" t="s">
+      <c r="J86" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="K85" s="12" t="s">
+      <c r="K86" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="L85" s="13" t="s">
+      <c r="L86" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="M85" s="1" t="s">
+      <c r="M86" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="Q85" s="3"/>
-      <c r="R85" s="2"/>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="2"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B86" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C86" s="12" t="s">
+      <c r="B87" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="D86" s="14" t="s">
+      <c r="D87" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E87" s="7" t="s">
         <v>824</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F87" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="G86" s="7" t="s">
+      <c r="G87" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="H86" s="7" t="s">
+      <c r="H87" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="I86" s="7" t="s">
+      <c r="I87" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="J86" s="1" t="s">
+      <c r="J87" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="Q86" s="3"/>
-      <c r="R86" s="2"/>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="2"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B87" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C87" s="10" t="s">
+      <c r="B88" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C88" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D88" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E87" s="11" t="s">
+      <c r="E88" s="11" t="s">
         <v>869</v>
       </c>
-      <c r="F87" s="14" t="s">
+      <c r="F88" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="Q87" s="3"/>
-      <c r="R87" s="2"/>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="2"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B88" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C88" s="9" t="s">
+      <c r="B89" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C89" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="D89" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E89" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="F88" s="9" t="s">
+      <c r="F89" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="G88" s="12" t="s">
+      <c r="G89" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="H88" s="11" t="s">
+      <c r="H89" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="I88" s="7" t="s">
+      <c r="I89" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="J88" s="11" t="s">
+      <c r="J89" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="K88" s="11" t="s">
+      <c r="K89" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="L88" s="12" t="s">
+      <c r="L89" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="M88" s="9" t="s">
+      <c r="M89" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="N88" s="7" t="s">
+      <c r="N89" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="O88" s="1" t="s">
+      <c r="O89" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="Q88" s="3"/>
-      <c r="R88" s="2"/>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="2"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="B89" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C89" s="17" t="s">
+      <c r="B90" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C90" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="Q89" s="3"/>
-      <c r="R89" s="2"/>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="2"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B90" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C90" s="14" t="s">
+      <c r="B91" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C91" s="14" t="s">
         <v>564</v>
       </c>
-      <c r="D90" s="12" t="s">
+      <c r="D91" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="E90" s="12" t="s">
+      <c r="E91" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="F90" s="14" t="s">
+      <c r="F91" s="14" t="s">
         <v>566</v>
       </c>
-      <c r="G90" s="12" t="s">
+      <c r="G91" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="H90" s="11" t="s">
+      <c r="H91" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="I90" s="7" t="s">
+      <c r="I91" s="7" t="s">
         <v>807</v>
       </c>
-      <c r="J90" s="7" t="s">
+      <c r="J91" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="Q90" s="3"/>
-      <c r="R90" s="2"/>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="2"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B91" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C91" s="10" t="s">
+      <c r="B92" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C92" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="D91" s="12" t="s">
+      <c r="D92" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="E91" s="12" t="s">
+      <c r="E92" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="F91" s="11" t="s">
+      <c r="F92" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="G91" s="11" t="s">
+      <c r="G92" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="H91" s="12" t="s">
+      <c r="H92" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="I91" s="14" t="s">
+      <c r="I92" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="J91" s="7" t="s">
+      <c r="J92" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K91" s="14" t="s">
+      <c r="K92" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="L91" s="1" t="s">
+      <c r="L92" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="Q91" s="3"/>
-      <c r="R91" s="2"/>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="2"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B92" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C92" s="14" t="s">
+      <c r="B93" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C93" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D93" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="E92" s="14" t="s">
+      <c r="E93" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="F92" s="12" t="s">
+      <c r="F93" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="G92" s="12" t="s">
+      <c r="G93" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="H92" s="12" t="s">
+      <c r="H93" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="I92" s="11" t="s">
+      <c r="I93" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="J92" s="7" t="s">
+      <c r="J93" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="K92" s="7" t="s">
+      <c r="K93" s="7" t="s">
         <v>804</v>
       </c>
-      <c r="L92" s="14" t="s">
+      <c r="L93" s="14" t="s">
         <v>812</v>
       </c>
-      <c r="Q92" s="3"/>
-      <c r="R92" s="2"/>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="2"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B93" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C93" s="13" t="s">
+      <c r="B94" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C94" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="D93" s="13" t="s">
+      <c r="D94" s="13" t="s">
         <v>576</v>
       </c>
-      <c r="E93" s="14" t="s">
+      <c r="E94" s="14" t="s">
         <v>577</v>
       </c>
-      <c r="F93" s="11" t="s">
+      <c r="F94" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="G93" s="7" t="s">
+      <c r="G94" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="H93" s="14" t="s">
+      <c r="H94" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="I93" s="7" t="s">
+      <c r="I94" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="J93" s="10" t="s">
+      <c r="J94" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="K93" s="11" t="s">
+      <c r="K94" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="L93" s="1" t="s">
+      <c r="L94" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="Q93" s="3"/>
-      <c r="R93" s="2"/>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="2"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B94" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C94" s="7" t="s">
+      <c r="B95" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C95" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="D94" s="9" t="s">
+      <c r="D95" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="Q94" s="3"/>
-      <c r="R94" s="2"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="2"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B95" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C95" s="7" t="s">
+      <c r="B96" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C96" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="D95" s="14" t="s">
+      <c r="D96" s="14" t="s">
         <v>580</v>
       </c>
-      <c r="E95" s="9" t="s">
+      <c r="E96" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F96" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="G95" s="7" t="s">
+      <c r="G96" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="H95" s="8" t="s">
+      <c r="H96" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="I95" s="14" t="s">
+      <c r="I96" s="14" t="s">
         <v>434</v>
       </c>
-      <c r="J95" s="11" t="s">
+      <c r="J96" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="K95" s="12" t="s">
+      <c r="K96" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="L95" s="7" t="s">
+      <c r="L96" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="M95" s="7" t="s">
+      <c r="M96" s="7" t="s">
         <v>870</v>
       </c>
-      <c r="N95" s="1" t="s">
+      <c r="N96" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="Q95" s="3"/>
-      <c r="R95" s="2"/>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="2"/>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B96" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C96" s="12" t="s">
+      <c r="B97" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C97" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="D97" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="E97" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="F96" s="14" t="s">
+      <c r="F97" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="G96" s="11" t="s">
+      <c r="G97" s="11" t="s">
         <v>588</v>
       </c>
-      <c r="H96" s="12" t="s">
+      <c r="H97" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="I96" s="9" t="s">
+      <c r="I97" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="J96" s="7" t="s">
+      <c r="J97" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="K96" s="11" t="s">
+      <c r="K97" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="L96" s="12" t="s">
+      <c r="L97" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="M96" s="11" t="s">
+      <c r="M97" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="Q96" s="3"/>
-      <c r="R96" s="2"/>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="2"/>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B97" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C97" s="10" t="s">
+      <c r="B98" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C98" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D98" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E97" s="11" t="s">
+      <c r="E98" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F98" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="G97" s="9" t="s">
+      <c r="G98" s="9" t="s">
         <v>804</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="H98" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="Q97" s="3"/>
-      <c r="R97" s="2"/>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+      <c r="I98" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="2"/>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B98" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C98" s="10" t="s">
+      <c r="B99" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C99" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="D98" s="11" t="s">
+      <c r="D99" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="E98" s="12" t="s">
+      <c r="E99" s="12" t="s">
         <v>871</v>
       </c>
-      <c r="F98" s="14" t="s">
+      <c r="F99" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="G99" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="Q98" s="3"/>
-      <c r="R98" s="2"/>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="2"/>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B99" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C99" s="9" t="s">
+      <c r="B100" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C100" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="D99" s="12" t="s">
+      <c r="D100" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E100" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="F99" s="12" t="s">
+      <c r="F100" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="G99" s="9" t="s">
+      <c r="G100" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="H100" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="Q99" s="3"/>
-      <c r="R99" s="2"/>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3"/>
+      <c r="S100" s="2"/>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B100" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C100" s="11" t="s">
+      <c r="B101" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C101" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="D100" s="12" t="s">
+      <c r="D101" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="E100" s="12" t="s">
+      <c r="E101" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="F101" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="G100" s="11" t="s">
+      <c r="G101" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="H100" s="11" t="s">
+      <c r="H101" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="I100" s="1" t="s">
+      <c r="I101" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="Q100" s="3"/>
-      <c r="R100" s="2"/>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="Q101" s="3"/>
+      <c r="R101" s="3"/>
+      <c r="S101" s="2"/>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B101" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C101" s="14" t="s">
+      <c r="B102" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C102" s="14" t="s">
         <v>596</v>
       </c>
-      <c r="D101" s="14" t="s">
+      <c r="D102" s="14" t="s">
         <v>597</v>
       </c>
-      <c r="E101" s="12" t="s">
+      <c r="E102" s="12" t="s">
         <v>598</v>
       </c>
-      <c r="F101" s="14" t="s">
+      <c r="F102" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="G101" s="14" t="s">
+      <c r="G102" s="14" t="s">
         <v>599</v>
       </c>
-      <c r="H101" s="12" t="s">
+      <c r="H102" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="I101" s="12" t="s">
+      <c r="I102" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="J101" s="14" t="s">
+      <c r="J102" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="K101" s="12" t="s">
+      <c r="K102" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="L101" s="14" t="s">
+      <c r="L102" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="Q101" s="3"/>
-      <c r="R101" s="2"/>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3"/>
+      <c r="S102" s="2"/>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B102" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C102" s="10" t="s">
+      <c r="B103" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C103" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="D102" s="13" t="s">
+      <c r="D103" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E103" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="F103" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="Q102" s="3"/>
-      <c r="R102" s="2"/>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="Q103" s="3"/>
+      <c r="R103" s="3"/>
+      <c r="S103" s="2"/>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B103" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C103" s="12" t="s">
+      <c r="B104" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C104" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="Q103" s="3"/>
-      <c r="R103" s="2"/>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="Q104" s="3"/>
+      <c r="R104" s="3"/>
+      <c r="S104" s="2"/>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="B104" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C104" s="17" t="s">
+      <c r="B105" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C105" s="17" t="s">
         <v>846</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="Q104" s="3"/>
-      <c r="R104" s="2"/>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="Q105" s="3"/>
+      <c r="R105" s="3"/>
+      <c r="S105" s="2"/>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B105" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C105" s="14" t="s">
+      <c r="B106" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C106" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="D105" s="12" t="s">
+      <c r="D106" s="12" t="s">
         <v>600</v>
       </c>
-      <c r="E105" s="11" t="s">
+      <c r="E106" s="11" t="s">
         <v>601</v>
       </c>
-      <c r="F105" s="12" t="s">
+      <c r="F106" s="12" t="s">
         <v>602</v>
       </c>
-      <c r="G105" s="12" t="s">
+      <c r="G106" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="H105" s="14" t="s">
+      <c r="H106" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="I105" s="7" t="s">
+      <c r="I106" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="J105" s="13" t="s">
+      <c r="J106" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="K105" s="10" t="s">
+      <c r="K106" s="10" t="s">
         <v>604</v>
       </c>
-      <c r="L105" s="9" t="s">
+      <c r="L106" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="M105" s="7" t="s">
+      <c r="M106" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="N105" s="12" t="s">
+      <c r="N106" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="Q105" s="3"/>
-      <c r="R105" s="2"/>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3"/>
+      <c r="S106" s="2"/>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B106" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C106" s="9" t="s">
+      <c r="B107" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C107" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D106" s="9" t="s">
+      <c r="D107" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="E106" s="11" t="s">
+      <c r="E107" s="11" t="s">
         <v>606</v>
       </c>
-      <c r="F106" s="12" t="s">
+      <c r="F107" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="G106" s="13" t="s">
+      <c r="G107" s="13" t="s">
         <v>607</v>
       </c>
-      <c r="H106" s="10" t="s">
+      <c r="H107" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="I106" s="9" t="s">
+      <c r="I107" s="9" t="s">
         <v>804</v>
       </c>
-      <c r="Q106" s="3"/>
-      <c r="R106" s="2"/>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="Q107" s="3"/>
+      <c r="R107" s="3"/>
+      <c r="S107" s="2"/>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B107" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C107" s="11" t="s">
+      <c r="B108" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C108" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="D107" s="14" t="s">
+      <c r="D108" s="14" t="s">
         <v>609</v>
       </c>
-      <c r="E107" s="12" t="s">
+      <c r="E108" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="F107" s="11" t="s">
+      <c r="F108" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="G107" s="12" t="s">
+      <c r="G108" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="H107" s="7" t="s">
+      <c r="H108" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="I107" s="11" t="s">
+      <c r="I108" s="11" t="s">
         <v>612</v>
       </c>
-      <c r="J107" s="7" t="s">
+      <c r="J108" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="K107" s="12" t="s">
+      <c r="K108" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="L107" s="9" t="s">
+      <c r="L108" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="M107" s="9" t="s">
+      <c r="M108" s="9" t="s">
         <v>872</v>
       </c>
-      <c r="N107" s="10" t="s">
+      <c r="N108" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="O107" s="9" t="s">
+      <c r="O108" s="9" t="s">
         <v>804</v>
       </c>
-      <c r="P107" s="1" t="s">
+      <c r="P108" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="Q107" s="3"/>
-      <c r="R107" s="2"/>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+      <c r="Q108" s="3"/>
+      <c r="R108" s="3"/>
+      <c r="S108" s="2"/>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B108" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="12" t="s">
+      <c r="B109" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C109" s="12" t="s">
         <v>614</v>
       </c>
-      <c r="D108" s="14" t="s">
+      <c r="D109" s="14" t="s">
         <v>615</v>
       </c>
-      <c r="E108" s="10" t="s">
+      <c r="E109" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="F108" s="11" t="s">
+      <c r="F109" s="11" t="s">
         <v>616</v>
       </c>
-      <c r="G108" s="13" t="s">
+      <c r="G109" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="Q108" s="3"/>
-      <c r="R108" s="2"/>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+      <c r="Q109" s="3"/>
+      <c r="R109" s="3"/>
+      <c r="S109" s="2"/>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B109" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C109" s="9" t="s">
+      <c r="B110" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C110" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="D109" s="12" t="s">
+      <c r="D110" s="12" t="s">
         <v>618</v>
       </c>
-      <c r="E109" s="10" t="s">
+      <c r="E110" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="F109" s="7" t="s">
+      <c r="F110" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="G109" s="10" t="s">
+      <c r="G110" s="10" t="s">
         <v>621</v>
       </c>
-      <c r="H109" s="12" t="s">
+      <c r="H110" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="I109" s="14" t="s">
+      <c r="I110" s="14" t="s">
         <v>622</v>
       </c>
-      <c r="J109" s="14" t="s">
+      <c r="J110" s="14" t="s">
         <v>623</v>
       </c>
-      <c r="K109" s="12" t="s">
+      <c r="K110" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="L109" s="14" t="s">
+      <c r="L110" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="M109" s="9" t="s">
+      <c r="M110" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="N109" s="12" t="s">
+      <c r="N110" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="O109" s="1" t="s">
+      <c r="O110" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="Q109" s="3"/>
-      <c r="R109" s="2"/>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+      <c r="Q110" s="3"/>
+      <c r="R110" s="3"/>
+      <c r="S110" s="2"/>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B110" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C110" s="10" t="s">
+      <c r="B111" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C111" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="D110" s="14" t="s">
+      <c r="D111" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="Q110" s="3"/>
-      <c r="R110" s="2"/>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+      <c r="Q111" s="3"/>
+      <c r="R111" s="3"/>
+      <c r="S111" s="2"/>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B111" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C111" s="7" t="s">
+      <c r="B112" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C112" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D112" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="E111" s="12" t="s">
+      <c r="E112" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="F111" s="11" t="s">
+      <c r="F112" s="11" t="s">
         <v>627</v>
       </c>
-      <c r="G111" s="12" t="s">
+      <c r="G112" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="H111" s="14" t="s">
+      <c r="H112" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="I111" s="14" t="s">
+      <c r="I112" s="14" t="s">
         <v>629</v>
       </c>
-      <c r="J111" s="11" t="s">
+      <c r="J112" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="K111" s="9" t="s">
+      <c r="K112" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="L111" s="11" t="s">
+      <c r="L112" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="M111" s="1" t="s">
+      <c r="M112" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="Q111" s="3"/>
-      <c r="R111" s="2"/>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+      <c r="Q112" s="3"/>
+      <c r="R112" s="3"/>
+      <c r="S112" s="2"/>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B112" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C112" s="11" t="s">
+      <c r="B113" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C113" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="D113" s="10" t="s">
         <v>871</v>
       </c>
-      <c r="E112" s="9" t="s">
+      <c r="E113" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F112" s="14" t="s">
+      <c r="F113" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="G113" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="H112" s="1" t="s">
+      <c r="H113" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="I112" s="1" t="s">
+      <c r="I113" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="Q112" s="3"/>
-      <c r="R112" s="2"/>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+      <c r="Q113" s="3"/>
+      <c r="R113" s="3"/>
+      <c r="S113" s="2"/>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B113" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C113" s="11" t="s">
+      <c r="B114" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C114" s="11" t="s">
         <v>800</v>
       </c>
-      <c r="D113" s="10" t="s">
+      <c r="D114" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="E114" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="F113" s="11" t="s">
+      <c r="F114" s="11" t="s">
         <v>810</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="G114" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="H113" s="1" t="s">
+      <c r="H114" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="Q113" s="3"/>
-      <c r="R113" s="2"/>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3"/>
+      <c r="S114" s="2"/>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B114" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C114" s="12" t="s">
+      <c r="B115" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C115" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="D115" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="E114" s="10" t="s">
+      <c r="E115" s="10" t="s">
         <v>874</v>
       </c>
-      <c r="F114" s="12" t="s">
+      <c r="F115" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="G115" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="H114" s="1" t="s">
+      <c r="H115" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Q114" s="3"/>
-      <c r="R114" s="2"/>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+      <c r="Q115" s="3"/>
+      <c r="R115" s="3"/>
+      <c r="S115" s="2"/>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B115" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C115" s="13" t="s">
+      <c r="B116" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C116" s="13" t="s">
         <v>631</v>
       </c>
-      <c r="D115" s="13" t="s">
+      <c r="D116" s="13" t="s">
         <v>632</v>
       </c>
-      <c r="E115" s="14" t="s">
+      <c r="E116" s="14" t="s">
         <v>633</v>
       </c>
-      <c r="F115" s="13" t="s">
+      <c r="F116" s="13" t="s">
         <v>569</v>
       </c>
-      <c r="G115" s="14" t="s">
+      <c r="G116" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="H115" s="11" t="s">
+      <c r="H116" s="11" t="s">
         <v>635</v>
       </c>
-      <c r="I115" s="10" t="s">
+      <c r="I116" s="10" t="s">
         <v>636</v>
       </c>
-      <c r="J115" s="11" t="s">
+      <c r="J116" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="K115" s="11" t="s">
+      <c r="K116" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="L115" s="7" t="s">
+      <c r="L116" s="7" t="s">
         <v>808</v>
       </c>
-      <c r="Q115" s="3"/>
-      <c r="R115" s="2"/>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+      <c r="Q116" s="3"/>
+      <c r="R116" s="3"/>
+      <c r="S116" s="2"/>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B116" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C116" s="11" t="s">
+      <c r="B117" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C117" s="11" t="s">
         <v>637</v>
       </c>
-      <c r="D116" s="11" t="s">
+      <c r="D117" s="11" t="s">
         <v>638</v>
       </c>
-      <c r="E116" s="10" t="s">
+      <c r="E117" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="F116" s="11" t="s">
+      <c r="F117" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="G116" s="7" t="s">
+      <c r="G117" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="H116" s="12" t="s">
+      <c r="H117" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="I116" s="7" t="s">
+      <c r="I117" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="J116" s="7" t="s">
+      <c r="J117" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K116" s="12" t="s">
+      <c r="K117" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="L116" s="1" t="s">
+      <c r="L117" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="Q116" s="3"/>
-      <c r="R116" s="2"/>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+      <c r="Q117" s="3"/>
+      <c r="R117" s="3"/>
+      <c r="S117" s="2"/>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B117" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C117" s="11" t="s">
+      <c r="B118" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C118" s="11" t="s">
         <v>641</v>
       </c>
-      <c r="D117" s="12" t="s">
+      <c r="D118" s="12" t="s">
         <v>642</v>
       </c>
-      <c r="E117" s="14" t="s">
+      <c r="E118" s="14" t="s">
         <v>643</v>
       </c>
-      <c r="F117" s="7" t="s">
+      <c r="F118" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="G117" s="12" t="s">
+      <c r="G118" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="H117" s="14" t="s">
+      <c r="H118" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="I117" s="12" t="s">
+      <c r="I118" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="Q117" s="3"/>
-      <c r="R117" s="2"/>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+      <c r="Q118" s="3"/>
+      <c r="R118" s="3"/>
+      <c r="S118" s="2"/>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B118" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C118" s="13" t="s">
+      <c r="B119" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C119" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="D118" s="24" t="s">
+      <c r="D119" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="E118" s="14" t="s">
+      <c r="E119" s="14" t="s">
         <v>646</v>
       </c>
-      <c r="F118" s="14" t="s">
+      <c r="F119" s="14" t="s">
         <v>647</v>
       </c>
-      <c r="G118" s="12" t="s">
+      <c r="G119" s="12" t="s">
         <v>648</v>
       </c>
-      <c r="H118" s="12" t="s">
+      <c r="H119" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="I118" s="14" t="s">
+      <c r="I119" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="J118" s="11" t="s">
+      <c r="J119" s="11" t="s">
         <v>649</v>
       </c>
-      <c r="K118" s="7" t="s">
+      <c r="K119" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="L118" s="11" t="s">
+      <c r="L119" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="Q118" s="3"/>
-      <c r="R118" s="2"/>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+      <c r="Q119" s="3"/>
+      <c r="R119" s="3"/>
+      <c r="S119" s="2"/>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B119" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C119" s="11" t="s">
+      <c r="B120" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C120" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="D119" s="12" t="s">
+      <c r="D120" s="12" t="s">
         <v>651</v>
       </c>
-      <c r="E119" s="11" t="s">
+      <c r="E120" s="11" t="s">
         <v>652</v>
       </c>
-      <c r="F119" s="12" t="s">
+      <c r="F120" s="12" t="s">
         <v>653</v>
       </c>
-      <c r="G119" s="10" t="s">
+      <c r="G120" s="10" t="s">
         <v>654</v>
       </c>
-      <c r="H119" s="11" t="s">
+      <c r="H120" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="I119" s="11" t="s">
+      <c r="I120" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J119" s="1" t="s">
+      <c r="J120" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="Q119" s="3"/>
-      <c r="R119" s="2"/>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+      <c r="Q120" s="3"/>
+      <c r="R120" s="3"/>
+      <c r="S120" s="2"/>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B120" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C120" s="15" t="s">
+      <c r="B121" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C121" s="15" t="s">
         <v>655</v>
       </c>
-      <c r="D120" s="12" t="s">
+      <c r="D121" s="12" t="s">
         <v>656</v>
       </c>
-      <c r="E120" s="14" t="s">
+      <c r="E121" s="14" t="s">
         <v>657</v>
       </c>
-      <c r="F120" s="11" t="s">
+      <c r="F121" s="11" t="s">
         <v>658</v>
       </c>
-      <c r="G120" s="11" t="s">
+      <c r="G121" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="H120" s="6" t="s">
+      <c r="H121" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="I120" s="11" t="s">
+      <c r="I121" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="J120" s="9" t="s">
+      <c r="J121" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="K120" s="12" t="s">
+      <c r="K121" s="12" t="s">
         <v>660</v>
       </c>
-      <c r="L120" s="11" t="s">
+      <c r="L121" s="11" t="s">
         <v>661</v>
       </c>
-      <c r="M120" s="8" t="s">
+      <c r="M121" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="N120" s="11" t="s">
+      <c r="N121" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="O120" s="1" t="s">
+      <c r="O121" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="P120" s="1" t="s">
+      <c r="P121" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="Q120" s="3"/>
-      <c r="R120" s="2"/>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+      <c r="Q121" s="3"/>
+      <c r="R121" s="3"/>
+      <c r="S121" s="2"/>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B121" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C121" s="12" t="s">
+      <c r="B122" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C122" s="12" t="s">
         <v>662</v>
       </c>
-      <c r="D121" s="14" t="s">
+      <c r="D122" s="14" t="s">
         <v>663</v>
       </c>
-      <c r="E121" s="12" t="s">
+      <c r="E122" s="12" t="s">
         <v>664</v>
       </c>
-      <c r="F121" s="11" t="s">
+      <c r="F122" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="G121" s="11" t="s">
+      <c r="G122" s="11" t="s">
         <v>665</v>
       </c>
-      <c r="Q121" s="3"/>
-      <c r="R121" s="2"/>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+      <c r="Q122" s="3"/>
+      <c r="R122" s="3"/>
+      <c r="S122" s="2"/>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B122" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C122" s="12" t="s">
+      <c r="B123" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C123" s="12" t="s">
         <v>666</v>
       </c>
-      <c r="D122" s="12" t="s">
+      <c r="D123" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="E122" s="7" t="s">
+      <c r="E123" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="F122" s="11" t="s">
+      <c r="F123" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="G122" s="14" t="s">
+      <c r="G123" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="H122" s="12" t="s">
+      <c r="H123" s="12" t="s">
         <v>669</v>
       </c>
-      <c r="I122" s="10" t="s">
+      <c r="I123" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="J122" s="9" t="s">
+      <c r="J123" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="K122" s="10" t="s">
+      <c r="K123" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="L122" s="14" t="s">
+      <c r="L123" s="14" t="s">
         <v>812</v>
       </c>
-      <c r="M122" s="1" t="s">
+      <c r="M123" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="Q122" s="3"/>
-      <c r="R122" s="2"/>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+      <c r="Q123" s="3"/>
+      <c r="R123" s="3"/>
+      <c r="S123" s="2"/>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B123" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C123" s="11" t="s">
+      <c r="B124" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C124" s="11" t="s">
         <v>670</v>
       </c>
-      <c r="D123" s="11" t="s">
+      <c r="D124" s="11" t="s">
         <v>671</v>
       </c>
-      <c r="E123" s="14" t="s">
+      <c r="E124" s="14" t="s">
         <v>672</v>
       </c>
-      <c r="F123" s="11" t="s">
+      <c r="F124" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="G123" s="11" t="s">
+      <c r="G124" s="11" t="s">
         <v>673</v>
       </c>
-      <c r="H123" s="12" t="s">
+      <c r="H124" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="I123" s="8" t="s">
+      <c r="I124" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="J123" s="9" t="s">
+      <c r="J124" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="K123" s="7" t="s">
+      <c r="K124" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="L123" s="9" t="s">
+      <c r="L124" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="M123" s="7" t="s">
+      <c r="M124" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="N123" s="8" t="s">
+      <c r="N124" s="8" t="s">
         <v>869</v>
       </c>
-      <c r="O123" s="1" t="s">
+      <c r="O124" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="P123" s="1" t="s">
+      <c r="P124" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Q123" s="3"/>
-      <c r="R123" s="2"/>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+      <c r="Q124" s="3"/>
+      <c r="R124" s="3"/>
+      <c r="S124" s="2"/>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B124" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C124" s="11" t="s">
+      <c r="B125" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C125" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="D124" s="12" t="s">
+      <c r="D125" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="E124" s="9" t="s">
+      <c r="E125" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="F124" s="9" t="s">
+      <c r="F125" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="G124" s="9" t="s">
+      <c r="G125" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="H124" s="9" t="s">
+      <c r="H125" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="Q124" s="3"/>
-      <c r="R124" s="2"/>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+      <c r="Q125" s="3"/>
+      <c r="R125" s="3"/>
+      <c r="S125" s="2"/>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B125" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C125" s="10" t="s">
+      <c r="B126" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C126" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="D125" s="9" t="s">
+      <c r="D126" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="E125" s="12" t="s">
+      <c r="E126" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="F125" s="12" t="s">
+      <c r="F126" s="12" t="s">
         <v>857</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="G126" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="H125" s="1" t="s">
+      <c r="H126" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="Q125" s="3"/>
-      <c r="R125" s="2"/>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
+      <c r="Q126" s="3"/>
+      <c r="R126" s="3"/>
+      <c r="S126" s="2"/>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B126" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C126" s="11" t="s">
+      <c r="B127" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C127" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D126" s="11" t="s">
+      <c r="D127" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="E126" s="12" t="s">
+      <c r="E127" s="12" t="s">
         <v>678</v>
       </c>
-      <c r="F126" s="12" t="s">
+      <c r="F127" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="G126" s="7" t="s">
+      <c r="G127" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="H126" s="8" t="s">
+      <c r="H127" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="I126" s="14" t="s">
+      <c r="I127" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="J126" s="6" t="s">
+      <c r="J127" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="K126" s="7" t="s">
+      <c r="K127" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="L126" s="1" t="s">
+      <c r="L127" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="M126" s="1" t="s">
+      <c r="M127" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Q126" s="3"/>
-      <c r="R126" s="2"/>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
+      <c r="Q127" s="3"/>
+      <c r="R127" s="3"/>
+      <c r="S127" s="2"/>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B127" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C127" s="10" t="s">
+      <c r="B128" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C128" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="D127" s="13" t="s">
+      <c r="D128" s="13" t="s">
         <v>681</v>
       </c>
-      <c r="E127" s="7" t="s">
+      <c r="E128" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="F127" s="7" t="s">
+      <c r="F128" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="G128" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="Q127" s="3"/>
-      <c r="R127" s="2"/>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
+      <c r="Q128" s="3"/>
+      <c r="R128" s="3"/>
+      <c r="S128" s="2"/>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B128" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C128" s="11" t="s">
+      <c r="B129" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C129" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="D128" s="10" t="s">
+      <c r="D129" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="E128" s="14" t="s">
+      <c r="E129" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="F129" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="Q128" s="3"/>
-      <c r="R128" s="2"/>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
+      <c r="Q129" s="3"/>
+      <c r="R129" s="3"/>
+      <c r="S129" s="2"/>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B129" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C129" s="12" t="s">
+      <c r="B130" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C130" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="D129" s="14" t="s">
+      <c r="D130" s="14" t="s">
         <v>609</v>
       </c>
-      <c r="E129" s="11" t="s">
+      <c r="E130" s="11" t="s">
         <v>611</v>
       </c>
-      <c r="F129" s="11" t="s">
+      <c r="F130" s="11" t="s">
         <v>606</v>
       </c>
-      <c r="G129" s="7" t="s">
+      <c r="G130" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H129" s="9" t="s">
+      <c r="H130" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="I129" s="12" t="s">
+      <c r="I130" s="12" t="s">
         <v>685</v>
       </c>
-      <c r="J129" s="10" t="s">
+      <c r="J130" s="10" t="s">
         <v>679</v>
       </c>
-      <c r="K129" s="1" t="s">
+      <c r="K130" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L129" s="1" t="s">
+      <c r="L130" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="Q129" s="3"/>
-      <c r="R129" s="2"/>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+      <c r="Q130" s="3"/>
+      <c r="R130" s="3"/>
+      <c r="S130" s="2"/>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B130" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C130" s="9" t="s">
+      <c r="B131" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C131" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="D130" s="10" t="s">
+      <c r="D131" s="10" t="s">
         <v>687</v>
       </c>
-      <c r="E130" s="10" t="s">
+      <c r="E131" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="F130" s="14" t="s">
+      <c r="F131" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="G130" s="11" t="s">
+      <c r="G131" s="11" t="s">
         <v>688</v>
       </c>
-      <c r="Q130" s="3"/>
-      <c r="R130" s="2"/>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+      <c r="Q131" s="3"/>
+      <c r="R131" s="3"/>
+      <c r="S131" s="2"/>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B131" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C131" s="13" t="s">
+      <c r="B132" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C132" s="13" t="s">
         <v>689</v>
       </c>
-      <c r="D131" s="14" t="s">
+      <c r="D132" s="14" t="s">
         <v>690</v>
       </c>
-      <c r="E131" s="14" t="s">
+      <c r="E132" s="14" t="s">
         <v>691</v>
       </c>
-      <c r="F131" s="14" t="s">
+      <c r="F132" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="G131" s="12" t="s">
+      <c r="G132" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="H131" s="14" t="s">
+      <c r="H132" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="I131" s="12" t="s">
+      <c r="I132" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="J131" s="10" t="s">
+      <c r="J132" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="K131" s="12" t="s">
+      <c r="K132" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="L131" s="7" t="s">
+      <c r="L132" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="M131" s="7" t="s">
+      <c r="M132" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="N131" s="11" t="s">
+      <c r="N132" s="11" t="s">
         <v>876</v>
       </c>
-      <c r="O131" s="1" t="s">
+      <c r="O132" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="Q131" s="3"/>
-      <c r="R131" s="2"/>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
+      <c r="Q132" s="3"/>
+      <c r="R132" s="3"/>
+      <c r="S132" s="2"/>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B132" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C132" s="11" t="s">
+      <c r="B133" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C133" s="11" t="s">
         <v>693</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="D133" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="E132" s="7" t="s">
+      <c r="E133" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F132" s="14" t="s">
+      <c r="F133" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="G132" s="12" t="s">
+      <c r="G133" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="H132" s="9" t="s">
+      <c r="H133" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="I132" s="14" t="s">
+      <c r="I133" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="J132" s="14" t="s">
+      <c r="J133" s="14" t="s">
         <v>864</v>
       </c>
-      <c r="K132" s="12" t="s">
+      <c r="K133" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="L132" s="11" t="s">
+      <c r="L133" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="M132" s="12" t="s">
+      <c r="M133" s="12" t="s">
         <v>805</v>
       </c>
-      <c r="N132" s="9" t="s">
+      <c r="N133" s="9" t="s">
         <v>819</v>
       </c>
-      <c r="Q132" s="3"/>
-      <c r="R132" s="2"/>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
+      <c r="Q133" s="3"/>
+      <c r="R133" s="3"/>
+      <c r="S133" s="2"/>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B133" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C133" s="14" t="s">
+      <c r="B134" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C134" s="14" t="s">
         <v>694</v>
       </c>
-      <c r="D133" s="7" t="s">
+      <c r="D134" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="E133" s="12" t="s">
+      <c r="E134" s="12" t="s">
         <v>696</v>
       </c>
-      <c r="F133" s="14" t="s">
+      <c r="F134" s="14" t="s">
         <v>697</v>
       </c>
-      <c r="G133" s="12" t="s">
+      <c r="G134" s="12" t="s">
         <v>698</v>
       </c>
-      <c r="H133" s="12" t="s">
+      <c r="H134" s="12" t="s">
         <v>699</v>
       </c>
-      <c r="I133" s="7" t="s">
+      <c r="I134" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="J133" s="14" t="s">
+      <c r="J134" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="K133" s="12" t="s">
+      <c r="K134" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="L133" s="14" t="s">
+      <c r="L134" s="14" t="s">
         <v>700</v>
       </c>
-      <c r="M133" s="14" t="s">
+      <c r="M134" s="14" t="s">
         <v>701</v>
       </c>
-      <c r="N133" s="9" t="s">
+      <c r="N134" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="O133" s="1" t="s">
+      <c r="O134" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="P133" s="1" t="s">
+      <c r="P134" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Q133" s="3"/>
-      <c r="R133" s="2"/>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
+      <c r="Q134" s="3"/>
+      <c r="R134" s="3"/>
+      <c r="S134" s="2"/>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B134" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C134" s="14" t="s">
+      <c r="B135" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C135" s="14" t="s">
         <v>702</v>
       </c>
-      <c r="D134" s="14" t="s">
+      <c r="D135" s="14" t="s">
         <v>703</v>
       </c>
-      <c r="E134" s="12" t="s">
+      <c r="E135" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="F134" s="14" t="s">
+      <c r="F135" s="14" t="s">
         <v>704</v>
       </c>
-      <c r="G134" s="12" t="s">
+      <c r="G135" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="H134" s="11" t="s">
+      <c r="H135" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="I134" s="1" t="s">
+      <c r="I135" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="Q134" s="3"/>
-      <c r="R134" s="2"/>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
+      <c r="Q135" s="3"/>
+      <c r="R135" s="3"/>
+      <c r="S135" s="2"/>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B135" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C135" s="11" t="s">
+      <c r="B136" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C136" s="11" t="s">
         <v>705</v>
       </c>
-      <c r="D135" s="11" t="s">
+      <c r="D136" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="E135" s="12" t="s">
+      <c r="E136" s="12" t="s">
         <v>706</v>
       </c>
-      <c r="F135" s="14" t="s">
+      <c r="F136" s="14" t="s">
         <v>707</v>
       </c>
-      <c r="G135" s="12" t="s">
+      <c r="G136" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="H135" s="12" t="s">
+      <c r="H136" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="I135" s="12" t="s">
+      <c r="I136" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="J135" s="14" t="s">
+      <c r="J136" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="K135" s="12" t="s">
+      <c r="K136" s="12" t="s">
         <v>708</v>
       </c>
-      <c r="L135" s="9" t="s">
+      <c r="L136" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="M135" s="7" t="s">
+      <c r="M136" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="Q135" s="3"/>
-      <c r="R135" s="2"/>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
+      <c r="Q136" s="3"/>
+      <c r="R136" s="3"/>
+      <c r="S136" s="2"/>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B136" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C136" s="14" t="s">
+      <c r="B137" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C137" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="D136" s="11" t="s">
+      <c r="D137" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="E136" s="14" t="s">
+      <c r="E137" s="14" t="s">
         <v>830</v>
       </c>
-      <c r="F136" s="7" t="s">
+      <c r="F137" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="G136" s="9" t="s">
+      <c r="G137" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="H136" s="14" t="s">
+      <c r="H137" s="14" t="s">
         <v>710</v>
       </c>
-      <c r="I136" s="11" t="s">
+      <c r="I137" s="11" t="s">
         <v>711</v>
       </c>
-      <c r="J136" s="14" t="s">
+      <c r="J137" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="K136" s="14" t="s">
+      <c r="K137" s="14" t="s">
         <v>712</v>
       </c>
-      <c r="L136" s="7" t="s">
+      <c r="L137" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="M136" s="9" t="s">
+      <c r="M137" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="N136" s="12" t="s">
+      <c r="N137" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="O136" s="14" t="s">
+      <c r="O137" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="P136" s="9" t="s">
+      <c r="P137" s="9" t="s">
         <v>808</v>
       </c>
-      <c r="Q136" s="3"/>
-      <c r="R136" s="2"/>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
+      <c r="Q137" s="3"/>
+      <c r="R137" s="3"/>
+      <c r="S137" s="2"/>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B137" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C137" s="12" t="s">
+      <c r="B138" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C138" s="12" t="s">
         <v>713</v>
       </c>
-      <c r="D137" s="13" t="s">
+      <c r="D138" s="13" t="s">
         <v>714</v>
       </c>
-      <c r="E137" s="14" t="s">
+      <c r="E138" s="14" t="s">
         <v>715</v>
       </c>
-      <c r="F137" s="11" t="s">
+      <c r="F138" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="G137" s="14" t="s">
+      <c r="G138" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H137" s="12" t="s">
+      <c r="H138" s="12" t="s">
         <v>716</v>
       </c>
-      <c r="I137" s="14" t="s">
+      <c r="I138" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="J137" s="12" t="s">
+      <c r="J138" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="K137" s="11" t="s">
+      <c r="K138" s="11" t="s">
         <v>717</v>
       </c>
-      <c r="L137" s="11" t="s">
+      <c r="L138" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="M137" s="12" t="s">
+      <c r="M138" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="N137" s="1" t="s">
+      <c r="N138" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="Q137" s="3"/>
-      <c r="R137" s="2"/>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
+      <c r="Q138" s="3"/>
+      <c r="R138" s="3"/>
+      <c r="S138" s="2"/>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B138" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C138" s="17" t="s">
+      <c r="B139" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C139" s="17" t="s">
         <v>719</v>
       </c>
-      <c r="D138" s="17" t="s">
+      <c r="D139" s="17" t="s">
         <v>720</v>
       </c>
-      <c r="E138" s="11" t="s">
+      <c r="E139" s="11" t="s">
         <v>721</v>
       </c>
-      <c r="F138" s="17" t="s">
+      <c r="F139" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="G138" s="17" t="s">
+      <c r="G139" s="17" t="s">
         <v>722</v>
       </c>
-      <c r="Q138" s="3"/>
-      <c r="R138" s="2"/>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
+      <c r="Q139" s="3"/>
+      <c r="R139" s="3"/>
+      <c r="S139" s="2"/>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B139" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C139" s="9" t="s">
+      <c r="B140" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C140" s="9" t="s">
         <v>799</v>
       </c>
-      <c r="D139" s="11" t="s">
+      <c r="D140" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="E139" s="11" t="s">
+      <c r="E140" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="F139" s="12" t="s">
+      <c r="F140" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="G139" s="14" t="s">
+      <c r="G140" s="14" t="s">
         <v>723</v>
       </c>
-      <c r="H139" s="1" t="s">
+      <c r="H140" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="Q139" s="3"/>
-      <c r="R139" s="2"/>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
+      <c r="Q140" s="3"/>
+      <c r="R140" s="3"/>
+      <c r="S140" s="2"/>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B140" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C140" s="12" t="s">
+      <c r="B141" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C141" s="12" t="s">
         <v>724</v>
       </c>
-      <c r="D140" s="10" t="s">
+      <c r="D141" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="E140" s="7" t="s">
+      <c r="E141" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="F140" s="11" t="s">
+      <c r="F141" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="G140" s="11" t="s">
+      <c r="G141" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="H140" s="11" t="s">
+      <c r="H141" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="I140" s="9" t="s">
+      <c r="I141" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="J140" s="12" t="s">
+      <c r="J141" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="K140" s="9" t="s">
+      <c r="K141" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="L140" s="9" t="s">
+      <c r="L141" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="M140" s="1" t="s">
+      <c r="M141" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="Q140" s="3"/>
-      <c r="R140" s="2"/>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
+      <c r="Q141" s="3"/>
+      <c r="R141" s="3"/>
+      <c r="S141" s="2"/>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B141" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C141" s="11" t="s">
+      <c r="B142" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C142" s="11" t="s">
         <v>727</v>
       </c>
-      <c r="D141" s="13" t="s">
+      <c r="D142" s="13" t="s">
         <v>728</v>
       </c>
-      <c r="E141" s="11" t="s">
+      <c r="E142" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="F141" s="12" t="s">
+      <c r="F142" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="G141" s="12" t="s">
+      <c r="G142" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="H141" s="9" t="s">
+      <c r="H142" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="I141" s="9" t="s">
+      <c r="I142" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="J141" s="12" t="s">
+      <c r="J142" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="K141" s="11" t="s">
+      <c r="K142" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="L141" s="11" t="s">
+      <c r="L142" s="11" t="s">
         <v>877</v>
       </c>
-      <c r="M141" s="11" t="s">
+      <c r="M142" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="N141" s="12" t="s">
+      <c r="N142" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="O141" s="9" t="s">
+      <c r="O142" s="9" t="s">
         <v>804</v>
       </c>
-      <c r="P141" s="1" t="s">
+      <c r="P142" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="Q141" s="3"/>
-      <c r="R141" s="2"/>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
+      <c r="Q142" s="3"/>
+      <c r="R142" s="3"/>
+      <c r="S142" s="2"/>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B142" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C142" s="13" t="s">
+      <c r="B143" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C143" s="13" t="s">
         <v>730</v>
       </c>
-      <c r="D142" s="13" t="s">
+      <c r="D143" s="13" t="s">
         <v>731</v>
       </c>
-      <c r="E142" s="12" t="s">
+      <c r="E143" s="12" t="s">
         <v>732</v>
       </c>
-      <c r="F142" s="13" t="s">
+      <c r="F143" s="13" t="s">
         <v>733</v>
       </c>
-      <c r="G142" s="14" t="s">
+      <c r="G143" s="14" t="s">
         <v>734</v>
       </c>
-      <c r="H142" s="14" t="s">
+      <c r="H143" s="14" t="s">
         <v>735</v>
       </c>
-      <c r="I142" s="14" t="s">
+      <c r="I143" s="14" t="s">
         <v>736</v>
       </c>
-      <c r="J142" s="11" t="s">
+      <c r="J143" s="11" t="s">
         <v>737</v>
       </c>
-      <c r="K142" s="11" t="s">
+      <c r="K143" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="L142" s="14" t="s">
+      <c r="L143" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="M142" s="11" t="s">
+      <c r="M143" s="11" t="s">
         <v>738</v>
       </c>
-      <c r="N142" s="12" t="s">
+      <c r="N143" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="O142" s="1" t="s">
+      <c r="O143" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="Q142" s="3"/>
-      <c r="R142" s="2"/>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
+      <c r="Q143" s="3"/>
+      <c r="R143" s="3"/>
+      <c r="S143" s="2"/>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B143" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C143" s="10" t="s">
+      <c r="B144" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C144" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="D143" s="9" t="s">
+      <c r="D144" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E143" s="13" t="s">
+      <c r="E144" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="F143" s="9" t="s">
+      <c r="F144" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="G143" s="9" t="s">
+      <c r="G144" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="Q143" s="3"/>
-      <c r="R143" s="2"/>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
+      <c r="Q144" s="3"/>
+      <c r="R144" s="3"/>
+      <c r="S144" s="2"/>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="B144" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C144" s="12" t="s">
+      <c r="B145" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C145" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="D144" s="17"/>
-      <c r="E144" s="17"/>
-      <c r="F144" s="17"/>
-      <c r="Q144" s="3"/>
-      <c r="R144" s="2"/>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
+      <c r="D145" s="17" t="s">
+        <v>900</v>
+      </c>
+      <c r="E145" s="17"/>
+      <c r="F145" s="17"/>
+      <c r="Q145" s="3"/>
+      <c r="R145" s="3"/>
+      <c r="S145" s="2"/>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B145" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C145" s="14" t="s">
+      <c r="B146" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C146" s="14" t="s">
         <v>739</v>
       </c>
-      <c r="D145" s="14" t="s">
+      <c r="D146" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="E145" s="14" t="s">
+      <c r="E146" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="F145" s="14" t="s">
+      <c r="F146" s="14" t="s">
         <v>740</v>
       </c>
-      <c r="G145" s="11" t="s">
+      <c r="G146" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="H145" s="10" t="s">
+      <c r="H146" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="I145" s="12" t="s">
+      <c r="I146" s="12" t="s">
         <v>741</v>
       </c>
-      <c r="J145" s="12" t="s">
+      <c r="J146" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="K145" s="1" t="s">
+      <c r="K146" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="Q145" s="3"/>
-      <c r="R145" s="2"/>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
+      <c r="Q146" s="3"/>
+      <c r="R146" s="3"/>
+      <c r="S146" s="2"/>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B146" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C146" s="7" t="s">
+      <c r="B147" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C147" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="D146" s="12" t="s">
+      <c r="D147" s="12" t="s">
         <v>813</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="E147" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="F147" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="Q146" s="3"/>
-      <c r="R146" s="2"/>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
+      <c r="Q147" s="3"/>
+      <c r="R147" s="3"/>
+      <c r="S147" s="2"/>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B147" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C147" s="14" t="s">
+      <c r="B148" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C148" s="14" t="s">
         <v>742</v>
       </c>
-      <c r="D147" s="12" t="s">
+      <c r="D148" s="12" t="s">
         <v>743</v>
       </c>
-      <c r="E147" s="11" t="s">
+      <c r="E148" s="11" t="s">
         <v>744</v>
       </c>
-      <c r="F147" s="7" t="s">
+      <c r="F148" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="G147" s="11" t="s">
+      <c r="G148" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="H147" s="1" t="s">
+      <c r="H148" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="Q147" s="3"/>
-      <c r="R147" s="2"/>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
+      <c r="Q148" s="3"/>
+      <c r="R148" s="3"/>
+      <c r="S148" s="2"/>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B148" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C148" s="7" t="s">
+      <c r="B149" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C149" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="D148" s="10" t="s">
+      <c r="D149" s="10" t="s">
         <v>745</v>
       </c>
-      <c r="E148" s="14" t="s">
+      <c r="E149" s="14" t="s">
         <v>746</v>
       </c>
-      <c r="F148" s="14" t="s">
+      <c r="F149" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="G148" s="11" t="s">
+      <c r="G149" s="11" t="s">
         <v>747</v>
       </c>
-      <c r="H148" s="10" t="s">
+      <c r="H149" s="10" t="s">
         <v>729</v>
       </c>
-      <c r="I148" s="14" t="s">
+      <c r="I149" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="J148" s="7" t="s">
+      <c r="J149" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K148" s="9" t="s">
+      <c r="K149" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="L148" s="9" t="s">
+      <c r="L149" s="9" t="s">
         <v>748</v>
       </c>
-      <c r="M148" s="1" t="s">
+      <c r="M149" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="Q148" s="3"/>
-      <c r="R148" s="2"/>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
+      <c r="Q149" s="3"/>
+      <c r="R149" s="3"/>
+      <c r="S149" s="2"/>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B149" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C149" s="9" t="s">
+      <c r="B150" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C150" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="D149" s="12" t="s">
+      <c r="D150" s="12" t="s">
         <v>749</v>
       </c>
-      <c r="E149" s="11" t="s">
+      <c r="E150" s="11" t="s">
         <v>750</v>
       </c>
-      <c r="F149" s="12" t="s">
+      <c r="F150" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="G149" s="14" t="s">
+      <c r="G150" s="14" t="s">
         <v>751</v>
       </c>
-      <c r="H149" s="9" t="s">
+      <c r="H150" s="9" t="s">
         <v>752</v>
       </c>
-      <c r="I149" s="7" t="s">
+      <c r="I150" s="7" t="s">
         <v>821</v>
       </c>
-      <c r="J149" s="9" t="s">
+      <c r="J150" s="9" t="s">
         <v>878</v>
       </c>
-      <c r="Q149" s="3"/>
-      <c r="R149" s="2"/>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
+      <c r="Q150" s="3"/>
+      <c r="R150" s="3"/>
+      <c r="S150" s="2"/>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B150" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C150" s="12" t="s">
+      <c r="B151" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C151" s="12" t="s">
         <v>753</v>
       </c>
-      <c r="D150" s="14" t="s">
+      <c r="D151" s="14" t="s">
         <v>754</v>
       </c>
-      <c r="E150" s="14" t="s">
+      <c r="E151" s="14" t="s">
         <v>755</v>
       </c>
-      <c r="F150" s="12" t="s">
+      <c r="F151" s="12" t="s">
         <v>756</v>
       </c>
-      <c r="G150" s="12" t="s">
+      <c r="G151" s="12" t="s">
         <v>757</v>
       </c>
-      <c r="H150" s="9" t="s">
+      <c r="H151" s="9" t="s">
         <v>758</v>
       </c>
-      <c r="I150" s="14" t="s">
+      <c r="I151" s="14" t="s">
         <v>759</v>
       </c>
-      <c r="J150" s="11" t="s">
+      <c r="J151" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="K150" s="14" t="s">
+      <c r="K151" s="14" t="s">
         <v>760</v>
       </c>
-      <c r="L150" s="11" t="s">
+      <c r="L151" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="M150" s="11" t="s">
+      <c r="M151" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="N150" s="9" t="s">
+      <c r="N151" s="9" t="s">
         <v>807</v>
       </c>
-      <c r="Q150" s="3"/>
-      <c r="R150" s="2"/>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
+      <c r="Q151" s="3"/>
+      <c r="R151" s="3"/>
+      <c r="S151" s="2"/>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B151" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C151" s="14" t="s">
+      <c r="B152" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C152" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="D151" s="10" t="s">
+      <c r="D152" s="10" t="s">
         <v>762</v>
       </c>
-      <c r="E151" s="12" t="s">
+      <c r="E152" s="12" t="s">
         <v>763</v>
       </c>
-      <c r="F151" s="12" t="s">
+      <c r="F152" s="12" t="s">
         <v>711</v>
       </c>
-      <c r="G151" s="11" t="s">
+      <c r="G152" s="11" t="s">
         <v>764</v>
       </c>
-      <c r="H151" s="9" t="s">
+      <c r="H152" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="I151" s="13" t="s">
+      <c r="I152" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="Q151" s="3"/>
-      <c r="R151" s="2"/>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
+      <c r="Q152" s="3"/>
+      <c r="R152" s="3"/>
+      <c r="S152" s="2"/>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B152" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C152" s="7" t="s">
+      <c r="B153" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C153" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="D152" s="9" t="s">
+      <c r="D153" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="E152" s="10" t="s">
+      <c r="E153" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="F152" s="9" t="s">
+      <c r="F153" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="G152" s="9" t="s">
+      <c r="G153" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="H152" s="9" t="s">
+      <c r="H153" s="9" t="s">
         <v>809</v>
       </c>
-      <c r="I152" s="1" t="s">
+      <c r="I153" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="J152" s="1" t="s">
+      <c r="J153" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="Q152" s="3"/>
-      <c r="R152" s="2"/>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
+      <c r="Q153" s="3"/>
+      <c r="R153" s="3"/>
+      <c r="S153" s="2"/>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B153" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C153" s="12" t="s">
+      <c r="B154" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C154" s="12" t="s">
         <v>767</v>
       </c>
-      <c r="D153" s="14" t="s">
+      <c r="D154" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="E153" s="12" t="s">
+      <c r="E154" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="F153" s="12" t="s">
+      <c r="F154" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="G153" s="9" t="s">
+      <c r="G154" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="H153" s="12" t="s">
+      <c r="H154" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="Q153" s="3"/>
-      <c r="R153" s="2"/>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
+      <c r="Q154" s="3"/>
+      <c r="R154" s="3"/>
+      <c r="S154" s="2"/>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B154" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C154" s="12" t="s">
+      <c r="B155" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C155" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="D154" s="12" t="s">
+      <c r="D155" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="E154" s="11" t="s">
+      <c r="E155" s="11" t="s">
         <v>768</v>
       </c>
-      <c r="F154" s="9" t="s">
+      <c r="F155" s="9" t="s">
         <v>769</v>
       </c>
-      <c r="G154" s="7" t="s">
+      <c r="G155" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="H154" s="14" t="s">
+      <c r="H155" s="14" t="s">
         <v>538</v>
       </c>
-      <c r="I154" s="10" t="s">
+      <c r="I155" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="J154" s="6" t="s">
+      <c r="J155" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="K154" s="7" t="s">
+      <c r="K155" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="L154" s="1" t="s">
+      <c r="L155" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="Q154" s="3"/>
-      <c r="R154" s="2"/>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
+      <c r="Q155" s="3"/>
+      <c r="R155" s="3"/>
+      <c r="S155" s="2"/>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B155" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C155" s="10" t="s">
+      <c r="B156" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C156" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="D155" s="7" t="s">
+      <c r="D156" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E155" s="7" t="s">
+      <c r="E156" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F155" s="8" t="s">
+      <c r="F156" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="G155" s="11" t="s">
+      <c r="G156" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="H155" s="12" t="s">
+      <c r="H156" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="I155" s="7" t="s">
+      <c r="I156" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="J155" s="11" t="s">
+      <c r="J156" s="11" t="s">
         <v>871</v>
       </c>
-      <c r="K155" s="8" t="s">
+      <c r="K156" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="L155" s="8" t="s">
+      <c r="L156" s="8" t="s">
         <v>816</v>
       </c>
-      <c r="M155" s="6" t="s">
+      <c r="M156" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="N155" s="1" t="s">
+      <c r="N156" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="Q155" s="3"/>
-      <c r="R155" s="2"/>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
+      <c r="Q156" s="3"/>
+      <c r="R156" s="3"/>
+      <c r="S156" s="2"/>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B156" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C156" s="7" t="s">
+      <c r="B157" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C157" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D156" s="11" t="s">
+      <c r="D157" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="E156" s="8" t="s">
+      <c r="E157" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="F156" s="1" t="s">
+      <c r="F157" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="Q156" s="3"/>
-      <c r="R156" s="2"/>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
+      <c r="Q157" s="3"/>
+      <c r="R157" s="3"/>
+      <c r="S157" s="2"/>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B157" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C157" s="11" t="s">
+      <c r="B158" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C158" s="11" t="s">
         <v>771</v>
       </c>
-      <c r="D157" s="12" t="s">
+      <c r="D158" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="E157" s="9" t="s">
+      <c r="E158" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="F157" s="14" t="s">
+      <c r="F158" s="14" t="s">
         <v>772</v>
       </c>
-      <c r="G157" s="14" t="s">
+      <c r="G158" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="H157" s="13" t="s">
+      <c r="H158" s="13" t="s">
         <v>812</v>
       </c>
-      <c r="I157" s="1" t="s">
+      <c r="I158" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Q157" s="3"/>
-      <c r="R157" s="2"/>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
+      <c r="Q158" s="3"/>
+      <c r="R158" s="3"/>
+      <c r="S158" s="2"/>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B158" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C158" s="12" t="s">
+      <c r="B159" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C159" s="12" t="s">
         <v>773</v>
       </c>
-      <c r="D158" s="12" t="s">
+      <c r="D159" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="E158" s="7" t="s">
+      <c r="E159" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="F158" s="10" t="s">
+      <c r="F159" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="G158" s="1" t="s">
+      <c r="G159" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="Q158" s="3"/>
-      <c r="R158" s="2"/>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
+      <c r="Q159" s="3"/>
+      <c r="R159" s="3"/>
+      <c r="S159" s="2"/>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B159" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C159" s="12" t="s">
+      <c r="B160" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C160" s="12" t="s">
         <v>775</v>
       </c>
-      <c r="D159" s="14" t="s">
+      <c r="D160" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="E159" s="12" t="s">
+      <c r="E160" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="F159" s="11" t="s">
+      <c r="F160" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="Q159" s="3"/>
-      <c r="R159" s="2"/>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
+      <c r="G160" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="Q160" s="3"/>
+      <c r="R160" s="3"/>
+      <c r="S160" s="2"/>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B160" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C160" s="7" t="s">
+      <c r="B161" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C161" s="7" t="s">
         <v>776</v>
       </c>
-      <c r="D160" s="11" t="s">
+      <c r="D161" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E160" s="10" t="s">
+      <c r="E161" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="F160" s="8" t="s">
+      <c r="F161" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="G160" s="11" t="s">
+      <c r="G161" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="H160" s="8" t="s">
+      <c r="H161" s="8" t="s">
         <v>777</v>
       </c>
-      <c r="I160" s="12" t="s">
+      <c r="I161" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="J160" s="7" t="s">
+      <c r="J161" s="7" t="s">
         <v>857</v>
       </c>
-      <c r="K160" s="1" t="s">
+      <c r="K161" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="Q160" s="3"/>
-      <c r="R160" s="2"/>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
+      <c r="L161" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="Q161" s="3"/>
+      <c r="R161" s="3"/>
+      <c r="S161" s="2"/>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="B161" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C161" s="17" t="s">
+      <c r="B162" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C162" s="17" t="s">
         <v>679</v>
       </c>
-      <c r="D161" s="17" t="s">
+      <c r="D162" s="17" t="s">
         <v>882</v>
       </c>
-      <c r="E161" s="17"/>
-      <c r="F161" s="17"/>
-      <c r="G161" s="17"/>
-      <c r="H161" s="17"/>
-      <c r="I161" s="17"/>
-      <c r="J161" s="17"/>
-      <c r="Q161" s="3"/>
-      <c r="R161" s="2"/>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
+      <c r="E162" s="17"/>
+      <c r="F162" s="17"/>
+      <c r="G162" s="17"/>
+      <c r="H162" s="17"/>
+      <c r="I162" s="17"/>
+      <c r="J162" s="17"/>
+      <c r="Q162" s="3"/>
+      <c r="R162" s="3"/>
+      <c r="S162" s="2"/>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B162" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C162" s="14" t="s">
+      <c r="B163" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C163" s="14" t="s">
         <v>647</v>
       </c>
-      <c r="D162" s="14" t="s">
+      <c r="D163" s="14" t="s">
         <v>778</v>
       </c>
-      <c r="E162" s="12" t="s">
+      <c r="E163" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="F162" s="12" t="s">
+      <c r="F163" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="G162" s="9" t="s">
+      <c r="G163" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="H162" s="12" t="s">
+      <c r="H163" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="I162" s="12" t="s">
+      <c r="I163" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="J162" s="14" t="s">
+      <c r="J163" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="K162" s="11" t="s">
+      <c r="K163" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="L162" s="1" t="s">
+      <c r="L163" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="Q162" s="3"/>
-      <c r="R162" s="2"/>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
+      <c r="Q163" s="3"/>
+      <c r="R163" s="3"/>
+      <c r="S163" s="2"/>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B163" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C163" s="14" t="s">
+      <c r="B164" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C164" s="14" t="s">
         <v>780</v>
       </c>
-      <c r="D163" s="13" t="s">
+      <c r="D164" s="13" t="s">
         <v>781</v>
       </c>
-      <c r="E163" s="12" t="s">
+      <c r="E164" s="12" t="s">
         <v>782</v>
       </c>
-      <c r="F163" s="14" t="s">
+      <c r="F164" s="14" t="s">
         <v>783</v>
       </c>
-      <c r="G163" s="7" t="s">
+      <c r="G164" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H163" s="12" t="s">
+      <c r="H164" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="Q163" s="3"/>
-      <c r="R163" s="2"/>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
+      <c r="Q164" s="3"/>
+      <c r="R164" s="3"/>
+      <c r="S164" s="2"/>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B164" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C164" s="11" t="s">
+      <c r="B165" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C165" s="11" t="s">
         <v>784</v>
       </c>
-      <c r="D164" s="11" t="s">
+      <c r="D165" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="E164" s="9" t="s">
+      <c r="E165" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="F164" s="10" t="s">
+      <c r="F165" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="G164" s="10" t="s">
+      <c r="G165" s="10" t="s">
         <v>880</v>
       </c>
-      <c r="H164" s="1" t="s">
+      <c r="H165" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="Q164" s="3"/>
-      <c r="R164" s="2"/>
-    </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A165" s="5" t="s">
+      <c r="Q165" s="3"/>
+      <c r="R165" s="3"/>
+      <c r="S165" s="2"/>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B165" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C165" s="20" t="s">
+      <c r="B166" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C166" s="20" t="s">
         <v>785</v>
       </c>
-      <c r="D165" s="21" t="s">
+      <c r="D166" s="21" t="s">
         <v>527</v>
       </c>
-      <c r="E165" s="23" t="s">
+      <c r="E166" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="F165" s="22" t="s">
+      <c r="F166" s="22" t="s">
         <v>786</v>
       </c>
-      <c r="G165" s="19" t="s">
+      <c r="G166" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="H165" s="21" t="s">
+      <c r="H166" s="21" t="s">
         <v>862</v>
       </c>
-      <c r="I165" s="41" t="s">
+      <c r="I166" s="41" t="s">
         <v>677</v>
       </c>
-      <c r="J165" s="21" t="s">
+      <c r="J166" s="21" t="s">
         <v>808</v>
       </c>
-      <c r="K165" s="4"/>
-      <c r="L165" s="4"/>
-      <c r="M165" s="4"/>
-      <c r="N165" s="4"/>
-      <c r="O165" s="4"/>
-      <c r="P165" s="4"/>
-      <c r="Q165" s="4"/>
-      <c r="R165" s="5"/>
+      <c r="K166" s="4"/>
+      <c r="L166" s="4"/>
+      <c r="M166" s="4"/>
+      <c r="N166" s="4"/>
+      <c r="O166" s="4"/>
+      <c r="P166" s="4"/>
+      <c r="Q166" s="4"/>
+      <c r="R166" s="4"/>
+      <c r="S166" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="902">
   <si>
     <t>Aatrox</t>
   </si>
@@ -3391,8 +3391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="F91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O112" sqref="O112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5029,6 +5029,9 @@
       <c r="M42" s="11" t="s">
         <v>389</v>
       </c>
+      <c r="N42" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="S42" s="2"/>
@@ -6215,6 +6218,9 @@
       <c r="H74" s="1" t="s">
         <v>827</v>
       </c>
+      <c r="I74" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
       <c r="S74" s="2"/>
@@ -6723,6 +6729,12 @@
       </c>
       <c r="K85" s="11" t="s">
         <v>327</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>865</v>
       </c>
       <c r="Q85" s="3"/>
       <c r="R85" s="3"/>
@@ -7079,6 +7091,9 @@
       <c r="D95" s="9" t="s">
         <v>172</v>
       </c>
+      <c r="E95" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="2"/>
@@ -7659,6 +7674,9 @@
       <c r="M112" s="1" t="s">
         <v>500</v>
       </c>
+      <c r="N112" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="Q112" s="3"/>
       <c r="R112" s="3"/>
       <c r="S112" s="2"/>
@@ -8333,6 +8351,9 @@
       <c r="G131" s="11" t="s">
         <v>688</v>
       </c>
+      <c r="H131" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="Q131" s="3"/>
       <c r="R131" s="3"/>
       <c r="S131" s="2"/>
@@ -8383,6 +8404,9 @@
       <c r="O132" s="1" t="s">
         <v>433</v>
       </c>
+      <c r="P132" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="Q132" s="3"/>
       <c r="R132" s="3"/>
       <c r="S132" s="2"/>
@@ -8612,7 +8636,9 @@
       <c r="P137" s="9" t="s">
         <v>808</v>
       </c>
-      <c r="Q137" s="3"/>
+      <c r="Q137" s="3" t="s">
+        <v>253</v>
+      </c>
       <c r="R137" s="3"/>
       <c r="S137" s="2"/>
     </row>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="905">
   <si>
     <t>Aatrox</t>
   </si>
@@ -2739,6 +2739,15 @@
   </si>
   <si>
     <t>Prestige Empyrean</t>
+  </si>
+  <si>
+    <t>Winterblessed</t>
+  </si>
+  <si>
+    <t>Prestige Winterblessed</t>
+  </si>
+  <si>
+    <t>Ashen Graveknight</t>
   </si>
 </sst>
 </file>
@@ -3391,8 +3400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O112" sqref="O112"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4433,6 +4442,9 @@
       <c r="L28" s="1" t="s">
         <v>433</v>
       </c>
+      <c r="M28" s="1" t="s">
+        <v>902</v>
+      </c>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="2"/>
@@ -6641,6 +6653,9 @@
       </c>
       <c r="K83" s="1" t="s">
         <v>233</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>904</v>
       </c>
       <c r="Q83" s="3"/>
       <c r="R83" s="3"/>
@@ -7808,6 +7823,9 @@
       <c r="L116" s="7" t="s">
         <v>808</v>
       </c>
+      <c r="M116" s="1" t="s">
+        <v>902</v>
+      </c>
       <c r="Q116" s="3"/>
       <c r="R116" s="3"/>
       <c r="S116" s="2"/>
@@ -8161,6 +8179,9 @@
       </c>
       <c r="H125" s="9" t="s">
         <v>677</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>902</v>
       </c>
       <c r="Q125" s="3"/>
       <c r="R125" s="3"/>
@@ -9147,6 +9168,12 @@
       </c>
       <c r="N151" s="9" t="s">
         <v>807</v>
+      </c>
+      <c r="O151" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="P151" s="1" t="s">
+        <v>903</v>
       </c>
       <c r="Q151" s="3"/>
       <c r="R151" s="3"/>
@@ -9573,6 +9600,9 @@
       <c r="H164" s="12" t="s">
         <v>266</v>
       </c>
+      <c r="I164" s="1" t="s">
+        <v>902</v>
+      </c>
       <c r="Q164" s="3"/>
       <c r="R164" s="3"/>
       <c r="S164" s="2"/>
@@ -9601,6 +9631,9 @@
       </c>
       <c r="H165" s="1" t="s">
         <v>847</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>902</v>
       </c>
       <c r="Q165" s="3"/>
       <c r="R165" s="3"/>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="908">
   <si>
     <t>Aatrox</t>
   </si>
@@ -2501,9 +2501,6 @@
     <t>Duality Dragon</t>
   </si>
   <si>
-    <t>Patch 11.21</t>
-  </si>
-  <si>
     <t>Arcane</t>
   </si>
   <si>
@@ -2748,6 +2745,18 @@
   </si>
   <si>
     <t>Ashen Graveknight</t>
+  </si>
+  <si>
+    <t>Mythmaker</t>
+  </si>
+  <si>
+    <t>Prestige Mythmaker</t>
+  </si>
+  <si>
+    <t>Lunar Emperor</t>
+  </si>
+  <si>
+    <t>Patch 13.1</t>
   </si>
 </sst>
 </file>
@@ -3400,9 +3409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3412,11 +3419,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="40">
-        <v>44500</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>822</v>
+      <c r="A1" s="40" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -3511,7 +3515,7 @@
         <v>161</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>162</v>
@@ -3564,7 +3568,7 @@
         <v>171</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>172</v>
@@ -3620,7 +3624,7 @@
         <v>171</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>183</v>
@@ -3765,7 +3769,7 @@
         <v>206</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -3810,7 +3814,7 @@
         <v>811</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -3843,7 +3847,7 @@
         <v>219</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>220</v>
@@ -3864,10 +3868,10 @@
         <v>197</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="R12" s="3"/>
       <c r="S12" s="2"/>
@@ -3887,7 +3891,7 @@
         <v>197</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>173</v>
@@ -3944,9 +3948,11 @@
         <v>277</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="Q14" s="3"/>
+        <v>881</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>510</v>
+      </c>
       <c r="R14" s="3"/>
       <c r="S14" s="2"/>
       <c r="U14" s="17"/>
@@ -3995,7 +4001,7 @@
         <v>172</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -4022,7 +4028,7 @@
         <v>241</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -4030,7 +4036,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>157</v>
@@ -4092,7 +4098,7 @@
         <v>162</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -4133,7 +4139,7 @@
         <v>336</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
@@ -4209,16 +4215,16 @@
         <v>169</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="N22" s="7" t="s">
         <v>275</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
@@ -4244,7 +4250,7 @@
         <v>279</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
@@ -4434,7 +4440,7 @@
         <v>308</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="K28" s="8" t="s">
         <v>804</v>
@@ -4443,7 +4449,7 @@
         <v>433</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
@@ -4487,7 +4493,7 @@
         <v>336</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
@@ -4563,13 +4569,13 @@
         <v>273</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>170</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
@@ -4633,7 +4639,7 @@
         <v>171</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="J33" s="11" t="s">
         <v>266</v>
@@ -4701,10 +4707,10 @@
         <v>340</v>
       </c>
       <c r="Q34" s="18" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="S34" s="2"/>
     </row>
@@ -4743,7 +4749,7 @@
         <v>348</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
@@ -4787,7 +4793,7 @@
         <v>197</v>
       </c>
       <c r="M36" s="14" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="N36" s="11" t="s">
         <v>327</v>
@@ -4828,7 +4834,7 @@
         <v>360</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>361</v>
@@ -4868,6 +4874,9 @@
       <c r="J38" s="10" t="s">
         <v>366</v>
       </c>
+      <c r="K38" s="1" t="s">
+        <v>904</v>
+      </c>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="2"/>
@@ -4910,7 +4919,7 @@
         <v>374</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
@@ -4957,10 +4966,13 @@
         <v>313</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="O40" s="11" t="s">
         <v>275</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>904</v>
       </c>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
@@ -4983,7 +4995,7 @@
         <v>240</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G41" s="12" t="s">
         <v>222</v>
@@ -5089,7 +5101,7 @@
         <v>804</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
@@ -5106,7 +5118,7 @@
         <v>253</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
@@ -5182,7 +5194,7 @@
         <v>274</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
@@ -5205,7 +5217,7 @@
         <v>406</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
@@ -5243,13 +5255,16 @@
         <v>183</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="L48" s="11" t="s">
         <v>233</v>
       </c>
       <c r="M48" s="9" t="s">
         <v>804</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>904</v>
       </c>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
@@ -5319,10 +5334,10 @@
         <v>677</v>
       </c>
       <c r="O50" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="P50" s="1" t="s">
         <v>889</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>890</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -5419,10 +5434,10 @@
         <v>195</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
@@ -5454,10 +5469,10 @@
         <v>267</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
@@ -5492,7 +5507,7 @@
         <v>432</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
@@ -5530,13 +5545,13 @@
         <v>230</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
@@ -5556,7 +5571,7 @@
         <v>171</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>278</v>
@@ -5568,7 +5583,7 @@
         <v>175</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="J56" s="7" t="s">
         <v>818</v>
@@ -5816,7 +5831,7 @@
         <v>812</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
@@ -5839,10 +5854,10 @@
         <v>224</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
@@ -5911,6 +5926,9 @@
       <c r="H65" s="12" t="s">
         <v>163</v>
       </c>
+      <c r="I65" s="1" t="s">
+        <v>557</v>
+      </c>
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
       <c r="S65" s="2"/>
@@ -5932,7 +5950,7 @@
         <v>173</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
@@ -6002,7 +6020,7 @@
         <v>485</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
@@ -6010,16 +6028,16 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" s="17" t="s">
         <v>899</v>
       </c>
-      <c r="B69" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C69" s="17" t="s">
+      <c r="D69" s="17" t="s">
         <v>900</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>901</v>
       </c>
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
@@ -6070,7 +6088,7 @@
         <v>231</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>336</v>
@@ -6120,7 +6138,7 @@
         <v>224</v>
       </c>
       <c r="M71" s="7" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="N71" s="12" t="s">
         <v>374</v>
@@ -6129,7 +6147,7 @@
         <v>236</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
@@ -6176,7 +6194,7 @@
         <v>432</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="O72" s="1" t="s">
         <v>336</v>
@@ -6228,10 +6246,13 @@
         <v>430</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>253</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>865</v>
       </c>
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
@@ -6266,7 +6287,7 @@
         <v>273</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="K75" s="10" t="s">
         <v>162</v>
@@ -6275,7 +6296,7 @@
         <v>279</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
@@ -6316,10 +6337,10 @@
         <v>253</v>
       </c>
       <c r="L76" s="14" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="Q76" s="3"/>
       <c r="R76" s="3"/>
@@ -6363,7 +6384,7 @@
         <v>275</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="N77" s="7" t="s">
         <v>430</v>
@@ -6375,13 +6396,13 @@
         <v>253</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="R77" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
@@ -6419,13 +6440,16 @@
         <v>290</v>
       </c>
       <c r="L78" s="14" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="M78" s="14" t="s">
         <v>374</v>
       </c>
       <c r="N78" s="9" t="s">
         <v>807</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>557</v>
       </c>
       <c r="Q78" s="3"/>
       <c r="R78" s="3"/>
@@ -6557,7 +6581,7 @@
         <v>173</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="Q81" s="3"/>
       <c r="R81" s="3"/>
@@ -6610,7 +6634,7 @@
         <v>327</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="Q82" s="43" t="s">
         <v>314</v>
@@ -6655,7 +6679,7 @@
         <v>233</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="Q83" s="3"/>
       <c r="R83" s="3"/>
@@ -6702,10 +6726,10 @@
         <v>441</v>
       </c>
       <c r="N84" s="8" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="Q84" s="3"/>
       <c r="R84" s="3"/>
@@ -6749,7 +6773,7 @@
         <v>253</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q85" s="3"/>
       <c r="R85" s="3"/>
@@ -6793,7 +6817,7 @@
         <v>253</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="Q86" s="3"/>
       <c r="R86" s="3"/>
@@ -6813,7 +6837,7 @@
         <v>559</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>389</v>
@@ -6828,7 +6852,7 @@
         <v>431</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="Q87" s="3"/>
       <c r="R87" s="3"/>
@@ -6848,7 +6872,7 @@
         <v>170</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F88" s="14" t="s">
         <v>431</v>
@@ -6904,7 +6928,7 @@
         <v>432</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="Q89" s="3"/>
       <c r="R89" s="3"/>
@@ -6912,7 +6936,7 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B90" s="17" t="s">
         <v>157</v>
@@ -7005,7 +7029,7 @@
         <v>253</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="Q92" s="3"/>
       <c r="R92" s="3"/>
@@ -7087,7 +7111,7 @@
         <v>274</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="Q94" s="3"/>
       <c r="R94" s="3"/>
@@ -7151,10 +7175,10 @@
         <v>314</v>
       </c>
       <c r="M96" s="7" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="Q96" s="3"/>
       <c r="R96" s="3"/>
@@ -7227,10 +7251,10 @@
         <v>804</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="Q98" s="3"/>
       <c r="R98" s="3"/>
@@ -7250,13 +7274,16 @@
         <v>184</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F99" s="14" t="s">
         <v>308</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>776</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>510</v>
       </c>
       <c r="Q99" s="3"/>
       <c r="R99" s="3"/>
@@ -7406,16 +7433,16 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C105" s="17" t="s">
         <v>845</v>
       </c>
-      <c r="B105" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C105" s="17" t="s">
-        <v>846</v>
-      </c>
       <c r="D105" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="Q105" s="3"/>
       <c r="R105" s="3"/>
@@ -7538,7 +7565,7 @@
         <v>613</v>
       </c>
       <c r="M108" s="9" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="N108" s="10" t="s">
         <v>173</v>
@@ -7547,7 +7574,7 @@
         <v>804</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="Q108" s="3"/>
       <c r="R108" s="3"/>
@@ -7707,7 +7734,7 @@
         <v>184</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>233</v>
@@ -7719,7 +7746,7 @@
         <v>501</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>327</v>
@@ -7748,10 +7775,10 @@
         <v>810</v>
       </c>
       <c r="G114" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="H114" s="1" t="s">
         <v>882</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>883</v>
       </c>
       <c r="Q114" s="3"/>
       <c r="R114" s="3"/>
@@ -7771,7 +7798,7 @@
         <v>630</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F115" s="12" t="s">
         <v>274</v>
@@ -7824,7 +7851,7 @@
         <v>808</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="Q116" s="3"/>
       <c r="R116" s="3"/>
@@ -8023,13 +8050,17 @@
         <v>163</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="P121" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="Q121" s="3"/>
-      <c r="R121" s="3"/>
+      <c r="Q121" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="R121" s="3" t="s">
+        <v>905</v>
+      </c>
       <c r="S121" s="2"/>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
@@ -8143,10 +8174,10 @@
         <v>224</v>
       </c>
       <c r="N124" s="8" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="P124" s="1" t="s">
         <v>173</v>
@@ -8181,7 +8212,7 @@
         <v>677</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="Q125" s="3"/>
       <c r="R125" s="3"/>
@@ -8204,13 +8235,13 @@
         <v>183</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="Q126" s="3"/>
       <c r="R126" s="3"/>
@@ -8251,7 +8282,7 @@
         <v>327</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="M127" s="1" t="s">
         <v>173</v>
@@ -8344,7 +8375,7 @@
         <v>233</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="Q130" s="3"/>
       <c r="R130" s="3"/>
@@ -8420,7 +8451,7 @@
         <v>173</v>
       </c>
       <c r="N132" s="11" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="O132" s="1" t="s">
         <v>433</v>
@@ -8461,7 +8492,7 @@
         <v>273</v>
       </c>
       <c r="J133" s="14" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="K133" s="12" t="s">
         <v>374</v>
@@ -8474,6 +8505,9 @@
       </c>
       <c r="N133" s="9" t="s">
         <v>819</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>906</v>
       </c>
       <c r="Q133" s="3"/>
       <c r="R133" s="3"/>
@@ -8558,7 +8592,7 @@
         <v>261</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="Q135" s="3"/>
       <c r="R135" s="3"/>
@@ -8622,7 +8656,7 @@
         <v>709</v>
       </c>
       <c r="E137" s="14" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F137" s="7" t="s">
         <v>329</v>
@@ -8759,7 +8793,7 @@
         <v>723</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="Q140" s="3"/>
       <c r="R140" s="3"/>
@@ -8844,7 +8878,7 @@
         <v>433</v>
       </c>
       <c r="L142" s="11" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="M142" s="11" t="s">
         <v>173</v>
@@ -8856,7 +8890,7 @@
         <v>804</v>
       </c>
       <c r="P142" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="Q142" s="3"/>
       <c r="R142" s="3"/>
@@ -8906,7 +8940,7 @@
         <v>241</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="Q143" s="3"/>
       <c r="R143" s="3"/>
@@ -8949,7 +8983,7 @@
         <v>441</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E145" s="17"/>
       <c r="F145" s="17"/>
@@ -8989,7 +9023,7 @@
         <v>340</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="Q146" s="3"/>
       <c r="R146" s="3"/>
@@ -9009,7 +9043,7 @@
         <v>813</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>596</v>
@@ -9085,7 +9119,7 @@
         <v>748</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="Q149" s="3"/>
       <c r="R149" s="3"/>
@@ -9120,7 +9154,7 @@
         <v>821</v>
       </c>
       <c r="J150" s="9" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="Q150" s="3"/>
       <c r="R150" s="3"/>
@@ -9170,10 +9204,10 @@
         <v>807</v>
       </c>
       <c r="O151" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="P151" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="P151" s="1" t="s">
-        <v>903</v>
       </c>
       <c r="Q151" s="3"/>
       <c r="R151" s="3"/>
@@ -9237,7 +9271,7 @@
         <v>809</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>279</v>
@@ -9345,7 +9379,7 @@
         <v>184</v>
       </c>
       <c r="J156" s="11" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="K156" s="8" t="s">
         <v>173</v>
@@ -9357,7 +9391,7 @@
         <v>817</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="Q156" s="3"/>
       <c r="R156" s="3"/>
@@ -9380,7 +9414,7 @@
         <v>441</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="Q157" s="3"/>
       <c r="R157" s="3"/>
@@ -9438,7 +9472,7 @@
         <v>327</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="Q159" s="3"/>
       <c r="R159" s="3"/>
@@ -9464,7 +9498,7 @@
         <v>482</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="Q160" s="3"/>
       <c r="R160" s="3"/>
@@ -9499,13 +9533,13 @@
         <v>340</v>
       </c>
       <c r="J161" s="7" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K161" s="1" t="s">
         <v>336</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="Q161" s="3"/>
       <c r="R161" s="3"/>
@@ -9513,7 +9547,7 @@
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B162" s="17" t="s">
         <v>157</v>
@@ -9522,7 +9556,7 @@
         <v>679</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E162" s="17"/>
       <c r="F162" s="17"/>
@@ -9569,7 +9603,7 @@
         <v>194</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="Q163" s="3"/>
       <c r="R163" s="3"/>
@@ -9601,7 +9635,7 @@
         <v>266</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="Q164" s="3"/>
       <c r="R164" s="3"/>
@@ -9627,13 +9661,13 @@
         <v>484</v>
       </c>
       <c r="G165" s="10" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="Q165" s="3"/>
       <c r="R165" s="3"/>
@@ -9662,7 +9696,7 @@
         <v>277</v>
       </c>
       <c r="H166" s="21" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="I166" s="41" t="s">
         <v>677</v>
@@ -9670,7 +9704,9 @@
       <c r="J166" s="21" t="s">
         <v>808</v>
       </c>
-      <c r="K166" s="4"/>
+      <c r="K166" s="4" t="s">
+        <v>904</v>
+      </c>
       <c r="L166" s="4"/>
       <c r="M166" s="4"/>
       <c r="N166" s="4"/>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -3409,7 +3409,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3543,16 +3545,16 @@
       <c r="C6" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="17" t="s">
         <v>168</v>
       </c>
       <c r="H6" s="11" t="s">

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2939,15 +2930,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2989,12 +2977,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3014,12 +2996,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3067,16 +3043,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3087,16 +3069,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF7030A0"/>
+      <color rgb="FFFFCC00"/>
+      <color rgb="FFFF9933"/>
+      <color rgb="FF00CC66"/>
       <color rgb="FF66FF33"/>
       <color rgb="FFCCFF33"/>
+      <color rgb="FF00FFCC"/>
       <color rgb="FF0099CC"/>
-      <color rgb="FF00FFCC"/>
-      <color rgb="FFFF9933"/>
-      <color rgb="FF00CC66"/>
-      <color rgb="FFFFCC00"/>
       <color rgb="FF3333FF"/>
       <color rgb="FF666699"/>
-      <color rgb="FFFF33CC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3407,1311 +3389,1230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V166"/>
+  <dimension ref="A1:S166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B4" sqref="B4:Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="19" width="25.7109375" style="1" customWidth="1"/>
     <col min="20" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>803</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="23" t="s">
         <v>787</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="24" t="s">
         <v>788</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="25" t="s">
         <v>789</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="26" t="s">
         <v>790</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="27" t="s">
         <v>791</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="28" t="s">
         <v>792</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="29" t="s">
         <v>793</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="30" t="s">
         <v>794</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="31" t="s">
         <v>796</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="32" t="s">
         <v>797</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="33" t="s">
         <v>798</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="34" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S3" s="4"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="11"/>
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="3"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="3"/>
+      <c r="Q5" s="37"/>
       <c r="S5" s="2"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="3"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="27" t="s">
+      <c r="B6" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="9" t="s">
         <v>848</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="R6" s="3"/>
       <c r="S6" s="2"/>
-      <c r="U6" s="17"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="6" t="s">
         <v>848</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="6" t="s">
         <v>808</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="R7" s="3"/>
       <c r="S7" s="2"/>
-      <c r="U7" s="17"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>784</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="11" t="s">
         <v>677</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
       <c r="S8" s="2"/>
-      <c r="U8" s="17"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
       <c r="S9" s="2"/>
-      <c r="U9" s="17"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="11" t="s">
         <v>826</v>
       </c>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
       <c r="S10" s="2"/>
-      <c r="U10" s="17"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="11" t="s">
         <v>897</v>
       </c>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
       <c r="S11" s="2"/>
-      <c r="U11" s="17"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="13" t="s">
         <v>828</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="N12" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="O12" s="13" t="s">
+      <c r="O12" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="P12" s="11" t="s">
         <v>824</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="Q12" s="7" t="s">
         <v>895</v>
       </c>
-      <c r="R12" s="3"/>
       <c r="S12" s="2"/>
-      <c r="U12" s="17"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="11" t="s">
         <v>846</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
       <c r="S13" s="2"/>
-      <c r="U13" s="17"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="O14" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="P14" s="9" t="s">
         <v>881</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="R14" s="3"/>
       <c r="S14" s="2"/>
-      <c r="U14" s="17"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
       <c r="S15" s="2"/>
-      <c r="U15" s="17"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="10" t="s">
         <v>896</v>
       </c>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
       <c r="S16" s="2"/>
-      <c r="U16" s="17"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="11" t="s">
         <v>824</v>
       </c>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
       <c r="S17" s="2"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
       <c r="S18" s="2"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="M19" s="12" t="s">
+      <c r="M19" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="N19" s="14" t="s">
+      <c r="N19" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O19" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="P19" s="13" t="s">
         <v>893</v>
       </c>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="11" t="s">
         <v>849</v>
       </c>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
       <c r="S20" s="2"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
       <c r="S21" s="2"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C22" s="17" t="s">
+      <c r="B22" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="M22" s="6" t="s">
         <v>850</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="N22" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="O22" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="P22" s="5" t="s">
         <v>883</v>
       </c>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
       <c r="S22" s="2"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" s="12" t="s">
+      <c r="B23" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="10" t="s">
         <v>891</v>
       </c>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
       <c r="S23" s="2"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" s="14" t="s">
+      <c r="B24" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
       <c r="S24" s="2"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" s="13" t="s">
+      <c r="B25" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
       <c r="S25" s="2"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" s="11" t="s">
+      <c r="B26" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="L26" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
       <c r="S26" s="2"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C27" s="14" t="s">
+      <c r="B27" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="K27" s="14" t="s">
+      <c r="K27" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="L27" s="12" t="s">
+      <c r="L27" s="11" t="s">
         <v>808</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="M27" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
       <c r="S27" s="2"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" s="7" t="s">
+      <c r="B28" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="J28" s="8" t="s">
         <v>851</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="K28" s="7" t="s">
         <v>804</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="M28" s="7" t="s">
         <v>901</v>
       </c>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
       <c r="S28" s="2"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="H29" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="K29" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L29" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="M29" s="11" t="s">
         <v>895</v>
       </c>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
       <c r="S29" s="2"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C30" s="11" t="s">
+      <c r="B30" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="I30" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="K30" s="14" t="s">
+      <c r="K30" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="L30" s="11" t="s">
+      <c r="L30" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C31" s="12" t="s">
+      <c r="B31" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="11" t="s">
         <v>843</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="L31" s="10" t="s">
         <v>868</v>
       </c>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
       <c r="S31" s="2"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" s="12" t="s">
+      <c r="B32" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
       <c r="S32" s="2"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="8" t="s">
         <v>848</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="J33" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="K33" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="L33" s="8" t="s">
+      <c r="L33" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M33" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
       <c r="S33" s="2"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="K34" s="12" t="s">
+      <c r="K34" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="L34" s="9" t="s">
+      <c r="L34" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="M34" s="11" t="s">
+      <c r="M34" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="N34" s="12" t="s">
+      <c r="N34" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="O34" s="7" t="s">
+      <c r="O34" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="P34" s="11" t="s">
+      <c r="P34" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="Q34" s="18" t="s">
+      <c r="Q34" s="10" t="s">
         <v>852</v>
       </c>
-      <c r="R34" s="3" t="s">
+      <c r="R34" s="6" t="s">
         <v>825</v>
       </c>
       <c r="S34" s="2"/>
@@ -4720,1690 +4621,1597 @@
       <c r="A35" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C35" s="12" t="s">
+      <c r="B35" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="I35" s="12" t="s">
+      <c r="I35" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="J35" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="K35" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="L35" s="10" t="s">
         <v>884</v>
       </c>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
       <c r="S35" s="2"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C36" s="7" t="s">
+      <c r="B36" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I36" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="J36" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="K36" s="12" t="s">
+      <c r="K36" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="L36" s="12" t="s">
+      <c r="L36" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="M36" s="14" t="s">
+      <c r="M36" s="13" t="s">
         <v>853</v>
       </c>
-      <c r="N36" s="11" t="s">
+      <c r="N36" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
       <c r="S36" s="2"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C37" s="12" t="s">
+      <c r="B37" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="H37" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="I37" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="J37" s="12" t="s">
+      <c r="J37" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="K37" s="12" t="s">
+      <c r="K37" s="11" t="s">
         <v>854</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="L37" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
       <c r="S37" s="2"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C38" s="7" t="s">
+      <c r="B38" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="H38" s="14" t="s">
+      <c r="H38" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="J38" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K38" s="9" t="s">
         <v>904</v>
       </c>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
       <c r="S38" s="2"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C39" s="11" t="s">
+      <c r="B39" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="H39" s="12" t="s">
+      <c r="H39" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="I39" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="J39" s="11" t="s">
+      <c r="J39" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="K39" s="18" t="s">
+      <c r="K39" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="L39" s="9" t="s">
+      <c r="L39" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="M39" s="10" t="s">
         <v>841</v>
       </c>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
       <c r="S39" s="2"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C40" s="14" t="s">
+      <c r="B40" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="H40" s="14" t="s">
+      <c r="H40" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="I40" s="12" t="s">
+      <c r="I40" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="J40" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="K40" s="9" t="s">
+      <c r="K40" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="L40" s="14" t="s">
+      <c r="L40" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="M40" s="9" t="s">
+      <c r="M40" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="N40" s="9" t="s">
+      <c r="N40" s="8" t="s">
         <v>855</v>
       </c>
-      <c r="O40" s="11" t="s">
+      <c r="O40" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="P40" s="1" t="s">
+      <c r="P40" s="6" t="s">
         <v>904</v>
       </c>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
       <c r="S40" s="2"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C41" s="7" t="s">
+      <c r="B41" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F41" s="13" t="s">
         <v>830</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="G41" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
       <c r="S41" s="2"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C42" s="13" t="s">
+      <c r="B42" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="H42" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="I42" s="14" t="s">
+      <c r="I42" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="J42" s="14" t="s">
+      <c r="J42" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="K42" s="12" t="s">
+      <c r="K42" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="L42" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="M42" s="11" t="s">
+      <c r="M42" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="N42" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
       <c r="S42" s="2"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C43" s="14" t="s">
+      <c r="B43" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H43" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="I43" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="J43" s="9" t="s">
+      <c r="J43" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="K43" s="11" t="s">
+      <c r="K43" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="L43" s="11" t="s">
+      <c r="L43" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="M43" s="9" t="s">
+      <c r="M43" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="N43" s="11" t="s">
         <v>846</v>
       </c>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
       <c r="S43" s="2"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C44" s="13" t="s">
+      <c r="B44" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="10" t="s">
         <v>824</v>
       </c>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
       <c r="S44" s="2"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C45" s="14" t="s">
+      <c r="B45" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="H45" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="I45" s="9" t="s">
+      <c r="I45" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="J45" s="9" t="s">
+      <c r="J45" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="K45" s="11" t="s">
+      <c r="K45" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="L45" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
       <c r="S45" s="2"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C46" s="12" t="s">
+      <c r="B46" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G46" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="I46" s="12" t="s">
+      <c r="I46" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" s="13" t="s">
         <v>832</v>
       </c>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
       <c r="S46" s="2"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C47" s="12" t="s">
+      <c r="B47" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
       <c r="S47" s="2"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C48" s="7" t="s">
+      <c r="B48" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="I48" s="10" t="s">
+      <c r="I48" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="J48" s="11" t="s">
+      <c r="J48" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="K48" s="6" t="s">
         <v>856</v>
       </c>
-      <c r="L48" s="11" t="s">
+      <c r="L48" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="M48" s="9" t="s">
+      <c r="M48" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="N48" s="1" t="s">
+      <c r="N48" s="7" t="s">
         <v>904</v>
       </c>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
       <c r="S48" s="2"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C49" s="14" t="s">
+      <c r="B49" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="8" t="s">
         <v>807</v>
       </c>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
       <c r="S49" s="2"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C50" s="11" t="s">
+      <c r="B50" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="H50" s="12" t="s">
+      <c r="H50" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="I50" s="9" t="s">
+      <c r="I50" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="J50" s="7" t="s">
+      <c r="J50" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="K50" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="L50" s="11" t="s">
+      <c r="L50" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="M50" s="12" t="s">
+      <c r="M50" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="N50" s="1" t="s">
+      <c r="N50" s="8" t="s">
         <v>677</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="O50" s="13" t="s">
         <v>888</v>
       </c>
-      <c r="P50" s="1" t="s">
+      <c r="P50" s="8" t="s">
         <v>889</v>
       </c>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
       <c r="S50" s="2"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C51" s="12" t="s">
+      <c r="B51" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="F51" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="G51" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="H51" s="14" t="s">
+      <c r="H51" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="I51" s="11" t="s">
+      <c r="I51" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="J51" s="11" t="s">
+      <c r="J51" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="K51" s="12" t="s">
+      <c r="K51" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="L51" s="11" t="s">
+      <c r="L51" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="M51" s="14" t="s">
+      <c r="M51" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="N51" s="8" t="s">
+      <c r="N51" s="7" t="s">
         <v>815</v>
       </c>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
       <c r="S51" s="2"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C52" s="13" t="s">
+      <c r="B52" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E52" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F52" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="G52" s="14" t="s">
+      <c r="G52" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="H52" s="8" t="s">
+      <c r="H52" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="I52" s="12" t="s">
+      <c r="I52" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="J52" s="12" t="s">
+      <c r="J52" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="K52" s="11" t="s">
+      <c r="K52" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="L52" s="9" t="s">
+      <c r="L52" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="M52" s="7" t="s">
+      <c r="M52" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="N52" s="7" t="s">
+      <c r="N52" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="O52" s="7" t="s">
+      <c r="O52" s="6" t="s">
         <v>857</v>
       </c>
-      <c r="P52" s="1" t="s">
+      <c r="P52" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
       <c r="S52" s="2"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C53" s="10" t="s">
+      <c r="B53" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="G53" s="11" t="s">
+      <c r="G53" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H53" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I53" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J53" s="11" t="s">
         <v>893</v>
       </c>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
       <c r="S53" s="2"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C54" s="11" t="s">
+      <c r="B54" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="G54" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="H54" s="11" t="s">
+      <c r="H54" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="I54" s="7" t="s">
+      <c r="I54" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J54" s="6" t="s">
         <v>899</v>
       </c>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
       <c r="S54" s="2"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C55" s="11" t="s">
+      <c r="B55" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="E55" s="12" t="s">
+      <c r="E55" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G55" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="H55" s="14" t="s">
+      <c r="H55" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="I55" s="12" t="s">
+      <c r="I55" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="J55" s="14" t="s">
+      <c r="J55" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="K55" s="1" t="s">
+      <c r="K55" s="8" t="s">
         <v>822</v>
       </c>
-      <c r="L55" s="1" t="s">
+      <c r="L55" s="13" t="s">
         <v>836</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="M55" s="12" t="s">
         <v>858</v>
       </c>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
       <c r="S55" s="2"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C56" s="10" t="s">
+      <c r="B56" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="10" t="s">
         <v>848</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="G56" s="14" t="s">
+      <c r="G56" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H56" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I56" s="7" t="s">
+      <c r="I56" s="6" t="s">
         <v>859</v>
       </c>
-      <c r="J56" s="7" t="s">
+      <c r="J56" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="K56" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
       <c r="S56" s="2"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B57" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C57" s="7" t="s">
+      <c r="B57" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
       <c r="S57" s="2"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C58" s="7" t="s">
+      <c r="B58" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="G58" s="11" t="s">
+      <c r="G58" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="H58" s="12" t="s">
+      <c r="H58" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="I58" s="7" t="s">
+      <c r="I58" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="J58" s="11" t="s">
+      <c r="J58" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="K58" s="9" t="s">
+      <c r="K58" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="L58" s="9" t="s">
+      <c r="L58" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="M58" s="17" t="s">
+      <c r="M58" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="N58" s="9" t="s">
+      <c r="N58" s="8" t="s">
         <v>820</v>
       </c>
-      <c r="R58" s="3"/>
       <c r="S58" s="2"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C59" s="14" t="s">
+      <c r="B59" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="E59" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="F59" s="12" t="s">
+      <c r="F59" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="G59" s="14" t="s">
+      <c r="G59" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H59" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="I59" s="7" t="s">
+      <c r="I59" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="J59" s="11" t="s">
+      <c r="J59" s="10" t="s">
         <v>812</v>
       </c>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
       <c r="S59" s="2"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B60" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C60" s="12" t="s">
+      <c r="B60" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="E60" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="F60" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G60" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="H60" s="11" t="s">
+      <c r="H60" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="I60" s="10" t="s">
+      <c r="I60" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="J60" s="43" t="s">
         <v>776</v>
       </c>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
       <c r="S60" s="2"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C61" s="12" t="s">
+      <c r="B61" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="F61" s="11" t="s">
+      <c r="F61" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G61" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="H61" s="14" t="s">
+      <c r="H61" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="I61" s="7" t="s">
+      <c r="I61" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="J61" s="7" t="s">
+      <c r="J61" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="K61" s="7" t="s">
+      <c r="K61" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="L61" s="9" t="s">
+      <c r="L61" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="M61" s="11" t="s">
+      <c r="M61" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="N61" s="7" t="s">
+      <c r="N61" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="O61" s="12" t="s">
+      <c r="O61" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="P61" s="1" t="s">
+      <c r="P61" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
       <c r="S61" s="2"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C62" s="8" t="s">
+      <c r="B62" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="E62" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="G62" s="9" t="s">
+      <c r="G62" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="H62" s="9" t="s">
+      <c r="H62" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="I62" s="12" t="s">
+      <c r="I62" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="J62" s="12" t="s">
+      <c r="J62" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="K62" s="14" t="s">
+      <c r="K62" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="L62" s="12" t="s">
+      <c r="L62" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="M62" s="7" t="s">
+      <c r="M62" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="N62" s="12" t="s">
+      <c r="N62" s="11" t="s">
         <v>812</v>
       </c>
-      <c r="O62" s="1" t="s">
+      <c r="O62" s="6" t="s">
         <v>840</v>
       </c>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
       <c r="S62" s="2"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C63" s="7" t="s">
+      <c r="B63" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="6" t="s">
         <v>860</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G63" s="7" t="s">
         <v>883</v>
       </c>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
       <c r="S63" s="2"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B64" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C64" s="12" t="s">
+      <c r="B64" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="E64" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="G64" s="10" t="s">
+      <c r="G64" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="H64" s="12" t="s">
+      <c r="H64" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="I64" s="11" t="s">
+      <c r="I64" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="J64" s="7" t="s">
+      <c r="J64" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="K64" s="7" t="s">
+      <c r="K64" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
       <c r="S64" s="2"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C65" s="10" t="s">
+      <c r="B65" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="F65" s="11" t="s">
+      <c r="F65" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="G65" s="9" t="s">
+      <c r="G65" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="H65" s="12" t="s">
+      <c r="H65" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="I65" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
       <c r="S65" s="2"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C66" s="9" t="s">
+      <c r="B66" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="6" t="s">
         <v>826</v>
       </c>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
       <c r="S66" s="2"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B67" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C67" s="14" t="s">
+      <c r="B67" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="D67" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
       <c r="S67" s="2"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B68" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C68" s="13" t="s">
+      <c r="B68" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="F68" s="13" t="s">
+      <c r="F68" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="G68" s="12" t="s">
+      <c r="G68" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="H68" s="10" t="s">
+      <c r="H68" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="I68" s="7" t="s">
+      <c r="I68" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="J68" s="12" t="s">
+      <c r="J68" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="K68" s="12" t="s">
+      <c r="K68" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="L68" s="7" t="s">
+      <c r="L68" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="M68" s="9" t="s">
+      <c r="M68" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="N68" s="7" t="s">
+      <c r="N68" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="O68" s="1" t="s">
+      <c r="O68" s="11" t="s">
         <v>887</v>
       </c>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
       <c r="S68" s="2"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="B69" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C69" s="17" t="s">
+      <c r="B69" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="D69" s="6" t="s">
         <v>900</v>
       </c>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
       <c r="S69" s="2"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C70" s="13" t="s">
+      <c r="B70" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="F70" s="10" t="s">
+      <c r="F70" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="G70" s="11" t="s">
+      <c r="G70" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H70" s="10" t="s">
+      <c r="H70" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="I70" s="11" t="s">
+      <c r="I70" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="J70" s="7" t="s">
+      <c r="J70" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="K70" s="11" t="s">
+      <c r="K70" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="L70" s="9" t="s">
+      <c r="L70" s="8" t="s">
         <v>861</v>
       </c>
-      <c r="M70" s="1" t="s">
+      <c r="M70" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="N70" s="1" t="s">
+      <c r="N70" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
       <c r="S70" s="2"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B71" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C71" s="12" t="s">
+      <c r="B71" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="F71" s="11" t="s">
+      <c r="F71" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="G71" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="H71" s="14" t="s">
+      <c r="H71" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="I71" s="11" t="s">
+      <c r="I71" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="J71" s="9" t="s">
+      <c r="J71" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="K71" s="14" t="s">
+      <c r="K71" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="L71" s="7" t="s">
+      <c r="L71" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="M71" s="7" t="s">
+      <c r="M71" s="6" t="s">
         <v>860</v>
       </c>
-      <c r="N71" s="12" t="s">
+      <c r="N71" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="O71" s="11" t="s">
+      <c r="O71" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="P71" s="1" t="s">
+      <c r="P71" s="11" t="s">
         <v>893</v>
       </c>
-      <c r="Q71" s="3"/>
-      <c r="R71" s="3"/>
       <c r="S71" s="2"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B72" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C72" s="11" t="s">
+      <c r="B72" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D72" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="G72" s="11" t="s">
+      <c r="G72" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="H72" s="7" t="s">
+      <c r="H72" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="I72" s="9" t="s">
+      <c r="I72" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="J72" s="8" t="s">
+      <c r="J72" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="K72" s="7" t="s">
+      <c r="K72" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="L72" s="7" t="s">
+      <c r="L72" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="M72" s="12" t="s">
+      <c r="M72" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="N72" s="7" t="s">
+      <c r="N72" s="6" t="s">
         <v>862</v>
       </c>
-      <c r="O72" s="1" t="s">
+      <c r="O72" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="P72" s="1" t="s">
+      <c r="P72" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
       <c r="S72" s="2"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C73" s="10" t="s">
+      <c r="B73" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D73" s="12" t="s">
+      <c r="D73" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
       <c r="S73" s="2"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B74" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C74" s="11" t="s">
+      <c r="B74" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="D74" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="G74" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H74" s="6" t="s">
         <v>826</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="I74" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="J74" s="7" t="s">
         <v>865</v>
       </c>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
       <c r="S74" s="2"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B75" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C75" s="12" t="s">
+      <c r="B75" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="D75" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F75" s="13" t="s">
+      <c r="F75" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="G75" s="8" t="s">
+      <c r="G75" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="H75" s="12" t="s">
+      <c r="H75" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="I75" s="11" t="s">
+      <c r="I75" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="J75" s="11" t="s">
+      <c r="J75" s="10" t="s">
         <v>863</v>
       </c>
-      <c r="K75" s="10" t="s">
+      <c r="K75" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="L75" s="7" t="s">
+      <c r="L75" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="M75" s="1" t="s">
+      <c r="M75" s="11" t="s">
         <v>892</v>
       </c>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
       <c r="S75" s="2"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B76" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C76" s="13" t="s">
+      <c r="B76" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="D76" s="14" t="s">
+      <c r="D76" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="F76" s="9" t="s">
+      <c r="F76" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="G76" s="11" t="s">
+      <c r="G76" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="H76" s="9" t="s">
+      <c r="H76" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="I76" s="10" t="s">
+      <c r="I76" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="J76" s="11" t="s">
+      <c r="J76" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="K76" s="14" t="s">
+      <c r="K76" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="L76" s="14" t="s">
+      <c r="L76" s="13" t="s">
         <v>864</v>
       </c>
-      <c r="M76" s="1" t="s">
+      <c r="M76" s="13" t="s">
         <v>886</v>
       </c>
-      <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
       <c r="S76" s="2"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C77" s="9" t="s">
+      <c r="B77" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="E77" s="13" t="s">
+      <c r="E77" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="F77" s="14" t="s">
+      <c r="F77" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="G77" s="11" t="s">
+      <c r="G77" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="H77" s="11" t="s">
+      <c r="H77" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="I77" s="9" t="s">
+      <c r="I77" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="J77" s="10" t="s">
+      <c r="J77" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="K77" s="14" t="s">
+      <c r="K77" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="L77" s="7" t="s">
+      <c r="L77" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="M77" s="9" t="s">
+      <c r="M77" s="8" t="s">
         <v>862</v>
       </c>
-      <c r="N77" s="7" t="s">
+      <c r="N77" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="O77" s="9" t="s">
+      <c r="O77" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="P77" s="11" t="s">
+      <c r="P77" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="Q77" s="3" t="s">
+      <c r="Q77" s="8" t="s">
         <v>826</v>
       </c>
-      <c r="R77" s="3" t="s">
+      <c r="R77" s="8" t="s">
         <v>865</v>
       </c>
-      <c r="S77" s="2" t="s">
+      <c r="S77" s="39" t="s">
         <v>899</v>
       </c>
     </row>
@@ -6411,237 +6219,229 @@
       <c r="A78" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B78" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C78" s="13" t="s">
+      <c r="B78" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D78" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="E78" s="13" t="s">
+      <c r="E78" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="F78" s="12" t="s">
+      <c r="F78" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="G78" s="14" t="s">
+      <c r="G78" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="H78" s="7" t="s">
+      <c r="H78" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I78" s="14" t="s">
+      <c r="I78" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="J78" s="12" t="s">
+      <c r="J78" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="K78" s="14" t="s">
+      <c r="K78" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="L78" s="14" t="s">
+      <c r="L78" s="13" t="s">
         <v>866</v>
       </c>
-      <c r="M78" s="14" t="s">
+      <c r="M78" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="N78" s="9" t="s">
+      <c r="N78" s="8" t="s">
         <v>807</v>
       </c>
-      <c r="O78" s="1" t="s">
+      <c r="O78" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
       <c r="S78" s="2"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B79" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C79" s="12" t="s">
+      <c r="B79" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="D79" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="E79" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="F79" s="14" t="s">
+      <c r="F79" s="13" t="s">
         <v>521</v>
       </c>
-      <c r="G79" s="12" t="s">
+      <c r="G79" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="H79" s="9" t="s">
+      <c r="H79" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="I79" s="12" t="s">
+      <c r="I79" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="J79" s="11" t="s">
+      <c r="J79" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="K79" s="12" t="s">
+      <c r="K79" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="L79" s="1" t="s">
+      <c r="L79" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="Q79" s="3"/>
-      <c r="R79" s="3"/>
       <c r="S79" s="2"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B80" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C80" s="7" t="s">
+      <c r="B80" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="F80" s="11" t="s">
+      <c r="F80" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="G80" s="14" t="s">
+      <c r="G80" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="H80" s="14" t="s">
+      <c r="H80" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="I80" s="7" t="s">
+      <c r="I80" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="J80" s="12" t="s">
+      <c r="J80" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="K80" s="11" t="s">
+      <c r="K80" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="Q80" s="3"/>
-      <c r="R80" s="3"/>
       <c r="S80" s="2"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B81" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C81" s="12" t="s">
+      <c r="B81" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" s="11" t="s">
         <v>529</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="E81" s="14" t="s">
+      <c r="E81" s="13" t="s">
         <v>531</v>
       </c>
-      <c r="F81" s="12" t="s">
+      <c r="F81" s="11" t="s">
         <v>532</v>
       </c>
-      <c r="G81" s="12" t="s">
+      <c r="G81" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="H81" s="11" t="s">
+      <c r="H81" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="I81" s="9" t="s">
+      <c r="I81" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="J81" s="9" t="s">
+      <c r="J81" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="K81" s="11" t="s">
+      <c r="K81" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="L81" s="10" t="s">
+      <c r="L81" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="M81" s="11" t="s">
+      <c r="M81" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="N81" s="1" t="s">
+      <c r="N81" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="O81" s="1" t="s">
+      <c r="O81" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="P81" s="1" t="s">
+      <c r="P81" s="13" t="s">
         <v>875</v>
       </c>
-      <c r="Q81" s="3"/>
-      <c r="R81" s="3"/>
       <c r="S81" s="2"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B82" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C82" s="9" t="s">
+      <c r="B82" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="F82" s="11" t="s">
+      <c r="F82" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="G82" s="14" t="s">
+      <c r="G82" s="13" t="s">
         <v>540</v>
       </c>
-      <c r="H82" s="11" t="s">
+      <c r="H82" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="I82" s="10" t="s">
+      <c r="I82" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="J82" s="7" t="s">
+      <c r="J82" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="K82" s="12" t="s">
+      <c r="K82" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="L82" s="8" t="s">
+      <c r="L82" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="M82" s="12" t="s">
+      <c r="M82" s="11" t="s">
         <v>541</v>
       </c>
-      <c r="N82" s="9" t="s">
+      <c r="N82" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="O82" s="7" t="s">
+      <c r="O82" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="P82" s="7" t="s">
+      <c r="P82" s="6" t="s">
         <v>867</v>
       </c>
-      <c r="Q82" s="43" t="s">
+      <c r="Q82" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="R82" s="3" t="s">
+      <c r="R82" s="10" t="s">
         <v>610</v>
       </c>
       <c r="S82" s="2"/>
@@ -6650,1417 +6450,1330 @@
       <c r="A83" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B83" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C83" s="12" t="s">
+      <c r="B83" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E83" s="11" t="s">
+      <c r="E83" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="F83" s="11" t="s">
+      <c r="F83" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="G83" s="7" t="s">
+      <c r="G83" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="H83" s="7" t="s">
+      <c r="H83" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="I83" s="11" t="s">
+      <c r="I83" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="J83" s="11" t="s">
+      <c r="J83" s="10" t="s">
         <v>812</v>
       </c>
-      <c r="K83" s="1" t="s">
+      <c r="K83" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="L83" s="1" t="s">
+      <c r="L83" s="6" t="s">
         <v>903</v>
       </c>
-      <c r="Q83" s="3"/>
-      <c r="R83" s="3"/>
       <c r="S83" s="2"/>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B84" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C84" s="14" t="s">
+      <c r="B84" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="D84" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="E84" s="12" t="s">
+      <c r="E84" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="G84" s="7" t="s">
+      <c r="G84" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="H84" s="10" t="s">
+      <c r="H84" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="I84" s="14" t="s">
+      <c r="I84" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="J84" s="9" t="s">
+      <c r="J84" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="K84" s="7" t="s">
+      <c r="K84" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="L84" s="6" t="s">
+      <c r="L84" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="M84" s="8" t="s">
+      <c r="M84" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="N84" s="8" t="s">
+      <c r="N84" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="O84" s="1" t="s">
+      <c r="O84" s="8" t="s">
         <v>884</v>
       </c>
-      <c r="Q84" s="3"/>
-      <c r="R84" s="3"/>
       <c r="S84" s="2"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B85" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85" s="7" t="s">
+      <c r="B85" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="D85" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="E85" s="12" t="s">
+      <c r="E85" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="G85" s="12" t="s">
+      <c r="G85" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H85" s="9" t="s">
+      <c r="H85" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="I85" s="8" t="s">
+      <c r="I85" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="J85" s="7" t="s">
+      <c r="J85" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="K85" s="11" t="s">
+      <c r="K85" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="L85" s="1" t="s">
+      <c r="L85" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="M85" s="1" t="s">
+      <c r="M85" s="6" t="s">
         <v>864</v>
       </c>
-      <c r="Q85" s="3"/>
-      <c r="R85" s="3"/>
       <c r="S85" s="2"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B86" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C86" s="14" t="s">
+      <c r="B86" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C86" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="E86" s="12" t="s">
+      <c r="E86" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="F86" s="13" t="s">
+      <c r="F86" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="G86" s="10" t="s">
+      <c r="G86" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="H86" s="14" t="s">
+      <c r="H86" s="13" t="s">
         <v>556</v>
       </c>
-      <c r="I86" s="10" t="s">
+      <c r="I86" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="J86" s="7" t="s">
+      <c r="J86" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="K86" s="12" t="s">
+      <c r="K86" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="L86" s="13" t="s">
+      <c r="L86" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="M86" s="1" t="s">
+      <c r="M86" s="10" t="s">
         <v>890</v>
       </c>
-      <c r="Q86" s="3"/>
-      <c r="R86" s="3"/>
       <c r="S86" s="2"/>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C87" s="12" t="s">
+      <c r="B87" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="D87" s="14" t="s">
+      <c r="D87" s="13" t="s">
         <v>559</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E87" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F87" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="G87" s="7" t="s">
+      <c r="G87" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="H87" s="7" t="s">
+      <c r="H87" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="I87" s="7" t="s">
+      <c r="I87" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="J87" s="1" t="s">
+      <c r="J87" s="6" t="s">
         <v>895</v>
       </c>
-      <c r="Q87" s="3"/>
-      <c r="R87" s="3"/>
       <c r="S87" s="2"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B88" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C88" s="10" t="s">
+      <c r="B88" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C88" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="E88" s="11" t="s">
+      <c r="E88" s="10" t="s">
         <v>868</v>
       </c>
-      <c r="F88" s="14" t="s">
+      <c r="F88" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G88" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="Q88" s="3"/>
-      <c r="R88" s="3"/>
       <c r="S88" s="2"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B89" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C89" s="9" t="s">
+      <c r="B89" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="D89" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E89" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="F89" s="9" t="s">
+      <c r="F89" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="G89" s="12" t="s">
+      <c r="G89" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="H89" s="11" t="s">
+      <c r="H89" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="I89" s="7" t="s">
+      <c r="I89" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="J89" s="11" t="s">
+      <c r="J89" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="K89" s="11" t="s">
+      <c r="K89" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="L89" s="12" t="s">
+      <c r="L89" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="M89" s="9" t="s">
+      <c r="M89" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="N89" s="7" t="s">
+      <c r="N89" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="O89" s="1" t="s">
+      <c r="O89" s="11" t="s">
         <v>881</v>
       </c>
-      <c r="Q89" s="3"/>
-      <c r="R89" s="3"/>
       <c r="S89" s="2"/>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="B90" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C90" s="17" t="s">
+      <c r="B90" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="Q90" s="3"/>
-      <c r="R90" s="3"/>
       <c r="S90" s="2"/>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B91" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C91" s="14" t="s">
+      <c r="B91" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C91" s="13" t="s">
         <v>564</v>
       </c>
-      <c r="D91" s="12" t="s">
+      <c r="D91" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="E91" s="12" t="s">
+      <c r="E91" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="F91" s="14" t="s">
+      <c r="F91" s="13" t="s">
         <v>566</v>
       </c>
-      <c r="G91" s="12" t="s">
+      <c r="G91" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="H91" s="11" t="s">
+      <c r="H91" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="I91" s="7" t="s">
+      <c r="I91" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="J91" s="7" t="s">
+      <c r="J91" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="Q91" s="3"/>
-      <c r="R91" s="3"/>
       <c r="S91" s="2"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B92" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C92" s="10" t="s">
+      <c r="B92" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C92" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="D92" s="12" t="s">
+      <c r="D92" s="11" t="s">
         <v>569</v>
       </c>
-      <c r="E92" s="12" t="s">
+      <c r="E92" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="F92" s="11" t="s">
+      <c r="F92" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="G92" s="11" t="s">
+      <c r="G92" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="H92" s="12" t="s">
+      <c r="H92" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="I92" s="14" t="s">
+      <c r="I92" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="J92" s="7" t="s">
+      <c r="J92" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="K92" s="14" t="s">
+      <c r="K92" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="L92" s="1" t="s">
+      <c r="L92" s="10" t="s">
         <v>834</v>
       </c>
-      <c r="Q92" s="3"/>
-      <c r="R92" s="3"/>
       <c r="S92" s="2"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C93" s="14" t="s">
+      <c r="B93" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C93" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="E93" s="14" t="s">
+      <c r="E93" s="13" t="s">
         <v>573</v>
       </c>
-      <c r="F93" s="12" t="s">
+      <c r="F93" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="G93" s="12" t="s">
+      <c r="G93" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="H93" s="12" t="s">
+      <c r="H93" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="I93" s="11" t="s">
+      <c r="I93" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="J93" s="7" t="s">
+      <c r="J93" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="K93" s="7" t="s">
+      <c r="K93" s="6" t="s">
         <v>804</v>
       </c>
-      <c r="L93" s="14" t="s">
+      <c r="L93" s="13" t="s">
         <v>812</v>
       </c>
-      <c r="Q93" s="3"/>
-      <c r="R93" s="3"/>
       <c r="S93" s="2"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B94" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C94" s="13" t="s">
+      <c r="B94" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C94" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="D94" s="13" t="s">
+      <c r="D94" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="E94" s="14" t="s">
+      <c r="E94" s="13" t="s">
         <v>577</v>
       </c>
-      <c r="F94" s="11" t="s">
+      <c r="F94" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="G94" s="7" t="s">
+      <c r="G94" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="H94" s="14" t="s">
+      <c r="H94" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="I94" s="7" t="s">
+      <c r="I94" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="J94" s="10" t="s">
+      <c r="J94" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="K94" s="11" t="s">
+      <c r="K94" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="L94" s="1" t="s">
+      <c r="L94" s="8" t="s">
         <v>831</v>
       </c>
-      <c r="Q94" s="3"/>
-      <c r="R94" s="3"/>
       <c r="S94" s="2"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B95" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C95" s="7" t="s">
+      <c r="B95" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="D95" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="Q95" s="3"/>
-      <c r="R95" s="3"/>
       <c r="S95" s="2"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C96" s="7" t="s">
+      <c r="B96" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="D96" s="14" t="s">
+      <c r="D96" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="E96" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="F96" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="G96" s="7" t="s">
+      <c r="G96" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="H96" s="8" t="s">
+      <c r="H96" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="I96" s="14" t="s">
+      <c r="I96" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="J96" s="11" t="s">
+      <c r="J96" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="K96" s="12" t="s">
+      <c r="K96" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="L96" s="7" t="s">
+      <c r="L96" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="M96" s="7" t="s">
+      <c r="M96" s="6" t="s">
         <v>869</v>
       </c>
-      <c r="N96" s="1" t="s">
+      <c r="N96" s="10" t="s">
         <v>839</v>
       </c>
-      <c r="Q96" s="3"/>
-      <c r="R96" s="3"/>
       <c r="S96" s="2"/>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B97" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C97" s="12" t="s">
+      <c r="B97" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C97" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="D97" s="11" t="s">
+      <c r="D97" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="E97" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="F97" s="14" t="s">
+      <c r="F97" s="13" t="s">
         <v>587</v>
       </c>
-      <c r="G97" s="11" t="s">
+      <c r="G97" s="10" t="s">
         <v>588</v>
       </c>
-      <c r="H97" s="12" t="s">
+      <c r="H97" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="I97" s="9" t="s">
+      <c r="I97" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="J97" s="7" t="s">
+      <c r="J97" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="K97" s="11" t="s">
+      <c r="K97" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="L97" s="12" t="s">
+      <c r="L97" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="M97" s="11" t="s">
+      <c r="M97" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="Q97" s="3"/>
-      <c r="R97" s="3"/>
       <c r="S97" s="2"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B98" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C98" s="10" t="s">
+      <c r="B98" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C98" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E98" s="11" t="s">
+      <c r="E98" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="F98" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="G98" s="9" t="s">
+      <c r="G98" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="H98" s="6" t="s">
         <v>839</v>
       </c>
-      <c r="I98" s="1" t="s">
+      <c r="I98" s="6" t="s">
         <v>899</v>
       </c>
-      <c r="Q98" s="3"/>
-      <c r="R98" s="3"/>
       <c r="S98" s="2"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B99" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C99" s="10" t="s">
+      <c r="B99" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C99" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="D99" s="11" t="s">
+      <c r="D99" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="E99" s="12" t="s">
+      <c r="E99" s="11" t="s">
         <v>870</v>
       </c>
-      <c r="F99" s="14" t="s">
+      <c r="F99" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="G99" s="6" t="s">
         <v>776</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="H99" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="Q99" s="3"/>
-      <c r="R99" s="3"/>
       <c r="S99" s="2"/>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B100" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C100" s="9" t="s">
+      <c r="B100" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C100" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="D100" s="12" t="s">
+      <c r="D100" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E100" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="F100" s="12" t="s">
+      <c r="F100" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="G100" s="9" t="s">
+      <c r="G100" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="H100" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="Q100" s="3"/>
-      <c r="R100" s="3"/>
       <c r="S100" s="2"/>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B101" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C101" s="11" t="s">
+      <c r="B101" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C101" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="D101" s="12" t="s">
+      <c r="D101" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="E101" s="12" t="s">
+      <c r="E101" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="F101" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="G101" s="11" t="s">
+      <c r="G101" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="H101" s="11" t="s">
+      <c r="H101" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="I101" s="1" t="s">
+      <c r="I101" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="Q101" s="3"/>
-      <c r="R101" s="3"/>
       <c r="S101" s="2"/>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B102" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C102" s="14" t="s">
+      <c r="B102" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C102" s="13" t="s">
         <v>596</v>
       </c>
-      <c r="D102" s="14" t="s">
+      <c r="D102" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="E102" s="12" t="s">
+      <c r="E102" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="F102" s="14" t="s">
+      <c r="F102" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="G102" s="14" t="s">
+      <c r="G102" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="H102" s="12" t="s">
+      <c r="H102" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="I102" s="12" t="s">
+      <c r="I102" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="J102" s="14" t="s">
+      <c r="J102" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="K102" s="12" t="s">
+      <c r="K102" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="L102" s="14" t="s">
+      <c r="L102" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="Q102" s="3"/>
-      <c r="R102" s="3"/>
       <c r="S102" s="2"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B103" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C103" s="10" t="s">
+      <c r="B103" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C103" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="D103" s="13" t="s">
+      <c r="D103" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E103" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="F103" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="Q103" s="3"/>
-      <c r="R103" s="3"/>
       <c r="S103" s="2"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B104" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C104" s="12" t="s">
+      <c r="B104" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C104" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="Q104" s="3"/>
-      <c r="R104" s="3"/>
       <c r="S104" s="2"/>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="B105" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C105" s="17" t="s">
+      <c r="B105" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C105" s="10" t="s">
         <v>845</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="6" t="s">
         <v>895</v>
       </c>
-      <c r="Q105" s="3"/>
-      <c r="R105" s="3"/>
       <c r="S105" s="2"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B106" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C106" s="14" t="s">
+      <c r="B106" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C106" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="D106" s="12" t="s">
+      <c r="D106" s="11" t="s">
         <v>600</v>
       </c>
-      <c r="E106" s="11" t="s">
+      <c r="E106" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="F106" s="12" t="s">
+      <c r="F106" s="11" t="s">
         <v>602</v>
       </c>
-      <c r="G106" s="12" t="s">
+      <c r="G106" s="11" t="s">
         <v>603</v>
       </c>
-      <c r="H106" s="14" t="s">
+      <c r="H106" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="I106" s="7" t="s">
+      <c r="I106" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="J106" s="13" t="s">
+      <c r="J106" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="K106" s="10" t="s">
+      <c r="K106" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="L106" s="9" t="s">
+      <c r="L106" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="M106" s="7" t="s">
+      <c r="M106" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="N106" s="12" t="s">
+      <c r="N106" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="Q106" s="3"/>
-      <c r="R106" s="3"/>
       <c r="S106" s="2"/>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B107" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C107" s="9" t="s">
+      <c r="B107" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C107" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D107" s="9" t="s">
+      <c r="D107" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="E107" s="11" t="s">
+      <c r="E107" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="F107" s="12" t="s">
+      <c r="F107" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G107" s="13" t="s">
+      <c r="G107" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="H107" s="10" t="s">
+      <c r="H107" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="I107" s="9" t="s">
+      <c r="I107" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="Q107" s="3"/>
-      <c r="R107" s="3"/>
       <c r="S107" s="2"/>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B108" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="11" t="s">
+      <c r="B108" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C108" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="D108" s="14" t="s">
+      <c r="D108" s="13" t="s">
         <v>609</v>
       </c>
-      <c r="E108" s="12" t="s">
+      <c r="E108" s="11" t="s">
         <v>610</v>
       </c>
-      <c r="F108" s="11" t="s">
+      <c r="F108" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="G108" s="12" t="s">
+      <c r="G108" s="11" t="s">
         <v>611</v>
       </c>
-      <c r="H108" s="7" t="s">
+      <c r="H108" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="I108" s="11" t="s">
+      <c r="I108" s="10" t="s">
         <v>612</v>
       </c>
-      <c r="J108" s="7" t="s">
+      <c r="J108" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="K108" s="12" t="s">
+      <c r="K108" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="L108" s="9" t="s">
+      <c r="L108" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="M108" s="9" t="s">
+      <c r="M108" s="8" t="s">
         <v>871</v>
       </c>
-      <c r="N108" s="10" t="s">
+      <c r="N108" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="O108" s="9" t="s">
+      <c r="O108" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="P108" s="1" t="s">
+      <c r="P108" s="11" t="s">
         <v>835</v>
       </c>
-      <c r="Q108" s="3"/>
-      <c r="R108" s="3"/>
       <c r="S108" s="2"/>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B109" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C109" s="12" t="s">
+      <c r="B109" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C109" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="D109" s="14" t="s">
+      <c r="D109" s="13" t="s">
         <v>615</v>
       </c>
-      <c r="E109" s="10" t="s">
+      <c r="E109" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="F109" s="11" t="s">
+      <c r="F109" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="G109" s="13" t="s">
+      <c r="G109" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="Q109" s="3"/>
-      <c r="R109" s="3"/>
       <c r="S109" s="2"/>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B110" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C110" s="9" t="s">
+      <c r="B110" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C110" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="D110" s="12" t="s">
+      <c r="D110" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="E110" s="10" t="s">
+      <c r="E110" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="F110" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="G110" s="10" t="s">
+      <c r="G110" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="H110" s="12" t="s">
+      <c r="H110" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="I110" s="14" t="s">
+      <c r="I110" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="J110" s="14" t="s">
+      <c r="J110" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="K110" s="12" t="s">
+      <c r="K110" s="11" t="s">
         <v>624</v>
       </c>
-      <c r="L110" s="14" t="s">
+      <c r="L110" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="M110" s="9" t="s">
+      <c r="M110" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="N110" s="12" t="s">
+      <c r="N110" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="O110" s="1" t="s">
+      <c r="O110" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="Q110" s="3"/>
-      <c r="R110" s="3"/>
       <c r="S110" s="2"/>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B111" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C111" s="10" t="s">
+      <c r="B111" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C111" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="D111" s="14" t="s">
+      <c r="D111" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E111" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="Q111" s="3"/>
-      <c r="R111" s="3"/>
       <c r="S111" s="2"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B112" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C112" s="7" t="s">
+      <c r="B112" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C112" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D112" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="E112" s="12" t="s">
+      <c r="E112" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="F112" s="11" t="s">
+      <c r="F112" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="G112" s="12" t="s">
+      <c r="G112" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="H112" s="14" t="s">
+      <c r="H112" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="I112" s="14" t="s">
+      <c r="I112" s="13" t="s">
         <v>629</v>
       </c>
-      <c r="J112" s="11" t="s">
+      <c r="J112" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="K112" s="9" t="s">
+      <c r="K112" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="L112" s="11" t="s">
+      <c r="L112" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="M112" s="1" t="s">
+      <c r="M112" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="N112" s="1" t="s">
+      <c r="N112" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="Q112" s="3"/>
-      <c r="R112" s="3"/>
       <c r="S112" s="2"/>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B113" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C113" s="11" t="s">
+      <c r="B113" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C113" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="D113" s="10" t="s">
+      <c r="D113" s="9" t="s">
         <v>870</v>
       </c>
-      <c r="E113" s="9" t="s">
+      <c r="E113" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="F113" s="14" t="s">
+      <c r="F113" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="G113" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="H113" s="1" t="s">
+      <c r="H113" s="9" t="s">
         <v>872</v>
       </c>
-      <c r="I113" s="1" t="s">
+      <c r="I113" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="Q113" s="3"/>
-      <c r="R113" s="3"/>
       <c r="S113" s="2"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B114" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C114" s="11" t="s">
+      <c r="B114" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C114" s="10" t="s">
         <v>800</v>
       </c>
-      <c r="D114" s="10" t="s">
+      <c r="D114" s="9" t="s">
         <v>801</v>
       </c>
-      <c r="E114" s="7" t="s">
+      <c r="E114" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="F114" s="11" t="s">
+      <c r="F114" s="10" t="s">
         <v>810</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="G114" s="10" t="s">
         <v>881</v>
       </c>
-      <c r="H114" s="1" t="s">
+      <c r="H114" s="8" t="s">
         <v>882</v>
       </c>
-      <c r="Q114" s="3"/>
-      <c r="R114" s="3"/>
       <c r="S114" s="2"/>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B115" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C115" s="12" t="s">
+      <c r="B115" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C115" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="D115" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="E115" s="10" t="s">
+      <c r="E115" s="9" t="s">
         <v>873</v>
       </c>
-      <c r="F115" s="12" t="s">
+      <c r="F115" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="G115" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="H115" s="1" t="s">
+      <c r="H115" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="Q115" s="3"/>
-      <c r="R115" s="3"/>
       <c r="S115" s="2"/>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B116" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C116" s="13" t="s">
+      <c r="B116" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C116" s="12" t="s">
         <v>631</v>
       </c>
-      <c r="D116" s="13" t="s">
+      <c r="D116" s="12" t="s">
         <v>632</v>
       </c>
-      <c r="E116" s="14" t="s">
+      <c r="E116" s="13" t="s">
         <v>633</v>
       </c>
-      <c r="F116" s="13" t="s">
+      <c r="F116" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="G116" s="14" t="s">
+      <c r="G116" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="H116" s="11" t="s">
+      <c r="H116" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="I116" s="10" t="s">
+      <c r="I116" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="J116" s="11" t="s">
+      <c r="J116" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="K116" s="11" t="s">
+      <c r="K116" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="L116" s="7" t="s">
+      <c r="L116" s="6" t="s">
         <v>808</v>
       </c>
-      <c r="M116" s="1" t="s">
+      <c r="M116" s="11" t="s">
         <v>901</v>
       </c>
-      <c r="Q116" s="3"/>
-      <c r="R116" s="3"/>
       <c r="S116" s="2"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B117" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C117" s="11" t="s">
+      <c r="B117" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C117" s="10" t="s">
         <v>637</v>
       </c>
-      <c r="D117" s="11" t="s">
+      <c r="D117" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="E117" s="10" t="s">
+      <c r="E117" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="F117" s="11" t="s">
+      <c r="F117" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="G117" s="7" t="s">
+      <c r="G117" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="H117" s="12" t="s">
+      <c r="H117" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="I117" s="7" t="s">
+      <c r="I117" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="J117" s="7" t="s">
+      <c r="J117" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="K117" s="12" t="s">
+      <c r="K117" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="L117" s="1" t="s">
+      <c r="L117" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="Q117" s="3"/>
-      <c r="R117" s="3"/>
       <c r="S117" s="2"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B118" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C118" s="11" t="s">
+      <c r="B118" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C118" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="D118" s="12" t="s">
+      <c r="D118" s="11" t="s">
         <v>642</v>
       </c>
-      <c r="E118" s="14" t="s">
+      <c r="E118" s="13" t="s">
         <v>643</v>
       </c>
-      <c r="F118" s="7" t="s">
+      <c r="F118" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="G118" s="12" t="s">
+      <c r="G118" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="H118" s="14" t="s">
+      <c r="H118" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="I118" s="12" t="s">
+      <c r="I118" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="Q118" s="3"/>
-      <c r="R118" s="3"/>
       <c r="S118" s="2"/>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B119" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C119" s="13" t="s">
+      <c r="B119" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C119" s="12" t="s">
         <v>645</v>
       </c>
-      <c r="D119" s="24" t="s">
+      <c r="D119" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="E119" s="14" t="s">
+      <c r="E119" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="F119" s="14" t="s">
+      <c r="F119" s="13" t="s">
         <v>647</v>
       </c>
-      <c r="G119" s="12" t="s">
+      <c r="G119" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="H119" s="12" t="s">
+      <c r="H119" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="I119" s="14" t="s">
+      <c r="I119" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="J119" s="11" t="s">
+      <c r="J119" s="10" t="s">
         <v>649</v>
       </c>
-      <c r="K119" s="7" t="s">
+      <c r="K119" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="L119" s="11" t="s">
+      <c r="L119" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="Q119" s="3"/>
-      <c r="R119" s="3"/>
       <c r="S119" s="2"/>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B120" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C120" s="11" t="s">
+      <c r="B120" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C120" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D120" s="12" t="s">
+      <c r="D120" s="11" t="s">
         <v>651</v>
       </c>
-      <c r="E120" s="11" t="s">
+      <c r="E120" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="F120" s="12" t="s">
+      <c r="F120" s="11" t="s">
         <v>653</v>
       </c>
-      <c r="G120" s="10" t="s">
+      <c r="G120" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="H120" s="11" t="s">
+      <c r="H120" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="I120" s="11" t="s">
+      <c r="I120" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="J120" s="1" t="s">
+      <c r="J120" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="Q120" s="3"/>
-      <c r="R120" s="3"/>
       <c r="S120" s="2"/>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B121" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C121" s="15" t="s">
+      <c r="B121" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C121" s="14" t="s">
         <v>655</v>
       </c>
-      <c r="D121" s="12" t="s">
+      <c r="D121" s="11" t="s">
         <v>656</v>
       </c>
-      <c r="E121" s="14" t="s">
+      <c r="E121" s="13" t="s">
         <v>657</v>
       </c>
-      <c r="F121" s="11" t="s">
+      <c r="F121" s="10" t="s">
         <v>658</v>
       </c>
-      <c r="G121" s="11" t="s">
+      <c r="G121" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="H121" s="6" t="s">
+      <c r="H121" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="I121" s="11" t="s">
+      <c r="I121" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="J121" s="9" t="s">
+      <c r="J121" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="K121" s="12" t="s">
+      <c r="K121" s="11" t="s">
         <v>660</v>
       </c>
-      <c r="L121" s="11" t="s">
+      <c r="L121" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="M121" s="8" t="s">
+      <c r="M121" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="N121" s="11" t="s">
+      <c r="N121" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="O121" s="1" t="s">
+      <c r="O121" s="6" t="s">
         <v>824</v>
       </c>
-      <c r="P121" s="1" t="s">
+      <c r="P121" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="Q121" s="3" t="s">
+      <c r="Q121" s="6" t="s">
         <v>904</v>
       </c>
-      <c r="R121" s="3" t="s">
+      <c r="R121" s="7" t="s">
         <v>905</v>
       </c>
       <c r="S121" s="2"/>
@@ -8069,1654 +7782,1560 @@
       <c r="A122" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B122" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C122" s="12" t="s">
+      <c r="B122" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C122" s="11" t="s">
         <v>662</v>
       </c>
-      <c r="D122" s="14" t="s">
+      <c r="D122" s="13" t="s">
         <v>663</v>
       </c>
-      <c r="E122" s="12" t="s">
+      <c r="E122" s="11" t="s">
         <v>664</v>
       </c>
-      <c r="F122" s="11" t="s">
+      <c r="F122" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="G122" s="11" t="s">
+      <c r="G122" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="Q122" s="3"/>
-      <c r="R122" s="3"/>
       <c r="S122" s="2"/>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B123" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C123" s="12" t="s">
+      <c r="B123" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C123" s="11" t="s">
         <v>666</v>
       </c>
-      <c r="D123" s="12" t="s">
+      <c r="D123" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="E123" s="7" t="s">
+      <c r="E123" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="F123" s="11" t="s">
+      <c r="F123" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="G123" s="14" t="s">
+      <c r="G123" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="H123" s="12" t="s">
+      <c r="H123" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="I123" s="10" t="s">
+      <c r="I123" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="J123" s="9" t="s">
+      <c r="J123" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K123" s="10" t="s">
+      <c r="K123" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="L123" s="14" t="s">
+      <c r="L123" s="13" t="s">
         <v>812</v>
       </c>
-      <c r="M123" s="1" t="s">
+      <c r="M123" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="Q123" s="3"/>
-      <c r="R123" s="3"/>
       <c r="S123" s="2"/>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B124" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C124" s="11" t="s">
+      <c r="B124" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C124" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="D124" s="11" t="s">
+      <c r="D124" s="10" t="s">
         <v>671</v>
       </c>
-      <c r="E124" s="14" t="s">
+      <c r="E124" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="F124" s="11" t="s">
+      <c r="F124" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="G124" s="11" t="s">
+      <c r="G124" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="H124" s="12" t="s">
+      <c r="H124" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="I124" s="8" t="s">
+      <c r="I124" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="J124" s="9" t="s">
+      <c r="J124" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="K124" s="7" t="s">
+      <c r="K124" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="L124" s="9" t="s">
+      <c r="L124" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="M124" s="7" t="s">
+      <c r="M124" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="N124" s="8" t="s">
+      <c r="N124" s="7" t="s">
         <v>868</v>
       </c>
-      <c r="O124" s="1" t="s">
+      <c r="O124" s="11" t="s">
         <v>824</v>
       </c>
-      <c r="P124" s="1" t="s">
+      <c r="P124" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="Q124" s="3"/>
-      <c r="R124" s="3"/>
       <c r="S124" s="2"/>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B125" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C125" s="11" t="s">
+      <c r="B125" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C125" s="10" t="s">
         <v>674</v>
       </c>
-      <c r="D125" s="12" t="s">
+      <c r="D125" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="E125" s="9" t="s">
+      <c r="E125" s="8" t="s">
         <v>675</v>
       </c>
-      <c r="F125" s="9" t="s">
+      <c r="F125" s="8" t="s">
         <v>676</v>
       </c>
-      <c r="G125" s="9" t="s">
+      <c r="G125" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="H125" s="9" t="s">
+      <c r="H125" s="8" t="s">
         <v>677</v>
       </c>
-      <c r="I125" s="1" t="s">
+      <c r="I125" s="10" t="s">
         <v>901</v>
       </c>
-      <c r="Q125" s="3"/>
-      <c r="R125" s="3"/>
       <c r="S125" s="2"/>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B126" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C126" s="10" t="s">
+      <c r="B126" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C126" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="D126" s="9" t="s">
+      <c r="D126" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="E126" s="12" t="s">
+      <c r="E126" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="F126" s="12" t="s">
+      <c r="F126" s="11" t="s">
         <v>856</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="G126" s="13" t="s">
         <v>838</v>
       </c>
-      <c r="H126" s="1" t="s">
+      <c r="H126" s="9" t="s">
         <v>894</v>
       </c>
-      <c r="Q126" s="3"/>
-      <c r="R126" s="3"/>
       <c r="S126" s="2"/>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B127" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C127" s="11" t="s">
+      <c r="B127" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C127" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="D127" s="11" t="s">
+      <c r="D127" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="E127" s="12" t="s">
+      <c r="E127" s="11" t="s">
         <v>678</v>
       </c>
-      <c r="F127" s="12" t="s">
+      <c r="F127" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G127" s="7" t="s">
+      <c r="G127" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H127" s="8" t="s">
+      <c r="H127" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="I127" s="14" t="s">
+      <c r="I127" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="J127" s="6" t="s">
+      <c r="J127" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="K127" s="7" t="s">
+      <c r="K127" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="L127" s="1" t="s">
+      <c r="L127" s="5" t="s">
         <v>868</v>
       </c>
-      <c r="M127" s="1" t="s">
+      <c r="M127" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="Q127" s="3"/>
-      <c r="R127" s="3"/>
       <c r="S127" s="2"/>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B128" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C128" s="10" t="s">
+      <c r="B128" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C128" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="D128" s="13" t="s">
+      <c r="D128" s="12" t="s">
         <v>681</v>
       </c>
-      <c r="E128" s="7" t="s">
+      <c r="E128" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="F128" s="7" t="s">
+      <c r="F128" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="G128" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="Q128" s="3"/>
-      <c r="R128" s="3"/>
       <c r="S128" s="2"/>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B129" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C129" s="11" t="s">
+      <c r="B129" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C129" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D129" s="10" t="s">
+      <c r="D129" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="E129" s="14" t="s">
+      <c r="E129" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="F129" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="Q129" s="3"/>
-      <c r="R129" s="3"/>
       <c r="S129" s="2"/>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B130" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C130" s="12" t="s">
+      <c r="B130" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C130" s="11" t="s">
         <v>683</v>
       </c>
-      <c r="D130" s="14" t="s">
+      <c r="D130" s="13" t="s">
         <v>609</v>
       </c>
-      <c r="E130" s="11" t="s">
+      <c r="E130" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="F130" s="11" t="s">
+      <c r="F130" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="G130" s="7" t="s">
+      <c r="G130" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H130" s="9" t="s">
+      <c r="H130" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="I130" s="12" t="s">
+      <c r="I130" s="11" t="s">
         <v>685</v>
       </c>
-      <c r="J130" s="10" t="s">
+      <c r="J130" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="K130" s="1" t="s">
+      <c r="K130" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="L130" s="1" t="s">
+      <c r="L130" s="6" t="s">
         <v>874</v>
       </c>
-      <c r="Q130" s="3"/>
-      <c r="R130" s="3"/>
       <c r="S130" s="2"/>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B131" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C131" s="9" t="s">
+      <c r="B131" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C131" s="8" t="s">
         <v>686</v>
       </c>
-      <c r="D131" s="10" t="s">
+      <c r="D131" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="E131" s="10" t="s">
+      <c r="E131" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="F131" s="14" t="s">
+      <c r="F131" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="G131" s="11" t="s">
+      <c r="G131" s="10" t="s">
         <v>688</v>
       </c>
-      <c r="H131" s="1" t="s">
+      <c r="H131" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="Q131" s="3"/>
-      <c r="R131" s="3"/>
       <c r="S131" s="2"/>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B132" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C132" s="13" t="s">
+      <c r="B132" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C132" s="12" t="s">
         <v>689</v>
       </c>
-      <c r="D132" s="14" t="s">
+      <c r="D132" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="E132" s="14" t="s">
+      <c r="E132" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="F132" s="14" t="s">
+      <c r="F132" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="G132" s="12" t="s">
+      <c r="G132" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="H132" s="14" t="s">
+      <c r="H132" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="I132" s="12" t="s">
+      <c r="I132" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="J132" s="10" t="s">
+      <c r="J132" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="K132" s="12" t="s">
+      <c r="K132" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L132" s="7" t="s">
+      <c r="L132" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="M132" s="7" t="s">
+      <c r="M132" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="N132" s="11" t="s">
+      <c r="N132" s="10" t="s">
         <v>875</v>
       </c>
-      <c r="O132" s="1" t="s">
+      <c r="O132" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="P132" s="1" t="s">
+      <c r="P132" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="Q132" s="3"/>
-      <c r="R132" s="3"/>
       <c r="S132" s="2"/>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B133" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C133" s="11" t="s">
+      <c r="B133" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C133" s="10" t="s">
         <v>693</v>
       </c>
-      <c r="D133" s="7" t="s">
+      <c r="D133" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="E133" s="7" t="s">
+      <c r="E133" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F133" s="14" t="s">
+      <c r="F133" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="G133" s="12" t="s">
+      <c r="G133" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="H133" s="9" t="s">
+      <c r="H133" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="I133" s="14" t="s">
+      <c r="I133" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="J133" s="14" t="s">
+      <c r="J133" s="13" t="s">
         <v>863</v>
       </c>
-      <c r="K133" s="12" t="s">
+      <c r="K133" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="L133" s="11" t="s">
+      <c r="L133" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="M133" s="12" t="s">
+      <c r="M133" s="11" t="s">
         <v>805</v>
       </c>
-      <c r="N133" s="9" t="s">
+      <c r="N133" s="8" t="s">
         <v>819</v>
       </c>
-      <c r="O133" s="1" t="s">
+      <c r="O133" s="8" t="s">
         <v>906</v>
       </c>
-      <c r="Q133" s="3"/>
-      <c r="R133" s="3"/>
       <c r="S133" s="2"/>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B134" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C134" s="14" t="s">
+      <c r="B134" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C134" s="13" t="s">
         <v>694</v>
       </c>
-      <c r="D134" s="7" t="s">
+      <c r="D134" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="E134" s="12" t="s">
+      <c r="E134" s="11" t="s">
         <v>696</v>
       </c>
-      <c r="F134" s="14" t="s">
+      <c r="F134" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="G134" s="12" t="s">
+      <c r="G134" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="H134" s="12" t="s">
+      <c r="H134" s="11" t="s">
         <v>699</v>
       </c>
-      <c r="I134" s="7" t="s">
+      <c r="I134" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="J134" s="14" t="s">
+      <c r="J134" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="K134" s="12" t="s">
+      <c r="K134" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="L134" s="14" t="s">
+      <c r="L134" s="13" t="s">
         <v>700</v>
       </c>
-      <c r="M134" s="14" t="s">
+      <c r="M134" s="13" t="s">
         <v>701</v>
       </c>
-      <c r="N134" s="9" t="s">
+      <c r="N134" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="O134" s="1" t="s">
+      <c r="O134" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="P134" s="1" t="s">
+      <c r="P134" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="Q134" s="3"/>
-      <c r="R134" s="3"/>
       <c r="S134" s="2"/>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B135" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C135" s="14" t="s">
+      <c r="B135" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C135" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="D135" s="14" t="s">
+      <c r="D135" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="E135" s="12" t="s">
+      <c r="E135" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="F135" s="14" t="s">
+      <c r="F135" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="G135" s="12" t="s">
+      <c r="G135" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="H135" s="11" t="s">
+      <c r="H135" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="I135" s="1" t="s">
+      <c r="I135" s="9" t="s">
         <v>895</v>
       </c>
-      <c r="Q135" s="3"/>
-      <c r="R135" s="3"/>
+      <c r="P135" s="42"/>
       <c r="S135" s="2"/>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B136" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C136" s="11" t="s">
+      <c r="B136" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C136" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="D136" s="11" t="s">
+      <c r="D136" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="E136" s="12" t="s">
+      <c r="E136" s="11" t="s">
         <v>706</v>
       </c>
-      <c r="F136" s="14" t="s">
+      <c r="F136" s="13" t="s">
         <v>707</v>
       </c>
-      <c r="G136" s="12" t="s">
+      <c r="G136" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="H136" s="12" t="s">
+      <c r="H136" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="I136" s="12" t="s">
+      <c r="I136" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="J136" s="14" t="s">
+      <c r="J136" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="K136" s="12" t="s">
+      <c r="K136" s="11" t="s">
         <v>708</v>
       </c>
-      <c r="L136" s="9" t="s">
+      <c r="L136" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="M136" s="7" t="s">
+      <c r="M136" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q136" s="3"/>
-      <c r="R136" s="3"/>
       <c r="S136" s="2"/>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B137" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C137" s="14" t="s">
+      <c r="B137" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C137" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="D137" s="11" t="s">
+      <c r="D137" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="E137" s="14" t="s">
+      <c r="E137" s="13" t="s">
         <v>829</v>
       </c>
-      <c r="F137" s="7" t="s">
+      <c r="F137" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="G137" s="9" t="s">
+      <c r="G137" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="H137" s="14" t="s">
+      <c r="H137" s="13" t="s">
         <v>710</v>
       </c>
-      <c r="I137" s="11" t="s">
+      <c r="I137" s="10" t="s">
         <v>711</v>
       </c>
-      <c r="J137" s="14" t="s">
+      <c r="J137" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="K137" s="14" t="s">
+      <c r="K137" s="13" t="s">
         <v>712</v>
       </c>
-      <c r="L137" s="7" t="s">
+      <c r="L137" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="M137" s="9" t="s">
+      <c r="M137" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="N137" s="12" t="s">
+      <c r="N137" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="O137" s="14" t="s">
+      <c r="O137" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="P137" s="9" t="s">
+      <c r="P137" s="8" t="s">
         <v>808</v>
       </c>
-      <c r="Q137" s="3" t="s">
+      <c r="Q137" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="R137" s="3"/>
       <c r="S137" s="2"/>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B138" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C138" s="12" t="s">
+      <c r="B138" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C138" s="11" t="s">
         <v>713</v>
       </c>
-      <c r="D138" s="13" t="s">
+      <c r="D138" s="12" t="s">
         <v>714</v>
       </c>
-      <c r="E138" s="14" t="s">
+      <c r="E138" s="13" t="s">
         <v>715</v>
       </c>
-      <c r="F138" s="11" t="s">
+      <c r="F138" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="G138" s="14" t="s">
+      <c r="G138" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="H138" s="12" t="s">
+      <c r="H138" s="11" t="s">
         <v>716</v>
       </c>
-      <c r="I138" s="14" t="s">
+      <c r="I138" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="J138" s="12" t="s">
+      <c r="J138" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="K138" s="11" t="s">
+      <c r="K138" s="10" t="s">
         <v>717</v>
       </c>
-      <c r="L138" s="11" t="s">
+      <c r="L138" s="10" t="s">
         <v>718</v>
       </c>
-      <c r="M138" s="12" t="s">
+      <c r="M138" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="N138" s="1" t="s">
+      <c r="N138" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="Q138" s="3"/>
-      <c r="R138" s="3"/>
       <c r="S138" s="2"/>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B139" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C139" s="17" t="s">
+      <c r="B139" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C139" s="13" t="s">
         <v>719</v>
       </c>
-      <c r="D139" s="17" t="s">
+      <c r="D139" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="E139" s="11" t="s">
+      <c r="E139" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="F139" s="17" t="s">
+      <c r="F139" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="G139" s="17" t="s">
+      <c r="G139" s="10" t="s">
         <v>722</v>
       </c>
-      <c r="Q139" s="3"/>
-      <c r="R139" s="3"/>
       <c r="S139" s="2"/>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B140" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C140" s="9" t="s">
+      <c r="B140" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C140" s="8" t="s">
         <v>799</v>
       </c>
-      <c r="D140" s="11" t="s">
+      <c r="D140" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="E140" s="11" t="s">
+      <c r="E140" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="F140" s="12" t="s">
+      <c r="F140" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="G140" s="14" t="s">
+      <c r="G140" s="13" t="s">
         <v>723</v>
       </c>
-      <c r="H140" s="1" t="s">
+      <c r="H140" s="10" t="s">
         <v>895</v>
       </c>
-      <c r="Q140" s="3"/>
-      <c r="R140" s="3"/>
       <c r="S140" s="2"/>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B141" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C141" s="12" t="s">
+      <c r="B141" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C141" s="11" t="s">
         <v>724</v>
       </c>
-      <c r="D141" s="10" t="s">
+      <c r="D141" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E141" s="7" t="s">
+      <c r="E141" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="F141" s="11" t="s">
+      <c r="F141" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="G141" s="11" t="s">
+      <c r="G141" s="10" t="s">
         <v>725</v>
       </c>
-      <c r="H141" s="11" t="s">
+      <c r="H141" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="I141" s="9" t="s">
+      <c r="I141" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="J141" s="12" t="s">
+      <c r="J141" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="K141" s="9" t="s">
+      <c r="K141" s="8" t="s">
         <v>726</v>
       </c>
-      <c r="L141" s="9" t="s">
+      <c r="L141" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="M141" s="1" t="s">
+      <c r="M141" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="Q141" s="3"/>
-      <c r="R141" s="3"/>
       <c r="S141" s="2"/>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B142" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C142" s="11" t="s">
+      <c r="B142" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C142" s="10" t="s">
         <v>727</v>
       </c>
-      <c r="D142" s="13" t="s">
+      <c r="D142" s="12" t="s">
         <v>728</v>
       </c>
-      <c r="E142" s="11" t="s">
+      <c r="E142" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="F142" s="12" t="s">
+      <c r="F142" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="G142" s="12" t="s">
+      <c r="G142" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H142" s="9" t="s">
+      <c r="H142" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="I142" s="9" t="s">
+      <c r="I142" s="8" t="s">
         <v>729</v>
       </c>
-      <c r="J142" s="12" t="s">
+      <c r="J142" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="K142" s="11" t="s">
+      <c r="K142" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="L142" s="11" t="s">
+      <c r="L142" s="10" t="s">
         <v>876</v>
       </c>
-      <c r="M142" s="11" t="s">
+      <c r="M142" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="N142" s="12" t="s">
+      <c r="N142" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="O142" s="9" t="s">
+      <c r="O142" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="P142" s="1" t="s">
+      <c r="P142" s="12" t="s">
         <v>837</v>
       </c>
-      <c r="Q142" s="3"/>
-      <c r="R142" s="3"/>
       <c r="S142" s="2"/>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B143" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C143" s="13" t="s">
+      <c r="B143" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C143" s="12" t="s">
         <v>730</v>
       </c>
-      <c r="D143" s="13" t="s">
+      <c r="D143" s="12" t="s">
         <v>731</v>
       </c>
-      <c r="E143" s="12" t="s">
+      <c r="E143" s="11" t="s">
         <v>732</v>
       </c>
-      <c r="F143" s="13" t="s">
+      <c r="F143" s="12" t="s">
         <v>733</v>
       </c>
-      <c r="G143" s="14" t="s">
+      <c r="G143" s="13" t="s">
         <v>734</v>
       </c>
-      <c r="H143" s="14" t="s">
+      <c r="H143" s="13" t="s">
         <v>735</v>
       </c>
-      <c r="I143" s="14" t="s">
+      <c r="I143" s="13" t="s">
         <v>736</v>
       </c>
-      <c r="J143" s="11" t="s">
+      <c r="J143" s="10" t="s">
         <v>737</v>
       </c>
-      <c r="K143" s="11" t="s">
+      <c r="K143" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="L143" s="14" t="s">
+      <c r="L143" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="M143" s="11" t="s">
+      <c r="M143" s="10" t="s">
         <v>738</v>
       </c>
-      <c r="N143" s="12" t="s">
+      <c r="N143" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="O143" s="1" t="s">
+      <c r="O143" s="12" t="s">
         <v>886</v>
       </c>
-      <c r="Q143" s="3"/>
-      <c r="R143" s="3"/>
       <c r="S143" s="2"/>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B144" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C144" s="10" t="s">
+      <c r="B144" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C144" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="D144" s="9" t="s">
+      <c r="D144" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="E144" s="13" t="s">
+      <c r="E144" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="F144" s="9" t="s">
+      <c r="F144" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G144" s="9" t="s">
+      <c r="G144" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="Q144" s="3"/>
-      <c r="R144" s="3"/>
       <c r="S144" s="2"/>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="B145" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C145" s="12" t="s">
+      <c r="B145" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C145" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="D145" s="17" t="s">
+      <c r="D145" s="11" t="s">
         <v>899</v>
       </c>
-      <c r="E145" s="17"/>
-      <c r="F145" s="17"/>
-      <c r="Q145" s="3"/>
-      <c r="R145" s="3"/>
       <c r="S145" s="2"/>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B146" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C146" s="14" t="s">
+      <c r="B146" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C146" s="13" t="s">
         <v>739</v>
       </c>
-      <c r="D146" s="14" t="s">
+      <c r="D146" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="E146" s="14" t="s">
+      <c r="E146" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="F146" s="14" t="s">
+      <c r="F146" s="13" t="s">
         <v>740</v>
       </c>
-      <c r="G146" s="11" t="s">
+      <c r="G146" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="H146" s="10" t="s">
+      <c r="H146" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="I146" s="12" t="s">
+      <c r="I146" s="11" t="s">
         <v>741</v>
       </c>
-      <c r="J146" s="12" t="s">
+      <c r="J146" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="K146" s="1" t="s">
+      <c r="K146" s="9" t="s">
         <v>822</v>
       </c>
-      <c r="Q146" s="3"/>
-      <c r="R146" s="3"/>
       <c r="S146" s="2"/>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B147" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C147" s="7" t="s">
+      <c r="B147" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C147" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D147" s="12" t="s">
+      <c r="D147" s="11" t="s">
         <v>813</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="E147" s="13" t="s">
         <v>846</v>
       </c>
-      <c r="F147" s="1" t="s">
+      <c r="F147" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="Q147" s="3"/>
-      <c r="R147" s="3"/>
       <c r="S147" s="2"/>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B148" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C148" s="14" t="s">
+      <c r="B148" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C148" s="13" t="s">
         <v>742</v>
       </c>
-      <c r="D148" s="12" t="s">
+      <c r="D148" s="11" t="s">
         <v>743</v>
       </c>
-      <c r="E148" s="11" t="s">
+      <c r="E148" s="10" t="s">
         <v>744</v>
       </c>
-      <c r="F148" s="7" t="s">
+      <c r="F148" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="G148" s="11" t="s">
+      <c r="G148" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="H148" s="1" t="s">
+      <c r="H148" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="Q148" s="3"/>
-      <c r="R148" s="3"/>
       <c r="S148" s="2"/>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B149" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C149" s="7" t="s">
+      <c r="B149" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C149" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="D149" s="10" t="s">
+      <c r="D149" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="E149" s="14" t="s">
+      <c r="E149" s="13" t="s">
         <v>746</v>
       </c>
-      <c r="F149" s="14" t="s">
+      <c r="F149" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="G149" s="11" t="s">
+      <c r="G149" s="10" t="s">
         <v>747</v>
       </c>
-      <c r="H149" s="10" t="s">
+      <c r="H149" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="I149" s="14" t="s">
+      <c r="I149" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="J149" s="7" t="s">
+      <c r="J149" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="K149" s="9" t="s">
+      <c r="K149" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="L149" s="9" t="s">
+      <c r="L149" s="8" t="s">
         <v>748</v>
       </c>
-      <c r="M149" s="1" t="s">
+      <c r="M149" s="11" t="s">
         <v>824</v>
       </c>
-      <c r="Q149" s="3"/>
-      <c r="R149" s="3"/>
       <c r="S149" s="2"/>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B150" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C150" s="9" t="s">
+      <c r="B150" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C150" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="D150" s="12" t="s">
+      <c r="D150" s="11" t="s">
         <v>749</v>
       </c>
-      <c r="E150" s="11" t="s">
+      <c r="E150" s="10" t="s">
         <v>750</v>
       </c>
-      <c r="F150" s="12" t="s">
+      <c r="F150" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="G150" s="14" t="s">
+      <c r="G150" s="13" t="s">
         <v>751</v>
       </c>
-      <c r="H150" s="9" t="s">
+      <c r="H150" s="8" t="s">
         <v>752</v>
       </c>
-      <c r="I150" s="7" t="s">
+      <c r="I150" s="6" t="s">
         <v>821</v>
       </c>
-      <c r="J150" s="9" t="s">
+      <c r="J150" s="8" t="s">
         <v>877</v>
       </c>
-      <c r="Q150" s="3"/>
-      <c r="R150" s="3"/>
       <c r="S150" s="2"/>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B151" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C151" s="12" t="s">
+      <c r="B151" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C151" s="11" t="s">
         <v>753</v>
       </c>
-      <c r="D151" s="14" t="s">
+      <c r="D151" s="13" t="s">
         <v>754</v>
       </c>
-      <c r="E151" s="14" t="s">
+      <c r="E151" s="13" t="s">
         <v>755</v>
       </c>
-      <c r="F151" s="12" t="s">
+      <c r="F151" s="11" t="s">
         <v>756</v>
       </c>
-      <c r="G151" s="12" t="s">
+      <c r="G151" s="11" t="s">
         <v>757</v>
       </c>
-      <c r="H151" s="9" t="s">
+      <c r="H151" s="8" t="s">
         <v>758</v>
       </c>
-      <c r="I151" s="14" t="s">
+      <c r="I151" s="13" t="s">
         <v>759</v>
       </c>
-      <c r="J151" s="11" t="s">
+      <c r="J151" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="K151" s="14" t="s">
+      <c r="K151" s="13" t="s">
         <v>760</v>
       </c>
-      <c r="L151" s="11" t="s">
+      <c r="L151" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="M151" s="11" t="s">
+      <c r="M151" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="N151" s="9" t="s">
+      <c r="N151" s="8" t="s">
         <v>807</v>
       </c>
-      <c r="O151" s="1" t="s">
+      <c r="O151" s="11" t="s">
         <v>901</v>
       </c>
-      <c r="P151" s="1" t="s">
+      <c r="P151" s="6" t="s">
         <v>902</v>
       </c>
-      <c r="Q151" s="3"/>
-      <c r="R151" s="3"/>
       <c r="S151" s="2"/>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B152" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C152" s="14" t="s">
+      <c r="B152" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C152" s="13" t="s">
         <v>761</v>
       </c>
-      <c r="D152" s="10" t="s">
+      <c r="D152" s="9" t="s">
         <v>762</v>
       </c>
-      <c r="E152" s="12" t="s">
+      <c r="E152" s="11" t="s">
         <v>763</v>
       </c>
-      <c r="F152" s="12" t="s">
+      <c r="F152" s="11" t="s">
         <v>711</v>
       </c>
-      <c r="G152" s="11" t="s">
+      <c r="G152" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="H152" s="9" t="s">
+      <c r="H152" s="8" t="s">
         <v>765</v>
       </c>
-      <c r="I152" s="13" t="s">
+      <c r="I152" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="Q152" s="3"/>
-      <c r="R152" s="3"/>
       <c r="S152" s="2"/>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B153" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C153" s="7" t="s">
+      <c r="B153" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C153" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="D153" s="9" t="s">
+      <c r="D153" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="E153" s="10" t="s">
+      <c r="E153" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="F153" s="9" t="s">
+      <c r="F153" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G153" s="9" t="s">
+      <c r="G153" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="H153" s="9" t="s">
+      <c r="H153" s="8" t="s">
         <v>809</v>
       </c>
-      <c r="I153" s="1" t="s">
+      <c r="I153" s="8" t="s">
         <v>878</v>
       </c>
-      <c r="J153" s="1" t="s">
+      <c r="J153" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="Q153" s="3"/>
-      <c r="R153" s="3"/>
       <c r="S153" s="2"/>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B154" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C154" s="12" t="s">
+      <c r="B154" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C154" s="11" t="s">
         <v>767</v>
       </c>
-      <c r="D154" s="14" t="s">
+      <c r="D154" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="E154" s="12" t="s">
+      <c r="E154" s="11" t="s">
         <v>603</v>
       </c>
-      <c r="F154" s="12" t="s">
+      <c r="F154" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="G154" s="9" t="s">
+      <c r="G154" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="H154" s="12" t="s">
+      <c r="H154" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="Q154" s="3"/>
-      <c r="R154" s="3"/>
       <c r="S154" s="2"/>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B155" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C155" s="12" t="s">
+      <c r="B155" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C155" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="D155" s="12" t="s">
+      <c r="D155" s="11" t="s">
         <v>508</v>
       </c>
-      <c r="E155" s="11" t="s">
+      <c r="E155" s="10" t="s">
         <v>768</v>
       </c>
-      <c r="F155" s="9" t="s">
+      <c r="F155" s="8" t="s">
         <v>769</v>
       </c>
-      <c r="G155" s="7" t="s">
+      <c r="G155" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="H155" s="14" t="s">
+      <c r="H155" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="I155" s="10" t="s">
+      <c r="I155" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="J155" s="6" t="s">
+      <c r="J155" s="5" t="s">
         <v>770</v>
       </c>
-      <c r="K155" s="7" t="s">
+      <c r="K155" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="L155" s="1" t="s">
+      <c r="L155" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="Q155" s="3"/>
-      <c r="R155" s="3"/>
       <c r="S155" s="2"/>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B156" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C156" s="10" t="s">
+      <c r="B156" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C156" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="D156" s="7" t="s">
+      <c r="D156" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="E156" s="7" t="s">
+      <c r="E156" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F156" s="8" t="s">
+      <c r="F156" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G156" s="11" t="s">
+      <c r="G156" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="H156" s="12" t="s">
+      <c r="H156" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="I156" s="7" t="s">
+      <c r="I156" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="J156" s="11" t="s">
+      <c r="J156" s="10" t="s">
         <v>870</v>
       </c>
-      <c r="K156" s="8" t="s">
+      <c r="K156" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="L156" s="8" t="s">
+      <c r="L156" s="7" t="s">
         <v>816</v>
       </c>
-      <c r="M156" s="6" t="s">
+      <c r="M156" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="N156" s="1" t="s">
+      <c r="N156" s="6" t="s">
         <v>842</v>
       </c>
-      <c r="Q156" s="3"/>
-      <c r="R156" s="3"/>
       <c r="S156" s="2"/>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B157" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C157" s="7" t="s">
+      <c r="B157" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C157" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D157" s="11" t="s">
+      <c r="D157" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="E157" s="8" t="s">
+      <c r="E157" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="F157" s="1" t="s">
+      <c r="F157" s="13" t="s">
         <v>881</v>
       </c>
-      <c r="Q157" s="3"/>
-      <c r="R157" s="3"/>
       <c r="S157" s="2"/>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B158" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C158" s="11" t="s">
+      <c r="B158" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C158" s="10" t="s">
         <v>771</v>
       </c>
-      <c r="D158" s="12" t="s">
+      <c r="D158" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="E158" s="9" t="s">
+      <c r="E158" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="F158" s="14" t="s">
+      <c r="F158" s="13" t="s">
         <v>772</v>
       </c>
-      <c r="G158" s="14" t="s">
+      <c r="G158" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="H158" s="13" t="s">
+      <c r="H158" s="12" t="s">
         <v>812</v>
       </c>
-      <c r="I158" s="1" t="s">
+      <c r="I158" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="Q158" s="3"/>
-      <c r="R158" s="3"/>
       <c r="S158" s="2"/>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B159" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C159" s="12" t="s">
+      <c r="B159" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C159" s="11" t="s">
         <v>773</v>
       </c>
-      <c r="D159" s="12" t="s">
+      <c r="D159" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="E159" s="7" t="s">
+      <c r="E159" s="6" t="s">
         <v>774</v>
       </c>
-      <c r="F159" s="10" t="s">
+      <c r="F159" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="G159" s="1" t="s">
+      <c r="G159" s="13" t="s">
         <v>846</v>
       </c>
-      <c r="Q159" s="3"/>
-      <c r="R159" s="3"/>
       <c r="S159" s="2"/>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B160" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C160" s="12" t="s">
+      <c r="B160" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C160" s="11" t="s">
         <v>775</v>
       </c>
-      <c r="D160" s="14" t="s">
+      <c r="D160" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="E160" s="12" t="s">
+      <c r="E160" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="F160" s="11" t="s">
+      <c r="F160" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="G160" s="1" t="s">
+      <c r="G160" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="Q160" s="3"/>
-      <c r="R160" s="3"/>
       <c r="S160" s="2"/>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B161" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C161" s="7" t="s">
+      <c r="B161" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C161" s="6" t="s">
         <v>776</v>
       </c>
-      <c r="D161" s="11" t="s">
+      <c r="D161" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="E161" s="10" t="s">
+      <c r="E161" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="F161" s="8" t="s">
+      <c r="F161" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="G161" s="11" t="s">
+      <c r="G161" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="H161" s="8" t="s">
+      <c r="H161" s="7" t="s">
         <v>777</v>
       </c>
-      <c r="I161" s="12" t="s">
+      <c r="I161" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="J161" s="7" t="s">
+      <c r="J161" s="6" t="s">
         <v>856</v>
       </c>
-      <c r="K161" s="1" t="s">
+      <c r="K161" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="L161" s="1" t="s">
+      <c r="L161" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="Q161" s="3"/>
-      <c r="R161" s="3"/>
       <c r="S161" s="2"/>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="B162" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C162" s="17" t="s">
+      <c r="B162" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C162" s="11" t="s">
         <v>679</v>
       </c>
-      <c r="D162" s="17" t="s">
+      <c r="D162" s="13" t="s">
         <v>881</v>
       </c>
-      <c r="E162" s="17"/>
-      <c r="F162" s="17"/>
-      <c r="G162" s="17"/>
-      <c r="H162" s="17"/>
-      <c r="I162" s="17"/>
-      <c r="J162" s="17"/>
-      <c r="Q162" s="3"/>
-      <c r="R162" s="3"/>
       <c r="S162" s="2"/>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B163" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C163" s="14" t="s">
+      <c r="B163" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C163" s="13" t="s">
         <v>647</v>
       </c>
-      <c r="D163" s="14" t="s">
+      <c r="D163" s="13" t="s">
         <v>778</v>
       </c>
-      <c r="E163" s="12" t="s">
+      <c r="E163" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="F163" s="12" t="s">
+      <c r="F163" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G163" s="9" t="s">
+      <c r="G163" s="8" t="s">
         <v>779</v>
       </c>
-      <c r="H163" s="12" t="s">
+      <c r="H163" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="I163" s="12" t="s">
+      <c r="I163" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="J163" s="14" t="s">
+      <c r="J163" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="K163" s="11" t="s">
+      <c r="K163" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="L163" s="1" t="s">
+      <c r="L163" s="11" t="s">
         <v>833</v>
       </c>
-      <c r="Q163" s="3"/>
-      <c r="R163" s="3"/>
       <c r="S163" s="2"/>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B164" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C164" s="14" t="s">
+      <c r="B164" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C164" s="13" t="s">
         <v>780</v>
       </c>
-      <c r="D164" s="13" t="s">
+      <c r="D164" s="12" t="s">
         <v>781</v>
       </c>
-      <c r="E164" s="12" t="s">
+      <c r="E164" s="11" t="s">
         <v>782</v>
       </c>
-      <c r="F164" s="14" t="s">
+      <c r="F164" s="13" t="s">
         <v>783</v>
       </c>
-      <c r="G164" s="7" t="s">
+      <c r="G164" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H164" s="12" t="s">
+      <c r="H164" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="I164" s="1" t="s">
+      <c r="I164" s="9" t="s">
         <v>901</v>
       </c>
-      <c r="Q164" s="3"/>
-      <c r="R164" s="3"/>
       <c r="S164" s="2"/>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B165" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C165" s="11" t="s">
+      <c r="B165" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C165" s="10" t="s">
         <v>784</v>
       </c>
-      <c r="D165" s="11" t="s">
+      <c r="D165" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E165" s="9" t="s">
+      <c r="E165" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="F165" s="10" t="s">
+      <c r="F165" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="G165" s="10" t="s">
+      <c r="G165" s="9" t="s">
         <v>879</v>
       </c>
-      <c r="H165" s="1" t="s">
+      <c r="H165" s="10" t="s">
         <v>846</v>
       </c>
-      <c r="I165" s="1" t="s">
+      <c r="I165" s="10" t="s">
         <v>901</v>
       </c>
-      <c r="Q165" s="3"/>
-      <c r="R165" s="3"/>
       <c r="S165" s="2"/>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B166" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C166" s="20" t="s">
+      <c r="B166" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C166" s="17" t="s">
         <v>785</v>
       </c>
-      <c r="D166" s="21" t="s">
+      <c r="D166" s="18" t="s">
         <v>527</v>
       </c>
-      <c r="E166" s="23" t="s">
+      <c r="E166" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="F166" s="22" t="s">
+      <c r="F166" s="19" t="s">
         <v>786</v>
       </c>
-      <c r="G166" s="19" t="s">
+      <c r="G166" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="H166" s="21" t="s">
+      <c r="H166" s="18" t="s">
         <v>861</v>
       </c>
-      <c r="I166" s="41" t="s">
+      <c r="I166" s="36" t="s">
         <v>677</v>
       </c>
-      <c r="J166" s="21" t="s">
+      <c r="J166" s="18" t="s">
         <v>808</v>
       </c>
-      <c r="K166" s="4" t="s">
+      <c r="K166" s="18" t="s">
         <v>904</v>
       </c>
-      <c r="L166" s="4"/>
-      <c r="M166" s="4"/>
-      <c r="N166" s="4"/>
-      <c r="O166" s="4"/>
-      <c r="P166" s="4"/>
-      <c r="Q166" s="4"/>
-      <c r="R166" s="4"/>
-      <c r="S166" s="5"/>
+      <c r="L166" s="3"/>
+      <c r="M166" s="3"/>
+      <c r="N166" s="3"/>
+      <c r="O166" s="3"/>
+      <c r="P166" s="3"/>
+      <c r="Q166" s="3"/>
+      <c r="R166" s="3"/>
+      <c r="S166" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="910">
   <si>
     <t>Aatrox</t>
   </si>
@@ -2747,7 +2747,13 @@
     <t>Lunar Emperor</t>
   </si>
   <si>
-    <t>Patch 13.1</t>
+    <t>Patch 13.3</t>
+  </si>
+  <si>
+    <t>Heartthrob</t>
+  </si>
+  <si>
+    <t>Heartache</t>
   </si>
 </sst>
 </file>
@@ -3049,16 +3055,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3391,8 +3397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:Q4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3449,8 +3455,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E3" s="42"/>
-      <c r="H3" s="42"/>
+      <c r="E3" s="40"/>
+      <c r="H3" s="40"/>
       <c r="I3" s="11"/>
       <c r="S3" s="3"/>
     </row>
@@ -3458,24 +3464,24 @@
       <c r="A4" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
       <c r="R4" s="38"/>
       <c r="S4" s="4"/>
     </row>
@@ -3730,6 +3736,9 @@
       <c r="N10" s="11" t="s">
         <v>826</v>
       </c>
+      <c r="O10" s="1" t="s">
+        <v>909</v>
+      </c>
       <c r="S10" s="2"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -4153,6 +4162,9 @@
       <c r="P22" s="5" t="s">
         <v>883</v>
       </c>
+      <c r="Q22" s="1" t="s">
+        <v>908</v>
+      </c>
       <c r="S22" s="2"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -5581,7 +5593,7 @@
       <c r="I60" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="J60" s="43" t="s">
+      <c r="J60" s="41" t="s">
         <v>776</v>
       </c>
       <c r="S60" s="2"/>
@@ -8283,7 +8295,7 @@
       <c r="I135" s="9" t="s">
         <v>895</v>
       </c>
-      <c r="P135" s="42"/>
+      <c r="P135" s="40"/>
       <c r="S135" s="2"/>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
@@ -8691,6 +8703,9 @@
       </c>
       <c r="K146" s="9" t="s">
         <v>822</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>909</v>
       </c>
       <c r="S146" s="2"/>
     </row>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="910">
   <si>
     <t>Aatrox</t>
   </si>
@@ -3397,8 +3397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4750,6 +4750,9 @@
       <c r="L37" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="M37" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="S37" s="2"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -5173,6 +5176,9 @@
       <c r="E49" s="8" t="s">
         <v>807</v>
       </c>
+      <c r="F49" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="S49" s="2"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -5755,6 +5761,9 @@
       <c r="K64" s="6" t="s">
         <v>432</v>
       </c>
+      <c r="L64" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="S64" s="2"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
@@ -7698,6 +7707,9 @@
       <c r="L119" s="10" t="s">
         <v>267</v>
       </c>
+      <c r="M119" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="S119" s="2"/>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
@@ -8970,6 +8982,9 @@
       </c>
       <c r="H154" s="11" t="s">
         <v>279</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="S154" s="2"/>
     </row>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="912">
   <si>
     <t>Aatrox</t>
   </si>
@@ -2754,6 +2754,12 @@
   </si>
   <si>
     <t>Heartache</t>
+  </si>
+  <si>
+    <t>Broken Covenant</t>
+  </si>
+  <si>
+    <t>Prestige Broken Covenant</t>
   </si>
 </sst>
 </file>
@@ -2849,7 +2855,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2932,11 +2938,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3052,9 +3069,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3065,6 +3079,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3395,25 +3418,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S166"/>
+  <dimension ref="A1:T166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155"/>
+    <sheetView tabSelected="1" topLeftCell="H103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q108" sqref="Q108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="19" width="25.7109375" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="1"/>
+    <col min="2" max="20" width="25.7109375" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>803</v>
       </c>
@@ -3454,38 +3477,39 @@
         <v>795</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E3" s="40"/>
-      <c r="H3" s="40"/>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E3" s="39"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="11"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
       <c r="R4" s="38"/>
-      <c r="S4" s="4"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S4" s="3"/>
+      <c r="T4" s="45"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -3517,9 +3541,10 @@
         <v>501</v>
       </c>
       <c r="Q5" s="37"/>
-      <c r="S5" s="2"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S5" s="43"/>
+      <c r="T5" s="45"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -3571,9 +3596,10 @@
       <c r="Q6" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="S6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S6" s="43"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -3625,9 +3651,10 @@
       <c r="Q7" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S7" s="43"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>806</v>
       </c>
@@ -3640,9 +3667,10 @@
       <c r="D8" s="11" t="s">
         <v>677</v>
       </c>
-      <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S8" s="43"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -3691,9 +3719,10 @@
       <c r="P9" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="S9" s="2"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S9" s="43"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -3739,9 +3768,10 @@
       <c r="O10" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S10" s="43"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -3781,9 +3811,10 @@
       <c r="M11" s="11" t="s">
         <v>897</v>
       </c>
-      <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S11" s="43"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -3835,9 +3866,10 @@
       <c r="Q12" s="7" t="s">
         <v>895</v>
       </c>
-      <c r="S12" s="2"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S12" s="43"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -3856,9 +3888,10 @@
       <c r="F13" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="S13" s="2"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S13" s="43"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -3910,9 +3943,10 @@
       <c r="Q14" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="S14" s="2"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S14" s="43"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -3928,9 +3962,10 @@
       <c r="E15" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="S15" s="2"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S15" s="43"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -3955,9 +3990,10 @@
       <c r="H16" s="10" t="s">
         <v>896</v>
       </c>
-      <c r="S16" s="2"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S16" s="43"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -3979,9 +4015,10 @@
       <c r="G17" s="11" t="s">
         <v>824</v>
       </c>
-      <c r="S17" s="2"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S17" s="43"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>880</v>
       </c>
@@ -3991,9 +4028,10 @@
       <c r="C18" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="S18" s="2"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S18" s="43"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -4042,9 +4080,10 @@
       <c r="P19" s="13" t="s">
         <v>893</v>
       </c>
-      <c r="S19" s="2"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S19" s="43"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>124</v>
       </c>
@@ -4081,9 +4120,10 @@
       <c r="L20" s="11" t="s">
         <v>849</v>
       </c>
-      <c r="S20" s="2"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S20" s="43"/>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -4111,9 +4151,10 @@
       <c r="I21" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="S21" s="2"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S21" s="43"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -4165,9 +4206,10 @@
       <c r="Q22" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="S22" s="2"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S22" s="43"/>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>125</v>
       </c>
@@ -4189,9 +4231,10 @@
       <c r="G23" s="10" t="s">
         <v>891</v>
       </c>
-      <c r="S23" s="2"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S23" s="43"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
@@ -4222,9 +4265,10 @@
       <c r="J24" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="S24" s="2"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S24" s="43"/>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
@@ -4255,9 +4299,13 @@
       <c r="J25" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="S25" s="2"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K25" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="S25" s="43"/>
+      <c r="T25" s="2"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
@@ -4294,9 +4342,10 @@
       <c r="L26" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="S26" s="2"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S26" s="43"/>
+      <c r="T26" s="2"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>18</v>
       </c>
@@ -4336,9 +4385,10 @@
       <c r="M27" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="S27" s="2"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S27" s="43"/>
+      <c r="T27" s="2"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>19</v>
       </c>
@@ -4378,9 +4428,10 @@
       <c r="M28" s="7" t="s">
         <v>901</v>
       </c>
-      <c r="S28" s="2"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S28" s="43"/>
+      <c r="T28" s="2"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>126</v>
       </c>
@@ -4420,9 +4471,10 @@
       <c r="M29" s="11" t="s">
         <v>895</v>
       </c>
-      <c r="S29" s="2"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S29" s="43"/>
+      <c r="T29" s="2"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
@@ -4459,9 +4511,10 @@
       <c r="L30" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="S30" s="2"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S30" s="43"/>
+      <c r="T30" s="2"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>127</v>
       </c>
@@ -4498,9 +4551,10 @@
       <c r="L31" s="10" t="s">
         <v>868</v>
       </c>
-      <c r="S31" s="2"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S31" s="43"/>
+      <c r="T31" s="2"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>128</v>
       </c>
@@ -4528,9 +4582,10 @@
       <c r="I32" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="S32" s="2"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S32" s="43"/>
+      <c r="T32" s="2"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
@@ -4570,9 +4625,10 @@
       <c r="M33" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="S33" s="2"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S33" s="43"/>
+      <c r="T33" s="2"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>22</v>
       </c>
@@ -4627,9 +4683,10 @@
       <c r="R34" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="S34" s="2"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S34" s="43"/>
+      <c r="T34" s="2"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>23</v>
       </c>
@@ -4666,9 +4723,10 @@
       <c r="L35" s="10" t="s">
         <v>884</v>
       </c>
-      <c r="S35" s="2"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S35" s="43"/>
+      <c r="T35" s="2"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>24</v>
       </c>
@@ -4711,9 +4769,10 @@
       <c r="N36" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="S36" s="2"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S36" s="43"/>
+      <c r="T36" s="2"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>25</v>
       </c>
@@ -4753,9 +4812,10 @@
       <c r="M37" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="S37" s="2"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S37" s="43"/>
+      <c r="T37" s="2"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>129</v>
       </c>
@@ -4789,9 +4849,10 @@
       <c r="K38" s="9" t="s">
         <v>904</v>
       </c>
-      <c r="S38" s="2"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S38" s="43"/>
+      <c r="T38" s="2"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>26</v>
       </c>
@@ -4831,9 +4892,10 @@
       <c r="M39" s="10" t="s">
         <v>841</v>
       </c>
-      <c r="S39" s="2"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S39" s="43"/>
+      <c r="T39" s="2"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>27</v>
       </c>
@@ -4882,9 +4944,10 @@
       <c r="P40" s="6" t="s">
         <v>904</v>
       </c>
-      <c r="S40" s="2"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S40" s="43"/>
+      <c r="T40" s="2"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>28</v>
       </c>
@@ -4915,9 +4978,10 @@
       <c r="J41" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="S41" s="2"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S41" s="43"/>
+      <c r="T41" s="2"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>29</v>
       </c>
@@ -4960,9 +5024,10 @@
       <c r="N42" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="S42" s="2"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S42" s="43"/>
+      <c r="T42" s="2"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>30</v>
       </c>
@@ -5005,9 +5070,10 @@
       <c r="N43" s="11" t="s">
         <v>846</v>
       </c>
-      <c r="S43" s="2"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S43" s="43"/>
+      <c r="T43" s="2"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>31</v>
       </c>
@@ -5020,9 +5086,10 @@
       <c r="D44" s="10" t="s">
         <v>824</v>
       </c>
-      <c r="S44" s="2"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S44" s="43"/>
+      <c r="T44" s="2"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>32</v>
       </c>
@@ -5059,9 +5126,10 @@
       <c r="L45" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="S45" s="2"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S45" s="43"/>
+      <c r="T45" s="2"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>33</v>
       </c>
@@ -5092,9 +5160,10 @@
       <c r="J46" s="13" t="s">
         <v>832</v>
       </c>
-      <c r="S46" s="2"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S46" s="43"/>
+      <c r="T46" s="2"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>34</v>
       </c>
@@ -5113,9 +5182,10 @@
       <c r="F47" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="S47" s="2"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S47" s="43"/>
+      <c r="T47" s="2"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>35</v>
       </c>
@@ -5158,9 +5228,10 @@
       <c r="N48" s="7" t="s">
         <v>904</v>
       </c>
-      <c r="S48" s="2"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S48" s="43"/>
+      <c r="T48" s="2"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>130</v>
       </c>
@@ -5179,9 +5250,10 @@
       <c r="F49" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="S49" s="2"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S49" s="43"/>
+      <c r="T49" s="2"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>36</v>
       </c>
@@ -5230,9 +5302,10 @@
       <c r="P50" s="8" t="s">
         <v>889</v>
       </c>
-      <c r="S50" s="2"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S50" s="43"/>
+      <c r="T50" s="2"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>131</v>
       </c>
@@ -5275,9 +5348,10 @@
       <c r="N51" s="7" t="s">
         <v>815</v>
       </c>
-      <c r="S51" s="2"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S51" s="43"/>
+      <c r="T51" s="2"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>37</v>
       </c>
@@ -5326,9 +5400,10 @@
       <c r="P52" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="S52" s="2"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S52" s="43"/>
+      <c r="T52" s="2"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>38</v>
       </c>
@@ -5359,9 +5434,10 @@
       <c r="J53" s="11" t="s">
         <v>893</v>
       </c>
-      <c r="S53" s="2"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S53" s="43"/>
+      <c r="T53" s="2"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>39</v>
       </c>
@@ -5392,9 +5468,10 @@
       <c r="J54" s="6" t="s">
         <v>899</v>
       </c>
-      <c r="S54" s="2"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S54" s="43"/>
+      <c r="T54" s="2"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>40</v>
       </c>
@@ -5434,9 +5511,10 @@
       <c r="M55" s="12" t="s">
         <v>858</v>
       </c>
-      <c r="S55" s="2"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S55" s="43"/>
+      <c r="T55" s="2"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>132</v>
       </c>
@@ -5470,9 +5548,10 @@
       <c r="K56" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="S56" s="2"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S56" s="43"/>
+      <c r="T56" s="2"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>42</v>
       </c>
@@ -5491,9 +5570,10 @@
       <c r="F57" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="S57" s="2"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S57" s="43"/>
+      <c r="T57" s="2"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>133</v>
       </c>
@@ -5536,9 +5616,10 @@
       <c r="N58" s="8" t="s">
         <v>820</v>
       </c>
-      <c r="S58" s="2"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S58" s="43"/>
+      <c r="T58" s="2"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>41</v>
       </c>
@@ -5569,9 +5650,10 @@
       <c r="J59" s="10" t="s">
         <v>812</v>
       </c>
-      <c r="S59" s="2"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S59" s="43"/>
+      <c r="T59" s="2"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>134</v>
       </c>
@@ -5599,12 +5681,13 @@
       <c r="I60" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="J60" s="41" t="s">
+      <c r="J60" s="40" t="s">
         <v>776</v>
       </c>
-      <c r="S60" s="2"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S60" s="43"/>
+      <c r="T60" s="2"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>43</v>
       </c>
@@ -5653,9 +5736,10 @@
       <c r="P61" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="S61" s="2"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S61" s="43"/>
+      <c r="T61" s="2"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>44</v>
       </c>
@@ -5701,9 +5785,10 @@
       <c r="O62" s="6" t="s">
         <v>840</v>
       </c>
-      <c r="S62" s="2"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S62" s="43"/>
+      <c r="T62" s="2"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>45</v>
       </c>
@@ -5725,9 +5810,10 @@
       <c r="G63" s="7" t="s">
         <v>883</v>
       </c>
-      <c r="S63" s="2"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S63" s="43"/>
+      <c r="T63" s="2"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>135</v>
       </c>
@@ -5764,9 +5850,10 @@
       <c r="L64" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="S64" s="2"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S64" s="43"/>
+      <c r="T64" s="2"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>46</v>
       </c>
@@ -5794,9 +5881,10 @@
       <c r="I65" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="S65" s="2"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S65" s="43"/>
+      <c r="T65" s="2"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>47</v>
       </c>
@@ -5815,9 +5903,10 @@
       <c r="F66" s="6" t="s">
         <v>826</v>
       </c>
-      <c r="S66" s="2"/>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S66" s="43"/>
+      <c r="T66" s="2"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>136</v>
       </c>
@@ -5833,9 +5922,10 @@
       <c r="E67" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="S67" s="2"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S67" s="43"/>
+      <c r="T67" s="2"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>48</v>
       </c>
@@ -5881,9 +5971,10 @@
       <c r="O68" s="11" t="s">
         <v>887</v>
       </c>
-      <c r="S68" s="2"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S68" s="43"/>
+      <c r="T68" s="2"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>898</v>
       </c>
@@ -5896,9 +5987,10 @@
       <c r="D69" s="6" t="s">
         <v>900</v>
       </c>
-      <c r="S69" s="2"/>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S69" s="43"/>
+      <c r="T69" s="2"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>49</v>
       </c>
@@ -5941,9 +6033,10 @@
       <c r="N70" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="S70" s="2"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S70" s="43"/>
+      <c r="T70" s="2"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>50</v>
       </c>
@@ -5992,9 +6085,10 @@
       <c r="P71" s="11" t="s">
         <v>893</v>
       </c>
-      <c r="S71" s="2"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S71" s="43"/>
+      <c r="T71" s="2"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>51</v>
       </c>
@@ -6043,9 +6137,10 @@
       <c r="P72" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="S72" s="2"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S72" s="43"/>
+      <c r="T72" s="2"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>52</v>
       </c>
@@ -6058,9 +6153,10 @@
       <c r="D73" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="S73" s="2"/>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S73" s="43"/>
+      <c r="T73" s="2"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>53</v>
       </c>
@@ -6091,9 +6187,10 @@
       <c r="J74" s="7" t="s">
         <v>865</v>
       </c>
-      <c r="S74" s="2"/>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S74" s="43"/>
+      <c r="T74" s="2"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>54</v>
       </c>
@@ -6133,9 +6230,10 @@
       <c r="M75" s="11" t="s">
         <v>892</v>
       </c>
-      <c r="S75" s="2"/>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S75" s="43"/>
+      <c r="T75" s="2"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>55</v>
       </c>
@@ -6175,9 +6273,10 @@
       <c r="M76" s="13" t="s">
         <v>886</v>
       </c>
-      <c r="S76" s="2"/>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S76" s="43"/>
+      <c r="T76" s="2"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>56</v>
       </c>
@@ -6232,11 +6331,12 @@
       <c r="R77" s="8" t="s">
         <v>865</v>
       </c>
-      <c r="S77" s="39" t="s">
+      <c r="S77" s="44" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T77" s="2"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>57</v>
       </c>
@@ -6282,9 +6382,10 @@
       <c r="O78" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="S78" s="2"/>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S78" s="43"/>
+      <c r="T78" s="2"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>137</v>
       </c>
@@ -6321,9 +6422,10 @@
       <c r="L79" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="S79" s="2"/>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S79" s="43"/>
+      <c r="T79" s="2"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>58</v>
       </c>
@@ -6357,9 +6459,10 @@
       <c r="K80" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="S80" s="2"/>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S80" s="43"/>
+      <c r="T80" s="2"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>59</v>
       </c>
@@ -6408,9 +6511,10 @@
       <c r="P81" s="13" t="s">
         <v>875</v>
       </c>
-      <c r="S81" s="2"/>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S81" s="43"/>
+      <c r="T81" s="2"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>60</v>
       </c>
@@ -6465,9 +6569,14 @@
       <c r="R82" s="10" t="s">
         <v>610</v>
       </c>
-      <c r="S82" s="2"/>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S82" s="43" t="s">
+        <v>910</v>
+      </c>
+      <c r="T82" s="2" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>61</v>
       </c>
@@ -6504,9 +6613,10 @@
       <c r="L83" s="6" t="s">
         <v>903</v>
       </c>
-      <c r="S83" s="2"/>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S83" s="43"/>
+      <c r="T83" s="2"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>62</v>
       </c>
@@ -6552,9 +6662,10 @@
       <c r="O84" s="8" t="s">
         <v>884</v>
       </c>
-      <c r="S84" s="2"/>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S84" s="43"/>
+      <c r="T84" s="2"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>63</v>
       </c>
@@ -6594,9 +6705,10 @@
       <c r="M85" s="6" t="s">
         <v>864</v>
       </c>
-      <c r="S85" s="2"/>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S85" s="43"/>
+      <c r="T85" s="2"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>64</v>
       </c>
@@ -6636,9 +6748,10 @@
       <c r="M86" s="10" t="s">
         <v>890</v>
       </c>
-      <c r="S86" s="2"/>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S86" s="43"/>
+      <c r="T86" s="2"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>65</v>
       </c>
@@ -6669,9 +6782,10 @@
       <c r="J87" s="6" t="s">
         <v>895</v>
       </c>
-      <c r="S87" s="2"/>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S87" s="43"/>
+      <c r="T87" s="2"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>138</v>
       </c>
@@ -6693,9 +6807,10 @@
       <c r="G88" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="S88" s="2"/>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S88" s="43"/>
+      <c r="T88" s="2"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>66</v>
       </c>
@@ -6741,9 +6856,10 @@
       <c r="O89" s="11" t="s">
         <v>881</v>
       </c>
-      <c r="S89" s="2"/>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S89" s="43"/>
+      <c r="T89" s="2"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>885</v>
       </c>
@@ -6753,9 +6869,10 @@
       <c r="C90" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="S90" s="2"/>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S90" s="43"/>
+      <c r="T90" s="2"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>139</v>
       </c>
@@ -6786,9 +6903,13 @@
       <c r="J91" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="S91" s="2"/>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K91" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="S91" s="43"/>
+      <c r="T91" s="2"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>67</v>
       </c>
@@ -6825,9 +6946,10 @@
       <c r="L92" s="10" t="s">
         <v>834</v>
       </c>
-      <c r="S92" s="2"/>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S92" s="43"/>
+      <c r="T92" s="2"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>68</v>
       </c>
@@ -6864,9 +6986,10 @@
       <c r="L93" s="13" t="s">
         <v>812</v>
       </c>
-      <c r="S93" s="2"/>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S93" s="43"/>
+      <c r="T93" s="2"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>69</v>
       </c>
@@ -6903,9 +7026,10 @@
       <c r="L94" s="8" t="s">
         <v>831</v>
       </c>
-      <c r="S94" s="2"/>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S94" s="43"/>
+      <c r="T94" s="2"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>140</v>
       </c>
@@ -6921,9 +7045,10 @@
       <c r="E95" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="S95" s="2"/>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S95" s="43"/>
+      <c r="T95" s="2"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>70</v>
       </c>
@@ -6966,9 +7091,10 @@
       <c r="N96" s="10" t="s">
         <v>839</v>
       </c>
-      <c r="S96" s="2"/>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S96" s="43"/>
+      <c r="T96" s="2"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>71</v>
       </c>
@@ -7008,9 +7134,10 @@
       <c r="M97" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="S97" s="2"/>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S97" s="43"/>
+      <c r="T97" s="2"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>72</v>
       </c>
@@ -7038,9 +7165,10 @@
       <c r="I98" s="6" t="s">
         <v>899</v>
       </c>
-      <c r="S98" s="2"/>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S98" s="43"/>
+      <c r="T98" s="2"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>73</v>
       </c>
@@ -7065,9 +7193,10 @@
       <c r="H99" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="S99" s="2"/>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S99" s="43"/>
+      <c r="T99" s="2"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>74</v>
       </c>
@@ -7092,9 +7221,10 @@
       <c r="H100" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="S100" s="2"/>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S100" s="43"/>
+      <c r="T100" s="2"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>75</v>
       </c>
@@ -7122,9 +7252,13 @@
       <c r="I101" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="S101" s="2"/>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J101" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="S101" s="43"/>
+      <c r="T101" s="2"/>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>76</v>
       </c>
@@ -7161,9 +7295,10 @@
       <c r="L102" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="S102" s="2"/>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S102" s="43"/>
+      <c r="T102" s="2"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>77</v>
       </c>
@@ -7182,9 +7317,10 @@
       <c r="F103" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="S103" s="2"/>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S103" s="43"/>
+      <c r="T103" s="2"/>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>141</v>
       </c>
@@ -7197,9 +7333,10 @@
       <c r="D104" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="S104" s="2"/>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S104" s="43"/>
+      <c r="T104" s="2"/>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>844</v>
       </c>
@@ -7212,9 +7349,10 @@
       <c r="D105" s="6" t="s">
         <v>895</v>
       </c>
-      <c r="S105" s="2"/>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S105" s="43"/>
+      <c r="T105" s="2"/>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>142</v>
       </c>
@@ -7257,9 +7395,10 @@
       <c r="N106" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="S106" s="2"/>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S106" s="43"/>
+      <c r="T106" s="2"/>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>78</v>
       </c>
@@ -7287,9 +7426,10 @@
       <c r="I107" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="S107" s="2"/>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S107" s="43"/>
+      <c r="T107" s="2"/>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>79</v>
       </c>
@@ -7338,9 +7478,13 @@
       <c r="P108" s="11" t="s">
         <v>835</v>
       </c>
-      <c r="S108" s="2"/>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q108" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="S108" s="43"/>
+      <c r="T108" s="2"/>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>143</v>
       </c>
@@ -7362,9 +7506,10 @@
       <c r="G109" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="S109" s="2"/>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S109" s="43"/>
+      <c r="T109" s="2"/>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>80</v>
       </c>
@@ -7410,9 +7555,10 @@
       <c r="O110" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="S110" s="2"/>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S110" s="43"/>
+      <c r="T110" s="2"/>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>144</v>
       </c>
@@ -7428,9 +7574,10 @@
       <c r="E111" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="S111" s="2"/>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S111" s="43"/>
+      <c r="T111" s="2"/>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>81</v>
       </c>
@@ -7473,9 +7620,10 @@
       <c r="N112" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="S112" s="2"/>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S112" s="43"/>
+      <c r="T112" s="2"/>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>145</v>
       </c>
@@ -7503,9 +7651,10 @@
       <c r="I113" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="S113" s="2"/>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S113" s="43"/>
+      <c r="T113" s="2"/>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>82</v>
       </c>
@@ -7530,9 +7679,10 @@
       <c r="H114" s="8" t="s">
         <v>882</v>
       </c>
-      <c r="S114" s="2"/>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S114" s="43"/>
+      <c r="T114" s="2"/>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>83</v>
       </c>
@@ -7557,9 +7707,10 @@
       <c r="H115" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="S115" s="2"/>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S115" s="43"/>
+      <c r="T115" s="2"/>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>84</v>
       </c>
@@ -7599,9 +7750,10 @@
       <c r="M116" s="11" t="s">
         <v>901</v>
       </c>
-      <c r="S116" s="2"/>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S116" s="43"/>
+      <c r="T116" s="2"/>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>85</v>
       </c>
@@ -7638,9 +7790,10 @@
       <c r="L117" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="S117" s="2"/>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S117" s="43"/>
+      <c r="T117" s="2"/>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>86</v>
       </c>
@@ -7668,9 +7821,10 @@
       <c r="I118" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="S118" s="2"/>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S118" s="43"/>
+      <c r="T118" s="2"/>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>87</v>
       </c>
@@ -7710,9 +7864,10 @@
       <c r="M119" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="S119" s="2"/>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S119" s="43"/>
+      <c r="T119" s="2"/>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>88</v>
       </c>
@@ -7743,9 +7898,10 @@
       <c r="J120" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="S120" s="2"/>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S120" s="43"/>
+      <c r="T120" s="2"/>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>89</v>
       </c>
@@ -7800,9 +7956,10 @@
       <c r="R121" s="7" t="s">
         <v>905</v>
       </c>
-      <c r="S121" s="2"/>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S121" s="43"/>
+      <c r="T121" s="2"/>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>146</v>
       </c>
@@ -7824,9 +7981,10 @@
       <c r="G122" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="S122" s="2"/>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S122" s="43"/>
+      <c r="T122" s="2"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>90</v>
       </c>
@@ -7866,9 +8024,10 @@
       <c r="M123" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="S123" s="2"/>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S123" s="43"/>
+      <c r="T123" s="2"/>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>91</v>
       </c>
@@ -7917,9 +8076,10 @@
       <c r="P124" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="S124" s="2"/>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S124" s="43"/>
+      <c r="T124" s="2"/>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>147</v>
       </c>
@@ -7947,9 +8107,10 @@
       <c r="I125" s="10" t="s">
         <v>901</v>
       </c>
-      <c r="S125" s="2"/>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S125" s="43"/>
+      <c r="T125" s="2"/>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>92</v>
       </c>
@@ -7974,9 +8135,10 @@
       <c r="H126" s="9" t="s">
         <v>894</v>
       </c>
-      <c r="S126" s="2"/>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S126" s="43"/>
+      <c r="T126" s="2"/>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>93</v>
       </c>
@@ -8016,9 +8178,10 @@
       <c r="M127" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="S127" s="2"/>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S127" s="43"/>
+      <c r="T127" s="2"/>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>94</v>
       </c>
@@ -8040,9 +8203,10 @@
       <c r="G128" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="S128" s="2"/>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S128" s="43"/>
+      <c r="T128" s="2"/>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>95</v>
       </c>
@@ -8061,9 +8225,10 @@
       <c r="F129" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="S129" s="2"/>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S129" s="43"/>
+      <c r="T129" s="2"/>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>96</v>
       </c>
@@ -8100,9 +8265,10 @@
       <c r="L130" s="6" t="s">
         <v>874</v>
       </c>
-      <c r="S130" s="2"/>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S130" s="43"/>
+      <c r="T130" s="2"/>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>148</v>
       </c>
@@ -8127,9 +8293,10 @@
       <c r="H131" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="S131" s="2"/>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S131" s="43"/>
+      <c r="T131" s="2"/>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>97</v>
       </c>
@@ -8178,9 +8345,10 @@
       <c r="P132" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="S132" s="2"/>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S132" s="43"/>
+      <c r="T132" s="2"/>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>98</v>
       </c>
@@ -8226,9 +8394,10 @@
       <c r="O133" s="8" t="s">
         <v>906</v>
       </c>
-      <c r="S133" s="2"/>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S133" s="43"/>
+      <c r="T133" s="2"/>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>99</v>
       </c>
@@ -8277,9 +8446,10 @@
       <c r="P134" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="S134" s="2"/>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S134" s="43"/>
+      <c r="T134" s="2"/>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>100</v>
       </c>
@@ -8307,10 +8477,11 @@
       <c r="I135" s="9" t="s">
         <v>895</v>
       </c>
-      <c r="P135" s="40"/>
-      <c r="S135" s="2"/>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P135" s="39"/>
+      <c r="S135" s="43"/>
+      <c r="T135" s="2"/>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>101</v>
       </c>
@@ -8350,9 +8521,10 @@
       <c r="M136" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="S136" s="2"/>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S136" s="43"/>
+      <c r="T136" s="2"/>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>102</v>
       </c>
@@ -8404,9 +8576,10 @@
       <c r="Q137" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="S137" s="2"/>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S137" s="43"/>
+      <c r="T137" s="2"/>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>103</v>
       </c>
@@ -8449,9 +8622,10 @@
       <c r="N138" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="S138" s="2"/>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S138" s="43"/>
+      <c r="T138" s="2"/>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>104</v>
       </c>
@@ -8473,9 +8647,10 @@
       <c r="G139" s="10" t="s">
         <v>722</v>
       </c>
-      <c r="S139" s="2"/>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S139" s="43"/>
+      <c r="T139" s="2"/>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>105</v>
       </c>
@@ -8500,9 +8675,10 @@
       <c r="H140" s="10" t="s">
         <v>895</v>
       </c>
-      <c r="S140" s="2"/>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S140" s="43"/>
+      <c r="T140" s="2"/>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>106</v>
       </c>
@@ -8542,9 +8718,10 @@
       <c r="M141" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="S141" s="2"/>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S141" s="43"/>
+      <c r="T141" s="2"/>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>107</v>
       </c>
@@ -8593,9 +8770,10 @@
       <c r="P142" s="12" t="s">
         <v>837</v>
       </c>
-      <c r="S142" s="2"/>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S142" s="43"/>
+      <c r="T142" s="2"/>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>108</v>
       </c>
@@ -8641,9 +8819,10 @@
       <c r="O143" s="12" t="s">
         <v>886</v>
       </c>
-      <c r="S143" s="2"/>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S143" s="43"/>
+      <c r="T143" s="2"/>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>109</v>
       </c>
@@ -8665,9 +8844,10 @@
       <c r="G144" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="S144" s="2"/>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S144" s="43"/>
+      <c r="T144" s="2"/>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>814</v>
       </c>
@@ -8680,9 +8860,10 @@
       <c r="D145" s="11" t="s">
         <v>899</v>
       </c>
-      <c r="S145" s="2"/>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S145" s="43"/>
+      <c r="T145" s="2"/>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>110</v>
       </c>
@@ -8719,9 +8900,10 @@
       <c r="L146" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="S146" s="2"/>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S146" s="43"/>
+      <c r="T146" s="2"/>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>149</v>
       </c>
@@ -8740,9 +8922,10 @@
       <c r="F147" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="S147" s="2"/>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S147" s="43"/>
+      <c r="T147" s="2"/>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>111</v>
       </c>
@@ -8767,9 +8950,10 @@
       <c r="H148" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="S148" s="2"/>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S148" s="43"/>
+      <c r="T148" s="2"/>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>150</v>
       </c>
@@ -8809,9 +8993,13 @@
       <c r="M149" s="11" t="s">
         <v>824</v>
       </c>
-      <c r="S149" s="2"/>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N149" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="S149" s="43"/>
+      <c r="T149" s="2"/>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>112</v>
       </c>
@@ -8842,9 +9030,10 @@
       <c r="J150" s="8" t="s">
         <v>877</v>
       </c>
-      <c r="S150" s="2"/>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S150" s="43"/>
+      <c r="T150" s="2"/>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>113</v>
       </c>
@@ -8893,9 +9082,10 @@
       <c r="P151" s="6" t="s">
         <v>902</v>
       </c>
-      <c r="S151" s="2"/>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S151" s="43"/>
+      <c r="T151" s="2"/>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
@@ -8923,9 +9113,10 @@
       <c r="I152" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="S152" s="2"/>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S152" s="43"/>
+      <c r="T152" s="2"/>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>114</v>
       </c>
@@ -8956,9 +9147,13 @@
       <c r="J153" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="S153" s="2"/>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K153" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="S153" s="43"/>
+      <c r="T153" s="2"/>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>115</v>
       </c>
@@ -8986,9 +9181,10 @@
       <c r="I154" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="S154" s="2"/>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S154" s="43"/>
+      <c r="T154" s="2"/>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>116</v>
       </c>
@@ -9025,9 +9221,10 @@
       <c r="L155" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="S155" s="2"/>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S155" s="43"/>
+      <c r="T155" s="2"/>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>117</v>
       </c>
@@ -9070,9 +9267,10 @@
       <c r="N156" s="6" t="s">
         <v>842</v>
       </c>
-      <c r="S156" s="2"/>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S156" s="43"/>
+      <c r="T156" s="2"/>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>152</v>
       </c>
@@ -9091,9 +9289,10 @@
       <c r="F157" s="13" t="s">
         <v>881</v>
       </c>
-      <c r="S157" s="2"/>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S157" s="43"/>
+      <c r="T157" s="2"/>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>118</v>
       </c>
@@ -9121,9 +9320,10 @@
       <c r="I158" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="S158" s="2"/>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S158" s="43"/>
+      <c r="T158" s="2"/>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>119</v>
       </c>
@@ -9145,9 +9345,10 @@
       <c r="G159" s="13" t="s">
         <v>846</v>
       </c>
-      <c r="S159" s="2"/>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S159" s="43"/>
+      <c r="T159" s="2"/>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>154</v>
       </c>
@@ -9169,9 +9370,10 @@
       <c r="G160" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="S160" s="2"/>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S160" s="43"/>
+      <c r="T160" s="2"/>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>120</v>
       </c>
@@ -9208,9 +9410,10 @@
       <c r="L161" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="S161" s="2"/>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S161" s="43"/>
+      <c r="T161" s="2"/>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>827</v>
       </c>
@@ -9223,9 +9426,10 @@
       <c r="D162" s="13" t="s">
         <v>881</v>
       </c>
-      <c r="S162" s="2"/>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S162" s="43"/>
+      <c r="T162" s="2"/>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>121</v>
       </c>
@@ -9262,9 +9466,10 @@
       <c r="L163" s="11" t="s">
         <v>833</v>
       </c>
-      <c r="S163" s="2"/>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S163" s="43"/>
+      <c r="T163" s="2"/>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>122</v>
       </c>
@@ -9292,9 +9497,10 @@
       <c r="I164" s="9" t="s">
         <v>901</v>
       </c>
-      <c r="S164" s="2"/>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S164" s="43"/>
+      <c r="T164" s="2"/>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>153</v>
       </c>
@@ -9322,9 +9528,10 @@
       <c r="I165" s="10" t="s">
         <v>901</v>
       </c>
-      <c r="S165" s="2"/>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S165" s="43"/>
+      <c r="T165" s="2"/>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>123</v>
       </c>
@@ -9365,7 +9572,8 @@
       <c r="P166" s="3"/>
       <c r="Q166" s="3"/>
       <c r="R166" s="3"/>
-      <c r="S166" s="4"/>
+      <c r="S166" s="3"/>
+      <c r="T166" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="917">
   <si>
     <t>Aatrox</t>
   </si>
@@ -2760,6 +2760,21 @@
   </si>
   <si>
     <t>Prestige Broken Covenant</t>
+  </si>
+  <si>
+    <t>Faerie Queen</t>
+  </si>
+  <si>
+    <t>Faerie Court</t>
+  </si>
+  <si>
+    <t>Prestige Faerie Court</t>
+  </si>
+  <si>
+    <t>Ashen Guardian</t>
+  </si>
+  <si>
+    <t>Milio</t>
   </si>
 </sst>
 </file>
@@ -3075,12 +3090,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3088,6 +3097,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3418,10 +3433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T166"/>
+  <dimension ref="A1:T167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q108" sqref="Q108"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3487,27 +3502,27 @@
       <c r="A4" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
       <c r="R4" s="38"/>
       <c r="S4" s="3"/>
-      <c r="T4" s="45"/>
+      <c r="T4" s="43"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -3541,8 +3556,8 @@
         <v>501</v>
       </c>
       <c r="Q5" s="37"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="45"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="43"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -3596,7 +3611,7 @@
       <c r="Q6" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="S6" s="43"/>
+      <c r="S6" s="41"/>
       <c r="T6" s="2"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -3651,7 +3666,7 @@
       <c r="Q7" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="S7" s="43"/>
+      <c r="S7" s="41"/>
       <c r="T7" s="2"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -3667,7 +3682,7 @@
       <c r="D8" s="11" t="s">
         <v>677</v>
       </c>
-      <c r="S8" s="43"/>
+      <c r="S8" s="41"/>
       <c r="T8" s="2"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -3719,7 +3734,7 @@
       <c r="P9" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="S9" s="43"/>
+      <c r="S9" s="41"/>
       <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -3768,7 +3783,7 @@
       <c r="O10" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="S10" s="43"/>
+      <c r="S10" s="41"/>
       <c r="T10" s="2"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -3811,7 +3826,7 @@
       <c r="M11" s="11" t="s">
         <v>897</v>
       </c>
-      <c r="S11" s="43"/>
+      <c r="S11" s="41"/>
       <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -3866,7 +3881,7 @@
       <c r="Q12" s="7" t="s">
         <v>895</v>
       </c>
-      <c r="S12" s="43"/>
+      <c r="S12" s="41"/>
       <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -3888,7 +3903,7 @@
       <c r="F13" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="S13" s="43"/>
+      <c r="S13" s="41"/>
       <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -3943,7 +3958,7 @@
       <c r="Q14" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="S14" s="43"/>
+      <c r="S14" s="41"/>
       <c r="T14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -3962,7 +3977,7 @@
       <c r="E15" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="S15" s="43"/>
+      <c r="S15" s="41"/>
       <c r="T15" s="2"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -3990,7 +4005,7 @@
       <c r="H16" s="10" t="s">
         <v>896</v>
       </c>
-      <c r="S16" s="43"/>
+      <c r="S16" s="41"/>
       <c r="T16" s="2"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -4015,7 +4030,7 @@
       <c r="G17" s="11" t="s">
         <v>824</v>
       </c>
-      <c r="S17" s="43"/>
+      <c r="S17" s="41"/>
       <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -4028,7 +4043,7 @@
       <c r="C18" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="S18" s="43"/>
+      <c r="S18" s="41"/>
       <c r="T18" s="2"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -4080,7 +4095,7 @@
       <c r="P19" s="13" t="s">
         <v>893</v>
       </c>
-      <c r="S19" s="43"/>
+      <c r="S19" s="41"/>
       <c r="T19" s="2"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -4120,7 +4135,7 @@
       <c r="L20" s="11" t="s">
         <v>849</v>
       </c>
-      <c r="S20" s="43"/>
+      <c r="S20" s="41"/>
       <c r="T20" s="2"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -4151,7 +4166,7 @@
       <c r="I21" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="S21" s="43"/>
+      <c r="S21" s="41"/>
       <c r="T21" s="2"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -4206,7 +4221,7 @@
       <c r="Q22" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="S22" s="43"/>
+      <c r="S22" s="41"/>
       <c r="T22" s="2"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -4231,7 +4246,7 @@
       <c r="G23" s="10" t="s">
         <v>891</v>
       </c>
-      <c r="S23" s="43"/>
+      <c r="S23" s="41"/>
       <c r="T23" s="2"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -4265,7 +4280,7 @@
       <c r="J24" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="S24" s="43"/>
+      <c r="S24" s="41"/>
       <c r="T24" s="2"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -4302,7 +4317,7 @@
       <c r="K25" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="S25" s="43"/>
+      <c r="S25" s="41"/>
       <c r="T25" s="2"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -4342,7 +4357,7 @@
       <c r="L26" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="S26" s="43"/>
+      <c r="S26" s="41"/>
       <c r="T26" s="2"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -4385,7 +4400,7 @@
       <c r="M27" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="S27" s="43"/>
+      <c r="S27" s="41"/>
       <c r="T27" s="2"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -4428,7 +4443,7 @@
       <c r="M28" s="7" t="s">
         <v>901</v>
       </c>
-      <c r="S28" s="43"/>
+      <c r="S28" s="41"/>
       <c r="T28" s="2"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -4471,7 +4486,7 @@
       <c r="M29" s="11" t="s">
         <v>895</v>
       </c>
-      <c r="S29" s="43"/>
+      <c r="S29" s="41"/>
       <c r="T29" s="2"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -4511,7 +4526,7 @@
       <c r="L30" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="S30" s="43"/>
+      <c r="S30" s="41"/>
       <c r="T30" s="2"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -4551,7 +4566,7 @@
       <c r="L31" s="10" t="s">
         <v>868</v>
       </c>
-      <c r="S31" s="43"/>
+      <c r="S31" s="41"/>
       <c r="T31" s="2"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -4582,7 +4597,7 @@
       <c r="I32" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="S32" s="43"/>
+      <c r="S32" s="41"/>
       <c r="T32" s="2"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -4625,7 +4640,7 @@
       <c r="M33" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="S33" s="43"/>
+      <c r="S33" s="41"/>
       <c r="T33" s="2"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -4683,7 +4698,9 @@
       <c r="R34" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="S34" s="43"/>
+      <c r="S34" s="41" t="s">
+        <v>913</v>
+      </c>
       <c r="T34" s="2"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -4723,7 +4740,7 @@
       <c r="L35" s="10" t="s">
         <v>884</v>
       </c>
-      <c r="S35" s="43"/>
+      <c r="S35" s="41"/>
       <c r="T35" s="2"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -4769,7 +4786,10 @@
       <c r="N36" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="S36" s="43"/>
+      <c r="O36" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="S36" s="41"/>
       <c r="T36" s="2"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -4812,7 +4832,7 @@
       <c r="M37" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="S37" s="43"/>
+      <c r="S37" s="41"/>
       <c r="T37" s="2"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -4849,7 +4869,7 @@
       <c r="K38" s="9" t="s">
         <v>904</v>
       </c>
-      <c r="S38" s="43"/>
+      <c r="S38" s="41"/>
       <c r="T38" s="2"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -4892,7 +4912,7 @@
       <c r="M39" s="10" t="s">
         <v>841</v>
       </c>
-      <c r="S39" s="43"/>
+      <c r="S39" s="41"/>
       <c r="T39" s="2"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -4944,7 +4964,7 @@
       <c r="P40" s="6" t="s">
         <v>904</v>
       </c>
-      <c r="S40" s="43"/>
+      <c r="S40" s="41"/>
       <c r="T40" s="2"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -4978,7 +4998,7 @@
       <c r="J41" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="S41" s="43"/>
+      <c r="S41" s="41"/>
       <c r="T41" s="2"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -5024,7 +5044,7 @@
       <c r="N42" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="S42" s="43"/>
+      <c r="S42" s="41"/>
       <c r="T42" s="2"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -5070,7 +5090,7 @@
       <c r="N43" s="11" t="s">
         <v>846</v>
       </c>
-      <c r="S43" s="43"/>
+      <c r="S43" s="41"/>
       <c r="T43" s="2"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -5086,7 +5106,7 @@
       <c r="D44" s="10" t="s">
         <v>824</v>
       </c>
-      <c r="S44" s="43"/>
+      <c r="S44" s="41"/>
       <c r="T44" s="2"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
@@ -5126,7 +5146,7 @@
       <c r="L45" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="S45" s="43"/>
+      <c r="S45" s="41"/>
       <c r="T45" s="2"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
@@ -5160,7 +5180,7 @@
       <c r="J46" s="13" t="s">
         <v>832</v>
       </c>
-      <c r="S46" s="43"/>
+      <c r="S46" s="41"/>
       <c r="T46" s="2"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -5182,7 +5202,7 @@
       <c r="F47" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="S47" s="43"/>
+      <c r="S47" s="41"/>
       <c r="T47" s="2"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
@@ -5228,7 +5248,7 @@
       <c r="N48" s="7" t="s">
         <v>904</v>
       </c>
-      <c r="S48" s="43"/>
+      <c r="S48" s="41"/>
       <c r="T48" s="2"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
@@ -5250,7 +5270,7 @@
       <c r="F49" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="S49" s="43"/>
+      <c r="S49" s="41"/>
       <c r="T49" s="2"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
@@ -5302,7 +5322,7 @@
       <c r="P50" s="8" t="s">
         <v>889</v>
       </c>
-      <c r="S50" s="43"/>
+      <c r="S50" s="41"/>
       <c r="T50" s="2"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
@@ -5348,7 +5368,7 @@
       <c r="N51" s="7" t="s">
         <v>815</v>
       </c>
-      <c r="S51" s="43"/>
+      <c r="S51" s="41"/>
       <c r="T51" s="2"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
@@ -5400,7 +5420,7 @@
       <c r="P52" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="S52" s="43"/>
+      <c r="S52" s="41"/>
       <c r="T52" s="2"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
@@ -5434,7 +5454,7 @@
       <c r="J53" s="11" t="s">
         <v>893</v>
       </c>
-      <c r="S53" s="43"/>
+      <c r="S53" s="41"/>
       <c r="T53" s="2"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
@@ -5468,7 +5488,7 @@
       <c r="J54" s="6" t="s">
         <v>899</v>
       </c>
-      <c r="S54" s="43"/>
+      <c r="S54" s="41"/>
       <c r="T54" s="2"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
@@ -5511,7 +5531,7 @@
       <c r="M55" s="12" t="s">
         <v>858</v>
       </c>
-      <c r="S55" s="43"/>
+      <c r="S55" s="41"/>
       <c r="T55" s="2"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
@@ -5548,7 +5568,7 @@
       <c r="K56" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="S56" s="43"/>
+      <c r="S56" s="41"/>
       <c r="T56" s="2"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -5570,7 +5590,10 @@
       <c r="F57" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="S57" s="43"/>
+      <c r="G57" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="S57" s="41"/>
       <c r="T57" s="2"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -5616,7 +5639,10 @@
       <c r="N58" s="8" t="s">
         <v>820</v>
       </c>
-      <c r="S58" s="43"/>
+      <c r="O58" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="S58" s="41"/>
       <c r="T58" s="2"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
@@ -5650,7 +5676,7 @@
       <c r="J59" s="10" t="s">
         <v>812</v>
       </c>
-      <c r="S59" s="43"/>
+      <c r="S59" s="41"/>
       <c r="T59" s="2"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
@@ -5684,7 +5710,7 @@
       <c r="J60" s="40" t="s">
         <v>776</v>
       </c>
-      <c r="S60" s="43"/>
+      <c r="S60" s="41"/>
       <c r="T60" s="2"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
@@ -5736,7 +5762,13 @@
       <c r="P61" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="S61" s="43"/>
+      <c r="Q61" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="S61" s="41"/>
       <c r="T61" s="2"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
@@ -5785,7 +5817,7 @@
       <c r="O62" s="6" t="s">
         <v>840</v>
       </c>
-      <c r="S62" s="43"/>
+      <c r="S62" s="41"/>
       <c r="T62" s="2"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
@@ -5810,7 +5842,7 @@
       <c r="G63" s="7" t="s">
         <v>883</v>
       </c>
-      <c r="S63" s="43"/>
+      <c r="S63" s="41"/>
       <c r="T63" s="2"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
@@ -5850,7 +5882,7 @@
       <c r="L64" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="S64" s="43"/>
+      <c r="S64" s="41"/>
       <c r="T64" s="2"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
@@ -5881,7 +5913,7 @@
       <c r="I65" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="S65" s="43"/>
+      <c r="S65" s="41"/>
       <c r="T65" s="2"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
@@ -5903,7 +5935,7 @@
       <c r="F66" s="6" t="s">
         <v>826</v>
       </c>
-      <c r="S66" s="43"/>
+      <c r="S66" s="41"/>
       <c r="T66" s="2"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
@@ -5922,7 +5954,7 @@
       <c r="E67" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="S67" s="43"/>
+      <c r="S67" s="41"/>
       <c r="T67" s="2"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
@@ -5971,7 +6003,7 @@
       <c r="O68" s="11" t="s">
         <v>887</v>
       </c>
-      <c r="S68" s="43"/>
+      <c r="S68" s="41"/>
       <c r="T68" s="2"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
@@ -5987,7 +6019,7 @@
       <c r="D69" s="6" t="s">
         <v>900</v>
       </c>
-      <c r="S69" s="43"/>
+      <c r="S69" s="41"/>
       <c r="T69" s="2"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
@@ -6033,7 +6065,7 @@
       <c r="N70" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="S70" s="43"/>
+      <c r="S70" s="41"/>
       <c r="T70" s="2"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
@@ -6085,7 +6117,7 @@
       <c r="P71" s="11" t="s">
         <v>893</v>
       </c>
-      <c r="S71" s="43"/>
+      <c r="S71" s="41"/>
       <c r="T71" s="2"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
@@ -6137,7 +6169,7 @@
       <c r="P72" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="S72" s="43"/>
+      <c r="S72" s="41"/>
       <c r="T72" s="2"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
@@ -6153,7 +6185,7 @@
       <c r="D73" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="S73" s="43"/>
+      <c r="S73" s="41"/>
       <c r="T73" s="2"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
@@ -6187,7 +6219,7 @@
       <c r="J74" s="7" t="s">
         <v>865</v>
       </c>
-      <c r="S74" s="43"/>
+      <c r="S74" s="41"/>
       <c r="T74" s="2"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
@@ -6230,7 +6262,7 @@
       <c r="M75" s="11" t="s">
         <v>892</v>
       </c>
-      <c r="S75" s="43"/>
+      <c r="S75" s="41"/>
       <c r="T75" s="2"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
@@ -6273,7 +6305,7 @@
       <c r="M76" s="13" t="s">
         <v>886</v>
       </c>
-      <c r="S76" s="43"/>
+      <c r="S76" s="41"/>
       <c r="T76" s="2"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
@@ -6331,7 +6363,7 @@
       <c r="R77" s="8" t="s">
         <v>865</v>
       </c>
-      <c r="S77" s="44" t="s">
+      <c r="S77" s="42" t="s">
         <v>899</v>
       </c>
       <c r="T77" s="2"/>
@@ -6382,7 +6414,7 @@
       <c r="O78" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="S78" s="43"/>
+      <c r="S78" s="41"/>
       <c r="T78" s="2"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
@@ -6422,7 +6454,7 @@
       <c r="L79" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="S79" s="43"/>
+      <c r="S79" s="41"/>
       <c r="T79" s="2"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
@@ -6459,7 +6491,7 @@
       <c r="K80" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="S80" s="43"/>
+      <c r="S80" s="41"/>
       <c r="T80" s="2"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
@@ -6511,3069 +6543,3101 @@
       <c r="P81" s="13" t="s">
         <v>875</v>
       </c>
-      <c r="S81" s="43"/>
+      <c r="S81" s="41"/>
       <c r="T81" s="2"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>539</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>540</v>
-      </c>
-      <c r="H82" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="I82" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="J82" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="K82" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="L82" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M82" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="N82" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="O82" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="P82" s="6" t="s">
-        <v>867</v>
-      </c>
-      <c r="Q82" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="R82" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="S82" s="43" t="s">
-        <v>910</v>
-      </c>
-      <c r="T82" s="2" t="s">
-        <v>911</v>
-      </c>
+        <v>916</v>
+      </c>
+      <c r="B82" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="39" t="s">
+        <v>913</v>
+      </c>
+      <c r="D82" s="39"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="39"/>
+      <c r="K82" s="39"/>
+      <c r="L82" s="39"/>
+      <c r="M82" s="39"/>
+      <c r="N82" s="39"/>
+      <c r="O82" s="39"/>
+      <c r="P82" s="39"/>
+      <c r="S82" s="41"/>
+      <c r="T82" s="2"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>445</v>
+        <v>60</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>538</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="I83" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="J83" s="10" t="s">
-        <v>812</v>
-      </c>
-      <c r="K83" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="L83" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="S83" s="43"/>
-      <c r="T83" s="2"/>
+        <v>539</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="K83" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="L83" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M83" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="N83" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="O83" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="P83" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="Q83" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="R83" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="S83" s="41" t="s">
+        <v>910</v>
+      </c>
+      <c r="T83" s="2" t="s">
+        <v>911</v>
+      </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C84" s="13" t="s">
-        <v>544</v>
+      <c r="C84" s="11" t="s">
+        <v>542</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>547</v>
+        <v>177</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>299</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="I84" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="J84" s="8" t="s">
-        <v>327</v>
+        <v>543</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="I84" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="J84" s="10" t="s">
+        <v>812</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="L84" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="M84" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="N84" s="7" t="s">
-        <v>867</v>
-      </c>
-      <c r="O84" s="8" t="s">
-        <v>884</v>
-      </c>
-      <c r="S84" s="43"/>
+        <v>233</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="S84" s="41"/>
       <c r="T84" s="2"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>551</v>
+        <v>62</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>545</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="H85" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="J85" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="K85" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="I85" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="J85" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="L85" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="M85" s="6" t="s">
-        <v>864</v>
-      </c>
-      <c r="S85" s="43"/>
+      <c r="K85" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="M85" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="N85" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="O85" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="S85" s="41"/>
       <c r="T85" s="2"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>198</v>
+        <v>63</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>551</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="F86" s="12" t="s">
-        <v>555</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="H86" s="13" t="s">
-        <v>556</v>
-      </c>
-      <c r="I86" s="9" t="s">
-        <v>522</v>
+        <v>552</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>553</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="K86" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="L86" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="K86" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="L86" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="M86" s="10" t="s">
-        <v>890</v>
-      </c>
-      <c r="S86" s="43"/>
+      <c r="M86" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="S86" s="41"/>
       <c r="T86" s="2"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>559</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="G87" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H87" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="I87" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="H87" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="I87" s="6" t="s">
-        <v>431</v>
-      </c>
       <c r="J87" s="6" t="s">
-        <v>895</v>
-      </c>
-      <c r="S87" s="43"/>
+        <v>557</v>
+      </c>
+      <c r="K87" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="L87" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="M87" s="10" t="s">
+        <v>890</v>
+      </c>
+      <c r="S87" s="41"/>
       <c r="T87" s="2"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>868</v>
-      </c>
-      <c r="F88" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="I88" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="G88" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="S88" s="43"/>
+      <c r="J88" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="S88" s="41"/>
       <c r="T88" s="2"/>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>198</v>
+        <v>138</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="G89" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="H89" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="I89" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="J89" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="K89" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="L89" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="M89" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="N89" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="O89" s="11" t="s">
-        <v>881</v>
-      </c>
-      <c r="S89" s="43"/>
+      <c r="S89" s="41"/>
       <c r="T89" s="2"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="S90" s="43"/>
+        <v>66</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="J90" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="K90" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="L90" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="M90" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="O90" s="11" t="s">
+        <v>881</v>
+      </c>
+      <c r="S90" s="41"/>
       <c r="T90" s="2"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>564</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="F91" s="13" t="s">
-        <v>566</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="H91" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>807</v>
-      </c>
-      <c r="J91" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="S91" s="43"/>
+        <v>885</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="S91" s="41"/>
       <c r="T91" s="2"/>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>568</v>
+        <v>139</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>564</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>569</v>
+        <v>357</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="F92" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="H92" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="I92" s="13" t="s">
-        <v>257</v>
+        <v>565</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>807</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="K92" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="L92" s="10" t="s">
-        <v>834</v>
-      </c>
-      <c r="S92" s="43"/>
+        <v>194</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="S92" s="41"/>
       <c r="T92" s="2"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="E93" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="F93" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="G93" s="11" t="s">
-        <v>191</v>
+        <v>67</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>572</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="I93" s="10" t="s">
-        <v>192</v>
+        <v>321</v>
+      </c>
+      <c r="I93" s="13" t="s">
+        <v>257</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="K93" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="L93" s="13" t="s">
-        <v>812</v>
-      </c>
-      <c r="S93" s="43"/>
+        <v>212</v>
+      </c>
+      <c r="K93" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="L93" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="S93" s="41"/>
       <c r="T93" s="2"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>575</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>576</v>
+        <v>68</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>516</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>577</v>
-      </c>
-      <c r="F94" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="H94" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="I94" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="J94" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="K94" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="L94" s="8" t="s">
-        <v>831</v>
-      </c>
-      <c r="S94" s="43"/>
+        <v>573</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="I94" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="L94" s="13" t="s">
+        <v>812</v>
+      </c>
+      <c r="S94" s="41"/>
       <c r="T94" s="2"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>172</v>
+      <c r="C95" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>576</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="S95" s="43"/>
+        <v>577</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="H95" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K95" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="L95" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="S95" s="41"/>
       <c r="T95" s="2"/>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B96" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B96" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="D96" s="13" t="s">
-        <v>580</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="I96" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="J96" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="K96" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="L96" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="M96" s="6" t="s">
-        <v>869</v>
-      </c>
-      <c r="N96" s="10" t="s">
-        <v>839</v>
-      </c>
-      <c r="S96" s="43"/>
+        <v>578</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="S96" s="41"/>
       <c r="T96" s="2"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>585</v>
+        <v>70</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>580</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="F97" s="13" t="s">
-        <v>587</v>
-      </c>
-      <c r="G97" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="H97" s="11" t="s">
-        <v>589</v>
-      </c>
-      <c r="I97" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="J97" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="K97" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="L97" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="M97" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="S97" s="43"/>
+        <v>581</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="I97" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="J97" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="K97" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="N97" s="10" t="s">
+        <v>839</v>
+      </c>
+      <c r="S97" s="41"/>
       <c r="T97" s="2"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C98" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E98" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="H98" s="6" t="s">
-        <v>839</v>
-      </c>
-      <c r="I98" s="6" t="s">
-        <v>899</v>
-      </c>
-      <c r="S98" s="43"/>
+      <c r="C98" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="K98" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="L98" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="M98" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="S98" s="41"/>
       <c r="T98" s="2"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B99" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B99" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>870</v>
-      </c>
-      <c r="F99" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="S99" s="43"/>
+        <v>591</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="S99" s="41"/>
       <c r="T99" s="2"/>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B100" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C100" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="F100" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="G100" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="H100" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="S100" s="43"/>
+      <c r="C100" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>870</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="S100" s="41"/>
       <c r="T100" s="2"/>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B101" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C101" s="10" t="s">
-        <v>595</v>
+      <c r="C101" s="8" t="s">
+        <v>592</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="G101" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="H101" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="H101" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="I101" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="S101" s="43"/>
+      <c r="S101" s="41"/>
       <c r="T101" s="2"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>597</v>
+        <v>75</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>221</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>598</v>
-      </c>
-      <c r="F102" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="G102" s="13" t="s">
-        <v>599</v>
-      </c>
-      <c r="H102" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="I102" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="J102" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="K102" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="L102" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="S102" s="43"/>
+        <v>338</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="G102" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="H102" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="I102" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="S102" s="41"/>
       <c r="T102" s="2"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C103" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="F103" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="S103" s="43"/>
+      <c r="C103" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="F103" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="I103" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="J103" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="K103" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="L103" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="S103" s="41"/>
       <c r="T103" s="2"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="D104" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="S104" s="43"/>
+        <v>77</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="S104" s="41"/>
       <c r="T104" s="2"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>895</v>
-      </c>
-      <c r="S105" s="43"/>
+        <v>141</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="S105" s="41"/>
       <c r="T105" s="2"/>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>142</v>
+        <v>844</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C106" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>600</v>
-      </c>
-      <c r="E106" s="10" t="s">
-        <v>601</v>
-      </c>
-      <c r="F106" s="11" t="s">
-        <v>602</v>
-      </c>
-      <c r="G106" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="H106" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="I106" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="J106" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="K106" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="L106" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="M106" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="N106" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="S106" s="43"/>
+      <c r="C106" s="10" t="s">
+        <v>845</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="S106" s="41"/>
       <c r="T106" s="2"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>605</v>
+        <v>142</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>600</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G107" s="12" t="s">
-        <v>607</v>
-      </c>
-      <c r="H107" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="I107" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="S107" s="43"/>
+        <v>602</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="H107" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="J107" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="K107" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="L107" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="M107" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="N107" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="S107" s="41"/>
       <c r="T107" s="2"/>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>608</v>
-      </c>
-      <c r="D108" s="13" t="s">
-        <v>609</v>
-      </c>
-      <c r="E108" s="11" t="s">
-        <v>610</v>
-      </c>
-      <c r="F108" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G108" s="11" t="s">
-        <v>611</v>
-      </c>
-      <c r="H108" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I108" s="10" t="s">
-        <v>612</v>
-      </c>
-      <c r="J108" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="K108" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="L108" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="M108" s="8" t="s">
-        <v>871</v>
-      </c>
-      <c r="N108" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="O108" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="I108" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="P108" s="11" t="s">
-        <v>835</v>
-      </c>
-      <c r="Q108" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="S108" s="43"/>
+      <c r="S108" s="41"/>
       <c r="T108" s="2"/>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="B109" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C109" s="11" t="s">
-        <v>614</v>
+      <c r="C109" s="10" t="s">
+        <v>608</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>615</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>222</v>
+        <v>609</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>610</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>616</v>
-      </c>
-      <c r="G109" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="S109" s="43"/>
+        <v>231</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I109" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="K109" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="L109" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="M109" s="8" t="s">
+        <v>871</v>
+      </c>
+      <c r="N109" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="O109" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="P109" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="Q109" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="S109" s="41"/>
       <c r="T109" s="2"/>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="D110" s="11" t="s">
-        <v>618</v>
+        <v>143</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>615</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="H110" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="I110" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="J110" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="K110" s="11" t="s">
-        <v>624</v>
-      </c>
-      <c r="L110" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="M110" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="N110" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="O110" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="S110" s="43"/>
+        <v>222</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="S110" s="41"/>
       <c r="T110" s="2"/>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="D111" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="S111" s="43"/>
+        <v>80</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="H111" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="I111" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="J111" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="K111" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="L111" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="M111" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="N111" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O111" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="S111" s="41"/>
       <c r="T111" s="2"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="E112" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="F112" s="10" t="s">
-        <v>627</v>
-      </c>
-      <c r="G112" s="11" t="s">
-        <v>628</v>
-      </c>
-      <c r="H112" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="I112" s="13" t="s">
-        <v>629</v>
-      </c>
-      <c r="J112" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="K112" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="L112" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="M112" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="N112" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="S112" s="43"/>
+        <v>144</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="S112" s="41"/>
       <c r="T112" s="2"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="B113" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C113" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>870</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F113" s="13" t="s">
+      <c r="C113" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="F113" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="G113" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="H113" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="I113" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="J113" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="K113" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L113" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="G113" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="H113" s="9" t="s">
-        <v>872</v>
-      </c>
-      <c r="I113" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="S113" s="43"/>
+      <c r="M113" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="N113" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="S113" s="41"/>
       <c r="T113" s="2"/>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B114" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B114" s="10" t="s">
         <v>157</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>800</v>
+        <v>184</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>801</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>802</v>
-      </c>
-      <c r="F114" s="10" t="s">
-        <v>810</v>
+        <v>870</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>881</v>
-      </c>
-      <c r="H114" s="8" t="s">
-        <v>882</v>
-      </c>
-      <c r="S114" s="43"/>
+        <v>501</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="S114" s="41"/>
       <c r="T114" s="2"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>873</v>
-      </c>
-      <c r="F115" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G115" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="H115" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="S115" s="43"/>
+        <v>82</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="F115" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="G115" s="10" t="s">
+        <v>881</v>
+      </c>
+      <c r="H115" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="S115" s="41"/>
       <c r="T115" s="2"/>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C116" s="12" t="s">
-        <v>631</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>632</v>
-      </c>
-      <c r="E116" s="13" t="s">
-        <v>633</v>
-      </c>
-      <c r="F116" s="12" t="s">
-        <v>569</v>
+        <v>83</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>274</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="H116" s="10" t="s">
-        <v>635</v>
-      </c>
-      <c r="I116" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="J116" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="K116" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="L116" s="6" t="s">
-        <v>808</v>
-      </c>
-      <c r="M116" s="11" t="s">
-        <v>901</v>
-      </c>
-      <c r="S116" s="43"/>
+        <v>433</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="S116" s="41"/>
       <c r="T116" s="2"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>637</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>638</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="F117" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="G117" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="H117" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="I117" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="J117" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="K117" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="L117" s="9" t="s">
-        <v>776</v>
-      </c>
-      <c r="S117" s="43"/>
+        <v>84</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="E117" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="G117" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="H117" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="J117" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="K117" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="L117" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="M117" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="S117" s="41"/>
       <c r="T117" s="2"/>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B118" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B118" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>641</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>642</v>
-      </c>
-      <c r="E118" s="13" t="s">
-        <v>643</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="G118" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="H118" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="I118" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="S118" s="43"/>
+        <v>637</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="J118" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="K118" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="L118" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="S118" s="41"/>
       <c r="T118" s="2"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B119" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>645</v>
-      </c>
-      <c r="D119" s="21" t="s">
-        <v>194</v>
+        <v>86</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>642</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="F119" s="13" t="s">
-        <v>647</v>
+        <v>643</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>644</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>648</v>
-      </c>
-      <c r="H119" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="I119" s="13" t="s">
-        <v>606</v>
-      </c>
-      <c r="J119" s="10" t="s">
-        <v>649</v>
-      </c>
-      <c r="K119" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="L119" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="M119" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="S119" s="43"/>
+        <v>231</v>
+      </c>
+      <c r="H119" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="I119" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="S119" s="41"/>
       <c r="T119" s="2"/>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C120" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="D120" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="D120" s="11" t="s">
-        <v>651</v>
-      </c>
-      <c r="E120" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="F120" s="11" t="s">
-        <v>653</v>
-      </c>
-      <c r="G120" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="H120" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="I120" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="J120" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="S120" s="43"/>
+      <c r="E120" s="13" t="s">
+        <v>646</v>
+      </c>
+      <c r="F120" s="13" t="s">
+        <v>647</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="I120" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="J120" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="K120" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="L120" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="S120" s="41"/>
       <c r="T120" s="2"/>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C121" s="14" t="s">
-        <v>655</v>
+        <v>88</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>656</v>
-      </c>
-      <c r="E121" s="13" t="s">
-        <v>657</v>
-      </c>
-      <c r="F121" s="10" t="s">
-        <v>658</v>
-      </c>
-      <c r="G121" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>659</v>
+        <v>651</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="H121" s="10" t="s">
+        <v>522</v>
       </c>
       <c r="I121" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="J121" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="K121" s="11" t="s">
-        <v>660</v>
-      </c>
-      <c r="L121" s="10" t="s">
-        <v>661</v>
-      </c>
-      <c r="M121" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="N121" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="O121" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="P121" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q121" s="6" t="s">
-        <v>904</v>
-      </c>
-      <c r="R121" s="7" t="s">
-        <v>905</v>
-      </c>
-      <c r="S121" s="43"/>
+        <v>196</v>
+      </c>
+      <c r="J121" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="S121" s="41"/>
       <c r="T121" s="2"/>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>662</v>
-      </c>
-      <c r="D122" s="13" t="s">
-        <v>663</v>
-      </c>
-      <c r="E122" s="11" t="s">
-        <v>664</v>
+        <v>89</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>657</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>418</v>
+        <v>658</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>665</v>
-      </c>
-      <c r="S122" s="43"/>
+        <v>422</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="I122" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="J122" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="K122" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="L122" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="M122" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="N122" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="O122" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="P122" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q122" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="R122" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="S122" s="41"/>
       <c r="T122" s="2"/>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B123" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B123" s="10" t="s">
         <v>157</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>666</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>667</v>
+        <v>662</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>664</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="G123" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="H123" s="11" t="s">
-        <v>669</v>
-      </c>
-      <c r="I123" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="J123" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="K123" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="L123" s="13" t="s">
-        <v>812</v>
-      </c>
-      <c r="M123" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="S123" s="43"/>
+        <v>418</v>
+      </c>
+      <c r="G123" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="S123" s="41"/>
       <c r="T123" s="2"/>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>670</v>
-      </c>
-      <c r="D124" s="10" t="s">
-        <v>671</v>
-      </c>
-      <c r="E124" s="13" t="s">
-        <v>672</v>
+        <v>90</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>667</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="G124" s="10" t="s">
-        <v>673</v>
+        <v>668</v>
+      </c>
+      <c r="G124" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="H124" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="I124" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="I124" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="J124" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="K124" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="L124" s="13" t="s">
+        <v>812</v>
+      </c>
+      <c r="M124" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="J124" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="K124" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="L124" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="M124" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="N124" s="7" t="s">
-        <v>868</v>
-      </c>
-      <c r="O124" s="11" t="s">
-        <v>824</v>
-      </c>
-      <c r="P124" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="S124" s="43"/>
+      <c r="S124" s="41"/>
       <c r="T124" s="2"/>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B125" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B125" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>674</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>675</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="G125" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="H125" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="I125" s="10" t="s">
-        <v>901</v>
-      </c>
-      <c r="S125" s="43"/>
+        <v>670</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="E125" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="F125" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="G125" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="H125" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J125" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="L125" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="M125" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="N125" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="O125" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="P125" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="S125" s="41"/>
       <c r="T125" s="2"/>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E126" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="F126" s="11" t="s">
-        <v>856</v>
-      </c>
-      <c r="G126" s="13" t="s">
-        <v>838</v>
-      </c>
-      <c r="H126" s="9" t="s">
-        <v>894</v>
-      </c>
-      <c r="S126" s="43"/>
+        <v>147</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="I126" s="10" t="s">
+        <v>901</v>
+      </c>
+      <c r="S126" s="41"/>
       <c r="T126" s="2"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B127" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>354</v>
+        <v>92</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>678</v>
+        <v>183</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G127" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="H127" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="I127" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="J127" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="K127" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="L127" s="5" t="s">
-        <v>868</v>
-      </c>
-      <c r="M127" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="S127" s="43"/>
+        <v>856</v>
+      </c>
+      <c r="G127" s="13" t="s">
+        <v>838</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="S127" s="41"/>
       <c r="T127" s="2"/>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B128" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C128" s="9" t="s">
-        <v>680</v>
-      </c>
-      <c r="D128" s="12" t="s">
-        <v>681</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="F128" s="6" t="s">
-        <v>279</v>
+      <c r="C128" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="S128" s="43"/>
+        <v>192</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I128" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="J128" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="K128" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="L128" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="M128" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="S128" s="41"/>
       <c r="T128" s="2"/>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B129" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="E129" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="F129" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="S129" s="43"/>
+        <v>94</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="S129" s="41"/>
       <c r="T129" s="2"/>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>683</v>
-      </c>
-      <c r="D130" s="13" t="s">
-        <v>609</v>
-      </c>
-      <c r="E130" s="10" t="s">
-        <v>611</v>
-      </c>
-      <c r="F130" s="10" t="s">
-        <v>606</v>
-      </c>
-      <c r="G130" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="H130" s="8" t="s">
-        <v>684</v>
-      </c>
-      <c r="I130" s="11" t="s">
-        <v>685</v>
-      </c>
-      <c r="J130" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="K130" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="L130" s="6" t="s">
-        <v>874</v>
-      </c>
-      <c r="S130" s="43"/>
+        <v>95</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E130" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="F130" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="S130" s="41"/>
       <c r="T130" s="2"/>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="B131" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C131" s="8" t="s">
-        <v>686</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>687</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="F131" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="G131" s="10" t="s">
-        <v>688</v>
-      </c>
-      <c r="H131" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="S131" s="43"/>
+      <c r="C131" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="D131" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="F131" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="I131" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="J131" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="K131" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="L131" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="S131" s="41"/>
       <c r="T131" s="2"/>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>689</v>
-      </c>
-      <c r="D132" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="E132" s="13" t="s">
-        <v>691</v>
+        <v>148</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>502</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="G132" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="H132" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="I132" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="J132" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="K132" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="L132" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="M132" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="N132" s="10" t="s">
-        <v>875</v>
-      </c>
-      <c r="O132" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="P132" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G132" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="H132" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="S132" s="43"/>
+      <c r="S132" s="41"/>
       <c r="T132" s="2"/>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>161</v>
+        <v>97</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="E133" s="13" t="s">
+        <v>691</v>
       </c>
       <c r="F133" s="13" t="s">
-        <v>606</v>
+        <v>241</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="H133" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="I133" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="J133" s="13" t="s">
-        <v>863</v>
+        <v>358</v>
+      </c>
+      <c r="H133" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="I133" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="J133" s="9" t="s">
+        <v>359</v>
       </c>
       <c r="K133" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="L133" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="L133" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="M133" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="M133" s="11" t="s">
-        <v>805</v>
-      </c>
-      <c r="N133" s="8" t="s">
-        <v>819</v>
-      </c>
-      <c r="O133" s="8" t="s">
-        <v>906</v>
-      </c>
-      <c r="S133" s="43"/>
+      <c r="N133" s="10" t="s">
+        <v>875</v>
+      </c>
+      <c r="O133" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="P133" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="S133" s="41"/>
       <c r="T133" s="2"/>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C134" s="13" t="s">
-        <v>694</v>
+        <v>98</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>693</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="E134" s="11" t="s">
-        <v>696</v>
+        <v>231</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>697</v>
+        <v>606</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="H134" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="I134" s="6" t="s">
-        <v>404</v>
+        <v>290</v>
+      </c>
+      <c r="H134" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="I134" s="13" t="s">
+        <v>273</v>
       </c>
       <c r="J134" s="13" t="s">
-        <v>327</v>
+        <v>863</v>
       </c>
       <c r="K134" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="L134" s="13" t="s">
-        <v>700</v>
-      </c>
-      <c r="M134" s="13" t="s">
-        <v>701</v>
+        <v>374</v>
+      </c>
+      <c r="L134" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="M134" s="11" t="s">
+        <v>805</v>
       </c>
       <c r="N134" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="O134" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="P134" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="S134" s="43"/>
+        <v>819</v>
+      </c>
+      <c r="O134" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="S134" s="41"/>
       <c r="T134" s="2"/>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B135" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B135" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>702</v>
-      </c>
-      <c r="D135" s="13" t="s">
-        <v>703</v>
+        <v>694</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>695</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>439</v>
+        <v>696</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="H135" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="I135" s="9" t="s">
-        <v>895</v>
-      </c>
-      <c r="P135" s="39"/>
-      <c r="S135" s="43"/>
+        <v>698</v>
+      </c>
+      <c r="H135" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="I135" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="J135" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="K135" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="L135" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="M135" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="N135" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="O135" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="P135" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="S135" s="41"/>
       <c r="T135" s="2"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B136" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C136" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>596</v>
+      <c r="C136" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="D136" s="13" t="s">
+        <v>703</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>706</v>
+        <v>439</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="H136" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="I136" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="J136" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="K136" s="11" t="s">
-        <v>708</v>
-      </c>
-      <c r="L136" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="M136" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="S136" s="43"/>
+        <v>522</v>
+      </c>
+      <c r="H136" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="I136" s="9" t="s">
+        <v>895</v>
+      </c>
+      <c r="P136" s="39"/>
+      <c r="S136" s="41"/>
       <c r="T136" s="2"/>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C137" s="13" t="s">
-        <v>422</v>
+        <v>101</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>705</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="E137" s="13" t="s">
-        <v>829</v>
-      </c>
-      <c r="F137" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="G137" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="H137" s="13" t="s">
-        <v>710</v>
-      </c>
-      <c r="I137" s="10" t="s">
-        <v>711</v>
+        <v>596</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="F137" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="G137" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="H137" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="I137" s="11" t="s">
+        <v>285</v>
       </c>
       <c r="J137" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="K137" s="13" t="s">
-        <v>712</v>
-      </c>
-      <c r="L137" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="K137" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="L137" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="M137" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="N137" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="O137" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="P137" s="8" t="s">
-        <v>808</v>
-      </c>
-      <c r="Q137" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="S137" s="43"/>
+      <c r="M137" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="S137" s="41"/>
       <c r="T137" s="2"/>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B138" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C138" s="11" t="s">
-        <v>713</v>
-      </c>
-      <c r="D138" s="12" t="s">
-        <v>714</v>
+        <v>102</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>709</v>
       </c>
       <c r="E138" s="13" t="s">
-        <v>715</v>
-      </c>
-      <c r="F138" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="G138" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="H138" s="11" t="s">
-        <v>716</v>
-      </c>
-      <c r="I138" s="13" t="s">
-        <v>606</v>
-      </c>
-      <c r="J138" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="K138" s="10" t="s">
-        <v>717</v>
-      </c>
-      <c r="L138" s="10" t="s">
-        <v>718</v>
-      </c>
-      <c r="M138" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="N138" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="G138" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="S138" s="43"/>
+      <c r="H138" s="13" t="s">
+        <v>710</v>
+      </c>
+      <c r="I138" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="J138" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="K138" s="13" t="s">
+        <v>712</v>
+      </c>
+      <c r="L138" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="M138" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="N138" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="O138" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="P138" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="Q138" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="S138" s="41"/>
       <c r="T138" s="2"/>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B139" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C139" s="13" t="s">
-        <v>719</v>
-      </c>
-      <c r="D139" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="E139" s="10" t="s">
-        <v>721</v>
-      </c>
-      <c r="F139" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="G139" s="10" t="s">
-        <v>722</v>
-      </c>
-      <c r="S139" s="43"/>
+        <v>103</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="E139" s="13" t="s">
+        <v>715</v>
+      </c>
+      <c r="F139" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="G139" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="H139" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="I139" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="J139" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="K139" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="L139" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="M139" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="N139" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="S139" s="41"/>
       <c r="T139" s="2"/>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>799</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>574</v>
+        <v>104</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>720</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="F140" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="G140" s="13" t="s">
-        <v>723</v>
-      </c>
-      <c r="H140" s="10" t="s">
-        <v>895</v>
-      </c>
-      <c r="S140" s="43"/>
+        <v>721</v>
+      </c>
+      <c r="F140" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="G140" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="S140" s="41"/>
       <c r="T140" s="2"/>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C141" s="11" t="s">
-        <v>724</v>
-      </c>
-      <c r="D141" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E141" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="F141" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="G141" s="10" t="s">
-        <v>725</v>
+      <c r="C141" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="F141" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G141" s="13" t="s">
+        <v>723</v>
       </c>
       <c r="H141" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="I141" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="J141" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="K141" s="8" t="s">
-        <v>726</v>
-      </c>
-      <c r="L141" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="M141" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="S141" s="43"/>
+        <v>895</v>
+      </c>
+      <c r="S141" s="41"/>
       <c r="T141" s="2"/>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="D142" s="12" t="s">
-        <v>728</v>
-      </c>
-      <c r="E142" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="F142" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="F142" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="G142" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="H142" s="8" t="s">
-        <v>259</v>
+      <c r="G142" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="H142" s="10" t="s">
+        <v>290</v>
       </c>
       <c r="I142" s="8" t="s">
-        <v>729</v>
+        <v>195</v>
       </c>
       <c r="J142" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="K142" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="L142" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="K142" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="L142" s="10" t="s">
-        <v>876</v>
-      </c>
-      <c r="M142" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="N142" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="O142" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="P142" s="12" t="s">
-        <v>837</v>
-      </c>
-      <c r="S142" s="43"/>
+      <c r="M142" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="S142" s="41"/>
       <c r="T142" s="2"/>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C143" s="12" t="s">
-        <v>730</v>
+        <v>107</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>727</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>731</v>
-      </c>
-      <c r="E143" s="11" t="s">
-        <v>732</v>
-      </c>
-      <c r="F143" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="G143" s="13" t="s">
-        <v>734</v>
-      </c>
-      <c r="H143" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="I143" s="13" t="s">
-        <v>736</v>
-      </c>
-      <c r="J143" s="10" t="s">
-        <v>737</v>
+        <v>728</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G143" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H143" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I143" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="J143" s="11" t="s">
+        <v>183</v>
       </c>
       <c r="K143" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="L143" s="13" t="s">
-        <v>172</v>
+        <v>433</v>
+      </c>
+      <c r="L143" s="10" t="s">
+        <v>876</v>
       </c>
       <c r="M143" s="10" t="s">
-        <v>738</v>
+        <v>173</v>
       </c>
       <c r="N143" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="O143" s="12" t="s">
-        <v>886</v>
-      </c>
-      <c r="S143" s="43"/>
+        <v>374</v>
+      </c>
+      <c r="O143" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="P143" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="S143" s="41"/>
       <c r="T143" s="2"/>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="E144" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="F144" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="G144" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="S144" s="43"/>
+        <v>108</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="F144" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="G144" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="H144" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="I144" s="13" t="s">
+        <v>736</v>
+      </c>
+      <c r="J144" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="K144" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="L144" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="M144" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="N144" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="O144" s="12" t="s">
+        <v>886</v>
+      </c>
+      <c r="S144" s="41"/>
       <c r="T144" s="2"/>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="B145" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C145" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D145" s="11" t="s">
-        <v>899</v>
-      </c>
-      <c r="S145" s="43"/>
+        <v>109</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="S145" s="41"/>
       <c r="T145" s="2"/>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C146" s="13" t="s">
-        <v>739</v>
-      </c>
-      <c r="D146" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="E146" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="F146" s="13" t="s">
-        <v>740</v>
-      </c>
-      <c r="G146" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="H146" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I146" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="J146" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="K146" s="9" t="s">
-        <v>822</v>
-      </c>
-      <c r="L146" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="S146" s="43"/>
+        <v>814</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>899</v>
+      </c>
+      <c r="S146" s="41"/>
       <c r="T146" s="2"/>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D147" s="11" t="s">
-        <v>813</v>
+        <v>110</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="D147" s="13" t="s">
+        <v>271</v>
       </c>
       <c r="E147" s="13" t="s">
-        <v>846</v>
-      </c>
-      <c r="F147" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="S147" s="43"/>
+        <v>336</v>
+      </c>
+      <c r="F147" s="13" t="s">
+        <v>740</v>
+      </c>
+      <c r="G147" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="H147" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="I147" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="J147" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="K147" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="S147" s="41"/>
       <c r="T147" s="2"/>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C148" s="13" t="s">
-        <v>742</v>
+      <c r="C148" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>743</v>
-      </c>
-      <c r="E148" s="10" t="s">
-        <v>744</v>
+        <v>813</v>
+      </c>
+      <c r="E148" s="13" t="s">
+        <v>846</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="G148" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="H148" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="S148" s="43"/>
+        <v>596</v>
+      </c>
+      <c r="S148" s="41"/>
       <c r="T148" s="2"/>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="D149" s="9" t="s">
-        <v>745</v>
-      </c>
-      <c r="E149" s="13" t="s">
-        <v>746</v>
-      </c>
-      <c r="F149" s="13" t="s">
-        <v>255</v>
+        <v>111</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>459</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>747</v>
-      </c>
-      <c r="H149" s="9" t="s">
-        <v>729</v>
-      </c>
-      <c r="I149" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="J149" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="K149" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="L149" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="M149" s="11" t="s">
-        <v>824</v>
-      </c>
-      <c r="N149" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="S149" s="43"/>
+        <v>340</v>
+      </c>
+      <c r="H149" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="S149" s="41"/>
       <c r="T149" s="2"/>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="D150" s="11" t="s">
-        <v>749</v>
-      </c>
-      <c r="E150" s="10" t="s">
-        <v>750</v>
-      </c>
-      <c r="F150" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="G150" s="13" t="s">
-        <v>751</v>
-      </c>
-      <c r="H150" s="8" t="s">
-        <v>752</v>
-      </c>
-      <c r="I150" s="6" t="s">
-        <v>821</v>
-      </c>
-      <c r="J150" s="8" t="s">
-        <v>877</v>
-      </c>
-      <c r="S150" s="43"/>
+        <v>150</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="F150" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="G150" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="H150" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="I150" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J150" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="K150" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="L150" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="M150" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="N150" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="S150" s="41"/>
       <c r="T150" s="2"/>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C151" s="11" t="s">
-        <v>753</v>
-      </c>
-      <c r="D151" s="13" t="s">
-        <v>754</v>
-      </c>
-      <c r="E151" s="13" t="s">
-        <v>755</v>
+        <v>112</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="E151" s="10" t="s">
+        <v>750</v>
       </c>
       <c r="F151" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="G151" s="11" t="s">
-        <v>757</v>
+        <v>373</v>
+      </c>
+      <c r="G151" s="13" t="s">
+        <v>751</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="I151" s="13" t="s">
-        <v>759</v>
-      </c>
-      <c r="J151" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="K151" s="13" t="s">
-        <v>760</v>
-      </c>
-      <c r="L151" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="M151" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="N151" s="8" t="s">
-        <v>807</v>
-      </c>
-      <c r="O151" s="11" t="s">
-        <v>901</v>
-      </c>
-      <c r="P151" s="6" t="s">
-        <v>902</v>
-      </c>
-      <c r="S151" s="43"/>
+        <v>752</v>
+      </c>
+      <c r="I151" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="J151" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="S151" s="41"/>
       <c r="T151" s="2"/>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B152" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C152" s="13" t="s">
-        <v>761</v>
-      </c>
-      <c r="D152" s="9" t="s">
-        <v>762</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>763</v>
+        <v>113</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D152" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="E152" s="13" t="s">
+        <v>755</v>
       </c>
       <c r="F152" s="11" t="s">
-        <v>711</v>
-      </c>
-      <c r="G152" s="10" t="s">
-        <v>764</v>
+        <v>756</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>757</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>765</v>
-      </c>
-      <c r="I152" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="S152" s="43"/>
+        <v>758</v>
+      </c>
+      <c r="I152" s="13" t="s">
+        <v>759</v>
+      </c>
+      <c r="J152" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="K152" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="L152" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="M152" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="N152" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="O152" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="P152" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="S152" s="41"/>
       <c r="T152" s="2"/>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>766</v>
-      </c>
-      <c r="D153" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="E153" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="F153" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G153" s="8" t="s">
-        <v>172</v>
+        <v>151</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="F153" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="G153" s="10" t="s">
+        <v>764</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>809</v>
-      </c>
-      <c r="I153" s="8" t="s">
-        <v>878</v>
-      </c>
-      <c r="J153" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="K153" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="S153" s="43"/>
+        <v>765</v>
+      </c>
+      <c r="I153" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="S153" s="41"/>
       <c r="T153" s="2"/>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B154" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C154" s="11" t="s">
-        <v>767</v>
-      </c>
-      <c r="D154" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="E154" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="F154" s="11" t="s">
-        <v>418</v>
+        <v>114</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="G154" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="H154" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="H154" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="I154" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="J154" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="I154" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="S154" s="43"/>
+      <c r="K154" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="S154" s="41"/>
       <c r="T154" s="2"/>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B155" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B155" s="10" t="s">
         <v>157</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="D155" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="E155" s="10" t="s">
-        <v>768</v>
-      </c>
-      <c r="F155" s="8" t="s">
-        <v>769</v>
-      </c>
-      <c r="G155" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="H155" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="I155" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="J155" s="5" t="s">
-        <v>770</v>
-      </c>
-      <c r="K155" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="L155" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="S155" s="43"/>
+        <v>767</v>
+      </c>
+      <c r="D155" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="E155" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="F155" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="G155" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="H155" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="S155" s="41"/>
       <c r="T155" s="2"/>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C156" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D156" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E156" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F156" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G156" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="H156" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="I156" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="J156" s="10" t="s">
-        <v>870</v>
-      </c>
-      <c r="K156" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L156" s="7" t="s">
-        <v>816</v>
-      </c>
-      <c r="M156" s="5" t="s">
-        <v>817</v>
-      </c>
-      <c r="N156" s="6" t="s">
-        <v>842</v>
-      </c>
-      <c r="S156" s="43"/>
+      <c r="C156" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="E156" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="G156" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="H156" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="I156" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="J156" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="K156" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="L156" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="S156" s="41"/>
       <c r="T156" s="2"/>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C157" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G157" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H157" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="I157" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J157" s="10" t="s">
+        <v>870</v>
+      </c>
+      <c r="K157" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D157" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="E157" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="F157" s="13" t="s">
-        <v>881</v>
-      </c>
-      <c r="S157" s="43"/>
+      <c r="L157" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="M157" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="N157" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="S157" s="41"/>
       <c r="T157" s="2"/>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>771</v>
-      </c>
-      <c r="D158" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="E158" s="8" t="s">
-        <v>259</v>
+        <v>152</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="F158" s="13" t="s">
-        <v>772</v>
-      </c>
-      <c r="G158" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="H158" s="12" t="s">
-        <v>812</v>
-      </c>
-      <c r="I158" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="S158" s="43"/>
+        <v>881</v>
+      </c>
+      <c r="S158" s="41"/>
       <c r="T158" s="2"/>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C159" s="11" t="s">
-        <v>773</v>
+        <v>118</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>771</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="E159" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="F159" s="9" t="s">
-        <v>327</v>
+        <v>445</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F159" s="13" t="s">
+        <v>772</v>
       </c>
       <c r="G159" s="13" t="s">
-        <v>846</v>
-      </c>
-      <c r="S159" s="43"/>
+        <v>267</v>
+      </c>
+      <c r="H159" s="12" t="s">
+        <v>812</v>
+      </c>
+      <c r="I159" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="S159" s="41"/>
       <c r="T159" s="2"/>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B160" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B160" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>775</v>
-      </c>
-      <c r="D160" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E160" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="F160" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="G160" s="10" t="s">
-        <v>899</v>
-      </c>
-      <c r="S160" s="43"/>
+        <v>773</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="G160" s="13" t="s">
+        <v>846</v>
+      </c>
+      <c r="S160" s="41"/>
       <c r="T160" s="2"/>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="D161" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="D161" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E161" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E161" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F161" s="7" t="s">
-        <v>231</v>
+      <c r="F161" s="10" t="s">
+        <v>482</v>
       </c>
       <c r="G161" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="H161" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="I161" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="J161" s="6" t="s">
-        <v>856</v>
-      </c>
-      <c r="K161" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="L161" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="S161" s="43"/>
+      <c r="S161" s="41"/>
       <c r="T161" s="2"/>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="B162" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C162" s="11" t="s">
-        <v>679</v>
-      </c>
-      <c r="D162" s="13" t="s">
-        <v>881</v>
-      </c>
-      <c r="S162" s="43"/>
+        <v>120</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E162" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F162" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G162" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="H162" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="I162" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="J162" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="K162" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="L162" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="S162" s="41"/>
       <c r="T162" s="2"/>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B163" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C163" s="13" t="s">
-        <v>647</v>
+        <v>827</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>679</v>
       </c>
       <c r="D163" s="13" t="s">
-        <v>778</v>
-      </c>
-      <c r="E163" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="F163" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G163" s="8" t="s">
-        <v>779</v>
-      </c>
-      <c r="H163" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="I163" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="J163" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="K163" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="L163" s="11" t="s">
-        <v>833</v>
-      </c>
-      <c r="S163" s="43"/>
+        <v>881</v>
+      </c>
+      <c r="S163" s="41"/>
       <c r="T163" s="2"/>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B164" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>780</v>
-      </c>
-      <c r="D164" s="12" t="s">
-        <v>781</v>
+        <v>647</v>
+      </c>
+      <c r="D164" s="13" t="s">
+        <v>778</v>
       </c>
       <c r="E164" s="11" t="s">
-        <v>782</v>
-      </c>
-      <c r="F164" s="13" t="s">
-        <v>783</v>
-      </c>
-      <c r="G164" s="6" t="s">
-        <v>161</v>
+        <v>274</v>
+      </c>
+      <c r="F164" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G164" s="8" t="s">
+        <v>779</v>
       </c>
       <c r="H164" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="I164" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J164" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I164" s="9" t="s">
-        <v>901</v>
-      </c>
-      <c r="S164" s="43"/>
+      <c r="K164" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="L164" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="S164" s="41"/>
       <c r="T164" s="2"/>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C165" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="D165" s="12" t="s">
+        <v>781</v>
+      </c>
+      <c r="E165" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="F165" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="G165" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H165" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="I165" s="9" t="s">
+        <v>901</v>
+      </c>
+      <c r="S165" s="41"/>
+      <c r="T165" s="2"/>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B165" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C165" s="10" t="s">
+      <c r="B166" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C166" s="10" t="s">
         <v>784</v>
       </c>
-      <c r="D165" s="10" t="s">
+      <c r="D166" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E165" s="8" t="s">
+      <c r="E166" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="F165" s="9" t="s">
+      <c r="F166" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="G165" s="9" t="s">
+      <c r="G166" s="9" t="s">
         <v>879</v>
       </c>
-      <c r="H165" s="10" t="s">
+      <c r="H166" s="10" t="s">
         <v>846</v>
       </c>
-      <c r="I165" s="10" t="s">
+      <c r="I166" s="10" t="s">
         <v>901</v>
       </c>
-      <c r="S165" s="43"/>
-      <c r="T165" s="2"/>
-    </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
+      <c r="S166" s="41"/>
+      <c r="T166" s="2"/>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B166" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C166" s="17" t="s">
+      <c r="B167" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C167" s="17" t="s">
         <v>785</v>
       </c>
-      <c r="D166" s="18" t="s">
+      <c r="D167" s="18" t="s">
         <v>527</v>
       </c>
-      <c r="E166" s="20" t="s">
+      <c r="E167" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="F166" s="19" t="s">
+      <c r="F167" s="19" t="s">
         <v>786</v>
       </c>
-      <c r="G166" s="16" t="s">
+      <c r="G167" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="H166" s="18" t="s">
+      <c r="H167" s="18" t="s">
         <v>861</v>
       </c>
-      <c r="I166" s="36" t="s">
+      <c r="I167" s="36" t="s">
         <v>677</v>
       </c>
-      <c r="J166" s="18" t="s">
+      <c r="J167" s="18" t="s">
         <v>808</v>
       </c>
-      <c r="K166" s="18" t="s">
+      <c r="K167" s="18" t="s">
         <v>904</v>
       </c>
-      <c r="L166" s="3"/>
-      <c r="M166" s="3"/>
-      <c r="N166" s="3"/>
-      <c r="O166" s="3"/>
-      <c r="P166" s="3"/>
-      <c r="Q166" s="3"/>
-      <c r="R166" s="3"/>
-      <c r="S166" s="3"/>
-      <c r="T166" s="4"/>
+      <c r="L167" s="3"/>
+      <c r="M167" s="3"/>
+      <c r="N167" s="3"/>
+      <c r="O167" s="3"/>
+      <c r="P167" s="3"/>
+      <c r="Q167" s="3"/>
+      <c r="R167" s="3"/>
+      <c r="S167" s="3"/>
+      <c r="T167" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="922">
   <si>
     <t>Aatrox</t>
   </si>
@@ -2775,6 +2775,21 @@
   </si>
   <si>
     <t>Milio</t>
+  </si>
+  <si>
+    <t>Three Honors</t>
+  </si>
+  <si>
+    <t>Kittalee</t>
+  </si>
+  <si>
+    <t>Shiba</t>
+  </si>
+  <si>
+    <t>Kibble-Head</t>
+  </si>
+  <si>
+    <t>Woof &amp; Lamb</t>
   </si>
 </sst>
 </file>
@@ -3435,8 +3450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5113,7 +5128,7 @@
       <c r="A45" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="39" t="s">
         <v>157</v>
       </c>
       <c r="C45" s="13" t="s">
@@ -5935,6 +5950,9 @@
       <c r="F66" s="6" t="s">
         <v>826</v>
       </c>
+      <c r="G66" s="1" t="s">
+        <v>921</v>
+      </c>
       <c r="S66" s="41"/>
       <c r="T66" s="2"/>
     </row>
@@ -5954,6 +5972,9 @@
       <c r="E67" s="13" t="s">
         <v>191</v>
       </c>
+      <c r="F67" s="1" t="s">
+        <v>920</v>
+      </c>
       <c r="S67" s="41"/>
       <c r="T67" s="2"/>
     </row>
@@ -6453,6 +6474,9 @@
       </c>
       <c r="L79" s="11" t="s">
         <v>336</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>917</v>
       </c>
       <c r="S79" s="41"/>
       <c r="T79" s="2"/>
@@ -6914,6 +6938,9 @@
       <c r="O90" s="11" t="s">
         <v>881</v>
       </c>
+      <c r="P90" s="1" t="s">
+        <v>918</v>
+      </c>
       <c r="S90" s="41"/>
       <c r="T90" s="2"/>
     </row>
@@ -9408,6 +9435,9 @@
       </c>
       <c r="G160" s="13" t="s">
         <v>846</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>919</v>
       </c>
       <c r="S160" s="41"/>
       <c r="T160" s="2"/>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="922">
   <si>
     <t>Aatrox</t>
   </si>
@@ -3450,8 +3450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="E67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N87" sqref="N87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5383,6 +5383,9 @@
       <c r="N51" s="7" t="s">
         <v>815</v>
       </c>
+      <c r="O51" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="S51" s="41"/>
       <c r="T51" s="2"/>
     </row>
@@ -6830,6 +6833,9 @@
       <c r="M87" s="10" t="s">
         <v>890</v>
       </c>
+      <c r="N87" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="S87" s="41"/>
       <c r="T87" s="2"/>
     </row>
@@ -7480,6 +7486,9 @@
       <c r="N107" s="11" t="s">
         <v>183</v>
       </c>
+      <c r="O107" s="1" t="s">
+        <v>441</v>
+      </c>
       <c r="S107" s="41"/>
       <c r="T107" s="2"/>
     </row>
@@ -8860,6 +8869,9 @@
       </c>
       <c r="P143" s="12" t="s">
         <v>837</v>
+      </c>
+      <c r="Q143" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="S143" s="41"/>
       <c r="T143" s="2"/>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="924">
   <si>
     <t>Aatrox</t>
   </si>
@@ -2790,6 +2790,12 @@
   </si>
   <si>
     <t>Woof &amp; Lamb</t>
+  </si>
+  <si>
+    <t>Inkshadow</t>
+  </si>
+  <si>
+    <t>Prestige Inkshadow</t>
   </si>
 </sst>
 </file>
@@ -3450,8 +3456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N87" sqref="N87"/>
+    <sheetView tabSelected="1" topLeftCell="G142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P158" sqref="P158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3992,6 +3998,9 @@
       <c r="E15" s="7" t="s">
         <v>236</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>922</v>
+      </c>
       <c r="S15" s="41"/>
       <c r="T15" s="2"/>
     </row>
@@ -5586,6 +5595,9 @@
       <c r="K56" s="8" t="s">
         <v>170</v>
       </c>
+      <c r="L56" s="1" t="s">
+        <v>922</v>
+      </c>
       <c r="S56" s="41"/>
       <c r="T56" s="2"/>
     </row>
@@ -6569,6 +6581,9 @@
       </c>
       <c r="P81" s="13" t="s">
         <v>875</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>922</v>
       </c>
       <c r="S81" s="41"/>
       <c r="T81" s="2"/>
@@ -8747,6 +8762,9 @@
       <c r="G140" s="10" t="s">
         <v>722</v>
       </c>
+      <c r="H140" s="1" t="s">
+        <v>922</v>
+      </c>
       <c r="S140" s="41"/>
       <c r="T140" s="2"/>
     </row>
@@ -9133,6 +9151,9 @@
       <c r="J151" s="8" t="s">
         <v>877</v>
       </c>
+      <c r="K151" s="1" t="s">
+        <v>922</v>
+      </c>
       <c r="S151" s="41"/>
       <c r="T151" s="2"/>
     </row>
@@ -9370,6 +9391,12 @@
       <c r="N157" s="6" t="s">
         <v>842</v>
       </c>
+      <c r="O157" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="P157" s="1" t="s">
+        <v>923</v>
+      </c>
       <c r="S157" s="41"/>
       <c r="T157" s="2"/>
     </row>
@@ -9391,6 +9418,9 @@
       </c>
       <c r="F158" s="13" t="s">
         <v>881</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>922</v>
       </c>
       <c r="S158" s="41"/>
       <c r="T158" s="2"/>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -3456,8 +3456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P158" sqref="P158"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8020,7 +8020,7 @@
       <c r="A122" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="39" t="s">
         <v>157</v>
       </c>
       <c r="C122" s="14" t="s">

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="924">
   <si>
     <t>Aatrox</t>
   </si>
@@ -3456,8 +3456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+    <sheetView tabSelected="1" topLeftCell="E130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N142" sqref="N142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3632,6 +3632,9 @@
       <c r="Q6" s="6" t="s">
         <v>279</v>
       </c>
+      <c r="R6" s="1" t="s">
+        <v>883</v>
+      </c>
       <c r="S6" s="41"/>
       <c r="T6" s="2"/>
     </row>
@@ -6762,6 +6765,9 @@
       <c r="O85" s="8" t="s">
         <v>884</v>
       </c>
+      <c r="P85" s="1" t="s">
+        <v>883</v>
+      </c>
       <c r="S85" s="41"/>
       <c r="T85" s="2"/>
     </row>
@@ -8835,6 +8841,9 @@
       </c>
       <c r="M142" s="6" t="s">
         <v>233</v>
+      </c>
+      <c r="N142" s="1" t="s">
+        <v>883</v>
       </c>
       <c r="S142" s="41"/>
       <c r="T142" s="2"/>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="926">
   <si>
     <t>Aatrox</t>
   </si>
@@ -2796,6 +2796,12 @@
   </si>
   <si>
     <t>Prestige Inkshadow</t>
+  </si>
+  <si>
+    <t>DRX</t>
+  </si>
+  <si>
+    <t>Prestige DRX</t>
   </si>
 </sst>
 </file>
@@ -3456,8 +3462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N142" sqref="N142"/>
+    <sheetView tabSelected="1" topLeftCell="D58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L80" sqref="L80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3576,6 +3582,12 @@
       <c r="J5" s="9" t="s">
         <v>501</v>
       </c>
+      <c r="K5" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>925</v>
+      </c>
       <c r="Q5" s="37"/>
       <c r="S5" s="41"/>
       <c r="T5" s="43"/>
@@ -3690,6 +3702,9 @@
       <c r="Q7" s="8" t="s">
         <v>170</v>
       </c>
+      <c r="R7" s="1" t="s">
+        <v>924</v>
+      </c>
       <c r="S7" s="41"/>
       <c r="T7" s="2"/>
     </row>
@@ -3982,6 +3997,9 @@
       <c r="Q14" s="7" t="s">
         <v>510</v>
       </c>
+      <c r="R14" s="1" t="s">
+        <v>924</v>
+      </c>
       <c r="S14" s="41"/>
       <c r="T14" s="2"/>
     </row>
@@ -4248,6 +4266,9 @@
       <c r="Q22" s="1" t="s">
         <v>908</v>
       </c>
+      <c r="R22" s="1" t="s">
+        <v>924</v>
+      </c>
       <c r="S22" s="41"/>
       <c r="T22" s="2"/>
     </row>
@@ -5971,6 +5992,9 @@
       <c r="G66" s="1" t="s">
         <v>921</v>
       </c>
+      <c r="H66" s="1" t="s">
+        <v>924</v>
+      </c>
       <c r="S66" s="41"/>
       <c r="T66" s="2"/>
     </row>
@@ -6532,6 +6556,9 @@
       </c>
       <c r="K80" s="10" t="s">
         <v>241</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>924</v>
       </c>
       <c r="S80" s="41"/>
       <c r="T80" s="2"/>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8565"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="927">
   <si>
     <t>Aatrox</t>
   </si>
@@ -2802,6 +2802,9 @@
   </si>
   <si>
     <t>Prestige DRX</t>
+  </si>
+  <si>
+    <t>Crystalis Motus</t>
   </si>
 </sst>
 </file>
@@ -3462,8 +3465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L80" sqref="L80"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4075,6 +4078,9 @@
       <c r="G17" s="11" t="s">
         <v>824</v>
       </c>
+      <c r="H17" s="1" t="s">
+        <v>431</v>
+      </c>
       <c r="S17" s="41"/>
       <c r="T17" s="2"/>
     </row>
@@ -6066,6 +6072,9 @@
       <c r="O68" s="11" t="s">
         <v>887</v>
       </c>
+      <c r="P68" s="1" t="s">
+        <v>431</v>
+      </c>
       <c r="S68" s="41"/>
       <c r="T68" s="2"/>
     </row>
@@ -6232,6 +6241,9 @@
       <c r="P72" s="7" t="s">
         <v>233</v>
       </c>
+      <c r="Q72" s="1" t="s">
+        <v>926</v>
+      </c>
       <c r="S72" s="41"/>
       <c r="T72" s="2"/>
     </row>
@@ -6247,6 +6259,9 @@
       </c>
       <c r="D73" s="11" t="s">
         <v>224</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>431</v>
       </c>
       <c r="S73" s="41"/>
       <c r="T73" s="2"/>
@@ -8351,6 +8366,9 @@
       <c r="G129" s="6" t="s">
         <v>233</v>
       </c>
+      <c r="H129" s="1" t="s">
+        <v>431</v>
+      </c>
       <c r="S129" s="41"/>
       <c r="T129" s="2"/>
     </row>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="927">
   <si>
     <t>Aatrox</t>
   </si>
@@ -3465,8 +3465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J153" sqref="J153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3868,6 +3868,9 @@
       <c r="M11" s="11" t="s">
         <v>897</v>
       </c>
+      <c r="N11" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="S11" s="41"/>
       <c r="T11" s="2"/>
     </row>
@@ -5735,6 +5738,9 @@
       </c>
       <c r="J59" s="10" t="s">
         <v>812</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="S59" s="41"/>
       <c r="T59" s="2"/>
@@ -7180,6 +7186,9 @@
       <c r="L95" s="8" t="s">
         <v>831</v>
       </c>
+      <c r="M95" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="S95" s="41"/>
       <c r="T95" s="2"/>
     </row>
@@ -7839,6 +7848,9 @@
       <c r="I115" s="1" t="s">
         <v>913</v>
       </c>
+      <c r="J115" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="S115" s="41"/>
       <c r="T115" s="2"/>
     </row>
@@ -9290,6 +9302,9 @@
       </c>
       <c r="I153" s="12" t="s">
         <v>275</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="S153" s="41"/>
       <c r="T153" s="2"/>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="930">
   <si>
     <t>Aatrox</t>
   </si>
@@ -2805,6 +2805,15 @@
   </si>
   <si>
     <t>Crystalis Motus</t>
+  </si>
+  <si>
+    <t>Soul Fighter</t>
+  </si>
+  <si>
+    <t>Naafiri</t>
+  </si>
+  <si>
+    <t>Prestige Soul Fighter</t>
   </si>
 </sst>
 </file>
@@ -3463,10 +3472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T167"/>
+  <dimension ref="A1:T168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J153" sqref="J153"/>
+    <sheetView tabSelected="1" topLeftCell="B91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K115" sqref="K115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6821,1032 +6830,1035 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="H86" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="I86" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="J86" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="K86" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="L86" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="M86" s="6" t="s">
-        <v>864</v>
-      </c>
+        <v>928</v>
+      </c>
+      <c r="B86" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C86" s="39" t="s">
+        <v>927</v>
+      </c>
+      <c r="D86" s="39"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="39"/>
+      <c r="K86" s="39"/>
+      <c r="L86" s="39"/>
+      <c r="M86" s="39"/>
+      <c r="N86" s="39"/>
+      <c r="O86" s="39"/>
       <c r="S86" s="41"/>
       <c r="T86" s="2"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>198</v>
+        <v>63</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>551</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="F87" s="12" t="s">
-        <v>555</v>
-      </c>
-      <c r="G87" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="H87" s="13" t="s">
-        <v>556</v>
-      </c>
-      <c r="I87" s="9" t="s">
-        <v>522</v>
+        <v>552</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>553</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="K87" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="L87" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="K87" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="L87" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="M87" s="10" t="s">
-        <v>890</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>224</v>
+      <c r="M87" s="6" t="s">
+        <v>864</v>
       </c>
       <c r="S87" s="41"/>
       <c r="T87" s="2"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>559</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="G88" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="I88" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="H88" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="I88" s="6" t="s">
-        <v>431</v>
-      </c>
       <c r="J88" s="6" t="s">
-        <v>895</v>
+        <v>557</v>
+      </c>
+      <c r="K88" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="L88" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="M88" s="10" t="s">
+        <v>890</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="S88" s="41"/>
       <c r="T88" s="2"/>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>868</v>
-      </c>
-      <c r="F89" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="I89" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="G89" s="11" t="s">
-        <v>327</v>
+      <c r="J89" s="6" t="s">
+        <v>895</v>
       </c>
       <c r="S89" s="41"/>
       <c r="T89" s="2"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>198</v>
+        <v>138</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="H90" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="I90" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="J90" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="K90" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="L90" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="M90" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="N90" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="O90" s="11" t="s">
-        <v>881</v>
-      </c>
-      <c r="P90" s="1" t="s">
-        <v>918</v>
-      </c>
       <c r="S90" s="41"/>
       <c r="T90" s="2"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>170</v>
+        <v>66</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="H91" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="J91" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="K91" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="L91" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="M91" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="N91" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="O91" s="11" t="s">
+        <v>881</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>918</v>
       </c>
       <c r="S91" s="41"/>
       <c r="T91" s="2"/>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>564</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="F92" s="13" t="s">
-        <v>566</v>
-      </c>
-      <c r="G92" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="H92" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="I92" s="6" t="s">
-        <v>807</v>
-      </c>
-      <c r="J92" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>910</v>
+        <v>885</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="S92" s="41"/>
       <c r="T92" s="2"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>568</v>
+        <v>139</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>564</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>569</v>
+        <v>357</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="F93" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="H93" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="I93" s="13" t="s">
-        <v>257</v>
+        <v>565</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>807</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="K93" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="L93" s="10" t="s">
-        <v>834</v>
+        <v>194</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>910</v>
       </c>
       <c r="S93" s="41"/>
       <c r="T93" s="2"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="E94" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="F94" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>191</v>
+        <v>67</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>572</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="I94" s="10" t="s">
-        <v>192</v>
+        <v>321</v>
+      </c>
+      <c r="I94" s="13" t="s">
+        <v>257</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="K94" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="L94" s="13" t="s">
-        <v>812</v>
+        <v>212</v>
+      </c>
+      <c r="K94" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="L94" s="10" t="s">
+        <v>834</v>
       </c>
       <c r="S94" s="41"/>
       <c r="T94" s="2"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>575</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>576</v>
+        <v>68</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>516</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>577</v>
-      </c>
-      <c r="F95" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="H95" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="I95" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="J95" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="K95" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="L95" s="8" t="s">
-        <v>831</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>170</v>
+        <v>573</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H95" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="I95" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="L95" s="13" t="s">
+        <v>812</v>
       </c>
       <c r="S95" s="41"/>
       <c r="T95" s="2"/>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C96" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>172</v>
+      <c r="C96" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>576</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>253</v>
+        <v>577</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K96" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="L96" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="S96" s="41"/>
       <c r="T96" s="2"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B97" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B97" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="D97" s="13" t="s">
-        <v>580</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="I97" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="J97" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="K97" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="L97" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="M97" s="6" t="s">
-        <v>869</v>
-      </c>
-      <c r="N97" s="10" t="s">
-        <v>839</v>
+        <v>578</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>253</v>
       </c>
       <c r="S97" s="41"/>
       <c r="T97" s="2"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>585</v>
+        <v>70</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>580</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="F98" s="13" t="s">
-        <v>587</v>
-      </c>
-      <c r="G98" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="H98" s="11" t="s">
-        <v>589</v>
-      </c>
-      <c r="I98" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="J98" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="K98" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="L98" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="M98" s="10" t="s">
-        <v>327</v>
+        <v>581</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="I98" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="J98" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="K98" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="L98" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="M98" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="N98" s="10" t="s">
+        <v>839</v>
       </c>
       <c r="S98" s="41"/>
       <c r="T98" s="2"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C99" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E99" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>839</v>
-      </c>
-      <c r="I99" s="6" t="s">
-        <v>899</v>
+      <c r="C99" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="F99" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="G99" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="K99" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="L99" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="M99" s="10" t="s">
+        <v>327</v>
       </c>
       <c r="S99" s="41"/>
       <c r="T99" s="2"/>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B100" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B100" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D100" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>870</v>
-      </c>
-      <c r="F100" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>510</v>
+        <v>591</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>929</v>
       </c>
       <c r="S100" s="41"/>
       <c r="T100" s="2"/>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B101" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C101" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="F101" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="H101" s="10" t="s">
-        <v>170</v>
+      <c r="C101" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>870</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>510</v>
       </c>
       <c r="S101" s="41"/>
       <c r="T101" s="2"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B102" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C102" s="10" t="s">
-        <v>595</v>
+      <c r="C102" s="8" t="s">
+        <v>592</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="E102" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="G102" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="H102" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="H102" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="I102" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>910</v>
       </c>
       <c r="S102" s="41"/>
       <c r="T102" s="2"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="D103" s="13" t="s">
-        <v>597</v>
+        <v>75</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>221</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>598</v>
-      </c>
-      <c r="F103" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="G103" s="13" t="s">
-        <v>599</v>
-      </c>
-      <c r="H103" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="I103" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="J103" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="K103" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="L103" s="13" t="s">
-        <v>241</v>
+        <v>338</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="I103" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>910</v>
       </c>
       <c r="S103" s="41"/>
       <c r="T103" s="2"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C104" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="F104" s="8" t="s">
-        <v>172</v>
+      <c r="C104" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="H104" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="I104" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="J104" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="K104" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="L104" s="13" t="s">
+        <v>241</v>
       </c>
       <c r="S104" s="41"/>
       <c r="T104" s="2"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="D105" s="13" t="s">
-        <v>170</v>
+        <v>77</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="S105" s="41"/>
       <c r="T105" s="2"/>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>895</v>
+        <v>141</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>170</v>
       </c>
       <c r="S106" s="41"/>
       <c r="T106" s="2"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>142</v>
+        <v>844</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C107" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>600</v>
-      </c>
-      <c r="E107" s="10" t="s">
-        <v>601</v>
-      </c>
-      <c r="F107" s="11" t="s">
-        <v>602</v>
-      </c>
-      <c r="G107" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="H107" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="I107" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="J107" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="K107" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="L107" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="M107" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="N107" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="O107" s="1" t="s">
-        <v>441</v>
+      <c r="C107" s="10" t="s">
+        <v>845</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>895</v>
       </c>
       <c r="S107" s="41"/>
       <c r="T107" s="2"/>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>605</v>
+        <v>142</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>600</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G108" s="12" t="s">
-        <v>607</v>
-      </c>
-      <c r="H108" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="I108" s="8" t="s">
-        <v>804</v>
+        <v>602</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="H108" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="J108" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="K108" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="L108" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="M108" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="N108" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="S108" s="41"/>
       <c r="T108" s="2"/>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>608</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>609</v>
-      </c>
-      <c r="E109" s="11" t="s">
-        <v>610</v>
-      </c>
-      <c r="F109" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G109" s="11" t="s">
-        <v>611</v>
-      </c>
-      <c r="H109" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I109" s="10" t="s">
-        <v>612</v>
-      </c>
-      <c r="J109" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="K109" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="L109" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="M109" s="8" t="s">
-        <v>871</v>
-      </c>
-      <c r="N109" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="O109" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="I109" s="8" t="s">
         <v>804</v>
-      </c>
-      <c r="P109" s="11" t="s">
-        <v>835</v>
-      </c>
-      <c r="Q109" s="1" t="s">
-        <v>910</v>
       </c>
       <c r="S109" s="41"/>
       <c r="T109" s="2"/>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="B110" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C110" s="11" t="s">
-        <v>614</v>
+      <c r="C110" s="10" t="s">
+        <v>608</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>615</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>222</v>
+        <v>609</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>610</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>616</v>
-      </c>
-      <c r="G110" s="12" t="s">
-        <v>253</v>
+        <v>231</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I110" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="J110" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="K110" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="L110" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="M110" s="8" t="s">
+        <v>871</v>
+      </c>
+      <c r="N110" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="O110" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="P110" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="Q110" s="1" t="s">
+        <v>910</v>
       </c>
       <c r="S110" s="41"/>
       <c r="T110" s="2"/>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>618</v>
+        <v>143</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>615</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="F111" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="G111" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="H111" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="I111" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="J111" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="K111" s="11" t="s">
-        <v>624</v>
-      </c>
-      <c r="L111" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="M111" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="N111" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="O111" s="6" t="s">
-        <v>279</v>
+        <v>222</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="S111" s="41"/>
       <c r="T111" s="2"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="D112" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>233</v>
+        <v>80</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="I112" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="J112" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="K112" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="L112" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="M112" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="N112" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O112" s="6" t="s">
+        <v>279</v>
       </c>
       <c r="S112" s="41"/>
       <c r="T112" s="2"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="E113" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="F113" s="10" t="s">
-        <v>627</v>
-      </c>
-      <c r="G113" s="11" t="s">
-        <v>628</v>
-      </c>
-      <c r="H113" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="I113" s="13" t="s">
-        <v>629</v>
-      </c>
-      <c r="J113" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="K113" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="L113" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="M113" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="N113" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>927</v>
       </c>
       <c r="S113" s="41"/>
       <c r="T113" s="2"/>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="B114" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C114" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>870</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F114" s="13" t="s">
+      <c r="C114" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="F114" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="H114" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="I114" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="J114" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="K114" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L114" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="G114" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="H114" s="9" t="s">
-        <v>872</v>
-      </c>
-      <c r="I114" s="6" t="s">
-        <v>327</v>
+      <c r="M114" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="N114" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="S114" s="41"/>
       <c r="T114" s="2"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B115" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B115" s="10" t="s">
         <v>157</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>800</v>
+        <v>184</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>801</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>802</v>
-      </c>
-      <c r="F115" s="10" t="s">
-        <v>810</v>
+        <v>870</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F115" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>881</v>
-      </c>
-      <c r="H115" s="8" t="s">
-        <v>882</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>913</v>
+        <v>501</v>
+      </c>
+      <c r="H115" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>170</v>
@@ -7856,671 +7868,656 @@
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C116" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>873</v>
-      </c>
-      <c r="F116" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G116" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="H116" s="6" t="s">
-        <v>173</v>
+        <v>82</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="F116" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="G116" s="10" t="s">
+        <v>881</v>
+      </c>
+      <c r="H116" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="S116" s="41"/>
       <c r="T116" s="2"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B117" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>631</v>
-      </c>
-      <c r="D117" s="12" t="s">
-        <v>632</v>
-      </c>
-      <c r="E117" s="13" t="s">
-        <v>633</v>
-      </c>
-      <c r="F117" s="12" t="s">
-        <v>569</v>
+        <v>83</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="F117" s="11" t="s">
+        <v>274</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="H117" s="10" t="s">
-        <v>635</v>
-      </c>
-      <c r="I117" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="J117" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="K117" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="L117" s="6" t="s">
-        <v>808</v>
-      </c>
-      <c r="M117" s="11" t="s">
-        <v>901</v>
+        <v>433</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>927</v>
       </c>
       <c r="S117" s="41"/>
       <c r="T117" s="2"/>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>637</v>
-      </c>
-      <c r="D118" s="10" t="s">
-        <v>638</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="F118" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="G118" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="H118" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="I118" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="J118" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="K118" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="L118" s="9" t="s">
-        <v>776</v>
-      </c>
-      <c r="M118" s="1" t="s">
-        <v>915</v>
+        <v>84</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="G118" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="H118" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="J118" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="K118" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="L118" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="M118" s="11" t="s">
+        <v>901</v>
       </c>
       <c r="S118" s="41"/>
       <c r="T118" s="2"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B119" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B119" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>641</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>642</v>
-      </c>
-      <c r="E119" s="13" t="s">
-        <v>643</v>
-      </c>
-      <c r="F119" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="G119" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="H119" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="I119" s="11" t="s">
-        <v>314</v>
+        <v>637</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="F119" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="J119" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="K119" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="L119" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>915</v>
       </c>
       <c r="S119" s="41"/>
       <c r="T119" s="2"/>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B120" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C120" s="12" t="s">
-        <v>645</v>
-      </c>
-      <c r="D120" s="21" t="s">
-        <v>194</v>
+        <v>86</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>642</v>
       </c>
       <c r="E120" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="F120" s="13" t="s">
-        <v>647</v>
+        <v>643</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>644</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>648</v>
-      </c>
-      <c r="H120" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="I120" s="13" t="s">
-        <v>606</v>
-      </c>
-      <c r="J120" s="10" t="s">
-        <v>649</v>
-      </c>
-      <c r="K120" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="L120" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="M120" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
+      </c>
+      <c r="H120" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="I120" s="11" t="s">
+        <v>314</v>
       </c>
       <c r="S120" s="41"/>
       <c r="T120" s="2"/>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C121" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="D121" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="D121" s="11" t="s">
-        <v>651</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="F121" s="11" t="s">
-        <v>653</v>
-      </c>
-      <c r="G121" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="H121" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="I121" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="J121" s="6" t="s">
-        <v>233</v>
+      <c r="E121" s="13" t="s">
+        <v>646</v>
+      </c>
+      <c r="F121" s="13" t="s">
+        <v>647</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="I121" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="J121" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="K121" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="L121" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="S121" s="41"/>
       <c r="T121" s="2"/>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B122" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="C122" s="14" t="s">
-        <v>655</v>
+        <v>88</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>656</v>
-      </c>
-      <c r="E122" s="13" t="s">
-        <v>657</v>
-      </c>
-      <c r="F122" s="10" t="s">
-        <v>658</v>
-      </c>
-      <c r="G122" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>659</v>
+        <v>651</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="G122" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="H122" s="10" t="s">
+        <v>522</v>
       </c>
       <c r="I122" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="J122" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="K122" s="11" t="s">
-        <v>660</v>
-      </c>
-      <c r="L122" s="10" t="s">
-        <v>661</v>
-      </c>
-      <c r="M122" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="N122" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="O122" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="P122" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q122" s="6" t="s">
-        <v>904</v>
-      </c>
-      <c r="R122" s="7" t="s">
-        <v>905</v>
+        <v>196</v>
+      </c>
+      <c r="J122" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="S122" s="41"/>
       <c r="T122" s="2"/>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C123" s="11" t="s">
-        <v>662</v>
-      </c>
-      <c r="D123" s="13" t="s">
-        <v>663</v>
-      </c>
-      <c r="E123" s="11" t="s">
-        <v>664</v>
+        <v>89</v>
+      </c>
+      <c r="B123" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="E123" s="13" t="s">
+        <v>657</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>418</v>
+        <v>658</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>665</v>
+        <v>422</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="I123" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="J123" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="K123" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="L123" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="M123" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="N123" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="O123" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="P123" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q123" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="R123" s="7" t="s">
+        <v>905</v>
       </c>
       <c r="S123" s="41"/>
       <c r="T123" s="2"/>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B124" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B124" s="10" t="s">
         <v>157</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>666</v>
-      </c>
-      <c r="D124" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>667</v>
+        <v>662</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>664</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="G124" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="H124" s="11" t="s">
-        <v>669</v>
-      </c>
-      <c r="I124" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="J124" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="K124" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="L124" s="13" t="s">
-        <v>812</v>
-      </c>
-      <c r="M124" s="9" t="s">
-        <v>170</v>
+        <v>418</v>
+      </c>
+      <c r="G124" s="10" t="s">
+        <v>665</v>
       </c>
       <c r="S124" s="41"/>
       <c r="T124" s="2"/>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>670</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>671</v>
-      </c>
-      <c r="E125" s="13" t="s">
-        <v>672</v>
+        <v>90</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>667</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="G125" s="10" t="s">
-        <v>673</v>
+        <v>668</v>
+      </c>
+      <c r="G125" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="H125" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="I125" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="I125" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="J125" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="K125" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="L125" s="13" t="s">
+        <v>812</v>
+      </c>
+      <c r="M125" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="J125" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="K125" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="L125" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="M125" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="N125" s="7" t="s">
-        <v>868</v>
-      </c>
-      <c r="O125" s="11" t="s">
-        <v>824</v>
-      </c>
-      <c r="P125" s="9" t="s">
-        <v>173</v>
       </c>
       <c r="S125" s="41"/>
       <c r="T125" s="2"/>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B126" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B126" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>674</v>
-      </c>
-      <c r="D126" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>675</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="G126" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="H126" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="I126" s="10" t="s">
-        <v>901</v>
+        <v>670</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="E126" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="G126" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="H126" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J126" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="K126" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="L126" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="M126" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="N126" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="O126" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="P126" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="S126" s="41"/>
       <c r="T126" s="2"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E127" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="F127" s="11" t="s">
-        <v>856</v>
-      </c>
-      <c r="G127" s="13" t="s">
-        <v>838</v>
-      </c>
-      <c r="H127" s="9" t="s">
-        <v>894</v>
+        <v>147</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H127" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="I127" s="10" t="s">
+        <v>901</v>
       </c>
       <c r="S127" s="41"/>
       <c r="T127" s="2"/>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>354</v>
+        <v>92</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>678</v>
+        <v>183</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G128" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="H128" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="I128" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="J128" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="K128" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="L128" s="5" t="s">
-        <v>868</v>
-      </c>
-      <c r="M128" s="9" t="s">
-        <v>173</v>
+        <v>856</v>
+      </c>
+      <c r="G128" s="13" t="s">
+        <v>838</v>
+      </c>
+      <c r="H128" s="9" t="s">
+        <v>894</v>
       </c>
       <c r="S128" s="41"/>
       <c r="T128" s="2"/>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B129" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C129" s="9" t="s">
-        <v>680</v>
-      </c>
-      <c r="D129" s="12" t="s">
-        <v>681</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>279</v>
+      <c r="C129" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>431</v>
+        <v>192</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I129" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="J129" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="K129" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="L129" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="M129" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="S129" s="41"/>
       <c r="T129" s="2"/>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B130" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="E130" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="F130" s="13" t="s">
-        <v>170</v>
+        <v>94</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>431</v>
       </c>
       <c r="S130" s="41"/>
       <c r="T130" s="2"/>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B131" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>683</v>
-      </c>
-      <c r="D131" s="13" t="s">
-        <v>609</v>
-      </c>
-      <c r="E131" s="10" t="s">
-        <v>611</v>
-      </c>
-      <c r="F131" s="10" t="s">
-        <v>606</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="H131" s="8" t="s">
-        <v>684</v>
-      </c>
-      <c r="I131" s="11" t="s">
-        <v>685</v>
-      </c>
-      <c r="J131" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="K131" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="L131" s="6" t="s">
-        <v>874</v>
+        <v>95</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E131" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="F131" s="13" t="s">
+        <v>170</v>
       </c>
       <c r="S131" s="41"/>
       <c r="T131" s="2"/>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="B132" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C132" s="8" t="s">
-        <v>686</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>687</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="F132" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="G132" s="10" t="s">
-        <v>688</v>
-      </c>
-      <c r="H132" s="12" t="s">
-        <v>253</v>
+      <c r="C132" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="D132" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="F132" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H132" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="I132" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="J132" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="K132" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="L132" s="6" t="s">
+        <v>874</v>
       </c>
       <c r="S132" s="41"/>
       <c r="T132" s="2"/>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>689</v>
-      </c>
-      <c r="D133" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="E133" s="13" t="s">
-        <v>691</v>
+        <v>148</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>502</v>
       </c>
       <c r="F133" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="G133" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="H133" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="I133" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="J133" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="K133" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="L133" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="M133" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="N133" s="10" t="s">
-        <v>875</v>
-      </c>
-      <c r="O133" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="P133" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G133" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="H133" s="12" t="s">
         <v>253</v>
       </c>
       <c r="S133" s="41"/>
@@ -8528,1091 +8525,1103 @@
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>161</v>
+        <v>97</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="D134" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="E134" s="13" t="s">
+        <v>691</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>606</v>
+        <v>241</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="H134" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="I134" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="J134" s="13" t="s">
-        <v>863</v>
+        <v>358</v>
+      </c>
+      <c r="H134" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="I134" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="J134" s="9" t="s">
+        <v>359</v>
       </c>
       <c r="K134" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="L134" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="L134" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="M134" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="M134" s="11" t="s">
-        <v>805</v>
-      </c>
-      <c r="N134" s="8" t="s">
-        <v>819</v>
-      </c>
-      <c r="O134" s="8" t="s">
-        <v>906</v>
+      <c r="N134" s="10" t="s">
+        <v>875</v>
+      </c>
+      <c r="O134" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="P134" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="S134" s="41"/>
       <c r="T134" s="2"/>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C135" s="13" t="s">
-        <v>694</v>
+        <v>98</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>693</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="E135" s="11" t="s">
-        <v>696</v>
+        <v>231</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>697</v>
+        <v>606</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="H135" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="I135" s="6" t="s">
-        <v>404</v>
+        <v>290</v>
+      </c>
+      <c r="H135" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="I135" s="13" t="s">
+        <v>273</v>
       </c>
       <c r="J135" s="13" t="s">
-        <v>327</v>
+        <v>863</v>
       </c>
       <c r="K135" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="L135" s="13" t="s">
-        <v>700</v>
-      </c>
-      <c r="M135" s="13" t="s">
-        <v>701</v>
+        <v>374</v>
+      </c>
+      <c r="L135" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="M135" s="11" t="s">
+        <v>805</v>
       </c>
       <c r="N135" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="O135" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="P135" s="10" t="s">
-        <v>173</v>
+        <v>819</v>
+      </c>
+      <c r="O135" s="8" t="s">
+        <v>906</v>
       </c>
       <c r="S135" s="41"/>
       <c r="T135" s="2"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B136" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B136" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>702</v>
-      </c>
-      <c r="D136" s="13" t="s">
-        <v>703</v>
+        <v>694</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>695</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>439</v>
+        <v>696</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="H136" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="I136" s="9" t="s">
-        <v>895</v>
-      </c>
-      <c r="P136" s="39"/>
+        <v>698</v>
+      </c>
+      <c r="H136" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="I136" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="J136" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="K136" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="L136" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="M136" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="N136" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="O136" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="P136" s="10" t="s">
+        <v>173</v>
+      </c>
       <c r="S136" s="41"/>
       <c r="T136" s="2"/>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B137" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C137" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="D137" s="10" t="s">
-        <v>596</v>
+      <c r="C137" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="D137" s="13" t="s">
+        <v>703</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>706</v>
+        <v>439</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="H137" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="I137" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="J137" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="K137" s="11" t="s">
-        <v>708</v>
-      </c>
-      <c r="L137" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="M137" s="6" t="s">
-        <v>224</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="H137" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="I137" s="9" t="s">
+        <v>895</v>
+      </c>
+      <c r="P137" s="39"/>
       <c r="S137" s="41"/>
       <c r="T137" s="2"/>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C138" s="13" t="s">
-        <v>422</v>
+        <v>101</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>705</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="E138" s="13" t="s">
-        <v>829</v>
-      </c>
-      <c r="F138" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="G138" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="H138" s="13" t="s">
-        <v>710</v>
-      </c>
-      <c r="I138" s="10" t="s">
-        <v>711</v>
+        <v>596</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="F138" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="H138" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="I138" s="11" t="s">
+        <v>285</v>
       </c>
       <c r="J138" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="K138" s="13" t="s">
-        <v>712</v>
-      </c>
-      <c r="L138" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="K138" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="L138" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="M138" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="N138" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="O138" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="P138" s="8" t="s">
-        <v>808</v>
-      </c>
-      <c r="Q138" s="12" t="s">
-        <v>253</v>
+      <c r="M138" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="S138" s="41"/>
       <c r="T138" s="2"/>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C139" s="11" t="s">
-        <v>713</v>
-      </c>
-      <c r="D139" s="12" t="s">
-        <v>714</v>
+        <v>102</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>709</v>
       </c>
       <c r="E139" s="13" t="s">
-        <v>715</v>
-      </c>
-      <c r="F139" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="G139" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="H139" s="11" t="s">
-        <v>716</v>
-      </c>
-      <c r="I139" s="13" t="s">
-        <v>606</v>
-      </c>
-      <c r="J139" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="K139" s="10" t="s">
-        <v>717</v>
-      </c>
-      <c r="L139" s="10" t="s">
-        <v>718</v>
-      </c>
-      <c r="M139" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="N139" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="G139" s="8" t="s">
         <v>233</v>
+      </c>
+      <c r="H139" s="13" t="s">
+        <v>710</v>
+      </c>
+      <c r="I139" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="J139" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="K139" s="13" t="s">
+        <v>712</v>
+      </c>
+      <c r="L139" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="M139" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="N139" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="O139" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="P139" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="Q139" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="S139" s="41"/>
       <c r="T139" s="2"/>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C140" s="13" t="s">
-        <v>719</v>
-      </c>
-      <c r="D140" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="E140" s="10" t="s">
-        <v>721</v>
-      </c>
-      <c r="F140" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="G140" s="10" t="s">
-        <v>722</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>922</v>
+        <v>103</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="E140" s="13" t="s">
+        <v>715</v>
+      </c>
+      <c r="F140" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="G140" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="H140" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="I140" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="J140" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="K140" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="L140" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="M140" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="N140" s="9" t="s">
+        <v>233</v>
       </c>
       <c r="S140" s="41"/>
       <c r="T140" s="2"/>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>799</v>
-      </c>
-      <c r="D141" s="10" t="s">
-        <v>574</v>
+        <v>104</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>720</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="F141" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="G141" s="13" t="s">
-        <v>723</v>
-      </c>
-      <c r="H141" s="10" t="s">
-        <v>895</v>
+        <v>721</v>
+      </c>
+      <c r="F141" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="G141" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>922</v>
       </c>
       <c r="S141" s="41"/>
       <c r="T141" s="2"/>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C142" s="11" t="s">
-        <v>724</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="F142" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="G142" s="10" t="s">
-        <v>725</v>
+      <c r="C142" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="E142" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G142" s="13" t="s">
+        <v>723</v>
       </c>
       <c r="H142" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="I142" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="J142" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="K142" s="8" t="s">
-        <v>726</v>
-      </c>
-      <c r="L142" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="M142" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="N142" s="1" t="s">
-        <v>883</v>
+        <v>895</v>
       </c>
       <c r="S142" s="41"/>
       <c r="T142" s="2"/>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B143" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="D143" s="12" t="s">
-        <v>728</v>
-      </c>
-      <c r="E143" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="F143" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="F143" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="G143" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="H143" s="8" t="s">
-        <v>259</v>
+      <c r="G143" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="H143" s="10" t="s">
+        <v>290</v>
       </c>
       <c r="I143" s="8" t="s">
-        <v>729</v>
+        <v>195</v>
       </c>
       <c r="J143" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="K143" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="L143" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="K143" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="L143" s="10" t="s">
-        <v>876</v>
-      </c>
-      <c r="M143" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="N143" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="O143" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="P143" s="12" t="s">
-        <v>837</v>
-      </c>
-      <c r="Q143" s="1" t="s">
-        <v>441</v>
+      <c r="M143" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="N143" s="1" t="s">
+        <v>883</v>
       </c>
       <c r="S143" s="41"/>
       <c r="T143" s="2"/>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B144" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C144" s="12" t="s">
-        <v>730</v>
+        <v>107</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>727</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>731</v>
-      </c>
-      <c r="E144" s="11" t="s">
-        <v>732</v>
-      </c>
-      <c r="F144" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="G144" s="13" t="s">
-        <v>734</v>
-      </c>
-      <c r="H144" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="I144" s="13" t="s">
-        <v>736</v>
-      </c>
-      <c r="J144" s="10" t="s">
-        <v>737</v>
+        <v>728</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G144" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H144" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I144" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="J144" s="11" t="s">
+        <v>183</v>
       </c>
       <c r="K144" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="L144" s="13" t="s">
-        <v>172</v>
+        <v>433</v>
+      </c>
+      <c r="L144" s="10" t="s">
+        <v>876</v>
       </c>
       <c r="M144" s="10" t="s">
-        <v>738</v>
+        <v>173</v>
       </c>
       <c r="N144" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="O144" s="12" t="s">
-        <v>886</v>
+        <v>374</v>
+      </c>
+      <c r="O144" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="P144" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q144" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="S144" s="41"/>
       <c r="T144" s="2"/>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="E145" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="F145" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="G145" s="8" t="s">
-        <v>196</v>
+        <v>108</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="F145" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="G145" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="H145" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="I145" s="13" t="s">
+        <v>736</v>
+      </c>
+      <c r="J145" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="K145" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="L145" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="M145" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="N145" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="O145" s="12" t="s">
+        <v>886</v>
       </c>
       <c r="S145" s="41"/>
       <c r="T145" s="2"/>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="B146" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C146" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D146" s="11" t="s">
-        <v>899</v>
+        <v>109</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G146" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="S146" s="41"/>
       <c r="T146" s="2"/>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C147" s="13" t="s">
-        <v>739</v>
-      </c>
-      <c r="D147" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="E147" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="F147" s="13" t="s">
-        <v>740</v>
-      </c>
-      <c r="G147" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="H147" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I147" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="J147" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="K147" s="9" t="s">
-        <v>822</v>
-      </c>
-      <c r="L147" s="1" t="s">
-        <v>909</v>
+        <v>814</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>899</v>
       </c>
       <c r="S147" s="41"/>
       <c r="T147" s="2"/>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D148" s="11" t="s">
-        <v>813</v>
+        <v>110</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C148" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="D148" s="13" t="s">
+        <v>271</v>
       </c>
       <c r="E148" s="13" t="s">
-        <v>846</v>
-      </c>
-      <c r="F148" s="6" t="s">
-        <v>596</v>
+        <v>336</v>
+      </c>
+      <c r="F148" s="13" t="s">
+        <v>740</v>
+      </c>
+      <c r="G148" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="H148" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="I148" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="J148" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="K148" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>909</v>
       </c>
       <c r="S148" s="41"/>
       <c r="T148" s="2"/>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C149" s="13" t="s">
-        <v>742</v>
+      <c r="C149" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>743</v>
-      </c>
-      <c r="E149" s="10" t="s">
-        <v>744</v>
+        <v>813</v>
+      </c>
+      <c r="E149" s="13" t="s">
+        <v>846</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="G149" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="H149" s="6" t="s">
-        <v>233</v>
+        <v>596</v>
       </c>
       <c r="S149" s="41"/>
       <c r="T149" s="2"/>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="D150" s="9" t="s">
-        <v>745</v>
-      </c>
-      <c r="E150" s="13" t="s">
-        <v>746</v>
-      </c>
-      <c r="F150" s="13" t="s">
-        <v>255</v>
+        <v>111</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="E150" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>459</v>
       </c>
       <c r="G150" s="10" t="s">
-        <v>747</v>
-      </c>
-      <c r="H150" s="9" t="s">
-        <v>729</v>
-      </c>
-      <c r="I150" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="J150" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="K150" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="L150" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="M150" s="11" t="s">
-        <v>824</v>
-      </c>
-      <c r="N150" s="1" t="s">
-        <v>910</v>
+        <v>340</v>
+      </c>
+      <c r="H150" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="S150" s="41"/>
       <c r="T150" s="2"/>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="D151" s="11" t="s">
-        <v>749</v>
-      </c>
-      <c r="E151" s="10" t="s">
-        <v>750</v>
-      </c>
-      <c r="F151" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="G151" s="13" t="s">
-        <v>751</v>
-      </c>
-      <c r="H151" s="8" t="s">
-        <v>752</v>
-      </c>
-      <c r="I151" s="6" t="s">
-        <v>821</v>
-      </c>
-      <c r="J151" s="8" t="s">
-        <v>877</v>
-      </c>
-      <c r="K151" s="1" t="s">
-        <v>922</v>
+        <v>150</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="E151" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="F151" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="G151" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="H151" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="I151" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J151" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="K151" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="L151" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="M151" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="N151" s="1" t="s">
+        <v>910</v>
       </c>
       <c r="S151" s="41"/>
       <c r="T151" s="2"/>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C152" s="11" t="s">
-        <v>753</v>
-      </c>
-      <c r="D152" s="13" t="s">
-        <v>754</v>
-      </c>
-      <c r="E152" s="13" t="s">
-        <v>755</v>
+        <v>112</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="E152" s="10" t="s">
+        <v>750</v>
       </c>
       <c r="F152" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="G152" s="11" t="s">
-        <v>757</v>
+        <v>373</v>
+      </c>
+      <c r="G152" s="13" t="s">
+        <v>751</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="I152" s="13" t="s">
-        <v>759</v>
-      </c>
-      <c r="J152" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="K152" s="13" t="s">
-        <v>760</v>
-      </c>
-      <c r="L152" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="M152" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="N152" s="8" t="s">
-        <v>807</v>
-      </c>
-      <c r="O152" s="11" t="s">
-        <v>901</v>
-      </c>
-      <c r="P152" s="6" t="s">
-        <v>902</v>
+        <v>752</v>
+      </c>
+      <c r="I152" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="J152" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>922</v>
       </c>
       <c r="S152" s="41"/>
       <c r="T152" s="2"/>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B153" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C153" s="13" t="s">
-        <v>761</v>
-      </c>
-      <c r="D153" s="9" t="s">
-        <v>762</v>
-      </c>
-      <c r="E153" s="11" t="s">
-        <v>763</v>
+        <v>113</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D153" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="E153" s="13" t="s">
+        <v>755</v>
       </c>
       <c r="F153" s="11" t="s">
-        <v>711</v>
-      </c>
-      <c r="G153" s="10" t="s">
-        <v>764</v>
+        <v>756</v>
+      </c>
+      <c r="G153" s="11" t="s">
+        <v>757</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>765</v>
-      </c>
-      <c r="I153" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="J153" s="1" t="s">
-        <v>172</v>
+        <v>758</v>
+      </c>
+      <c r="I153" s="13" t="s">
+        <v>759</v>
+      </c>
+      <c r="J153" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="K153" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="L153" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="M153" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="N153" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="O153" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="P153" s="6" t="s">
+        <v>902</v>
       </c>
       <c r="S153" s="41"/>
       <c r="T153" s="2"/>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>766</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="E154" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="F154" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G154" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="G154" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="H154" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="I154" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="J154" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="H154" s="8" t="s">
-        <v>809</v>
-      </c>
-      <c r="I154" s="8" t="s">
-        <v>878</v>
-      </c>
-      <c r="J154" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="K154" s="1" t="s">
-        <v>910</v>
       </c>
       <c r="S154" s="41"/>
       <c r="T154" s="2"/>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B155" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C155" s="11" t="s">
-        <v>767</v>
-      </c>
-      <c r="D155" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="E155" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="F155" s="11" t="s">
-        <v>418</v>
+        <v>114</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E155" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="G155" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="H155" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="H155" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="I155" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="J155" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="I155" s="1" t="s">
-        <v>241</v>
+      <c r="K155" s="1" t="s">
+        <v>910</v>
       </c>
       <c r="S155" s="41"/>
       <c r="T155" s="2"/>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B156" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B156" s="10" t="s">
         <v>157</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="D156" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="E156" s="10" t="s">
-        <v>768</v>
-      </c>
-      <c r="F156" s="8" t="s">
-        <v>769</v>
-      </c>
-      <c r="G156" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="H156" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="I156" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="J156" s="5" t="s">
-        <v>770</v>
-      </c>
-      <c r="K156" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="L156" s="10" t="s">
-        <v>433</v>
+        <v>767</v>
+      </c>
+      <c r="D156" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="F156" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="G156" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="H156" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="S156" s="41"/>
       <c r="T156" s="2"/>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C157" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D157" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E157" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F157" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G157" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="H157" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="I157" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="J157" s="10" t="s">
-        <v>870</v>
-      </c>
-      <c r="K157" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L157" s="7" t="s">
-        <v>816</v>
-      </c>
-      <c r="M157" s="5" t="s">
-        <v>817</v>
-      </c>
-      <c r="N157" s="6" t="s">
-        <v>842</v>
-      </c>
-      <c r="O157" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="P157" s="1" t="s">
-        <v>923</v>
+      <c r="C157" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="E157" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="G157" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="H157" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="I157" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="J157" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="K157" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="L157" s="10" t="s">
+        <v>433</v>
       </c>
       <c r="S157" s="41"/>
       <c r="T157" s="2"/>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C158" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F158" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G158" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H158" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="I158" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J158" s="10" t="s">
+        <v>870</v>
+      </c>
+      <c r="K158" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D158" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="E158" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="F158" s="13" t="s">
-        <v>881</v>
-      </c>
-      <c r="G158" s="1" t="s">
+      <c r="L158" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="M158" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="N158" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="O158" s="1" t="s">
         <v>922</v>
+      </c>
+      <c r="P158" s="1" t="s">
+        <v>923</v>
       </c>
       <c r="S158" s="41"/>
       <c r="T158" s="2"/>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B159" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C159" s="10" t="s">
-        <v>771</v>
-      </c>
-      <c r="D159" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="E159" s="8" t="s">
-        <v>259</v>
+        <v>152</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="F159" s="13" t="s">
-        <v>772</v>
-      </c>
-      <c r="G159" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="H159" s="12" t="s">
-        <v>812</v>
-      </c>
-      <c r="I159" s="10" t="s">
-        <v>173</v>
+        <v>881</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>922</v>
       </c>
       <c r="S159" s="41"/>
       <c r="T159" s="2"/>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C160" s="11" t="s">
-        <v>773</v>
+        <v>118</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>771</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="E160" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="F160" s="9" t="s">
-        <v>327</v>
+        <v>445</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F160" s="13" t="s">
+        <v>772</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>846</v>
-      </c>
-      <c r="H160" s="1" t="s">
-        <v>919</v>
+        <v>267</v>
+      </c>
+      <c r="H160" s="12" t="s">
+        <v>812</v>
+      </c>
+      <c r="I160" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="S160" s="41"/>
       <c r="T160" s="2"/>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B161" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B161" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>775</v>
-      </c>
-      <c r="D161" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E161" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="F161" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="G161" s="10" t="s">
-        <v>899</v>
+        <v>773</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="G161" s="13" t="s">
+        <v>846</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>919</v>
       </c>
       <c r="S161" s="41"/>
       <c r="T161" s="2"/>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="D162" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="D162" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E162" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E162" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F162" s="7" t="s">
-        <v>231</v>
+      <c r="F162" s="10" t="s">
+        <v>482</v>
       </c>
       <c r="G162" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="H162" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="I162" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="J162" s="6" t="s">
-        <v>856</v>
-      </c>
-      <c r="K162" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="L162" s="10" t="s">
         <v>899</v>
       </c>
       <c r="S162" s="41"/>
@@ -9620,165 +9629,205 @@
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="B163" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C163" s="11" t="s">
-        <v>679</v>
-      </c>
-      <c r="D163" s="13" t="s">
-        <v>881</v>
+        <v>120</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E163" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F163" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G163" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="I163" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="J163" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="K163" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="L163" s="10" t="s">
+        <v>899</v>
       </c>
       <c r="S163" s="41"/>
       <c r="T163" s="2"/>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B164" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C164" s="13" t="s">
-        <v>647</v>
+        <v>827</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>679</v>
       </c>
       <c r="D164" s="13" t="s">
-        <v>778</v>
-      </c>
-      <c r="E164" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="F164" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G164" s="8" t="s">
-        <v>779</v>
-      </c>
-      <c r="H164" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="I164" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="J164" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="K164" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="L164" s="11" t="s">
-        <v>833</v>
+        <v>881</v>
       </c>
       <c r="S164" s="41"/>
       <c r="T164" s="2"/>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B165" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>780</v>
-      </c>
-      <c r="D165" s="12" t="s">
-        <v>781</v>
+        <v>647</v>
+      </c>
+      <c r="D165" s="13" t="s">
+        <v>778</v>
       </c>
       <c r="E165" s="11" t="s">
-        <v>782</v>
-      </c>
-      <c r="F165" s="13" t="s">
-        <v>783</v>
-      </c>
-      <c r="G165" s="6" t="s">
-        <v>161</v>
+        <v>274</v>
+      </c>
+      <c r="F165" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G165" s="8" t="s">
+        <v>779</v>
       </c>
       <c r="H165" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="I165" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J165" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I165" s="9" t="s">
-        <v>901</v>
+      <c r="K165" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="L165" s="11" t="s">
+        <v>833</v>
       </c>
       <c r="S165" s="41"/>
       <c r="T165" s="2"/>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="B166" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C166" s="10" t="s">
-        <v>784</v>
-      </c>
-      <c r="D166" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="E166" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F166" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="G166" s="9" t="s">
-        <v>879</v>
-      </c>
-      <c r="H166" s="10" t="s">
-        <v>846</v>
-      </c>
-      <c r="I166" s="10" t="s">
+      <c r="C166" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="D166" s="12" t="s">
+        <v>781</v>
+      </c>
+      <c r="E166" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="F166" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="G166" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H166" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="I166" s="9" t="s">
         <v>901</v>
       </c>
       <c r="S166" s="41"/>
       <c r="T166" s="2"/>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
+      <c r="A167" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F167" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="G167" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="H167" s="10" t="s">
+        <v>846</v>
+      </c>
+      <c r="I167" s="10" t="s">
+        <v>901</v>
+      </c>
+      <c r="S167" s="41"/>
+      <c r="T167" s="2"/>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B167" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C167" s="17" t="s">
+      <c r="B168" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C168" s="17" t="s">
         <v>785</v>
       </c>
-      <c r="D167" s="18" t="s">
+      <c r="D168" s="18" t="s">
         <v>527</v>
       </c>
-      <c r="E167" s="20" t="s">
+      <c r="E168" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="F167" s="19" t="s">
+      <c r="F168" s="19" t="s">
         <v>786</v>
       </c>
-      <c r="G167" s="16" t="s">
+      <c r="G168" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="H167" s="18" t="s">
+      <c r="H168" s="18" t="s">
         <v>861</v>
       </c>
-      <c r="I167" s="36" t="s">
+      <c r="I168" s="36" t="s">
         <v>677</v>
       </c>
-      <c r="J167" s="18" t="s">
+      <c r="J168" s="18" t="s">
         <v>808</v>
       </c>
-      <c r="K167" s="18" t="s">
+      <c r="K168" s="18" t="s">
         <v>904</v>
       </c>
-      <c r="L167" s="3"/>
-      <c r="M167" s="3"/>
-      <c r="N167" s="3"/>
-      <c r="O167" s="3"/>
-      <c r="P167" s="3"/>
-      <c r="Q167" s="3"/>
-      <c r="R167" s="3"/>
-      <c r="S167" s="3"/>
-      <c r="T167" s="4"/>
+      <c r="L168" s="3"/>
+      <c r="M168" s="3"/>
+      <c r="N168" s="3"/>
+      <c r="O168" s="3"/>
+      <c r="P168" s="3"/>
+      <c r="Q168" s="3"/>
+      <c r="R168" s="3"/>
+      <c r="S168" s="3"/>
+      <c r="T168" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="930">
   <si>
     <t>Aatrox</t>
   </si>
@@ -3474,8 +3474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K115" sqref="K115"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H149" sqref="H149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4706,6 +4706,9 @@
       <c r="M33" s="7" t="s">
         <v>173</v>
       </c>
+      <c r="N33" s="1" t="s">
+        <v>927</v>
+      </c>
       <c r="S33" s="41"/>
       <c r="T33" s="2"/>
     </row>
@@ -5172,6 +5175,9 @@
       <c r="D44" s="10" t="s">
         <v>824</v>
       </c>
+      <c r="E44" s="1" t="s">
+        <v>927</v>
+      </c>
       <c r="S44" s="41"/>
       <c r="T44" s="2"/>
     </row>
@@ -5556,6 +5562,9 @@
       </c>
       <c r="J54" s="6" t="s">
         <v>899</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>927</v>
       </c>
       <c r="S54" s="41"/>
       <c r="T54" s="2"/>
@@ -7971,6 +7980,12 @@
       <c r="M118" s="11" t="s">
         <v>901</v>
       </c>
+      <c r="N118" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>929</v>
+      </c>
       <c r="S118" s="41"/>
       <c r="T118" s="2"/>
     </row>
@@ -9157,6 +9172,9 @@
       </c>
       <c r="F149" s="6" t="s">
         <v>596</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>927</v>
       </c>
       <c r="S149" s="41"/>
       <c r="T149" s="2"/>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="936">
   <si>
     <t>Aatrox</t>
   </si>
@@ -2814,6 +2814,24 @@
   </si>
   <si>
     <t>Prestige Soul Fighter</t>
+  </si>
+  <si>
+    <t>Immortal Journey</t>
+  </si>
+  <si>
+    <t>Prestige Immortal Journey</t>
+  </si>
+  <si>
+    <t>Cosmic Matriarch</t>
+  </si>
+  <si>
+    <t>Cosmic Paladin</t>
+  </si>
+  <si>
+    <t>Cosmic Paladins</t>
+  </si>
+  <si>
+    <t>Dark Cosmic Erasure</t>
   </si>
 </sst>
 </file>
@@ -3474,8 +3492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H149" sqref="H149"/>
+    <sheetView tabSelected="1" topLeftCell="D49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4106,6 +4124,9 @@
       <c r="C18" s="6" t="s">
         <v>249</v>
       </c>
+      <c r="D18" s="1" t="s">
+        <v>932</v>
+      </c>
       <c r="S18" s="41"/>
       <c r="T18" s="2"/>
     </row>
@@ -5566,6 +5587,9 @@
       <c r="K54" s="1" t="s">
         <v>927</v>
       </c>
+      <c r="L54" s="1" t="s">
+        <v>935</v>
+      </c>
       <c r="S54" s="41"/>
       <c r="T54" s="2"/>
     </row>
@@ -5900,6 +5924,9 @@
       </c>
       <c r="O62" s="6" t="s">
         <v>840</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>930</v>
       </c>
       <c r="S62" s="41"/>
       <c r="T62" s="2"/>
@@ -6982,6 +7009,9 @@
       <c r="J89" s="6" t="s">
         <v>895</v>
       </c>
+      <c r="K89" s="1" t="s">
+        <v>933</v>
+      </c>
       <c r="S89" s="41"/>
       <c r="T89" s="2"/>
     </row>
@@ -7149,6 +7179,9 @@
       <c r="L94" s="10" t="s">
         <v>834</v>
       </c>
+      <c r="M94" s="1" t="s">
+        <v>934</v>
+      </c>
       <c r="S94" s="41"/>
       <c r="T94" s="2"/>
     </row>
@@ -8060,6 +8093,9 @@
       <c r="I120" s="11" t="s">
         <v>314</v>
       </c>
+      <c r="J120" s="1" t="s">
+        <v>930</v>
+      </c>
       <c r="S120" s="41"/>
       <c r="T120" s="2"/>
     </row>
@@ -8137,6 +8173,9 @@
       <c r="J122" s="6" t="s">
         <v>233</v>
       </c>
+      <c r="K122" s="1" t="s">
+        <v>933</v>
+      </c>
       <c r="S122" s="41"/>
       <c r="T122" s="2"/>
     </row>
@@ -8263,6 +8302,12 @@
       <c r="M125" s="9" t="s">
         <v>170</v>
       </c>
+      <c r="N125" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="O125" s="1" t="s">
+        <v>931</v>
+      </c>
       <c r="S125" s="41"/>
       <c r="T125" s="2"/>
     </row>
@@ -8315,6 +8360,9 @@
       <c r="P126" s="9" t="s">
         <v>173</v>
       </c>
+      <c r="Q126" s="1" t="s">
+        <v>930</v>
+      </c>
       <c r="S126" s="41"/>
       <c r="T126" s="2"/>
     </row>
@@ -9682,6 +9730,9 @@
       <c r="L163" s="10" t="s">
         <v>899</v>
       </c>
+      <c r="M163" s="1" t="s">
+        <v>930</v>
+      </c>
       <c r="S163" s="41"/>
       <c r="T163" s="2"/>
     </row>
@@ -9697,6 +9748,9 @@
       </c>
       <c r="D164" s="13" t="s">
         <v>881</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>930</v>
       </c>
       <c r="S164" s="41"/>
       <c r="T164" s="2"/>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="938">
   <si>
     <t>Aatrox</t>
   </si>
@@ -2832,6 +2832,12 @@
   </si>
   <si>
     <t>Dark Cosmic Erasure</t>
+  </si>
+  <si>
+    <t>Briar</t>
+  </si>
+  <si>
+    <t>Street Demons</t>
   </si>
 </sst>
 </file>
@@ -3490,10 +3496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T168"/>
+  <dimension ref="A1:T169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M54" sqref="M54"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H132" sqref="H132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4219,6 +4225,9 @@
       <c r="L20" s="11" t="s">
         <v>849</v>
       </c>
+      <c r="M20" s="39" t="s">
+        <v>937</v>
+      </c>
       <c r="S20" s="41"/>
       <c r="T20" s="2"/>
     </row>
@@ -4255,3686 +4264,3680 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>850</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>822</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>924</v>
-      </c>
+        <v>936</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>937</v>
+      </c>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
       <c r="S22" s="41"/>
       <c r="T22" s="2"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>278</v>
+      <c r="C23" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>269</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>891</v>
+        <v>270</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>924</v>
       </c>
       <c r="S23" s="41"/>
       <c r="T23" s="2"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>283</v>
+        <v>125</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>279</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>327</v>
+        <v>891</v>
       </c>
       <c r="S24" s="41"/>
       <c r="T24" s="2"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>286</v>
+        <v>15</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>281</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>288</v>
+        <v>282</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>283</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>910</v>
+        <v>284</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="S25" s="41"/>
       <c r="T25" s="2"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>292</v>
+        <v>16</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>286</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>241</v>
+        <v>287</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>910</v>
       </c>
       <c r="S26" s="41"/>
       <c r="T26" s="2"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>302</v>
+        <v>17</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>294</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="L27" s="11" t="s">
-        <v>808</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>173</v>
+        <v>295</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>241</v>
       </c>
       <c r="S27" s="41"/>
       <c r="T27" s="2"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>307</v>
+        <v>18</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>174</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>851</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>804</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>901</v>
+        <v>304</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>808</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="S28" s="41"/>
       <c r="T28" s="2"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>157</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>310</v>
+        <v>305</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>895</v>
+        <v>177</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>851</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>901</v>
       </c>
       <c r="S29" s="41"/>
       <c r="T29" s="2"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="J30" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="F30" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="K30" s="13" t="s">
-        <v>322</v>
+      <c r="G30" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>314</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>323</v>
+        <v>336</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>895</v>
       </c>
       <c r="S30" s="41"/>
       <c r="T30" s="2"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>184</v>
+      <c r="C31" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>320</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>843</v>
-      </c>
-      <c r="K31" s="11" t="s">
-        <v>170</v>
+        <v>274</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>322</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>868</v>
+        <v>323</v>
+      </c>
+      <c r="M31" s="39" t="s">
+        <v>937</v>
       </c>
       <c r="S31" s="41"/>
       <c r="T31" s="2"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B32" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>157</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F32" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>679</v>
+      <c r="G32" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>843</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>868</v>
       </c>
       <c r="S32" s="41"/>
       <c r="T32" s="2"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>334</v>
+      <c r="C33" s="11" t="s">
+        <v>326</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>328</v>
+        <v>162</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>329</v>
+        <v>161</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>330</v>
+        <v>192</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>848</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="M33" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>927</v>
+        <v>222</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>679</v>
       </c>
       <c r="S33" s="41"/>
       <c r="T33" s="2"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>157</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>332</v>
+        <v>334</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>328</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>273</v>
+        <v>329</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>336</v>
+        <v>171</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>848</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="N34" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="O34" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="P34" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q34" s="10" t="s">
-        <v>852</v>
-      </c>
-      <c r="R34" s="6" t="s">
-        <v>825</v>
-      </c>
-      <c r="S34" s="41" t="s">
-        <v>913</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="S34" s="41"/>
       <c r="T34" s="2"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>342</v>
+      <c r="C35" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>332</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>884</v>
-      </c>
-      <c r="S35" s="41"/>
+        <v>273</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="P35" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q35" s="10" t="s">
+        <v>852</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="S35" s="41" t="s">
+        <v>913</v>
+      </c>
       <c r="T35" s="2"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>183</v>
+        <v>23</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>344</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>352</v>
+        <v>345</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>205</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="M36" s="13" t="s">
-        <v>853</v>
-      </c>
-      <c r="N36" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>913</v>
+        <v>346</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>884</v>
       </c>
       <c r="S36" s="41"/>
       <c r="T36" s="2"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>355</v>
+      <c r="C37" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>357</v>
+        <v>351</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>360</v>
+        <v>274</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>278</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>854</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>241</v>
+        <v>273</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>913</v>
       </c>
       <c r="S37" s="41"/>
       <c r="T37" s="2"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>363</v>
+        <v>25</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>365</v>
+        <v>357</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>222</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>904</v>
+        <v>359</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="S38" s="41"/>
       <c r="T38" s="2"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="M39" s="10" t="s">
-        <v>841</v>
+        <v>129</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>904</v>
       </c>
       <c r="S39" s="41"/>
       <c r="T39" s="2"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>380</v>
+      <c r="C40" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>373</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="L40" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="N40" s="8" t="s">
-        <v>855</v>
-      </c>
-      <c r="O40" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="P40" s="6" t="s">
-        <v>904</v>
+        <v>303</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>841</v>
       </c>
       <c r="S40" s="41"/>
       <c r="T40" s="2"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>830</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>172</v>
+        <v>27</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="L41" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>855</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>904</v>
       </c>
       <c r="S41" s="41"/>
       <c r="T41" s="2"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="J42" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="K42" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="M42" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="N42" s="12" t="s">
-        <v>253</v>
+        <v>28</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>830</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="S42" s="41"/>
       <c r="T42" s="2"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>265</v>
+        <v>29</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>264</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="K43" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="L43" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="N43" s="11" t="s">
-        <v>846</v>
+        <v>385</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="M43" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="N43" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="S43" s="41"/>
       <c r="T43" s="2"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>824</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>927</v>
+      <c r="C44" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>846</v>
       </c>
       <c r="S44" s="41"/>
       <c r="T44" s="2"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="K45" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="L45" s="8" t="s">
-        <v>279</v>
+        <v>31</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>927</v>
       </c>
       <c r="S45" s="41"/>
       <c r="T45" s="2"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="J46" s="13" t="s">
-        <v>832</v>
+        <v>32</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>279</v>
       </c>
       <c r="S46" s="41"/>
       <c r="T46" s="2"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B47" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>157</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>883</v>
+        <v>400</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>832</v>
       </c>
       <c r="S47" s="41"/>
       <c r="T47" s="2"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>408</v>
+        <v>34</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>267</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>856</v>
-      </c>
-      <c r="L48" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="M48" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="N48" s="7" t="s">
-        <v>904</v>
+        <v>406</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>883</v>
       </c>
       <c r="S48" s="41"/>
       <c r="T48" s="2"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>807</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>241</v>
+      <c r="C49" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="N49" s="7" t="s">
+        <v>904</v>
       </c>
       <c r="S49" s="41"/>
       <c r="T49" s="2"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="L50" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="M50" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="N50" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="O50" s="13" t="s">
-        <v>888</v>
-      </c>
-      <c r="P50" s="8" t="s">
-        <v>889</v>
+        <v>130</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="S50" s="41"/>
       <c r="T50" s="2"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="F51" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="F51" s="6" t="s">
         <v>162</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="H51" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="H51" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="I51" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="J51" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="K51" s="11" t="s">
-        <v>194</v>
+      <c r="I51" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="M51" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="N51" s="7" t="s">
-        <v>815</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>224</v>
+        <v>418</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="O51" s="13" t="s">
+        <v>888</v>
+      </c>
+      <c r="P51" s="8" t="s">
+        <v>889</v>
       </c>
       <c r="S51" s="41"/>
       <c r="T51" s="2"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>421</v>
+        <v>131</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>419</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="K52" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="L52" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="M52" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="N52" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="O52" s="6" t="s">
-        <v>857</v>
-      </c>
-      <c r="P52" s="10" t="s">
-        <v>899</v>
+        <v>162</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="M52" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="N52" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="S52" s="41"/>
       <c r="T52" s="2"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>822</v>
+      <c r="C53" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>425</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>893</v>
+        <v>192</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="P53" s="10" t="s">
+        <v>899</v>
       </c>
       <c r="S53" s="41"/>
       <c r="T53" s="2"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>431</v>
+        <v>38</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>267</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>899</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>935</v>
+        <v>822</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>893</v>
       </c>
       <c r="S54" s="41"/>
       <c r="T54" s="2"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B55" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="H55" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="I55" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F55" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="J55" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="K55" s="8" t="s">
-        <v>822</v>
-      </c>
-      <c r="L55" s="13" t="s">
-        <v>836</v>
-      </c>
-      <c r="M55" s="12" t="s">
-        <v>858</v>
+      <c r="G55" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>935</v>
       </c>
       <c r="S55" s="41"/>
       <c r="T55" s="2"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>848</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>859</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>818</v>
+        <v>40</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J56" s="13" t="s">
+        <v>230</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>922</v>
+        <v>822</v>
+      </c>
+      <c r="L56" s="13" t="s">
+        <v>836</v>
+      </c>
+      <c r="M56" s="12" t="s">
+        <v>858</v>
       </c>
       <c r="S56" s="41"/>
       <c r="T56" s="2"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>192</v>
+        <v>132</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>848</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>913</v>
+        <v>278</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>922</v>
       </c>
       <c r="S57" s="41"/>
       <c r="T57" s="2"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B58" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="J58" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="K58" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="L58" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="M58" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="N58" s="8" t="s">
-        <v>820</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>912</v>
+        <v>161</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>913</v>
       </c>
       <c r="S58" s="41"/>
       <c r="T58" s="2"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>446</v>
+        <v>133</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>440</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>812</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>172</v>
+        <v>290</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="M59" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>912</v>
       </c>
       <c r="S59" s="41"/>
       <c r="T59" s="2"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>447</v>
+        <v>41</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>442</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="J60" s="40" t="s">
-        <v>776</v>
+        <v>443</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="S60" s="41"/>
       <c r="T60" s="2"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B61" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>455</v>
+        <v>447</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>449</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="H61" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="L61" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="M61" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="N61" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="O61" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="P61" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q61" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>914</v>
+        <v>451</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="J61" s="40" t="s">
+        <v>776</v>
       </c>
       <c r="S61" s="41"/>
       <c r="T61" s="2"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="J62" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="K62" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="L62" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="M62" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="N62" s="11" t="s">
-        <v>812</v>
-      </c>
-      <c r="O62" s="6" t="s">
-        <v>840</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>930</v>
+        <v>43</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="M62" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="O62" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="P62" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>914</v>
       </c>
       <c r="S62" s="41"/>
       <c r="T62" s="2"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>224</v>
+        <v>44</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>462</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>860</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>883</v>
+        <v>463</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="K63" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="L63" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="N63" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="O63" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>930</v>
       </c>
       <c r="S63" s="41"/>
       <c r="T63" s="2"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>470</v>
+        <v>45</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="I64" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="J64" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="K64" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>241</v>
+        <v>860</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>883</v>
       </c>
       <c r="S64" s="41"/>
       <c r="T64" s="2"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>231</v>
+        <v>135</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>390</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>557</v>
+        <v>161</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="S65" s="41"/>
       <c r="T65" s="2"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>222</v>
+        <v>46</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>418</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>826</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>924</v>
+        <v>326</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>557</v>
       </c>
       <c r="S66" s="41"/>
       <c r="T66" s="2"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>474</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>920</v>
+        <v>47</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>924</v>
       </c>
       <c r="S67" s="41"/>
       <c r="T67" s="2"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>477</v>
+        <v>136</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>475</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>478</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="J68" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="K68" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="L68" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="M68" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="N68" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="O68" s="11" t="s">
-        <v>887</v>
-      </c>
-      <c r="P68" s="1" t="s">
-        <v>431</v>
+        <v>191</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>920</v>
       </c>
       <c r="S68" s="41"/>
       <c r="T68" s="2"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>899</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>900</v>
+        <v>48</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="O69" s="11" t="s">
+        <v>887</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>431</v>
       </c>
       <c r="S69" s="41"/>
       <c r="T69" s="2"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="I70" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="J70" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="K70" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="L70" s="8" t="s">
-        <v>861</v>
-      </c>
-      <c r="M70" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="N70" s="6" t="s">
-        <v>327</v>
+        <v>898</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>900</v>
       </c>
       <c r="S70" s="41"/>
       <c r="T70" s="2"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>192</v>
+        <v>49</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>276</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="J71" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="K71" s="13" t="s">
-        <v>495</v>
-      </c>
-      <c r="L71" s="6" t="s">
-        <v>224</v>
+        <v>278</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>861</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>860</v>
-      </c>
-      <c r="N71" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="O71" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="P71" s="11" t="s">
-        <v>893</v>
+        <v>336</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="S71" s="41"/>
       <c r="T71" s="2"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="F72" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="G72" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="G72" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="I72" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="J72" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="K72" s="6" t="s">
-        <v>313</v>
+      <c r="H72" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="J72" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>495</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="M72" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="N72" s="6" t="s">
-        <v>862</v>
-      </c>
-      <c r="O72" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="P72" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>926</v>
+        <v>224</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="N72" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="O72" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="P72" s="11" t="s">
+        <v>893</v>
       </c>
       <c r="S72" s="41"/>
       <c r="T72" s="2"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>431</v>
+        <v>51</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="N73" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="O73" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="P73" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>926</v>
       </c>
       <c r="S73" s="41"/>
       <c r="T73" s="2"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>502</v>
+        <v>52</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>826</v>
-      </c>
-      <c r="I74" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="J74" s="7" t="s">
-        <v>865</v>
+        <v>224</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>431</v>
       </c>
       <c r="S74" s="41"/>
       <c r="T74" s="2"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>391</v>
+        <v>53</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>502</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H75" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="I75" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="J75" s="10" t="s">
-        <v>863</v>
-      </c>
-      <c r="K75" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="L75" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="M75" s="11" t="s">
-        <v>892</v>
+        <v>503</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>865</v>
       </c>
       <c r="S75" s="41"/>
       <c r="T75" s="2"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="H76" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="I76" s="9" t="s">
-        <v>505</v>
+        <v>54</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>273</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="K76" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="L76" s="13" t="s">
-        <v>864</v>
-      </c>
-      <c r="M76" s="13" t="s">
-        <v>886</v>
+        <v>863</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="M76" s="11" t="s">
+        <v>892</v>
       </c>
       <c r="S76" s="41"/>
       <c r="T76" s="2"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="F77" s="13" t="s">
-        <v>508</v>
+        <v>55</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>440</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="H77" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="H77" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="I77" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="J77" s="9" t="s">
-        <v>510</v>
+      <c r="I77" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="J77" s="10" t="s">
+        <v>339</v>
       </c>
       <c r="K77" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="L77" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="M77" s="8" t="s">
-        <v>862</v>
-      </c>
-      <c r="N77" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="O77" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="P77" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="Q77" s="8" t="s">
-        <v>826</v>
-      </c>
-      <c r="R77" s="8" t="s">
-        <v>865</v>
-      </c>
-      <c r="S77" s="42" t="s">
-        <v>899</v>
-      </c>
+      <c r="L77" s="13" t="s">
+        <v>864</v>
+      </c>
+      <c r="M77" s="13" t="s">
+        <v>886</v>
+      </c>
+      <c r="S77" s="41"/>
       <c r="T77" s="2"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>513</v>
+        <v>56</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>507</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="I78" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="J78" s="11" t="s">
-        <v>163</v>
+        <v>363</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>510</v>
       </c>
       <c r="K78" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="L78" s="13" t="s">
-        <v>866</v>
-      </c>
-      <c r="M78" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="N78" s="8" t="s">
-        <v>807</v>
-      </c>
-      <c r="O78" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="S78" s="41"/>
+        <v>339</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="M78" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="O78" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="P78" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q78" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="R78" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="S78" s="42" t="s">
+        <v>899</v>
+      </c>
       <c r="T78" s="2"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>521</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="I79" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="J79" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="K79" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="L79" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>917</v>
+        <v>57</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="K79" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="L79" s="13" t="s">
+        <v>866</v>
+      </c>
+      <c r="M79" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="N79" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="O79" s="6" t="s">
+        <v>557</v>
       </c>
       <c r="S79" s="41"/>
       <c r="T79" s="2"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="G80" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="H80" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="I80" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="J80" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="J80" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="K80" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>924</v>
+      <c r="K80" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="L80" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>917</v>
       </c>
       <c r="S80" s="41"/>
       <c r="T80" s="2"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="H81" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="I81" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="J81" s="8" t="s">
-        <v>534</v>
+        <v>58</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>522</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="L81" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="M81" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="N81" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="O81" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="P81" s="13" t="s">
-        <v>875</v>
-      </c>
-      <c r="Q81" s="1" t="s">
-        <v>922</v>
+        <v>241</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>924</v>
       </c>
       <c r="S81" s="41"/>
       <c r="T81" s="2"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>916</v>
-      </c>
-      <c r="B82" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="C82" s="39" t="s">
-        <v>913</v>
-      </c>
-      <c r="D82" s="39"/>
-      <c r="E82" s="39"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="39"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="39"/>
-      <c r="K82" s="39"/>
-      <c r="L82" s="39"/>
-      <c r="M82" s="39"/>
-      <c r="N82" s="39"/>
-      <c r="O82" s="39"/>
-      <c r="P82" s="39"/>
+        <v>59</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="J82" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="K82" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="L82" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="M82" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="N82" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="O82" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="P82" s="13" t="s">
+        <v>875</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>922</v>
+      </c>
       <c r="S82" s="41"/>
       <c r="T82" s="2"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="F83" s="10" t="s">
-        <v>539</v>
-      </c>
-      <c r="G83" s="13" t="s">
-        <v>540</v>
-      </c>
-      <c r="H83" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="I83" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="J83" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="K83" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="L83" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M83" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="N83" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="O83" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="P83" s="6" t="s">
-        <v>867</v>
-      </c>
-      <c r="Q83" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="R83" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="S83" s="41" t="s">
-        <v>910</v>
-      </c>
-      <c r="T83" s="2" t="s">
-        <v>911</v>
-      </c>
+        <v>916</v>
+      </c>
+      <c r="B83" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="39" t="s">
+        <v>913</v>
+      </c>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="39"/>
+      <c r="K83" s="39"/>
+      <c r="L83" s="39"/>
+      <c r="M83" s="39"/>
+      <c r="N83" s="39"/>
+      <c r="O83" s="39"/>
+      <c r="P83" s="39"/>
+      <c r="S83" s="41"/>
+      <c r="T83" s="2"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>445</v>
+        <v>60</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>538</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="I84" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="J84" s="10" t="s">
-        <v>812</v>
-      </c>
-      <c r="K84" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="L84" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="S84" s="41"/>
-      <c r="T84" s="2"/>
+        <v>539</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="K84" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="L84" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M84" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="N84" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="O84" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="P84" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="Q84" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="R84" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="S84" s="41" t="s">
+        <v>910</v>
+      </c>
+      <c r="T84" s="2" t="s">
+        <v>911</v>
+      </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C85" s="13" t="s">
-        <v>544</v>
+      <c r="C85" s="11" t="s">
+        <v>542</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>547</v>
+        <v>177</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>299</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="H85" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="I85" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="J85" s="8" t="s">
-        <v>327</v>
+        <v>543</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="I85" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="J85" s="10" t="s">
+        <v>812</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="L85" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="M85" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="N85" s="7" t="s">
-        <v>867</v>
-      </c>
-      <c r="O85" s="8" t="s">
-        <v>884</v>
-      </c>
-      <c r="P85" s="1" t="s">
-        <v>883</v>
+        <v>233</v>
+      </c>
+      <c r="L85" s="6" t="s">
+        <v>903</v>
       </c>
       <c r="S85" s="41"/>
       <c r="T85" s="2"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="B86" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="C86" s="39" t="s">
-        <v>927</v>
-      </c>
-      <c r="D86" s="39"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="39"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="39"/>
-      <c r="I86" s="39"/>
-      <c r="J86" s="39"/>
-      <c r="K86" s="39"/>
-      <c r="L86" s="39"/>
-      <c r="M86" s="39"/>
-      <c r="N86" s="39"/>
-      <c r="O86" s="39"/>
+        <v>62</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="I86" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="J86" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="L86" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="M86" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="N86" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="O86" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>883</v>
+      </c>
       <c r="S86" s="41"/>
       <c r="T86" s="2"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="H87" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="I87" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="J87" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="K87" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="L87" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="M87" s="6" t="s">
-        <v>864</v>
-      </c>
+        <v>928</v>
+      </c>
+      <c r="B87" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87" s="39" t="s">
+        <v>927</v>
+      </c>
+      <c r="D87" s="39"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="39"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="39"/>
+      <c r="K87" s="39"/>
+      <c r="L87" s="39"/>
+      <c r="M87" s="39"/>
+      <c r="N87" s="39"/>
+      <c r="O87" s="39"/>
       <c r="S87" s="41"/>
       <c r="T87" s="2"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>198</v>
+        <v>63</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>551</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="F88" s="12" t="s">
-        <v>555</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="H88" s="13" t="s">
-        <v>556</v>
-      </c>
-      <c r="I88" s="9" t="s">
-        <v>522</v>
+        <v>552</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>553</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="K88" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="L88" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="K88" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="L88" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="M88" s="10" t="s">
-        <v>890</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>224</v>
+      <c r="M88" s="6" t="s">
+        <v>864</v>
       </c>
       <c r="S88" s="41"/>
       <c r="T88" s="2"/>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>559</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="G89" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H89" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="I89" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="H89" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="I89" s="6" t="s">
-        <v>431</v>
-      </c>
       <c r="J89" s="6" t="s">
-        <v>895</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>933</v>
+        <v>557</v>
+      </c>
+      <c r="K89" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="L89" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="M89" s="10" t="s">
+        <v>890</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="S89" s="41"/>
       <c r="T89" s="2"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>868</v>
-      </c>
-      <c r="F90" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="I90" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="G90" s="11" t="s">
-        <v>327</v>
+      <c r="J90" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>933</v>
       </c>
       <c r="S90" s="41"/>
       <c r="T90" s="2"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>198</v>
+        <v>138</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="H91" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="J91" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="K91" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="L91" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="M91" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="N91" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="O91" s="11" t="s">
-        <v>881</v>
-      </c>
-      <c r="P91" s="1" t="s">
-        <v>918</v>
+      <c r="H91" s="39" t="s">
+        <v>937</v>
       </c>
       <c r="S91" s="41"/>
       <c r="T91" s="2"/>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>170</v>
+        <v>66</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="J92" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="K92" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="L92" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="M92" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="O92" s="11" t="s">
+        <v>881</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>918</v>
       </c>
       <c r="S92" s="41"/>
       <c r="T92" s="2"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>564</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="F93" s="13" t="s">
-        <v>566</v>
-      </c>
-      <c r="G93" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="H93" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="I93" s="6" t="s">
-        <v>807</v>
-      </c>
-      <c r="J93" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>910</v>
+        <v>885</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="S93" s="41"/>
       <c r="T93" s="2"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>568</v>
+        <v>139</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>564</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>569</v>
+        <v>357</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="F94" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="H94" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="I94" s="13" t="s">
-        <v>257</v>
+        <v>565</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>807</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="K94" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="L94" s="10" t="s">
-        <v>834</v>
-      </c>
-      <c r="M94" s="1" t="s">
-        <v>934</v>
+        <v>194</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>910</v>
       </c>
       <c r="S94" s="41"/>
       <c r="T94" s="2"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="E95" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="F95" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="G95" s="11" t="s">
-        <v>191</v>
+        <v>67</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>572</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="I95" s="10" t="s">
-        <v>192</v>
+        <v>321</v>
+      </c>
+      <c r="I95" s="13" t="s">
+        <v>257</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="K95" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="L95" s="13" t="s">
-        <v>812</v>
+        <v>212</v>
+      </c>
+      <c r="K95" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="L95" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>934</v>
       </c>
       <c r="S95" s="41"/>
       <c r="T95" s="2"/>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>575</v>
-      </c>
-      <c r="D96" s="12" t="s">
-        <v>576</v>
+        <v>68</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>516</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>577</v>
-      </c>
-      <c r="F96" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="H96" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="I96" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="J96" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="K96" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="L96" s="8" t="s">
-        <v>831</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>170</v>
+        <v>573</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="I96" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="J96" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="K96" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="L96" s="13" t="s">
+        <v>812</v>
       </c>
       <c r="S96" s="41"/>
       <c r="T96" s="2"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C97" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>172</v>
+      <c r="C97" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>576</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>253</v>
+        <v>577</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="H97" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K97" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="L97" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="S97" s="41"/>
       <c r="T97" s="2"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B98" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B98" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>580</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="I98" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="J98" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="K98" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="L98" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="M98" s="6" t="s">
-        <v>869</v>
-      </c>
-      <c r="N98" s="10" t="s">
-        <v>839</v>
+        <v>578</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>253</v>
       </c>
       <c r="S98" s="41"/>
       <c r="T98" s="2"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>585</v>
+        <v>70</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>580</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="F99" s="13" t="s">
-        <v>587</v>
-      </c>
-      <c r="G99" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="H99" s="11" t="s">
-        <v>589</v>
-      </c>
-      <c r="I99" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="J99" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="K99" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="L99" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="M99" s="10" t="s">
-        <v>327</v>
+        <v>581</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="I99" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="J99" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="K99" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="N99" s="10" t="s">
+        <v>839</v>
       </c>
       <c r="S99" s="41"/>
       <c r="T99" s="2"/>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C100" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E100" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="G100" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="H100" s="6" t="s">
-        <v>839</v>
-      </c>
-      <c r="I100" s="6" t="s">
-        <v>899</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>929</v>
+      <c r="C100" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="G100" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="K100" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="L100" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="M100" s="10" t="s">
+        <v>327</v>
       </c>
       <c r="S100" s="41"/>
       <c r="T100" s="2"/>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B101" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B101" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>870</v>
-      </c>
-      <c r="F101" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>510</v>
+        <v>591</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>929</v>
       </c>
       <c r="S101" s="41"/>
       <c r="T101" s="2"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B102" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C102" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="F102" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="H102" s="10" t="s">
-        <v>170</v>
+      <c r="C102" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>870</v>
+      </c>
+      <c r="F102" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>510</v>
       </c>
       <c r="S102" s="41"/>
       <c r="T102" s="2"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B103" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C103" s="10" t="s">
-        <v>595</v>
+      <c r="C103" s="8" t="s">
+        <v>592</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="E103" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="G103" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="H103" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="H103" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="I103" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>910</v>
       </c>
       <c r="S103" s="41"/>
       <c r="T103" s="2"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="D104" s="13" t="s">
-        <v>597</v>
+        <v>75</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>221</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>598</v>
-      </c>
-      <c r="F104" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="G104" s="13" t="s">
-        <v>599</v>
-      </c>
-      <c r="H104" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="I104" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="J104" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="K104" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="L104" s="13" t="s">
-        <v>241</v>
+        <v>338</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="I104" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>910</v>
       </c>
       <c r="S104" s="41"/>
       <c r="T104" s="2"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C105" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="D105" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>172</v>
+      <c r="C105" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="H105" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="I105" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="J105" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="K105" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="L105" s="13" t="s">
+        <v>241</v>
       </c>
       <c r="S105" s="41"/>
       <c r="T105" s="2"/>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="D106" s="13" t="s">
-        <v>170</v>
+        <v>77</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="S106" s="41"/>
       <c r="T106" s="2"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>895</v>
+        <v>141</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>170</v>
       </c>
       <c r="S107" s="41"/>
       <c r="T107" s="2"/>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>142</v>
+        <v>844</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>600</v>
-      </c>
-      <c r="E108" s="10" t="s">
-        <v>601</v>
-      </c>
-      <c r="F108" s="11" t="s">
-        <v>602</v>
-      </c>
-      <c r="G108" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="H108" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="I108" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="J108" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="K108" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="L108" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="M108" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="N108" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="O108" s="1" t="s">
-        <v>441</v>
+      <c r="C108" s="10" t="s">
+        <v>845</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>895</v>
       </c>
       <c r="S108" s="41"/>
       <c r="T108" s="2"/>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>605</v>
+        <v>142</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>600</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G109" s="12" t="s">
-        <v>607</v>
-      </c>
-      <c r="H109" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="I109" s="8" t="s">
-        <v>804</v>
+        <v>602</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="H109" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="I109" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="J109" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="K109" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="L109" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="M109" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="N109" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="S109" s="41"/>
       <c r="T109" s="2"/>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>608</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>609</v>
-      </c>
-      <c r="E110" s="11" t="s">
-        <v>610</v>
-      </c>
-      <c r="F110" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G110" s="11" t="s">
-        <v>611</v>
-      </c>
-      <c r="H110" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I110" s="10" t="s">
-        <v>612</v>
-      </c>
-      <c r="J110" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="K110" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="L110" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="M110" s="8" t="s">
-        <v>871</v>
-      </c>
-      <c r="N110" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="O110" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="I110" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="P110" s="11" t="s">
-        <v>835</v>
-      </c>
-      <c r="Q110" s="1" t="s">
-        <v>910</v>
+      <c r="J110" s="39" t="s">
+        <v>937</v>
       </c>
       <c r="S110" s="41"/>
       <c r="T110" s="2"/>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="B111" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C111" s="11" t="s">
-        <v>614</v>
+      <c r="C111" s="10" t="s">
+        <v>608</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>615</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>222</v>
+        <v>609</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>610</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>616</v>
-      </c>
-      <c r="G111" s="12" t="s">
-        <v>253</v>
+        <v>231</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I111" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="K111" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="L111" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="M111" s="8" t="s">
+        <v>871</v>
+      </c>
+      <c r="N111" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="O111" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="P111" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="Q111" s="1" t="s">
+        <v>910</v>
       </c>
       <c r="S111" s="41"/>
       <c r="T111" s="2"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="D112" s="11" t="s">
-        <v>618</v>
+        <v>143</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>615</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="G112" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="H112" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="I112" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="J112" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="K112" s="11" t="s">
-        <v>624</v>
-      </c>
-      <c r="L112" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="M112" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="N112" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="O112" s="6" t="s">
-        <v>279</v>
+        <v>222</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="S112" s="41"/>
       <c r="T112" s="2"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>927</v>
+        <v>80</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="H113" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="I113" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="J113" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="K113" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="L113" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="M113" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="N113" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O113" s="6" t="s">
+        <v>279</v>
       </c>
       <c r="S113" s="41"/>
       <c r="T113" s="2"/>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="F114" s="10" t="s">
-        <v>627</v>
-      </c>
-      <c r="G114" s="11" t="s">
-        <v>628</v>
-      </c>
-      <c r="H114" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="I114" s="13" t="s">
-        <v>629</v>
-      </c>
-      <c r="J114" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="K114" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="L114" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="M114" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="N114" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>927</v>
       </c>
       <c r="S114" s="41"/>
       <c r="T114" s="2"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="B115" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C115" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>870</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F115" s="13" t="s">
+      <c r="C115" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="F115" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="G115" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="H115" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="I115" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="J115" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="K115" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L115" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="G115" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="H115" s="9" t="s">
-        <v>872</v>
-      </c>
-      <c r="I115" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>170</v>
+      <c r="M115" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="N115" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="S115" s="41"/>
       <c r="T115" s="2"/>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B116" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B116" s="10" t="s">
         <v>157</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>800</v>
+        <v>184</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>801</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>802</v>
-      </c>
-      <c r="F116" s="10" t="s">
-        <v>810</v>
+        <v>870</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F116" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>881</v>
-      </c>
-      <c r="H116" s="8" t="s">
-        <v>882</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>913</v>
+        <v>501</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>170</v>
@@ -7944,695 +7947,680 @@
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>873</v>
-      </c>
-      <c r="F117" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G117" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="H117" s="6" t="s">
-        <v>173</v>
+        <v>82</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="F117" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="G117" s="10" t="s">
+        <v>881</v>
+      </c>
+      <c r="H117" s="8" t="s">
+        <v>882</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>927</v>
+        <v>913</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="S117" s="41"/>
       <c r="T117" s="2"/>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>631</v>
-      </c>
-      <c r="D118" s="12" t="s">
-        <v>632</v>
-      </c>
-      <c r="E118" s="13" t="s">
-        <v>633</v>
-      </c>
-      <c r="F118" s="12" t="s">
-        <v>569</v>
+        <v>83</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>274</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="H118" s="10" t="s">
-        <v>635</v>
-      </c>
-      <c r="I118" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="J118" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="K118" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="L118" s="6" t="s">
-        <v>808</v>
-      </c>
-      <c r="M118" s="11" t="s">
-        <v>901</v>
-      </c>
-      <c r="N118" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I118" s="1" t="s">
         <v>927</v>
-      </c>
-      <c r="O118" s="1" t="s">
-        <v>929</v>
       </c>
       <c r="S118" s="41"/>
       <c r="T118" s="2"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>637</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>638</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="F119" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="G119" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="H119" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="I119" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="J119" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="K119" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="L119" s="9" t="s">
-        <v>776</v>
-      </c>
-      <c r="M119" s="1" t="s">
-        <v>915</v>
+        <v>84</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="E119" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="G119" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="H119" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="J119" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="K119" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="L119" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="M119" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>929</v>
       </c>
       <c r="S119" s="41"/>
       <c r="T119" s="2"/>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B120" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B120" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>641</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>642</v>
-      </c>
-      <c r="E120" s="13" t="s">
-        <v>643</v>
-      </c>
-      <c r="F120" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="G120" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="H120" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="I120" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>930</v>
+        <v>637</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="F120" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="J120" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="K120" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="L120" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>915</v>
       </c>
       <c r="S120" s="41"/>
       <c r="T120" s="2"/>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B121" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>645</v>
-      </c>
-      <c r="D121" s="21" t="s">
-        <v>194</v>
+        <v>86</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>642</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="F121" s="13" t="s">
-        <v>647</v>
+        <v>643</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>644</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>648</v>
-      </c>
-      <c r="H121" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="I121" s="13" t="s">
-        <v>606</v>
-      </c>
-      <c r="J121" s="10" t="s">
-        <v>649</v>
-      </c>
-      <c r="K121" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="L121" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="M121" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
+      </c>
+      <c r="H121" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="I121" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>930</v>
       </c>
       <c r="S121" s="41"/>
       <c r="T121" s="2"/>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C122" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="D122" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="D122" s="11" t="s">
-        <v>651</v>
-      </c>
-      <c r="E122" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="F122" s="11" t="s">
-        <v>653</v>
-      </c>
-      <c r="G122" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="H122" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="I122" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="J122" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>933</v>
+      <c r="E122" s="13" t="s">
+        <v>646</v>
+      </c>
+      <c r="F122" s="13" t="s">
+        <v>647</v>
+      </c>
+      <c r="G122" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="H122" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="I122" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="J122" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="K122" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="L122" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="S122" s="41"/>
       <c r="T122" s="2"/>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B123" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="C123" s="14" t="s">
-        <v>655</v>
+        <v>88</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>656</v>
-      </c>
-      <c r="E123" s="13" t="s">
-        <v>657</v>
-      </c>
-      <c r="F123" s="10" t="s">
-        <v>658</v>
-      </c>
-      <c r="G123" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>659</v>
+        <v>651</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="H123" s="10" t="s">
+        <v>522</v>
       </c>
       <c r="I123" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="J123" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="K123" s="11" t="s">
-        <v>660</v>
-      </c>
-      <c r="L123" s="10" t="s">
-        <v>661</v>
-      </c>
-      <c r="M123" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="N123" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="O123" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="P123" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q123" s="6" t="s">
-        <v>904</v>
-      </c>
-      <c r="R123" s="7" t="s">
-        <v>905</v>
+        <v>196</v>
+      </c>
+      <c r="J123" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>933</v>
       </c>
       <c r="S123" s="41"/>
       <c r="T123" s="2"/>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C124" s="11" t="s">
-        <v>662</v>
-      </c>
-      <c r="D124" s="13" t="s">
-        <v>663</v>
-      </c>
-      <c r="E124" s="11" t="s">
-        <v>664</v>
+        <v>89</v>
+      </c>
+      <c r="B124" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="E124" s="13" t="s">
+        <v>657</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>418</v>
+        <v>658</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>665</v>
+        <v>422</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="I124" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="J124" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="K124" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="L124" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="M124" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="N124" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="O124" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="P124" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q124" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="R124" s="7" t="s">
+        <v>905</v>
       </c>
       <c r="S124" s="41"/>
       <c r="T124" s="2"/>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B125" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B125" s="10" t="s">
         <v>157</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>666</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>667</v>
+        <v>662</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>664</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="G125" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="H125" s="11" t="s">
-        <v>669</v>
-      </c>
-      <c r="I125" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="J125" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="K125" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="L125" s="13" t="s">
-        <v>812</v>
-      </c>
-      <c r="M125" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="N125" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="O125" s="1" t="s">
-        <v>931</v>
+        <v>418</v>
+      </c>
+      <c r="G125" s="10" t="s">
+        <v>665</v>
       </c>
       <c r="S125" s="41"/>
       <c r="T125" s="2"/>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>670</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>671</v>
-      </c>
-      <c r="E126" s="13" t="s">
-        <v>672</v>
+        <v>90</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>667</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="G126" s="10" t="s">
-        <v>673</v>
+        <v>668</v>
+      </c>
+      <c r="G126" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="H126" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="I126" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="I126" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="J126" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="K126" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="L126" s="13" t="s">
+        <v>812</v>
+      </c>
+      <c r="M126" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="J126" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="K126" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="L126" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="M126" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="N126" s="7" t="s">
-        <v>868</v>
-      </c>
-      <c r="O126" s="11" t="s">
-        <v>824</v>
-      </c>
-      <c r="P126" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q126" s="1" t="s">
+      <c r="N126" s="1" t="s">
         <v>930</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>931</v>
       </c>
       <c r="S126" s="41"/>
       <c r="T126" s="2"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B127" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B127" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>674</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>675</v>
-      </c>
-      <c r="F127" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="G127" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="H127" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="I127" s="10" t="s">
-        <v>901</v>
+        <v>670</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="E127" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="F127" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="G127" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="H127" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J127" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="K127" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="L127" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="M127" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="N127" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="O127" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="P127" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q127" s="1" t="s">
+        <v>930</v>
       </c>
       <c r="S127" s="41"/>
       <c r="T127" s="2"/>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E128" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="F128" s="11" t="s">
-        <v>856</v>
-      </c>
-      <c r="G128" s="13" t="s">
-        <v>838</v>
-      </c>
-      <c r="H128" s="9" t="s">
-        <v>894</v>
+        <v>147</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H128" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="I128" s="10" t="s">
+        <v>901</v>
       </c>
       <c r="S128" s="41"/>
       <c r="T128" s="2"/>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>354</v>
+        <v>92</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>678</v>
+        <v>183</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G129" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="H129" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="I129" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="J129" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="K129" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="L129" s="5" t="s">
-        <v>868</v>
-      </c>
-      <c r="M129" s="9" t="s">
-        <v>173</v>
+        <v>856</v>
+      </c>
+      <c r="G129" s="13" t="s">
+        <v>838</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>894</v>
       </c>
       <c r="S129" s="41"/>
       <c r="T129" s="2"/>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B130" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C130" s="9" t="s">
-        <v>680</v>
-      </c>
-      <c r="D130" s="12" t="s">
-        <v>681</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="F130" s="6" t="s">
-        <v>279</v>
+      <c r="C130" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="F130" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>431</v>
+        <v>192</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I130" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="K130" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="L130" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="M130" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="S130" s="41"/>
       <c r="T130" s="2"/>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B131" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="E131" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="F131" s="13" t="s">
-        <v>170</v>
+        <v>94</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="D131" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>431</v>
       </c>
       <c r="S131" s="41"/>
       <c r="T131" s="2"/>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B132" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C132" s="11" t="s">
-        <v>683</v>
-      </c>
-      <c r="D132" s="13" t="s">
-        <v>609</v>
-      </c>
-      <c r="E132" s="10" t="s">
-        <v>611</v>
-      </c>
-      <c r="F132" s="10" t="s">
-        <v>606</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="H132" s="8" t="s">
-        <v>684</v>
-      </c>
-      <c r="I132" s="11" t="s">
-        <v>685</v>
-      </c>
-      <c r="J132" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="K132" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="L132" s="6" t="s">
-        <v>874</v>
+        <v>95</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E132" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>926</v>
       </c>
       <c r="S132" s="41"/>
       <c r="T132" s="2"/>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="B133" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C133" s="8" t="s">
-        <v>686</v>
-      </c>
-      <c r="D133" s="9" t="s">
-        <v>687</v>
-      </c>
-      <c r="E133" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="F133" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="G133" s="10" t="s">
-        <v>688</v>
-      </c>
-      <c r="H133" s="12" t="s">
-        <v>253</v>
+      <c r="C133" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="E133" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="F133" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H133" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="I133" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="J133" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="K133" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="L133" s="6" t="s">
+        <v>874</v>
       </c>
       <c r="S133" s="41"/>
       <c r="T133" s="2"/>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C134" s="12" t="s">
-        <v>689</v>
-      </c>
-      <c r="D134" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="E134" s="13" t="s">
-        <v>691</v>
+        <v>148</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>502</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="G134" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="H134" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="I134" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="J134" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="K134" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="L134" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="M134" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="N134" s="10" t="s">
-        <v>875</v>
-      </c>
-      <c r="O134" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="P134" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G134" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="H134" s="12" t="s">
         <v>253</v>
       </c>
       <c r="S134" s="41"/>
@@ -8640,1116 +8628,1149 @@
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E135" s="6" t="s">
-        <v>161</v>
+        <v>97</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="D135" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="E135" s="13" t="s">
+        <v>691</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>606</v>
+        <v>241</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="H135" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="I135" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="J135" s="13" t="s">
-        <v>863</v>
+        <v>358</v>
+      </c>
+      <c r="H135" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="I135" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="J135" s="9" t="s">
+        <v>359</v>
       </c>
       <c r="K135" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="L135" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="L135" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="M135" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="M135" s="11" t="s">
-        <v>805</v>
-      </c>
-      <c r="N135" s="8" t="s">
-        <v>819</v>
-      </c>
-      <c r="O135" s="8" t="s">
-        <v>906</v>
+      <c r="N135" s="10" t="s">
+        <v>875</v>
+      </c>
+      <c r="O135" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="P135" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="S135" s="41"/>
       <c r="T135" s="2"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C136" s="13" t="s">
-        <v>694</v>
+        <v>98</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>693</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="E136" s="11" t="s">
-        <v>696</v>
+        <v>231</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>697</v>
+        <v>606</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="H136" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="I136" s="6" t="s">
-        <v>404</v>
+        <v>290</v>
+      </c>
+      <c r="H136" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="I136" s="13" t="s">
+        <v>273</v>
       </c>
       <c r="J136" s="13" t="s">
-        <v>327</v>
+        <v>863</v>
       </c>
       <c r="K136" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="L136" s="13" t="s">
-        <v>700</v>
-      </c>
-      <c r="M136" s="13" t="s">
-        <v>701</v>
+        <v>374</v>
+      </c>
+      <c r="L136" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="M136" s="11" t="s">
+        <v>805</v>
       </c>
       <c r="N136" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="O136" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="P136" s="10" t="s">
-        <v>173</v>
+        <v>819</v>
+      </c>
+      <c r="O136" s="8" t="s">
+        <v>906</v>
       </c>
       <c r="S136" s="41"/>
       <c r="T136" s="2"/>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B137" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B137" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>702</v>
-      </c>
-      <c r="D137" s="13" t="s">
-        <v>703</v>
+        <v>694</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>695</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>439</v>
+        <v>696</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="H137" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="I137" s="9" t="s">
-        <v>895</v>
-      </c>
-      <c r="P137" s="39"/>
+        <v>698</v>
+      </c>
+      <c r="H137" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="I137" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="J137" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="K137" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="L137" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="M137" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="N137" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="O137" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="P137" s="10" t="s">
+        <v>173</v>
+      </c>
       <c r="S137" s="41"/>
       <c r="T137" s="2"/>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B138" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C138" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="D138" s="10" t="s">
-        <v>596</v>
+      <c r="C138" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="D138" s="13" t="s">
+        <v>703</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>706</v>
+        <v>439</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="H138" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="I138" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="J138" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="K138" s="11" t="s">
-        <v>708</v>
-      </c>
-      <c r="L138" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="M138" s="6" t="s">
-        <v>224</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="H138" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="I138" s="9" t="s">
+        <v>895</v>
+      </c>
+      <c r="P138" s="39"/>
       <c r="S138" s="41"/>
       <c r="T138" s="2"/>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C139" s="13" t="s">
-        <v>422</v>
+        <v>101</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>705</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="E139" s="13" t="s">
-        <v>829</v>
-      </c>
-      <c r="F139" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="G139" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="H139" s="13" t="s">
-        <v>710</v>
-      </c>
-      <c r="I139" s="10" t="s">
-        <v>711</v>
+        <v>596</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="F139" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="G139" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="H139" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="I139" s="11" t="s">
+        <v>285</v>
       </c>
       <c r="J139" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="K139" s="13" t="s">
-        <v>712</v>
-      </c>
-      <c r="L139" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="K139" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="L139" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="M139" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="N139" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="O139" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="P139" s="8" t="s">
-        <v>808</v>
-      </c>
-      <c r="Q139" s="12" t="s">
-        <v>253</v>
+      <c r="M139" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="S139" s="41"/>
       <c r="T139" s="2"/>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C140" s="11" t="s">
-        <v>713</v>
-      </c>
-      <c r="D140" s="12" t="s">
-        <v>714</v>
+        <v>102</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>709</v>
       </c>
       <c r="E140" s="13" t="s">
-        <v>715</v>
-      </c>
-      <c r="F140" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="G140" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="H140" s="11" t="s">
-        <v>716</v>
-      </c>
-      <c r="I140" s="13" t="s">
-        <v>606</v>
-      </c>
-      <c r="J140" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="K140" s="10" t="s">
-        <v>717</v>
-      </c>
-      <c r="L140" s="10" t="s">
-        <v>718</v>
-      </c>
-      <c r="M140" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="N140" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="G140" s="8" t="s">
         <v>233</v>
+      </c>
+      <c r="H140" s="13" t="s">
+        <v>710</v>
+      </c>
+      <c r="I140" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="J140" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="K140" s="13" t="s">
+        <v>712</v>
+      </c>
+      <c r="L140" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="M140" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="N140" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="O140" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="P140" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="Q140" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="S140" s="41"/>
       <c r="T140" s="2"/>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C141" s="13" t="s">
-        <v>719</v>
-      </c>
-      <c r="D141" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="E141" s="10" t="s">
-        <v>721</v>
-      </c>
-      <c r="F141" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="G141" s="10" t="s">
-        <v>722</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>922</v>
+        <v>103</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="E141" s="13" t="s">
+        <v>715</v>
+      </c>
+      <c r="F141" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="G141" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="H141" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="I141" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="J141" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="K141" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="L141" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="M141" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="N141" s="9" t="s">
+        <v>233</v>
       </c>
       <c r="S141" s="41"/>
       <c r="T141" s="2"/>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>799</v>
-      </c>
-      <c r="D142" s="10" t="s">
-        <v>574</v>
+        <v>104</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>720</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="F142" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="G142" s="13" t="s">
-        <v>723</v>
-      </c>
-      <c r="H142" s="10" t="s">
-        <v>895</v>
+        <v>721</v>
+      </c>
+      <c r="F142" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="G142" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>922</v>
       </c>
       <c r="S142" s="41"/>
       <c r="T142" s="2"/>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C143" s="11" t="s">
-        <v>724</v>
-      </c>
-      <c r="D143" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E143" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="F143" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="G143" s="10" t="s">
-        <v>725</v>
+      <c r="C143" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G143" s="13" t="s">
+        <v>723</v>
       </c>
       <c r="H143" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="I143" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="J143" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="K143" s="8" t="s">
-        <v>726</v>
-      </c>
-      <c r="L143" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="M143" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="N143" s="1" t="s">
-        <v>883</v>
+        <v>895</v>
       </c>
       <c r="S143" s="41"/>
       <c r="T143" s="2"/>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B144" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="D144" s="12" t="s">
-        <v>728</v>
-      </c>
-      <c r="E144" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="F144" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="F144" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="G144" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="H144" s="8" t="s">
-        <v>259</v>
+      <c r="G144" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="H144" s="10" t="s">
+        <v>290</v>
       </c>
       <c r="I144" s="8" t="s">
-        <v>729</v>
+        <v>195</v>
       </c>
       <c r="J144" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="K144" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="L144" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="K144" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="L144" s="10" t="s">
-        <v>876</v>
-      </c>
-      <c r="M144" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="N144" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="O144" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="P144" s="12" t="s">
-        <v>837</v>
-      </c>
-      <c r="Q144" s="1" t="s">
-        <v>441</v>
+      <c r="M144" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="N144" s="1" t="s">
+        <v>883</v>
       </c>
       <c r="S144" s="41"/>
       <c r="T144" s="2"/>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B145" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C145" s="12" t="s">
-        <v>730</v>
+        <v>107</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>727</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>731</v>
-      </c>
-      <c r="E145" s="11" t="s">
-        <v>732</v>
-      </c>
-      <c r="F145" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="G145" s="13" t="s">
-        <v>734</v>
-      </c>
-      <c r="H145" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="I145" s="13" t="s">
-        <v>736</v>
-      </c>
-      <c r="J145" s="10" t="s">
-        <v>737</v>
+        <v>728</v>
+      </c>
+      <c r="E145" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F145" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G145" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H145" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I145" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="J145" s="11" t="s">
+        <v>183</v>
       </c>
       <c r="K145" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="L145" s="13" t="s">
-        <v>172</v>
+        <v>433</v>
+      </c>
+      <c r="L145" s="10" t="s">
+        <v>876</v>
       </c>
       <c r="M145" s="10" t="s">
-        <v>738</v>
+        <v>173</v>
       </c>
       <c r="N145" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="O145" s="12" t="s">
-        <v>886</v>
+        <v>374</v>
+      </c>
+      <c r="O145" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="P145" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q145" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="S145" s="41"/>
       <c r="T145" s="2"/>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="E146" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="F146" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="G146" s="8" t="s">
-        <v>196</v>
+        <v>108</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="F146" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="G146" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="H146" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="I146" s="13" t="s">
+        <v>736</v>
+      </c>
+      <c r="J146" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="K146" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="L146" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="M146" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="N146" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="O146" s="12" t="s">
+        <v>886</v>
       </c>
       <c r="S146" s="41"/>
       <c r="T146" s="2"/>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="B147" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C147" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D147" s="11" t="s">
-        <v>899</v>
+        <v>109</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E147" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="S147" s="41"/>
       <c r="T147" s="2"/>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C148" s="13" t="s">
-        <v>739</v>
-      </c>
-      <c r="D148" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="E148" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="F148" s="13" t="s">
-        <v>740</v>
-      </c>
-      <c r="G148" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="H148" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I148" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="J148" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="K148" s="9" t="s">
-        <v>822</v>
-      </c>
-      <c r="L148" s="1" t="s">
-        <v>909</v>
+        <v>814</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>899</v>
       </c>
       <c r="S148" s="41"/>
       <c r="T148" s="2"/>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D149" s="11" t="s">
-        <v>813</v>
+        <v>110</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="D149" s="13" t="s">
+        <v>271</v>
       </c>
       <c r="E149" s="13" t="s">
-        <v>846</v>
-      </c>
-      <c r="F149" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>927</v>
+        <v>336</v>
+      </c>
+      <c r="F149" s="13" t="s">
+        <v>740</v>
+      </c>
+      <c r="G149" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="H149" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="I149" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="J149" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="K149" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>909</v>
       </c>
       <c r="S149" s="41"/>
       <c r="T149" s="2"/>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C150" s="13" t="s">
-        <v>742</v>
+      <c r="C150" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>743</v>
-      </c>
-      <c r="E150" s="10" t="s">
-        <v>744</v>
+        <v>813</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>846</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="G150" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="H150" s="6" t="s">
-        <v>233</v>
+        <v>596</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>927</v>
       </c>
       <c r="S150" s="41"/>
       <c r="T150" s="2"/>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="D151" s="9" t="s">
-        <v>745</v>
-      </c>
-      <c r="E151" s="13" t="s">
-        <v>746</v>
-      </c>
-      <c r="F151" s="13" t="s">
-        <v>255</v>
+        <v>111</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="E151" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>459</v>
       </c>
       <c r="G151" s="10" t="s">
-        <v>747</v>
-      </c>
-      <c r="H151" s="9" t="s">
-        <v>729</v>
-      </c>
-      <c r="I151" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="J151" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="K151" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="L151" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="M151" s="11" t="s">
-        <v>824</v>
-      </c>
-      <c r="N151" s="1" t="s">
-        <v>910</v>
+        <v>340</v>
+      </c>
+      <c r="H151" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="S151" s="41"/>
       <c r="T151" s="2"/>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="D152" s="11" t="s">
-        <v>749</v>
-      </c>
-      <c r="E152" s="10" t="s">
-        <v>750</v>
-      </c>
-      <c r="F152" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="G152" s="13" t="s">
-        <v>751</v>
-      </c>
-      <c r="H152" s="8" t="s">
-        <v>752</v>
-      </c>
-      <c r="I152" s="6" t="s">
-        <v>821</v>
-      </c>
-      <c r="J152" s="8" t="s">
-        <v>877</v>
-      </c>
-      <c r="K152" s="1" t="s">
-        <v>922</v>
+        <v>150</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="E152" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="F152" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="G152" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="H152" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="I152" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J152" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="K152" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="L152" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="M152" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="N152" s="1" t="s">
+        <v>910</v>
       </c>
       <c r="S152" s="41"/>
       <c r="T152" s="2"/>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C153" s="11" t="s">
-        <v>753</v>
-      </c>
-      <c r="D153" s="13" t="s">
-        <v>754</v>
-      </c>
-      <c r="E153" s="13" t="s">
-        <v>755</v>
+        <v>112</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="E153" s="10" t="s">
+        <v>750</v>
       </c>
       <c r="F153" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="G153" s="11" t="s">
-        <v>757</v>
+        <v>373</v>
+      </c>
+      <c r="G153" s="13" t="s">
+        <v>751</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="I153" s="13" t="s">
-        <v>759</v>
-      </c>
-      <c r="J153" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="K153" s="13" t="s">
-        <v>760</v>
-      </c>
-      <c r="L153" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="M153" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="N153" s="8" t="s">
-        <v>807</v>
-      </c>
-      <c r="O153" s="11" t="s">
-        <v>901</v>
-      </c>
-      <c r="P153" s="6" t="s">
-        <v>902</v>
+        <v>752</v>
+      </c>
+      <c r="I153" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="J153" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>922</v>
       </c>
       <c r="S153" s="41"/>
       <c r="T153" s="2"/>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B154" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C154" s="13" t="s">
-        <v>761</v>
-      </c>
-      <c r="D154" s="9" t="s">
-        <v>762</v>
-      </c>
-      <c r="E154" s="11" t="s">
-        <v>763</v>
+        <v>113</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D154" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="E154" s="13" t="s">
+        <v>755</v>
       </c>
       <c r="F154" s="11" t="s">
-        <v>711</v>
-      </c>
-      <c r="G154" s="10" t="s">
-        <v>764</v>
+        <v>756</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>757</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>765</v>
-      </c>
-      <c r="I154" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="J154" s="1" t="s">
-        <v>172</v>
+        <v>758</v>
+      </c>
+      <c r="I154" s="13" t="s">
+        <v>759</v>
+      </c>
+      <c r="J154" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="K154" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="L154" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="M154" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="N154" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="O154" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="P154" s="6" t="s">
+        <v>902</v>
       </c>
       <c r="S154" s="41"/>
       <c r="T154" s="2"/>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>766</v>
-      </c>
-      <c r="D155" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="E155" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="F155" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G155" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="E155" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="F155" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="G155" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="H155" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="I155" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="J155" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="H155" s="8" t="s">
-        <v>809</v>
-      </c>
-      <c r="I155" s="8" t="s">
-        <v>878</v>
-      </c>
-      <c r="J155" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="K155" s="1" t="s">
-        <v>910</v>
       </c>
       <c r="S155" s="41"/>
       <c r="T155" s="2"/>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B156" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C156" s="11" t="s">
-        <v>767</v>
-      </c>
-      <c r="D156" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="E156" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="F156" s="11" t="s">
-        <v>418</v>
+        <v>114</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E156" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="H156" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="H156" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="I156" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="J156" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="I156" s="1" t="s">
-        <v>241</v>
+      <c r="K156" s="1" t="s">
+        <v>910</v>
       </c>
       <c r="S156" s="41"/>
       <c r="T156" s="2"/>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B157" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B157" s="10" t="s">
         <v>157</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="D157" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="E157" s="10" t="s">
-        <v>768</v>
-      </c>
-      <c r="F157" s="8" t="s">
-        <v>769</v>
-      </c>
-      <c r="G157" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="H157" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="I157" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="J157" s="5" t="s">
-        <v>770</v>
-      </c>
-      <c r="K157" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="L157" s="10" t="s">
-        <v>433</v>
+        <v>767</v>
+      </c>
+      <c r="D157" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="F157" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="G157" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="H157" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="S157" s="41"/>
       <c r="T157" s="2"/>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C158" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E158" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F158" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G158" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="H158" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="I158" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="J158" s="10" t="s">
-        <v>870</v>
-      </c>
-      <c r="K158" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L158" s="7" t="s">
-        <v>816</v>
-      </c>
-      <c r="M158" s="5" t="s">
-        <v>817</v>
-      </c>
-      <c r="N158" s="6" t="s">
-        <v>842</v>
-      </c>
-      <c r="O158" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="P158" s="1" t="s">
-        <v>923</v>
+      <c r="C158" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="E158" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="G158" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="H158" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="I158" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="J158" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="K158" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="L158" s="10" t="s">
+        <v>433</v>
       </c>
       <c r="S158" s="41"/>
       <c r="T158" s="2"/>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C159" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F159" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G159" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H159" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="I159" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J159" s="10" t="s">
+        <v>870</v>
+      </c>
+      <c r="K159" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D159" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="E159" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="F159" s="13" t="s">
-        <v>881</v>
-      </c>
-      <c r="G159" s="1" t="s">
+      <c r="L159" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="M159" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="N159" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="O159" s="1" t="s">
         <v>922</v>
+      </c>
+      <c r="P159" s="1" t="s">
+        <v>923</v>
       </c>
       <c r="S159" s="41"/>
       <c r="T159" s="2"/>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B160" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C160" s="10" t="s">
-        <v>771</v>
-      </c>
-      <c r="D160" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="E160" s="8" t="s">
-        <v>259</v>
+        <v>152</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D160" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="F160" s="13" t="s">
-        <v>772</v>
-      </c>
-      <c r="G160" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="H160" s="12" t="s">
-        <v>812</v>
-      </c>
-      <c r="I160" s="10" t="s">
-        <v>173</v>
+        <v>881</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>922</v>
       </c>
       <c r="S160" s="41"/>
       <c r="T160" s="2"/>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C161" s="11" t="s">
-        <v>773</v>
+        <v>118</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>771</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="E161" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="F161" s="9" t="s">
-        <v>327</v>
+        <v>445</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F161" s="13" t="s">
+        <v>772</v>
       </c>
       <c r="G161" s="13" t="s">
-        <v>846</v>
-      </c>
-      <c r="H161" s="1" t="s">
-        <v>919</v>
+        <v>267</v>
+      </c>
+      <c r="H161" s="12" t="s">
+        <v>812</v>
+      </c>
+      <c r="I161" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="S161" s="41"/>
       <c r="T161" s="2"/>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B162" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B162" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>775</v>
-      </c>
-      <c r="D162" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E162" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="F162" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="G162" s="10" t="s">
-        <v>899</v>
+        <v>773</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="G162" s="13" t="s">
+        <v>846</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>919</v>
       </c>
       <c r="S162" s="41"/>
       <c r="T162" s="2"/>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="D163" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="D163" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E163" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E163" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F163" s="7" t="s">
-        <v>231</v>
+      <c r="F163" s="10" t="s">
+        <v>482</v>
       </c>
       <c r="G163" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="H163" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="I163" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="J163" s="6" t="s">
-        <v>856</v>
-      </c>
-      <c r="K163" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="L163" s="10" t="s">
         <v>899</v>
-      </c>
-      <c r="M163" s="1" t="s">
-        <v>930</v>
       </c>
       <c r="S163" s="41"/>
       <c r="T163" s="2"/>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="B164" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C164" s="11" t="s">
-        <v>679</v>
-      </c>
-      <c r="D164" s="13" t="s">
-        <v>881</v>
-      </c>
-      <c r="E164" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E164" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F164" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G164" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="H164" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="I164" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="J164" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="K164" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="L164" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="M164" s="1" t="s">
         <v>930</v>
       </c>
       <c r="S164" s="41"/>
@@ -9757,149 +9778,170 @@
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B165" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C165" s="13" t="s">
-        <v>647</v>
+        <v>827</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>679</v>
       </c>
       <c r="D165" s="13" t="s">
-        <v>778</v>
-      </c>
-      <c r="E165" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="F165" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G165" s="8" t="s">
-        <v>779</v>
-      </c>
-      <c r="H165" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="I165" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="J165" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="K165" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="L165" s="11" t="s">
-        <v>833</v>
+        <v>881</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>930</v>
       </c>
       <c r="S165" s="41"/>
       <c r="T165" s="2"/>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B166" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>780</v>
-      </c>
-      <c r="D166" s="12" t="s">
-        <v>781</v>
+        <v>647</v>
+      </c>
+      <c r="D166" s="13" t="s">
+        <v>778</v>
       </c>
       <c r="E166" s="11" t="s">
-        <v>782</v>
-      </c>
-      <c r="F166" s="13" t="s">
-        <v>783</v>
-      </c>
-      <c r="G166" s="6" t="s">
-        <v>161</v>
+        <v>274</v>
+      </c>
+      <c r="F166" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G166" s="8" t="s">
+        <v>779</v>
       </c>
       <c r="H166" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="I166" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J166" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I166" s="9" t="s">
-        <v>901</v>
+      <c r="K166" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="L166" s="11" t="s">
+        <v>833</v>
       </c>
       <c r="S166" s="41"/>
       <c r="T166" s="2"/>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="B167" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C167" s="10" t="s">
-        <v>784</v>
-      </c>
-      <c r="D167" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="E167" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F167" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="G167" s="9" t="s">
-        <v>879</v>
-      </c>
-      <c r="H167" s="10" t="s">
-        <v>846</v>
-      </c>
-      <c r="I167" s="10" t="s">
+      <c r="C167" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="D167" s="12" t="s">
+        <v>781</v>
+      </c>
+      <c r="E167" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="F167" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="G167" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H167" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="I167" s="9" t="s">
         <v>901</v>
       </c>
       <c r="S167" s="41"/>
       <c r="T167" s="2"/>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
+      <c r="A168" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F168" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="G168" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="H168" s="10" t="s">
+        <v>846</v>
+      </c>
+      <c r="I168" s="10" t="s">
+        <v>901</v>
+      </c>
+      <c r="S168" s="41"/>
+      <c r="T168" s="2"/>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B168" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C168" s="17" t="s">
+      <c r="B169" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C169" s="17" t="s">
         <v>785</v>
       </c>
-      <c r="D168" s="18" t="s">
+      <c r="D169" s="18" t="s">
         <v>527</v>
       </c>
-      <c r="E168" s="20" t="s">
+      <c r="E169" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="F168" s="19" t="s">
+      <c r="F169" s="19" t="s">
         <v>786</v>
       </c>
-      <c r="G168" s="16" t="s">
+      <c r="G169" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="H168" s="18" t="s">
+      <c r="H169" s="18" t="s">
         <v>861</v>
       </c>
-      <c r="I168" s="36" t="s">
+      <c r="I169" s="36" t="s">
         <v>677</v>
       </c>
-      <c r="J168" s="18" t="s">
+      <c r="J169" s="18" t="s">
         <v>808</v>
       </c>
-      <c r="K168" s="18" t="s">
+      <c r="K169" s="18" t="s">
         <v>904</v>
       </c>
-      <c r="L168" s="3"/>
-      <c r="M168" s="3"/>
-      <c r="N168" s="3"/>
-      <c r="O168" s="3"/>
-      <c r="P168" s="3"/>
-      <c r="Q168" s="3"/>
-      <c r="R168" s="3"/>
-      <c r="S168" s="3"/>
-      <c r="T168" s="4"/>
+      <c r="L169" s="39" t="s">
+        <v>937</v>
+      </c>
+      <c r="M169" s="3"/>
+      <c r="N169" s="3"/>
+      <c r="O169" s="3"/>
+      <c r="P169" s="3"/>
+      <c r="Q169" s="3"/>
+      <c r="R169" s="3"/>
+      <c r="S169" s="3"/>
+      <c r="T169" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="940">
   <si>
     <t>Aatrox</t>
   </si>
@@ -2838,6 +2838,12 @@
   </si>
   <si>
     <t>Street Demons</t>
+  </si>
+  <si>
+    <t>La Ilusión</t>
+  </si>
+  <si>
+    <t>Prestige La Ilusión</t>
   </si>
 </sst>
 </file>
@@ -3498,8 +3504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H132" sqref="H132"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4601,6 +4607,9 @@
       <c r="M30" s="11" t="s">
         <v>895</v>
       </c>
+      <c r="N30" s="1" t="s">
+        <v>938</v>
+      </c>
       <c r="S30" s="41"/>
       <c r="T30" s="2"/>
     </row>
@@ -5118,6 +5127,9 @@
       </c>
       <c r="J42" s="8" t="s">
         <v>172</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>938</v>
       </c>
       <c r="S42" s="41"/>
       <c r="T42" s="2"/>
@@ -7123,6 +7135,9 @@
       <c r="P92" s="1" t="s">
         <v>918</v>
       </c>
+      <c r="Q92" s="1" t="s">
+        <v>938</v>
+      </c>
       <c r="S92" s="41"/>
       <c r="T92" s="2"/>
     </row>
@@ -7472,6 +7487,9 @@
       <c r="H102" s="7" t="s">
         <v>510</v>
       </c>
+      <c r="I102" s="1" t="s">
+        <v>938</v>
+      </c>
       <c r="S102" s="41"/>
       <c r="T102" s="2"/>
     </row>
@@ -7628,6 +7646,12 @@
       <c r="D108" s="6" t="s">
         <v>895</v>
       </c>
+      <c r="E108" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>939</v>
+      </c>
       <c r="S108" s="41"/>
       <c r="T108" s="2"/>
     </row>
@@ -9831,6 +9855,9 @@
       </c>
       <c r="L166" s="11" t="s">
         <v>833</v>
+      </c>
+      <c r="M166" s="1" t="s">
+        <v>938</v>
       </c>
       <c r="S166" s="41"/>
       <c r="T166" s="2"/>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="942">
   <si>
     <t>Aatrox</t>
   </si>
@@ -2844,6 +2844,12 @@
   </si>
   <si>
     <t>Prestige La Ilusión</t>
+  </si>
+  <si>
+    <t>Worlds 2023</t>
+  </si>
+  <si>
+    <t>Redeemed Star Guardian</t>
   </si>
 </sst>
 </file>
@@ -3504,8 +3510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3747,8 +3753,12 @@
       <c r="R7" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="S7" s="41"/>
-      <c r="T7" s="2"/>
+      <c r="S7" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>861</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -4724,6 +4734,9 @@
       <c r="I33" s="5" t="s">
         <v>679</v>
       </c>
+      <c r="J33" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="S33" s="41"/>
       <c r="T33" s="2"/>
     </row>
@@ -5514,28 +5527,28 @@
       <c r="A53" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C53" s="12" t="s">
+      <c r="B53" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="39" t="s">
         <v>420</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="39" t="s">
         <v>421</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="39" t="s">
         <v>422</v>
       </c>
-      <c r="G53" s="13" t="s">
+      <c r="G53" s="39" t="s">
         <v>423</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H53" s="39" t="s">
         <v>424</v>
       </c>
-      <c r="I53" s="11" t="s">
+      <c r="I53" s="39" t="s">
         <v>425</v>
       </c>
       <c r="J53" s="11" t="s">
@@ -5558,6 +5571,9 @@
       </c>
       <c r="P53" s="10" t="s">
         <v>899</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>660</v>
       </c>
       <c r="S53" s="41"/>
       <c r="T53" s="2"/>
@@ -6852,6 +6868,9 @@
       <c r="L85" s="6" t="s">
         <v>903</v>
       </c>
+      <c r="M85" s="1" t="s">
+        <v>807</v>
+      </c>
       <c r="S85" s="41"/>
       <c r="T85" s="2"/>
     </row>
@@ -6972,6 +6991,9 @@
       <c r="M88" s="6" t="s">
         <v>864</v>
       </c>
+      <c r="N88" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="S88" s="41"/>
       <c r="T88" s="2"/>
     </row>
@@ -7151,6 +7173,9 @@
       <c r="C93" s="6" t="s">
         <v>170</v>
       </c>
+      <c r="D93" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="S93" s="41"/>
       <c r="T93" s="2"/>
     </row>
@@ -7552,6 +7577,9 @@
       <c r="J104" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="K104" s="1" t="s">
+        <v>941</v>
+      </c>
       <c r="S104" s="41"/>
       <c r="T104" s="2"/>
     </row>
@@ -7701,6 +7729,9 @@
       <c r="O109" s="1" t="s">
         <v>441</v>
       </c>
+      <c r="P109" s="1" t="s">
+        <v>940</v>
+      </c>
       <c r="S109" s="41"/>
       <c r="T109" s="2"/>
     </row>
@@ -9521,6 +9552,9 @@
       </c>
       <c r="K156" s="1" t="s">
         <v>910</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>941</v>
       </c>
       <c r="S156" s="41"/>
       <c r="T156" s="2"/>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="942">
   <si>
     <t>Aatrox</t>
   </si>
@@ -3510,8 +3510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O130" sqref="O130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5692,6 +5692,9 @@
       <c r="M56" s="12" t="s">
         <v>858</v>
       </c>
+      <c r="N56" s="1" t="s">
+        <v>824</v>
+      </c>
       <c r="S56" s="41"/>
       <c r="T56" s="2"/>
     </row>
@@ -6492,6 +6495,9 @@
       </c>
       <c r="M77" s="13" t="s">
         <v>886</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>824</v>
       </c>
       <c r="S77" s="41"/>
       <c r="T77" s="2"/>
@@ -7447,6 +7453,9 @@
       <c r="M100" s="10" t="s">
         <v>327</v>
       </c>
+      <c r="N100" s="1" t="s">
+        <v>824</v>
+      </c>
       <c r="S100" s="41"/>
       <c r="T100" s="2"/>
     </row>
@@ -7846,6 +7855,9 @@
       <c r="G112" s="12" t="s">
         <v>253</v>
       </c>
+      <c r="H112" s="1" t="s">
+        <v>824</v>
+      </c>
       <c r="S112" s="41"/>
       <c r="T112" s="2"/>
     </row>
@@ -8556,6 +8568,9 @@
       </c>
       <c r="M130" s="9" t="s">
         <v>173</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="S130" s="41"/>
       <c r="T130" s="2"/>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="945">
   <si>
     <t>Aatrox</t>
   </si>
@@ -2850,6 +2850,15 @@
   </si>
   <si>
     <t>Redeemed Star Guardian</t>
+  </si>
+  <si>
+    <t>HEARTSTEEL</t>
+  </si>
+  <si>
+    <t>Prestige HEARTSTEEL</t>
+  </si>
+  <si>
+    <t>Breakout True Damage</t>
   </si>
 </sst>
 </file>
@@ -3510,8 +3519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O130" sqref="O130"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3997,6 +4006,9 @@
       <c r="F13" s="8" t="s">
         <v>173</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>942</v>
+      </c>
       <c r="S13" s="41"/>
       <c r="T13" s="2"/>
     </row>
@@ -4703,6 +4715,9 @@
       <c r="L32" s="10" t="s">
         <v>868</v>
       </c>
+      <c r="M32" s="1" t="s">
+        <v>944</v>
+      </c>
       <c r="S32" s="41"/>
       <c r="T32" s="2"/>
     </row>
@@ -4844,7 +4859,9 @@
       <c r="S35" s="41" t="s">
         <v>913</v>
       </c>
-      <c r="T35" s="2"/>
+      <c r="T35" s="2" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -6015,6 +6032,9 @@
       <c r="G64" s="7" t="s">
         <v>883</v>
       </c>
+      <c r="H64" s="1" t="s">
+        <v>942</v>
+      </c>
       <c r="S64" s="41"/>
       <c r="T64" s="2"/>
     </row>
@@ -6203,6 +6223,9 @@
       </c>
       <c r="D70" s="6" t="s">
         <v>900</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>942</v>
       </c>
       <c r="S70" s="41"/>
       <c r="T70" s="2"/>
@@ -8074,6 +8097,9 @@
       <c r="I118" s="1" t="s">
         <v>927</v>
       </c>
+      <c r="J118" s="1" t="s">
+        <v>942</v>
+      </c>
       <c r="S118" s="41"/>
       <c r="T118" s="2"/>
     </row>
@@ -9718,6 +9744,12 @@
       </c>
       <c r="G160" s="1" t="s">
         <v>922</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>943</v>
       </c>
       <c r="S160" s="41"/>
       <c r="T160" s="2"/>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="948">
   <si>
     <t>Aatrox</t>
   </si>
@@ -2859,6 +2859,15 @@
   </si>
   <si>
     <t>Breakout True Damage</t>
+  </si>
+  <si>
+    <t>Beezcrank</t>
+  </si>
+  <si>
+    <t>King Beegar</t>
+  </si>
+  <si>
+    <t>Bee'Koz</t>
   </si>
 </sst>
 </file>
@@ -3519,8 +3528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H147" sqref="H147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4213,6 +4222,9 @@
       <c r="P19" s="13" t="s">
         <v>893</v>
       </c>
+      <c r="Q19" s="1" t="s">
+        <v>945</v>
+      </c>
       <c r="S19" s="41"/>
       <c r="T19" s="2"/>
     </row>
@@ -9254,6 +9266,9 @@
       <c r="O146" s="12" t="s">
         <v>886</v>
       </c>
+      <c r="P146" s="1" t="s">
+        <v>946</v>
+      </c>
       <c r="S146" s="41"/>
       <c r="T146" s="2"/>
     </row>
@@ -9278,6 +9293,9 @@
       </c>
       <c r="G147" s="8" t="s">
         <v>196</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>947</v>
       </c>
       <c r="S147" s="41"/>
       <c r="T147" s="2"/>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="949">
   <si>
     <t>Aatrox</t>
   </si>
@@ -2868,6 +2868,9 @@
   </si>
   <si>
     <t>Bee'Koz</t>
+  </si>
+  <si>
+    <t>Hwei</t>
   </si>
 </sst>
 </file>
@@ -3526,10 +3529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T169"/>
+  <dimension ref="A1:T170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H147" sqref="H147"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3993,6 +3996,9 @@
       <c r="Q12" s="7" t="s">
         <v>895</v>
       </c>
+      <c r="R12" s="1" t="s">
+        <v>901</v>
+      </c>
       <c r="S12" s="41"/>
       <c r="T12" s="2"/>
     </row>
@@ -4076,7 +4082,9 @@
       <c r="R14" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="S14" s="41"/>
+      <c r="S14" s="41" t="s">
+        <v>926</v>
+      </c>
       <c r="T14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -4401,6 +4409,12 @@
       <c r="G24" s="10" t="s">
         <v>891</v>
       </c>
+      <c r="H24" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>902</v>
+      </c>
       <c r="S24" s="41"/>
       <c r="T24" s="2"/>
     </row>
@@ -5324,6 +5338,9 @@
       <c r="L46" s="8" t="s">
         <v>279</v>
       </c>
+      <c r="M46" s="1" t="s">
+        <v>901</v>
+      </c>
       <c r="S46" s="41"/>
       <c r="T46" s="2"/>
     </row>
@@ -5363,3424 +5380,3401 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>883</v>
-      </c>
+        <v>948</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>901</v>
+      </c>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
       <c r="S48" s="41"/>
       <c r="T48" s="2"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>408</v>
+        <v>34</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>267</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>856</v>
-      </c>
-      <c r="L49" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="M49" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="N49" s="7" t="s">
-        <v>904</v>
+        <v>406</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>883</v>
       </c>
       <c r="S49" s="41"/>
       <c r="T49" s="2"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C50" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>807</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>241</v>
+      <c r="C50" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="N50" s="7" t="s">
+        <v>904</v>
       </c>
       <c r="S50" s="41"/>
       <c r="T50" s="2"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="M51" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="N51" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="O51" s="13" t="s">
-        <v>888</v>
-      </c>
-      <c r="P51" s="8" t="s">
-        <v>889</v>
+        <v>130</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="S51" s="41"/>
       <c r="T51" s="2"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="F52" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="F52" s="6" t="s">
         <v>162</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="H52" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="H52" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="I52" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>194</v>
+      <c r="I52" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="M52" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="N52" s="7" t="s">
-        <v>815</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>224</v>
+        <v>418</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="O52" s="13" t="s">
+        <v>888</v>
+      </c>
+      <c r="P52" s="8" t="s">
+        <v>889</v>
       </c>
       <c r="S52" s="41"/>
       <c r="T52" s="2"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B53" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="C53" s="39" t="s">
-        <v>420</v>
-      </c>
-      <c r="D53" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="E53" s="39" t="s">
-        <v>421</v>
-      </c>
-      <c r="F53" s="39" t="s">
-        <v>422</v>
-      </c>
-      <c r="G53" s="39" t="s">
-        <v>423</v>
-      </c>
-      <c r="H53" s="39" t="s">
-        <v>424</v>
-      </c>
-      <c r="I53" s="39" t="s">
-        <v>425</v>
-      </c>
-      <c r="J53" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="K53" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="L53" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="N53" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="O53" s="6" t="s">
-        <v>857</v>
-      </c>
-      <c r="P53" s="10" t="s">
-        <v>899</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>660</v>
+        <v>131</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="M53" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="N53" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="S53" s="41"/>
       <c r="T53" s="2"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>822</v>
+        <v>37</v>
+      </c>
+      <c r="B54" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>420</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="E54" s="39" t="s">
+        <v>421</v>
+      </c>
+      <c r="F54" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="G54" s="39" t="s">
+        <v>423</v>
+      </c>
+      <c r="H54" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="I54" s="39" t="s">
+        <v>425</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>893</v>
+        <v>192</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="L54" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="P54" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>660</v>
       </c>
       <c r="S54" s="41"/>
       <c r="T54" s="2"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>431</v>
+        <v>38</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>267</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>899</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>935</v>
+        <v>822</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>893</v>
       </c>
       <c r="S55" s="41"/>
       <c r="T55" s="2"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B56" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="H56" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="I56" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F56" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="J56" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="K56" s="8" t="s">
-        <v>822</v>
-      </c>
-      <c r="L56" s="13" t="s">
-        <v>836</v>
-      </c>
-      <c r="M56" s="12" t="s">
-        <v>858</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>824</v>
+      <c r="G56" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>935</v>
       </c>
       <c r="S56" s="41"/>
       <c r="T56" s="2"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>848</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>859</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>818</v>
+        <v>40</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>230</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>922</v>
+        <v>822</v>
+      </c>
+      <c r="L57" s="13" t="s">
+        <v>836</v>
+      </c>
+      <c r="M57" s="12" t="s">
+        <v>858</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>824</v>
       </c>
       <c r="S57" s="41"/>
       <c r="T57" s="2"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>192</v>
+        <v>132</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>848</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>913</v>
+        <v>278</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>922</v>
       </c>
       <c r="S58" s="41"/>
       <c r="T58" s="2"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B59" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="J59" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="K59" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="L59" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="M59" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="N59" s="8" t="s">
-        <v>820</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>912</v>
+        <v>161</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>913</v>
       </c>
       <c r="S59" s="41"/>
       <c r="T59" s="2"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>446</v>
+        <v>133</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>440</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>812</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>172</v>
+        <v>290</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="M60" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>912</v>
       </c>
       <c r="S60" s="41"/>
       <c r="T60" s="2"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>447</v>
+        <v>41</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>442</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="J61" s="40" t="s">
-        <v>776</v>
+        <v>443</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="S61" s="41"/>
       <c r="T61" s="2"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B62" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>455</v>
+        <v>447</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>449</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="H62" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="J62" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="K62" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="L62" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="M62" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="N62" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="O62" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="P62" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q62" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>914</v>
+        <v>451</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="J62" s="40" t="s">
+        <v>776</v>
       </c>
       <c r="S62" s="41"/>
       <c r="T62" s="2"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="I63" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="J63" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="K63" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="L63" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="M63" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="N63" s="11" t="s">
-        <v>812</v>
-      </c>
-      <c r="O63" s="6" t="s">
-        <v>840</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>930</v>
+        <v>43</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="M63" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="O63" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="P63" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>914</v>
       </c>
       <c r="S63" s="41"/>
       <c r="T63" s="2"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>224</v>
+        <v>44</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>462</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>860</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>883</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>942</v>
+        <v>463</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="K64" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="N64" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="O64" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>930</v>
       </c>
       <c r="S64" s="41"/>
       <c r="T64" s="2"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>470</v>
+        <v>45</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="I65" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="K65" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>241</v>
+        <v>860</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>942</v>
       </c>
       <c r="S65" s="41"/>
       <c r="T65" s="2"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>231</v>
+        <v>135</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>390</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>557</v>
+        <v>161</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="S66" s="41"/>
       <c r="T66" s="2"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>222</v>
+        <v>46</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>418</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>826</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>924</v>
+        <v>326</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>557</v>
       </c>
       <c r="S67" s="41"/>
       <c r="T67" s="2"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>474</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>920</v>
+        <v>47</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>924</v>
       </c>
       <c r="S68" s="41"/>
       <c r="T68" s="2"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>477</v>
+        <v>136</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>475</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>478</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="J69" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="K69" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="L69" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="M69" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="N69" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="O69" s="11" t="s">
-        <v>887</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>431</v>
+        <v>191</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>920</v>
       </c>
       <c r="S69" s="41"/>
       <c r="T69" s="2"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>899</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>900</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>942</v>
+        <v>48</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="M70" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="O70" s="11" t="s">
+        <v>887</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>431</v>
       </c>
       <c r="S70" s="41"/>
       <c r="T70" s="2"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="I71" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="J71" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="K71" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="L71" s="8" t="s">
-        <v>861</v>
-      </c>
-      <c r="M71" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="N71" s="6" t="s">
-        <v>327</v>
+        <v>898</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>942</v>
       </c>
       <c r="S71" s="41"/>
       <c r="T71" s="2"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="H72" s="13" t="s">
-        <v>192</v>
+        <v>49</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>276</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="J72" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="K72" s="13" t="s">
-        <v>495</v>
-      </c>
-      <c r="L72" s="6" t="s">
-        <v>224</v>
+        <v>278</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="K72" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="L72" s="8" t="s">
+        <v>861</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>860</v>
-      </c>
-      <c r="N72" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="O72" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="P72" s="11" t="s">
-        <v>893</v>
+        <v>336</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="S72" s="41"/>
       <c r="T72" s="2"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="F73" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="G73" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="G73" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="I73" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="K73" s="6" t="s">
-        <v>313</v>
+      <c r="H73" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="J73" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="K73" s="13" t="s">
+        <v>495</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="M73" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="N73" s="6" t="s">
-        <v>862</v>
-      </c>
-      <c r="O73" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="P73" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q73" s="1" t="s">
-        <v>926</v>
+        <v>224</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="N73" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="O73" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="P73" s="11" t="s">
+        <v>893</v>
       </c>
       <c r="S73" s="41"/>
       <c r="T73" s="2"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>431</v>
+        <v>51</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="O74" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="P74" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>926</v>
       </c>
       <c r="S74" s="41"/>
       <c r="T74" s="2"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>502</v>
+        <v>52</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>826</v>
-      </c>
-      <c r="I75" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="J75" s="7" t="s">
-        <v>865</v>
+        <v>224</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>431</v>
       </c>
       <c r="S75" s="41"/>
       <c r="T75" s="2"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>391</v>
+        <v>53</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>502</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F76" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H76" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="I76" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="J76" s="10" t="s">
-        <v>863</v>
-      </c>
-      <c r="K76" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="L76" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="M76" s="11" t="s">
-        <v>892</v>
+        <v>503</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="I76" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>865</v>
       </c>
       <c r="S76" s="41"/>
       <c r="T76" s="2"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="I77" s="9" t="s">
-        <v>505</v>
+        <v>54</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="I77" s="10" t="s">
+        <v>273</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="K77" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="L77" s="13" t="s">
-        <v>864</v>
-      </c>
-      <c r="M77" s="13" t="s">
-        <v>886</v>
+        <v>863</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="M77" s="11" t="s">
+        <v>892</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>824</v>
+        <v>901</v>
       </c>
       <c r="S77" s="41"/>
       <c r="T77" s="2"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>508</v>
+        <v>55</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>440</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="H78" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="H78" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="I78" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="J78" s="9" t="s">
-        <v>510</v>
+      <c r="I78" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="J78" s="10" t="s">
+        <v>339</v>
       </c>
       <c r="K78" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="L78" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="M78" s="8" t="s">
-        <v>862</v>
-      </c>
-      <c r="N78" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="O78" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="P78" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="Q78" s="8" t="s">
-        <v>826</v>
-      </c>
-      <c r="R78" s="8" t="s">
-        <v>865</v>
-      </c>
-      <c r="S78" s="42" t="s">
-        <v>899</v>
-      </c>
+      <c r="L78" s="13" t="s">
+        <v>864</v>
+      </c>
+      <c r="M78" s="13" t="s">
+        <v>886</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="S78" s="41"/>
       <c r="T78" s="2"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>513</v>
+        <v>56</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>507</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="G79" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="I79" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="J79" s="11" t="s">
-        <v>163</v>
+        <v>363</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>510</v>
       </c>
       <c r="K79" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="L79" s="13" t="s">
-        <v>866</v>
-      </c>
-      <c r="M79" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="N79" s="8" t="s">
-        <v>807</v>
-      </c>
-      <c r="O79" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="S79" s="41"/>
+        <v>339</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="M79" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="O79" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="P79" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q79" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="R79" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="S79" s="42" t="s">
+        <v>899</v>
+      </c>
       <c r="T79" s="2"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="F80" s="13" t="s">
-        <v>521</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="I80" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="J80" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="K80" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="L80" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>917</v>
+        <v>57</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I80" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="K80" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="L80" s="13" t="s">
+        <v>866</v>
+      </c>
+      <c r="M80" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="N80" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="O80" s="6" t="s">
+        <v>557</v>
       </c>
       <c r="S80" s="41"/>
       <c r="T80" s="2"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="G81" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="H81" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="I81" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="J81" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="I81" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="J81" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="K81" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>924</v>
+      <c r="K81" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="L81" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>917</v>
       </c>
       <c r="S81" s="41"/>
       <c r="T81" s="2"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="G82" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="H82" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="I82" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="J82" s="8" t="s">
-        <v>534</v>
+        <v>58</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>522</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="L82" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="M82" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="N82" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="O82" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="P82" s="13" t="s">
-        <v>875</v>
-      </c>
-      <c r="Q82" s="1" t="s">
-        <v>922</v>
+        <v>241</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>924</v>
       </c>
       <c r="S82" s="41"/>
       <c r="T82" s="2"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>916</v>
-      </c>
-      <c r="B83" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="C83" s="39" t="s">
-        <v>913</v>
-      </c>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="39"/>
-      <c r="I83" s="39"/>
-      <c r="J83" s="39"/>
-      <c r="K83" s="39"/>
-      <c r="L83" s="39"/>
-      <c r="M83" s="39"/>
-      <c r="N83" s="39"/>
-      <c r="O83" s="39"/>
-      <c r="P83" s="39"/>
+        <v>59</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="J83" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="K83" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="L83" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="M83" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="N83" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="O83" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="P83" s="13" t="s">
+        <v>875</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>922</v>
+      </c>
       <c r="S83" s="41"/>
       <c r="T83" s="2"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>539</v>
-      </c>
-      <c r="G84" s="13" t="s">
-        <v>540</v>
-      </c>
-      <c r="H84" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="I84" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="J84" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="K84" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="L84" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M84" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="N84" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="O84" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="P84" s="6" t="s">
-        <v>867</v>
-      </c>
-      <c r="Q84" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="R84" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="S84" s="41" t="s">
-        <v>910</v>
-      </c>
-      <c r="T84" s="2" t="s">
-        <v>911</v>
-      </c>
+        <v>916</v>
+      </c>
+      <c r="B84" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84" s="39" t="s">
+        <v>913</v>
+      </c>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="39"/>
+      <c r="L84" s="39"/>
+      <c r="M84" s="39"/>
+      <c r="N84" s="39"/>
+      <c r="O84" s="39"/>
+      <c r="P84" s="39"/>
+      <c r="S84" s="41"/>
+      <c r="T84" s="2"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>445</v>
+        <v>60</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>538</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="I85" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="J85" s="10" t="s">
-        <v>812</v>
-      </c>
-      <c r="K85" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="L85" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="S85" s="41"/>
-      <c r="T85" s="2"/>
+        <v>539</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="K85" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="L85" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M85" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="N85" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="O85" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="P85" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="Q85" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="R85" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="S85" s="41" t="s">
+        <v>910</v>
+      </c>
+      <c r="T85" s="2" t="s">
+        <v>911</v>
+      </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C86" s="13" t="s">
-        <v>544</v>
+      <c r="C86" s="11" t="s">
+        <v>542</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>547</v>
+        <v>177</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>299</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="I86" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="J86" s="8" t="s">
-        <v>327</v>
+        <v>543</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="I86" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="J86" s="10" t="s">
+        <v>812</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="L86" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="M86" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="N86" s="7" t="s">
-        <v>867</v>
-      </c>
-      <c r="O86" s="8" t="s">
-        <v>884</v>
-      </c>
-      <c r="P86" s="1" t="s">
-        <v>883</v>
+        <v>233</v>
+      </c>
+      <c r="L86" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>807</v>
       </c>
       <c r="S86" s="41"/>
       <c r="T86" s="2"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="B87" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="C87" s="39" t="s">
-        <v>927</v>
-      </c>
-      <c r="D87" s="39"/>
-      <c r="E87" s="39"/>
-      <c r="F87" s="39"/>
-      <c r="G87" s="39"/>
-      <c r="H87" s="39"/>
-      <c r="I87" s="39"/>
-      <c r="J87" s="39"/>
-      <c r="K87" s="39"/>
-      <c r="L87" s="39"/>
-      <c r="M87" s="39"/>
-      <c r="N87" s="39"/>
-      <c r="O87" s="39"/>
+        <v>62</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="I87" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="J87" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="L87" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="M87" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="N87" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="O87" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>883</v>
+      </c>
       <c r="S87" s="41"/>
       <c r="T87" s="2"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="H88" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="I88" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="J88" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="K88" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="L88" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="M88" s="6" t="s">
-        <v>864</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>277</v>
-      </c>
+        <v>928</v>
+      </c>
+      <c r="B88" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C88" s="39" t="s">
+        <v>927</v>
+      </c>
+      <c r="D88" s="39"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="39"/>
+      <c r="K88" s="39"/>
+      <c r="L88" s="39"/>
+      <c r="M88" s="39"/>
+      <c r="N88" s="39"/>
+      <c r="O88" s="39"/>
       <c r="S88" s="41"/>
       <c r="T88" s="2"/>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>198</v>
+        <v>63</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>551</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="F89" s="12" t="s">
-        <v>555</v>
-      </c>
-      <c r="G89" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="H89" s="13" t="s">
-        <v>556</v>
-      </c>
-      <c r="I89" s="9" t="s">
-        <v>522</v>
+        <v>552</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>553</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="K89" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="L89" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="K89" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="L89" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="M89" s="10" t="s">
-        <v>890</v>
+      <c r="M89" s="6" t="s">
+        <v>864</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="S89" s="41"/>
       <c r="T89" s="2"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="D90" s="13" t="s">
-        <v>559</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="G90" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H90" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="I90" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="H90" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="I90" s="6" t="s">
-        <v>431</v>
-      </c>
       <c r="J90" s="6" t="s">
-        <v>895</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>933</v>
+        <v>557</v>
+      </c>
+      <c r="K90" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="L90" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="M90" s="10" t="s">
+        <v>890</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="S90" s="41"/>
       <c r="T90" s="2"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>868</v>
-      </c>
-      <c r="F91" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="I91" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="G91" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="H91" s="39" t="s">
-        <v>937</v>
+      <c r="J91" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>933</v>
       </c>
       <c r="S91" s="41"/>
       <c r="T91" s="2"/>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>198</v>
+        <v>138</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="H92" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="I92" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="J92" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="K92" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="L92" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="M92" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="N92" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="O92" s="11" t="s">
-        <v>881</v>
-      </c>
-      <c r="P92" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="Q92" s="1" t="s">
-        <v>938</v>
+      <c r="H92" s="39" t="s">
+        <v>937</v>
       </c>
       <c r="S92" s="41"/>
       <c r="T92" s="2"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>277</v>
+        <v>66</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="J93" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="K93" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="L93" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="M93" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="O93" s="11" t="s">
+        <v>881</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>938</v>
       </c>
       <c r="S93" s="41"/>
       <c r="T93" s="2"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>564</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="E94" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="F94" s="13" t="s">
-        <v>566</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="H94" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="I94" s="6" t="s">
-        <v>807</v>
-      </c>
-      <c r="J94" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>910</v>
+        <v>885</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="S94" s="41"/>
       <c r="T94" s="2"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>568</v>
+        <v>139</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>564</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>569</v>
+        <v>357</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="F95" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="H95" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="I95" s="13" t="s">
-        <v>257</v>
+        <v>565</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>807</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="K95" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="L95" s="10" t="s">
-        <v>834</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>934</v>
+        <v>194</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>910</v>
       </c>
       <c r="S95" s="41"/>
       <c r="T95" s="2"/>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="E96" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="F96" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="G96" s="11" t="s">
-        <v>191</v>
+        <v>67</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>572</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="I96" s="10" t="s">
-        <v>192</v>
+        <v>321</v>
+      </c>
+      <c r="I96" s="13" t="s">
+        <v>257</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="K96" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="L96" s="13" t="s">
-        <v>812</v>
+        <v>212</v>
+      </c>
+      <c r="K96" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="L96" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>934</v>
       </c>
       <c r="S96" s="41"/>
       <c r="T96" s="2"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>575</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>576</v>
+        <v>68</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>516</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>577</v>
-      </c>
-      <c r="F97" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="H97" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="I97" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="J97" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="K97" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="L97" s="8" t="s">
-        <v>831</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>170</v>
+        <v>573</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H97" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="I97" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="L97" s="13" t="s">
+        <v>812</v>
       </c>
       <c r="S97" s="41"/>
       <c r="T97" s="2"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C98" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>172</v>
+      <c r="C98" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>576</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>253</v>
+        <v>577</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="H98" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K98" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="L98" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="S98" s="41"/>
       <c r="T98" s="2"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B99" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B99" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="D99" s="13" t="s">
-        <v>580</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="I99" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="J99" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="K99" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="L99" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="M99" s="6" t="s">
-        <v>869</v>
-      </c>
-      <c r="N99" s="10" t="s">
-        <v>839</v>
+        <v>578</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>253</v>
       </c>
       <c r="S99" s="41"/>
       <c r="T99" s="2"/>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="D100" s="10" t="s">
-        <v>585</v>
+        <v>70</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>580</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="F100" s="13" t="s">
-        <v>587</v>
-      </c>
-      <c r="G100" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="H100" s="11" t="s">
-        <v>589</v>
-      </c>
-      <c r="I100" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="J100" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="K100" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="L100" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="M100" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="N100" s="1" t="s">
-        <v>824</v>
+        <v>581</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="I100" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="J100" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="K100" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="L100" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="M100" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="N100" s="10" t="s">
+        <v>839</v>
       </c>
       <c r="S100" s="41"/>
       <c r="T100" s="2"/>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C101" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E101" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>839</v>
-      </c>
-      <c r="I101" s="6" t="s">
-        <v>899</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>929</v>
+      <c r="C101" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="H101" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="K101" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="L101" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="M101" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>824</v>
       </c>
       <c r="S101" s="41"/>
       <c r="T101" s="2"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B102" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B102" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E102" s="11" t="s">
-        <v>870</v>
-      </c>
-      <c r="F102" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>938</v>
+        <v>591</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>929</v>
       </c>
       <c r="S102" s="41"/>
       <c r="T102" s="2"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B103" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C103" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="G103" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="H103" s="10" t="s">
-        <v>170</v>
+      <c r="C103" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>870</v>
+      </c>
+      <c r="F103" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>938</v>
       </c>
       <c r="S103" s="41"/>
       <c r="T103" s="2"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B104" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C104" s="10" t="s">
-        <v>595</v>
+      <c r="C104" s="8" t="s">
+        <v>592</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="E104" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="G104" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="H104" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="H104" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="I104" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>941</v>
       </c>
       <c r="S104" s="41"/>
       <c r="T104" s="2"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="D105" s="13" t="s">
-        <v>597</v>
+        <v>75</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>221</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>598</v>
-      </c>
-      <c r="F105" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="G105" s="13" t="s">
-        <v>599</v>
-      </c>
-      <c r="H105" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="I105" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="J105" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="K105" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="L105" s="13" t="s">
-        <v>241</v>
+        <v>338</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="H105" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="I105" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>941</v>
       </c>
       <c r="S105" s="41"/>
       <c r="T105" s="2"/>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C106" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="D106" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>172</v>
+      <c r="C106" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="F106" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="H106" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="I106" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="J106" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="K106" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="L106" s="13" t="s">
+        <v>241</v>
       </c>
       <c r="S106" s="41"/>
       <c r="T106" s="2"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="D107" s="13" t="s">
-        <v>170</v>
+        <v>77</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="S107" s="41"/>
       <c r="T107" s="2"/>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>895</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>939</v>
+        <v>141</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>170</v>
       </c>
       <c r="S108" s="41"/>
       <c r="T108" s="2"/>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>142</v>
+        <v>844</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C109" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>600</v>
-      </c>
-      <c r="E109" s="10" t="s">
-        <v>601</v>
-      </c>
-      <c r="F109" s="11" t="s">
-        <v>602</v>
-      </c>
-      <c r="G109" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="H109" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="I109" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="J109" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="K109" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="L109" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="M109" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="N109" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="O109" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="P109" s="1" t="s">
-        <v>940</v>
+      <c r="C109" s="10" t="s">
+        <v>845</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>939</v>
       </c>
       <c r="S109" s="41"/>
       <c r="T109" s="2"/>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>605</v>
+        <v>142</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>600</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G110" s="12" t="s">
-        <v>607</v>
-      </c>
-      <c r="H110" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="I110" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="J110" s="39" t="s">
-        <v>937</v>
+        <v>602</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="H110" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="J110" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="K110" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="L110" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="M110" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="N110" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="P110" s="1" t="s">
+        <v>940</v>
       </c>
       <c r="S110" s="41"/>
       <c r="T110" s="2"/>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>608</v>
-      </c>
-      <c r="D111" s="13" t="s">
-        <v>609</v>
-      </c>
-      <c r="E111" s="11" t="s">
-        <v>610</v>
-      </c>
-      <c r="F111" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G111" s="11" t="s">
-        <v>611</v>
-      </c>
-      <c r="H111" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I111" s="10" t="s">
-        <v>612</v>
-      </c>
-      <c r="J111" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="K111" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="L111" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="M111" s="8" t="s">
-        <v>871</v>
-      </c>
-      <c r="N111" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="O111" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="I111" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="P111" s="11" t="s">
-        <v>835</v>
-      </c>
-      <c r="Q111" s="1" t="s">
-        <v>910</v>
+      <c r="J111" s="39" t="s">
+        <v>937</v>
       </c>
       <c r="S111" s="41"/>
       <c r="T111" s="2"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="B112" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C112" s="11" t="s">
-        <v>614</v>
+      <c r="C112" s="10" t="s">
+        <v>608</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>615</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>222</v>
+        <v>609</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>610</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>616</v>
-      </c>
-      <c r="G112" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>824</v>
+        <v>231</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I112" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="J112" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="K112" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="L112" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="M112" s="8" t="s">
+        <v>871</v>
+      </c>
+      <c r="N112" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="O112" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="P112" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="Q112" s="1" t="s">
+        <v>910</v>
       </c>
       <c r="S112" s="41"/>
       <c r="T112" s="2"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>618</v>
+        <v>143</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>615</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="G113" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="H113" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="I113" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="J113" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="K113" s="11" t="s">
-        <v>624</v>
-      </c>
-      <c r="L113" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="M113" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="N113" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="O113" s="6" t="s">
-        <v>279</v>
+        <v>222</v>
+      </c>
+      <c r="F113" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>824</v>
       </c>
       <c r="S113" s="41"/>
       <c r="T113" s="2"/>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>927</v>
+        <v>80</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="I114" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="J114" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="K114" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="L114" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="M114" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="N114" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O114" s="6" t="s">
+        <v>279</v>
       </c>
       <c r="S114" s="41"/>
       <c r="T114" s="2"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="E115" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="F115" s="10" t="s">
-        <v>627</v>
-      </c>
-      <c r="G115" s="11" t="s">
-        <v>628</v>
-      </c>
-      <c r="H115" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="I115" s="13" t="s">
-        <v>629</v>
-      </c>
-      <c r="J115" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="K115" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="L115" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="M115" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="N115" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>927</v>
       </c>
       <c r="S115" s="41"/>
       <c r="T115" s="2"/>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="B116" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C116" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>870</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F116" s="13" t="s">
+      <c r="C116" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="F116" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="G116" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="H116" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="I116" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="J116" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="K116" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L116" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="G116" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="H116" s="9" t="s">
-        <v>872</v>
-      </c>
-      <c r="I116" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>170</v>
+      <c r="M116" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="N116" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="S116" s="41"/>
       <c r="T116" s="2"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B117" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B117" s="10" t="s">
         <v>157</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>800</v>
+        <v>184</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>801</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>802</v>
-      </c>
-      <c r="F117" s="10" t="s">
-        <v>810</v>
+        <v>870</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F117" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>881</v>
-      </c>
-      <c r="H117" s="8" t="s">
-        <v>882</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>913</v>
+        <v>501</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="I117" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>170</v>
       </c>
+      <c r="K117" s="1" t="s">
+        <v>901</v>
+      </c>
       <c r="S117" s="41"/>
       <c r="T117" s="2"/>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>873</v>
-      </c>
-      <c r="F118" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G118" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="H118" s="6" t="s">
-        <v>173</v>
+        <v>82</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="G118" s="10" t="s">
+        <v>881</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>882</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>927</v>
+        <v>913</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>942</v>
+        <v>170</v>
       </c>
       <c r="S118" s="41"/>
       <c r="T118" s="2"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>631</v>
-      </c>
-      <c r="D119" s="12" t="s">
-        <v>632</v>
-      </c>
-      <c r="E119" s="13" t="s">
-        <v>633</v>
-      </c>
-      <c r="F119" s="12" t="s">
-        <v>569</v>
+        <v>83</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>274</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="H119" s="10" t="s">
-        <v>635</v>
-      </c>
-      <c r="I119" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="J119" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="K119" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="L119" s="6" t="s">
-        <v>808</v>
-      </c>
-      <c r="M119" s="11" t="s">
-        <v>901</v>
-      </c>
-      <c r="N119" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I119" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="O119" s="1" t="s">
-        <v>929</v>
+      <c r="J119" s="1" t="s">
+        <v>942</v>
       </c>
       <c r="S119" s="41"/>
       <c r="T119" s="2"/>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>637</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>638</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="F120" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="H120" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="I120" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="J120" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="K120" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="L120" s="9" t="s">
-        <v>776</v>
-      </c>
-      <c r="M120" s="1" t="s">
-        <v>915</v>
+        <v>84</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="G120" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="H120" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="J120" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="K120" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="L120" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="M120" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="O120" s="1" t="s">
+        <v>929</v>
       </c>
       <c r="S120" s="41"/>
       <c r="T120" s="2"/>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B121" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B121" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>641</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>642</v>
-      </c>
-      <c r="E121" s="13" t="s">
-        <v>643</v>
-      </c>
-      <c r="F121" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="G121" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="H121" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="I121" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>930</v>
+        <v>637</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="F121" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="I121" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="J121" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="K121" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="L121" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>915</v>
       </c>
       <c r="S121" s="41"/>
       <c r="T121" s="2"/>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B122" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>645</v>
-      </c>
-      <c r="D122" s="21" t="s">
-        <v>194</v>
+        <v>86</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>642</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="F122" s="13" t="s">
-        <v>647</v>
+        <v>643</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>644</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>648</v>
-      </c>
-      <c r="H122" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="I122" s="13" t="s">
-        <v>606</v>
-      </c>
-      <c r="J122" s="10" t="s">
-        <v>649</v>
-      </c>
-      <c r="K122" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="L122" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="M122" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
+      </c>
+      <c r="H122" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="I122" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>930</v>
       </c>
       <c r="S122" s="41"/>
       <c r="T122" s="2"/>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C123" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="D123" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="D123" s="11" t="s">
-        <v>651</v>
-      </c>
-      <c r="E123" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="F123" s="11" t="s">
-        <v>653</v>
-      </c>
-      <c r="G123" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="H123" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="I123" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="J123" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="K123" s="1" t="s">
-        <v>933</v>
+      <c r="E123" s="13" t="s">
+        <v>646</v>
+      </c>
+      <c r="F123" s="13" t="s">
+        <v>647</v>
+      </c>
+      <c r="G123" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="H123" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="I123" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="J123" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="K123" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="L123" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="S123" s="41"/>
       <c r="T123" s="2"/>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B124" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="C124" s="14" t="s">
-        <v>655</v>
+        <v>88</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>656</v>
-      </c>
-      <c r="E124" s="13" t="s">
-        <v>657</v>
-      </c>
-      <c r="F124" s="10" t="s">
-        <v>658</v>
-      </c>
-      <c r="G124" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H124" s="5" t="s">
-        <v>659</v>
+        <v>651</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="H124" s="10" t="s">
+        <v>522</v>
       </c>
       <c r="I124" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="J124" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="K124" s="11" t="s">
-        <v>660</v>
-      </c>
-      <c r="L124" s="10" t="s">
-        <v>661</v>
-      </c>
-      <c r="M124" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="N124" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="O124" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="P124" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q124" s="6" t="s">
-        <v>904</v>
-      </c>
-      <c r="R124" s="7" t="s">
-        <v>905</v>
+        <v>196</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>933</v>
       </c>
       <c r="S124" s="41"/>
       <c r="T124" s="2"/>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C125" s="11" t="s">
-        <v>662</v>
-      </c>
-      <c r="D125" s="13" t="s">
-        <v>663</v>
-      </c>
-      <c r="E125" s="11" t="s">
-        <v>664</v>
+        <v>89</v>
+      </c>
+      <c r="B125" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="E125" s="13" t="s">
+        <v>657</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>418</v>
+        <v>658</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>665</v>
+        <v>422</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="I125" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="J125" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="K125" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="L125" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="M125" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="N125" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="O125" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="P125" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q125" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="R125" s="7" t="s">
+        <v>905</v>
       </c>
       <c r="S125" s="41"/>
       <c r="T125" s="2"/>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B126" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B126" s="10" t="s">
         <v>157</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>666</v>
-      </c>
-      <c r="D126" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>667</v>
+        <v>662</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>664</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="G126" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="H126" s="11" t="s">
-        <v>669</v>
-      </c>
-      <c r="I126" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="J126" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="K126" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="L126" s="13" t="s">
-        <v>812</v>
-      </c>
-      <c r="M126" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="N126" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="O126" s="1" t="s">
-        <v>931</v>
+        <v>418</v>
+      </c>
+      <c r="G126" s="10" t="s">
+        <v>665</v>
       </c>
       <c r="S126" s="41"/>
       <c r="T126" s="2"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>670</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>671</v>
-      </c>
-      <c r="E127" s="13" t="s">
-        <v>672</v>
+        <v>90</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>667</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="G127" s="10" t="s">
-        <v>673</v>
+        <v>668</v>
+      </c>
+      <c r="G127" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="I127" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="I127" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="J127" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="K127" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="L127" s="13" t="s">
+        <v>812</v>
+      </c>
+      <c r="M127" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="J127" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="K127" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="L127" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="M127" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="N127" s="7" t="s">
-        <v>868</v>
-      </c>
-      <c r="O127" s="11" t="s">
-        <v>824</v>
-      </c>
-      <c r="P127" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q127" s="1" t="s">
+      <c r="N127" s="1" t="s">
         <v>930</v>
+      </c>
+      <c r="O127" s="1" t="s">
+        <v>931</v>
       </c>
       <c r="S127" s="41"/>
       <c r="T127" s="2"/>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B128" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B128" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>674</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>675</v>
-      </c>
-      <c r="F128" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="G128" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="H128" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="I128" s="10" t="s">
-        <v>901</v>
+        <v>670</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="G128" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="H128" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I128" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J128" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="K128" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="L128" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="M128" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="N128" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="O128" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="P128" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q128" s="1" t="s">
+        <v>930</v>
       </c>
       <c r="S128" s="41"/>
       <c r="T128" s="2"/>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E129" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="F129" s="11" t="s">
-        <v>856</v>
-      </c>
-      <c r="G129" s="13" t="s">
-        <v>838</v>
-      </c>
-      <c r="H129" s="9" t="s">
-        <v>894</v>
+        <v>147</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="I129" s="10" t="s">
+        <v>901</v>
       </c>
       <c r="S129" s="41"/>
       <c r="T129" s="2"/>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D130" s="10" t="s">
-        <v>354</v>
+        <v>92</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>678</v>
+        <v>183</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G130" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="H130" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="I130" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="J130" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="K130" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="L130" s="5" t="s">
-        <v>868</v>
-      </c>
-      <c r="M130" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="N130" s="1" t="s">
-        <v>277</v>
+        <v>856</v>
+      </c>
+      <c r="G130" s="13" t="s">
+        <v>838</v>
+      </c>
+      <c r="H130" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>901</v>
       </c>
       <c r="S130" s="41"/>
       <c r="T130" s="2"/>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B131" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C131" s="9" t="s">
-        <v>680</v>
-      </c>
-      <c r="D131" s="12" t="s">
-        <v>681</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="F131" s="6" t="s">
-        <v>279</v>
+      <c r="C131" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="F131" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>431</v>
+        <v>192</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I131" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="J131" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="K131" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="L131" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="M131" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="S131" s="41"/>
       <c r="T131" s="2"/>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B132" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="E132" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="F132" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>926</v>
+        <v>94</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>431</v>
       </c>
       <c r="S132" s="41"/>
       <c r="T132" s="2"/>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C133" s="11" t="s">
-        <v>683</v>
-      </c>
-      <c r="D133" s="13" t="s">
-        <v>609</v>
-      </c>
-      <c r="E133" s="10" t="s">
-        <v>611</v>
-      </c>
-      <c r="F133" s="10" t="s">
-        <v>606</v>
-      </c>
-      <c r="G133" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="H133" s="8" t="s">
-        <v>684</v>
-      </c>
-      <c r="I133" s="11" t="s">
-        <v>685</v>
-      </c>
-      <c r="J133" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="K133" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="L133" s="6" t="s">
-        <v>874</v>
+        <v>95</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E133" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="F133" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>926</v>
       </c>
       <c r="S133" s="41"/>
       <c r="T133" s="2"/>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="B134" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C134" s="8" t="s">
-        <v>686</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>687</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="F134" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="G134" s="10" t="s">
-        <v>688</v>
-      </c>
-      <c r="H134" s="12" t="s">
-        <v>253</v>
+      <c r="C134" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="D134" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="F134" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H134" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="I134" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="J134" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="K134" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="L134" s="6" t="s">
+        <v>874</v>
       </c>
       <c r="S134" s="41"/>
       <c r="T134" s="2"/>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C135" s="12" t="s">
-        <v>689</v>
-      </c>
-      <c r="D135" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="E135" s="13" t="s">
-        <v>691</v>
+        <v>148</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>502</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="G135" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="H135" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="I135" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="J135" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="K135" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="L135" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="M135" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="N135" s="10" t="s">
-        <v>875</v>
-      </c>
-      <c r="O135" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="P135" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G135" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="H135" s="12" t="s">
         <v>253</v>
       </c>
       <c r="S135" s="41"/>
@@ -8788,1131 +8782,1167 @@
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E136" s="6" t="s">
-        <v>161</v>
+        <v>97</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="D136" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="E136" s="13" t="s">
+        <v>691</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>606</v>
+        <v>241</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="H136" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="I136" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="J136" s="13" t="s">
-        <v>863</v>
+        <v>358</v>
+      </c>
+      <c r="H136" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="I136" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="J136" s="9" t="s">
+        <v>359</v>
       </c>
       <c r="K136" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="L136" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="L136" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="M136" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="M136" s="11" t="s">
-        <v>805</v>
-      </c>
-      <c r="N136" s="8" t="s">
-        <v>819</v>
-      </c>
-      <c r="O136" s="8" t="s">
-        <v>906</v>
+      <c r="N136" s="10" t="s">
+        <v>875</v>
+      </c>
+      <c r="O136" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="P136" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="S136" s="41"/>
       <c r="T136" s="2"/>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C137" s="13" t="s">
-        <v>694</v>
+        <v>98</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>693</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="E137" s="11" t="s">
-        <v>696</v>
+        <v>231</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>697</v>
+        <v>606</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="H137" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="I137" s="6" t="s">
-        <v>404</v>
+        <v>290</v>
+      </c>
+      <c r="H137" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="I137" s="13" t="s">
+        <v>273</v>
       </c>
       <c r="J137" s="13" t="s">
-        <v>327</v>
+        <v>863</v>
       </c>
       <c r="K137" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="L137" s="13" t="s">
-        <v>700</v>
-      </c>
-      <c r="M137" s="13" t="s">
-        <v>701</v>
+        <v>374</v>
+      </c>
+      <c r="L137" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="M137" s="11" t="s">
+        <v>805</v>
       </c>
       <c r="N137" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="O137" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="P137" s="10" t="s">
-        <v>173</v>
+        <v>819</v>
+      </c>
+      <c r="O137" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="P137" s="1" t="s">
+        <v>901</v>
       </c>
       <c r="S137" s="41"/>
       <c r="T137" s="2"/>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B138" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B138" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>702</v>
-      </c>
-      <c r="D138" s="13" t="s">
-        <v>703</v>
+        <v>694</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>695</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>439</v>
+        <v>696</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="H138" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="I138" s="9" t="s">
-        <v>895</v>
-      </c>
-      <c r="P138" s="39"/>
+        <v>698</v>
+      </c>
+      <c r="H138" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="I138" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="J138" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="K138" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="L138" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="M138" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="N138" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="O138" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="P138" s="10" t="s">
+        <v>173</v>
+      </c>
       <c r="S138" s="41"/>
       <c r="T138" s="2"/>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B139" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C139" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>596</v>
+      <c r="C139" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="D139" s="13" t="s">
+        <v>703</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>706</v>
+        <v>439</v>
       </c>
       <c r="F139" s="13" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="H139" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="I139" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="J139" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="K139" s="11" t="s">
-        <v>708</v>
-      </c>
-      <c r="L139" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="M139" s="6" t="s">
-        <v>224</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="H139" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="I139" s="9" t="s">
+        <v>895</v>
+      </c>
+      <c r="P139" s="39"/>
       <c r="S139" s="41"/>
       <c r="T139" s="2"/>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C140" s="13" t="s">
-        <v>422</v>
+        <v>101</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>705</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="E140" s="13" t="s">
-        <v>829</v>
-      </c>
-      <c r="F140" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="G140" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="H140" s="13" t="s">
-        <v>710</v>
-      </c>
-      <c r="I140" s="10" t="s">
-        <v>711</v>
+        <v>596</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="F140" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="G140" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="H140" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="I140" s="11" t="s">
+        <v>285</v>
       </c>
       <c r="J140" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="K140" s="13" t="s">
-        <v>712</v>
-      </c>
-      <c r="L140" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="K140" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="L140" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="M140" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="N140" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="O140" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="P140" s="8" t="s">
-        <v>808</v>
-      </c>
-      <c r="Q140" s="12" t="s">
-        <v>253</v>
+      <c r="M140" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="S140" s="41"/>
       <c r="T140" s="2"/>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C141" s="11" t="s">
-        <v>713</v>
-      </c>
-      <c r="D141" s="12" t="s">
-        <v>714</v>
+        <v>102</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>709</v>
       </c>
       <c r="E141" s="13" t="s">
-        <v>715</v>
-      </c>
-      <c r="F141" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="G141" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="H141" s="11" t="s">
-        <v>716</v>
-      </c>
-      <c r="I141" s="13" t="s">
-        <v>606</v>
-      </c>
-      <c r="J141" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="K141" s="10" t="s">
-        <v>717</v>
-      </c>
-      <c r="L141" s="10" t="s">
-        <v>718</v>
-      </c>
-      <c r="M141" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="N141" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="G141" s="8" t="s">
         <v>233</v>
+      </c>
+      <c r="H141" s="13" t="s">
+        <v>710</v>
+      </c>
+      <c r="I141" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="J141" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="K141" s="13" t="s">
+        <v>712</v>
+      </c>
+      <c r="L141" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="M141" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="N141" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="O141" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="P141" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="Q141" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="S141" s="41"/>
       <c r="T141" s="2"/>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C142" s="13" t="s">
-        <v>719</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="E142" s="10" t="s">
-        <v>721</v>
-      </c>
-      <c r="F142" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="G142" s="10" t="s">
-        <v>722</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>922</v>
+        <v>103</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="E142" s="13" t="s">
+        <v>715</v>
+      </c>
+      <c r="F142" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="G142" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="H142" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="I142" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="J142" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="K142" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="L142" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="M142" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="N142" s="9" t="s">
+        <v>233</v>
       </c>
       <c r="S142" s="41"/>
       <c r="T142" s="2"/>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>799</v>
-      </c>
-      <c r="D143" s="10" t="s">
-        <v>574</v>
+        <v>104</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>720</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="F143" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="G143" s="13" t="s">
-        <v>723</v>
-      </c>
-      <c r="H143" s="10" t="s">
-        <v>895</v>
+        <v>721</v>
+      </c>
+      <c r="F143" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="G143" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>922</v>
       </c>
       <c r="S143" s="41"/>
       <c r="T143" s="2"/>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C144" s="11" t="s">
-        <v>724</v>
-      </c>
-      <c r="D144" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E144" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="F144" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="G144" s="10" t="s">
-        <v>725</v>
+      <c r="C144" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G144" s="13" t="s">
+        <v>723</v>
       </c>
       <c r="H144" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="I144" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="J144" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="K144" s="8" t="s">
-        <v>726</v>
-      </c>
-      <c r="L144" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="M144" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="N144" s="1" t="s">
-        <v>883</v>
+        <v>895</v>
       </c>
       <c r="S144" s="41"/>
       <c r="T144" s="2"/>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B145" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="D145" s="12" t="s">
-        <v>728</v>
-      </c>
-      <c r="E145" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="F145" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="F145" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="G145" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="H145" s="8" t="s">
-        <v>259</v>
+      <c r="G145" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="H145" s="10" t="s">
+        <v>290</v>
       </c>
       <c r="I145" s="8" t="s">
-        <v>729</v>
+        <v>195</v>
       </c>
       <c r="J145" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="K145" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="L145" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="K145" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="L145" s="10" t="s">
-        <v>876</v>
-      </c>
-      <c r="M145" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="N145" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="O145" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="P145" s="12" t="s">
-        <v>837</v>
-      </c>
-      <c r="Q145" s="1" t="s">
-        <v>441</v>
+      <c r="M145" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="N145" s="1" t="s">
+        <v>883</v>
       </c>
       <c r="S145" s="41"/>
       <c r="T145" s="2"/>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B146" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C146" s="12" t="s">
-        <v>730</v>
+        <v>107</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>727</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>731</v>
-      </c>
-      <c r="E146" s="11" t="s">
-        <v>732</v>
-      </c>
-      <c r="F146" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="G146" s="13" t="s">
-        <v>734</v>
-      </c>
-      <c r="H146" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="I146" s="13" t="s">
-        <v>736</v>
-      </c>
-      <c r="J146" s="10" t="s">
-        <v>737</v>
+        <v>728</v>
+      </c>
+      <c r="E146" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F146" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H146" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I146" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="J146" s="11" t="s">
+        <v>183</v>
       </c>
       <c r="K146" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="L146" s="13" t="s">
-        <v>172</v>
+        <v>433</v>
+      </c>
+      <c r="L146" s="10" t="s">
+        <v>876</v>
       </c>
       <c r="M146" s="10" t="s">
-        <v>738</v>
+        <v>173</v>
       </c>
       <c r="N146" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="O146" s="12" t="s">
-        <v>886</v>
-      </c>
-      <c r="P146" s="1" t="s">
-        <v>946</v>
+        <v>374</v>
+      </c>
+      <c r="O146" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="P146" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q146" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="S146" s="41"/>
       <c r="T146" s="2"/>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="E147" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="F147" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="G147" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>947</v>
+        <v>108</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="F147" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="G147" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="H147" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="I147" s="13" t="s">
+        <v>736</v>
+      </c>
+      <c r="J147" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="K147" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="L147" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="M147" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="N147" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="O147" s="12" t="s">
+        <v>886</v>
+      </c>
+      <c r="P147" s="1" t="s">
+        <v>946</v>
       </c>
       <c r="S147" s="41"/>
       <c r="T147" s="2"/>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D148" s="11" t="s">
-        <v>899</v>
+        <v>109</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G148" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>947</v>
       </c>
       <c r="S148" s="41"/>
       <c r="T148" s="2"/>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C149" s="13" t="s">
-        <v>739</v>
-      </c>
-      <c r="D149" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="E149" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="F149" s="13" t="s">
-        <v>740</v>
-      </c>
-      <c r="G149" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="H149" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I149" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="J149" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="K149" s="9" t="s">
-        <v>822</v>
-      </c>
-      <c r="L149" s="1" t="s">
-        <v>909</v>
+        <v>814</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>899</v>
       </c>
       <c r="S149" s="41"/>
       <c r="T149" s="2"/>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D150" s="11" t="s">
-        <v>813</v>
+        <v>110</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="D150" s="13" t="s">
+        <v>271</v>
       </c>
       <c r="E150" s="13" t="s">
-        <v>846</v>
-      </c>
-      <c r="F150" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>927</v>
+        <v>336</v>
+      </c>
+      <c r="F150" s="13" t="s">
+        <v>740</v>
+      </c>
+      <c r="G150" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="H150" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="I150" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="J150" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="K150" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>909</v>
       </c>
       <c r="S150" s="41"/>
       <c r="T150" s="2"/>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C151" s="13" t="s">
-        <v>742</v>
+      <c r="C151" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>743</v>
-      </c>
-      <c r="E151" s="10" t="s">
-        <v>744</v>
+        <v>813</v>
+      </c>
+      <c r="E151" s="13" t="s">
+        <v>846</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="G151" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="H151" s="6" t="s">
-        <v>233</v>
+        <v>596</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>927</v>
       </c>
       <c r="S151" s="41"/>
       <c r="T151" s="2"/>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="D152" s="9" t="s">
-        <v>745</v>
-      </c>
-      <c r="E152" s="13" t="s">
-        <v>746</v>
-      </c>
-      <c r="F152" s="13" t="s">
-        <v>255</v>
+        <v>111</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="E152" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>459</v>
       </c>
       <c r="G152" s="10" t="s">
-        <v>747</v>
-      </c>
-      <c r="H152" s="9" t="s">
-        <v>729</v>
-      </c>
-      <c r="I152" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="J152" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="K152" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="L152" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="M152" s="11" t="s">
-        <v>824</v>
-      </c>
-      <c r="N152" s="1" t="s">
-        <v>910</v>
+        <v>340</v>
+      </c>
+      <c r="H152" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="S152" s="41"/>
       <c r="T152" s="2"/>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="D153" s="11" t="s">
-        <v>749</v>
-      </c>
-      <c r="E153" s="10" t="s">
-        <v>750</v>
-      </c>
-      <c r="F153" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="G153" s="13" t="s">
-        <v>751</v>
-      </c>
-      <c r="H153" s="8" t="s">
-        <v>752</v>
-      </c>
-      <c r="I153" s="6" t="s">
-        <v>821</v>
-      </c>
-      <c r="J153" s="8" t="s">
-        <v>877</v>
-      </c>
-      <c r="K153" s="1" t="s">
-        <v>922</v>
+        <v>150</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="E153" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="F153" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="G153" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="H153" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="I153" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J153" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="K153" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="L153" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="M153" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="N153" s="1" t="s">
+        <v>910</v>
       </c>
       <c r="S153" s="41"/>
       <c r="T153" s="2"/>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C154" s="11" t="s">
-        <v>753</v>
-      </c>
-      <c r="D154" s="13" t="s">
-        <v>754</v>
-      </c>
-      <c r="E154" s="13" t="s">
-        <v>755</v>
+        <v>112</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="E154" s="10" t="s">
+        <v>750</v>
       </c>
       <c r="F154" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="G154" s="11" t="s">
-        <v>757</v>
+        <v>373</v>
+      </c>
+      <c r="G154" s="13" t="s">
+        <v>751</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="I154" s="13" t="s">
-        <v>759</v>
-      </c>
-      <c r="J154" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="K154" s="13" t="s">
-        <v>760</v>
-      </c>
-      <c r="L154" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="M154" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="N154" s="8" t="s">
-        <v>807</v>
-      </c>
-      <c r="O154" s="11" t="s">
-        <v>901</v>
-      </c>
-      <c r="P154" s="6" t="s">
-        <v>902</v>
+        <v>752</v>
+      </c>
+      <c r="I154" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="J154" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="K154" s="1" t="s">
+        <v>922</v>
       </c>
       <c r="S154" s="41"/>
       <c r="T154" s="2"/>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B155" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C155" s="13" t="s">
-        <v>761</v>
-      </c>
-      <c r="D155" s="9" t="s">
-        <v>762</v>
-      </c>
-      <c r="E155" s="11" t="s">
-        <v>763</v>
+        <v>113</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D155" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="E155" s="13" t="s">
+        <v>755</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>711</v>
-      </c>
-      <c r="G155" s="10" t="s">
-        <v>764</v>
+        <v>756</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>757</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>765</v>
-      </c>
-      <c r="I155" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="J155" s="1" t="s">
-        <v>172</v>
+        <v>758</v>
+      </c>
+      <c r="I155" s="13" t="s">
+        <v>759</v>
+      </c>
+      <c r="J155" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="K155" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="L155" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="M155" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="N155" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="O155" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="P155" s="6" t="s">
+        <v>902</v>
       </c>
       <c r="S155" s="41"/>
       <c r="T155" s="2"/>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>766</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="E156" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="F156" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G156" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="D156" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="F156" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="G156" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="H156" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="I156" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="J156" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="H156" s="8" t="s">
-        <v>809</v>
-      </c>
-      <c r="I156" s="8" t="s">
-        <v>878</v>
-      </c>
-      <c r="J156" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="K156" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="L156" s="1" t="s">
-        <v>941</v>
       </c>
       <c r="S156" s="41"/>
       <c r="T156" s="2"/>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B157" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C157" s="11" t="s">
-        <v>767</v>
-      </c>
-      <c r="D157" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="E157" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="F157" s="11" t="s">
-        <v>418</v>
+        <v>114</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="H157" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="H157" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="I157" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="J157" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="I157" s="1" t="s">
-        <v>241</v>
+      <c r="K157" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>941</v>
       </c>
       <c r="S157" s="41"/>
       <c r="T157" s="2"/>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B158" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B158" s="10" t="s">
         <v>157</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="D158" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="E158" s="10" t="s">
-        <v>768</v>
-      </c>
-      <c r="F158" s="8" t="s">
-        <v>769</v>
-      </c>
-      <c r="G158" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="H158" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="I158" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="J158" s="5" t="s">
-        <v>770</v>
-      </c>
-      <c r="K158" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="L158" s="10" t="s">
-        <v>433</v>
+        <v>767</v>
+      </c>
+      <c r="D158" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="E158" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="F158" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="G158" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="H158" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="S158" s="41"/>
       <c r="T158" s="2"/>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C159" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D159" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E159" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F159" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G159" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="H159" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="I159" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="J159" s="10" t="s">
-        <v>870</v>
-      </c>
-      <c r="K159" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L159" s="7" t="s">
-        <v>816</v>
-      </c>
-      <c r="M159" s="5" t="s">
-        <v>817</v>
-      </c>
-      <c r="N159" s="6" t="s">
-        <v>842</v>
-      </c>
-      <c r="O159" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="P159" s="1" t="s">
-        <v>923</v>
+      <c r="C159" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="E159" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="G159" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="H159" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="I159" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="J159" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="K159" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="L159" s="10" t="s">
+        <v>433</v>
       </c>
       <c r="S159" s="41"/>
       <c r="T159" s="2"/>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C160" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G160" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H160" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="I160" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J160" s="10" t="s">
+        <v>870</v>
+      </c>
+      <c r="K160" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D160" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="E160" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="F160" s="13" t="s">
-        <v>881</v>
-      </c>
-      <c r="G160" s="1" t="s">
+      <c r="L160" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="M160" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="N160" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="O160" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="H160" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="I160" s="1" t="s">
-        <v>943</v>
+      <c r="P160" s="1" t="s">
+        <v>923</v>
       </c>
       <c r="S160" s="41"/>
       <c r="T160" s="2"/>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B161" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>771</v>
-      </c>
-      <c r="D161" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="E161" s="8" t="s">
-        <v>259</v>
+        <v>152</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D161" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="F161" s="13" t="s">
-        <v>772</v>
-      </c>
-      <c r="G161" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="H161" s="12" t="s">
-        <v>812</v>
-      </c>
-      <c r="I161" s="10" t="s">
-        <v>173</v>
+        <v>881</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>943</v>
       </c>
       <c r="S161" s="41"/>
       <c r="T161" s="2"/>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C162" s="11" t="s">
-        <v>773</v>
+        <v>118</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>771</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="E162" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="F162" s="9" t="s">
-        <v>327</v>
+        <v>445</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F162" s="13" t="s">
+        <v>772</v>
       </c>
       <c r="G162" s="13" t="s">
-        <v>846</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>919</v>
+        <v>267</v>
+      </c>
+      <c r="H162" s="12" t="s">
+        <v>812</v>
+      </c>
+      <c r="I162" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="S162" s="41"/>
       <c r="T162" s="2"/>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B163" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B163" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>775</v>
-      </c>
-      <c r="D163" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E163" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="F163" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="G163" s="10" t="s">
-        <v>899</v>
+        <v>773</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="G163" s="13" t="s">
+        <v>846</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>919</v>
       </c>
       <c r="S163" s="41"/>
       <c r="T163" s="2"/>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="D164" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="D164" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E164" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E164" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F164" s="7" t="s">
-        <v>231</v>
+      <c r="F164" s="10" t="s">
+        <v>482</v>
       </c>
       <c r="G164" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="H164" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="I164" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="J164" s="6" t="s">
-        <v>856</v>
-      </c>
-      <c r="K164" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="L164" s="10" t="s">
         <v>899</v>
-      </c>
-      <c r="M164" s="1" t="s">
-        <v>930</v>
       </c>
       <c r="S164" s="41"/>
       <c r="T164" s="2"/>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="B165" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C165" s="11" t="s">
-        <v>679</v>
-      </c>
-      <c r="D165" s="13" t="s">
-        <v>881</v>
-      </c>
-      <c r="E165" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E165" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F165" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G165" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="H165" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="I165" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="J165" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="K165" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="L165" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="M165" s="1" t="s">
         <v>930</v>
       </c>
       <c r="S165" s="41"/>
@@ -9920,154 +9950,173 @@
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B166" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C166" s="13" t="s">
-        <v>647</v>
+        <v>827</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>679</v>
       </c>
       <c r="D166" s="13" t="s">
-        <v>778</v>
-      </c>
-      <c r="E166" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="F166" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G166" s="8" t="s">
-        <v>779</v>
-      </c>
-      <c r="H166" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="I166" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="J166" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="K166" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="L166" s="11" t="s">
-        <v>833</v>
-      </c>
-      <c r="M166" s="1" t="s">
-        <v>938</v>
+        <v>881</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>930</v>
       </c>
       <c r="S166" s="41"/>
       <c r="T166" s="2"/>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B167" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>780</v>
-      </c>
-      <c r="D167" s="12" t="s">
-        <v>781</v>
+        <v>647</v>
+      </c>
+      <c r="D167" s="13" t="s">
+        <v>778</v>
       </c>
       <c r="E167" s="11" t="s">
-        <v>782</v>
-      </c>
-      <c r="F167" s="13" t="s">
-        <v>783</v>
-      </c>
-      <c r="G167" s="6" t="s">
-        <v>161</v>
+        <v>274</v>
+      </c>
+      <c r="F167" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G167" s="8" t="s">
+        <v>779</v>
       </c>
       <c r="H167" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="I167" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J167" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I167" s="9" t="s">
-        <v>901</v>
+      <c r="K167" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="L167" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="M167" s="1" t="s">
+        <v>938</v>
       </c>
       <c r="S167" s="41"/>
       <c r="T167" s="2"/>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="B168" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C168" s="10" t="s">
-        <v>784</v>
-      </c>
-      <c r="D168" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="E168" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F168" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="G168" s="9" t="s">
-        <v>879</v>
-      </c>
-      <c r="H168" s="10" t="s">
-        <v>846</v>
-      </c>
-      <c r="I168" s="10" t="s">
+      <c r="C168" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="D168" s="12" t="s">
+        <v>781</v>
+      </c>
+      <c r="E168" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="F168" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="G168" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H168" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="I168" s="9" t="s">
         <v>901</v>
       </c>
       <c r="S168" s="41"/>
       <c r="T168" s="2"/>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A169" s="4" t="s">
+      <c r="A169" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F169" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="G169" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="H169" s="10" t="s">
+        <v>846</v>
+      </c>
+      <c r="I169" s="10" t="s">
+        <v>901</v>
+      </c>
+      <c r="S169" s="41"/>
+      <c r="T169" s="2"/>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B169" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C169" s="17" t="s">
+      <c r="B170" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C170" s="17" t="s">
         <v>785</v>
       </c>
-      <c r="D169" s="18" t="s">
+      <c r="D170" s="18" t="s">
         <v>527</v>
       </c>
-      <c r="E169" s="20" t="s">
+      <c r="E170" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="F169" s="19" t="s">
+      <c r="F170" s="19" t="s">
         <v>786</v>
       </c>
-      <c r="G169" s="16" t="s">
+      <c r="G170" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="H169" s="18" t="s">
+      <c r="H170" s="18" t="s">
         <v>861</v>
       </c>
-      <c r="I169" s="36" t="s">
+      <c r="I170" s="36" t="s">
         <v>677</v>
       </c>
-      <c r="J169" s="18" t="s">
+      <c r="J170" s="18" t="s">
         <v>808</v>
       </c>
-      <c r="K169" s="18" t="s">
+      <c r="K170" s="18" t="s">
         <v>904</v>
       </c>
-      <c r="L169" s="39" t="s">
+      <c r="L170" s="39" t="s">
         <v>937</v>
       </c>
-      <c r="M169" s="3"/>
-      <c r="N169" s="3"/>
-      <c r="O169" s="3"/>
-      <c r="P169" s="3"/>
-      <c r="Q169" s="3"/>
-      <c r="R169" s="3"/>
-      <c r="S169" s="3"/>
-      <c r="T169" s="4"/>
+      <c r="M170" s="3"/>
+      <c r="N170" s="3"/>
+      <c r="O170" s="3"/>
+      <c r="P170" s="3"/>
+      <c r="Q170" s="3"/>
+      <c r="R170" s="3"/>
+      <c r="S170" s="3"/>
+      <c r="T170" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -3531,8 +3531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8617,7 +8617,7 @@
       <c r="A131" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="39" t="s">
         <v>157</v>
       </c>
       <c r="C131" s="10" t="s">

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="951">
   <si>
     <t>Aatrox</t>
   </si>
@@ -2871,6 +2871,12 @@
   </si>
   <si>
     <t>Hwei</t>
+  </si>
+  <si>
+    <t>Dragonmancer</t>
+  </si>
+  <si>
+    <t>Prestige Dragonmancer</t>
   </si>
 </sst>
 </file>
@@ -3532,7 +3538,7 @@
   <dimension ref="A1:T170"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4975,6 +4981,9 @@
       <c r="O37" s="1" t="s">
         <v>913</v>
       </c>
+      <c r="P37" s="1" t="s">
+        <v>949</v>
+      </c>
       <c r="S37" s="41"/>
       <c r="T37" s="2"/>
     </row>
@@ -5945,6 +5954,9 @@
       </c>
       <c r="J62" s="40" t="s">
         <v>776</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>949</v>
       </c>
       <c r="S62" s="41"/>
       <c r="T62" s="2"/>
@@ -7664,6 +7676,12 @@
       <c r="K105" s="1" t="s">
         <v>941</v>
       </c>
+      <c r="L105" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>950</v>
+      </c>
       <c r="S105" s="41"/>
       <c r="T105" s="2"/>
     </row>
@@ -9265,6 +9283,9 @@
       </c>
       <c r="Q146" s="1" t="s">
         <v>441</v>
+      </c>
+      <c r="R146" s="1" t="s">
+        <v>949</v>
       </c>
       <c r="S146" s="41"/>
       <c r="T146" s="2"/>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="950">
   <si>
     <t>Aatrox</t>
   </si>
@@ -2745,9 +2745,6 @@
   </si>
   <si>
     <t>Lunar Emperor</t>
-  </si>
-  <si>
-    <t>Patch 13.3</t>
   </si>
   <si>
     <t>Heartthrob</t>
@@ -3070,7 +3067,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3199,6 +3196,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3537,8 +3537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3549,9 +3549,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>907</v>
-      </c>
+      <c r="A1" s="35"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
@@ -3597,31 +3595,31 @@
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E3" s="39"/>
       <c r="H3" s="39"/>
-      <c r="I3" s="11"/>
+      <c r="I3" s="39"/>
       <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
       <c r="R4" s="38"/>
       <c r="S4" s="3"/>
       <c r="T4" s="43"/>
@@ -3658,10 +3656,10 @@
         <v>501</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>924</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>925</v>
       </c>
       <c r="Q5" s="37"/>
       <c r="S5" s="41"/>
@@ -3778,7 +3776,7 @@
         <v>170</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>277</v>
@@ -3899,7 +3897,7 @@
         <v>826</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="S10" s="41"/>
       <c r="T10" s="2"/>
@@ -4028,7 +4026,7 @@
         <v>173</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="S13" s="41"/>
       <c r="T13" s="2"/>
@@ -4086,10 +4084,10 @@
         <v>510</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="S14" s="41" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="T14" s="2"/>
     </row>
@@ -4110,7 +4108,7 @@
         <v>236</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="S15" s="41"/>
       <c r="T15" s="2"/>
@@ -4182,7 +4180,7 @@
         <v>249</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="S18" s="41"/>
       <c r="T18" s="2"/>
@@ -4237,7 +4235,7 @@
         <v>893</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="S19" s="41"/>
       <c r="T19" s="2"/>
@@ -4280,7 +4278,7 @@
         <v>849</v>
       </c>
       <c r="M20" s="39" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="S20" s="41"/>
       <c r="T20" s="2"/>
@@ -4318,13 +4316,13 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="39" t="s">
         <v>936</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>937</v>
       </c>
       <c r="D22" s="39"/>
       <c r="E22" s="39"/>
@@ -4385,10 +4383,10 @@
         <v>883</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="S23" s="41"/>
       <c r="T23" s="2"/>
@@ -4490,7 +4488,7 @@
         <v>431</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="S26" s="41"/>
       <c r="T26" s="2"/>
@@ -4662,7 +4660,7 @@
         <v>895</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="S30" s="41"/>
       <c r="T30" s="2"/>
@@ -4705,7 +4703,7 @@
         <v>323</v>
       </c>
       <c r="M31" s="39" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="S31" s="41"/>
       <c r="T31" s="2"/>
@@ -4748,7 +4746,7 @@
         <v>868</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="S32" s="41"/>
       <c r="T32" s="2"/>
@@ -4828,7 +4826,7 @@
         <v>173</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="S34" s="41"/>
       <c r="T34" s="2"/>
@@ -4889,10 +4887,10 @@
         <v>825</v>
       </c>
       <c r="S35" s="41" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -4979,10 +4977,10 @@
         <v>327</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="S37" s="41"/>
       <c r="T37" s="2"/>
@@ -5194,7 +5192,7 @@
         <v>172</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="S42" s="41"/>
       <c r="T42" s="2"/>
@@ -5305,7 +5303,7 @@
         <v>824</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="S45" s="41"/>
       <c r="T45" s="2"/>
@@ -5389,7 +5387,7 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B48" s="39" t="s">
         <v>157</v>
@@ -5719,10 +5717,10 @@
         <v>899</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="S56" s="41"/>
       <c r="T56" s="2"/>
@@ -5808,7 +5806,7 @@
         <v>170</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="S58" s="41"/>
       <c r="T58" s="2"/>
@@ -5833,7 +5831,7 @@
         <v>191</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="S59" s="41"/>
       <c r="T59" s="2"/>
@@ -5882,7 +5880,7 @@
         <v>820</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="S60" s="41"/>
       <c r="T60" s="2"/>
@@ -5956,7 +5954,7 @@
         <v>776</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="S62" s="41"/>
       <c r="T62" s="2"/>
@@ -6011,10 +6009,10 @@
         <v>233</v>
       </c>
       <c r="Q63" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="R63" s="1" t="s">
         <v>913</v>
-      </c>
-      <c r="R63" s="1" t="s">
-        <v>914</v>
       </c>
       <c r="S63" s="41"/>
       <c r="T63" s="2"/>
@@ -6066,7 +6064,7 @@
         <v>840</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="S64" s="41"/>
       <c r="T64" s="2"/>
@@ -6094,7 +6092,7 @@
         <v>883</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="S65" s="41"/>
       <c r="T65" s="2"/>
@@ -6190,10 +6188,10 @@
         <v>826</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="S68" s="41"/>
       <c r="T68" s="2"/>
@@ -6215,7 +6213,7 @@
         <v>191</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="S69" s="41"/>
       <c r="T69" s="2"/>
@@ -6286,7 +6284,7 @@
         <v>900</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="S71" s="41"/>
       <c r="T71" s="2"/>
@@ -6439,7 +6437,7 @@
         <v>233</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="S74" s="41"/>
       <c r="T74" s="2"/>
@@ -6736,7 +6734,7 @@
         <v>336</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="S81" s="41"/>
       <c r="T81" s="2"/>
@@ -6776,7 +6774,7 @@
         <v>241</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="S82" s="41"/>
       <c r="T82" s="2"/>
@@ -6831,20 +6829,20 @@
         <v>875</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="S83" s="41"/>
       <c r="T83" s="2"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B84" s="39" t="s">
         <v>157</v>
       </c>
       <c r="C84" s="39" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D84" s="39"/>
       <c r="E84" s="39"/>
@@ -6918,10 +6916,10 @@
         <v>610</v>
       </c>
       <c r="S85" s="41" t="s">
+        <v>909</v>
+      </c>
+      <c r="T85" s="2" t="s">
         <v>910</v>
-      </c>
-      <c r="T85" s="2" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
@@ -7021,13 +7019,13 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B88" s="39" t="s">
         <v>157</v>
       </c>
       <c r="C88" s="39" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D88" s="39"/>
       <c r="E88" s="39"/>
@@ -7168,7 +7166,7 @@
         <v>895</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="S91" s="41"/>
       <c r="T91" s="2"/>
@@ -7196,7 +7194,7 @@
         <v>327</v>
       </c>
       <c r="H92" s="39" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="S92" s="41"/>
       <c r="T92" s="2"/>
@@ -7248,10 +7246,10 @@
         <v>881</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="S93" s="41"/>
       <c r="T93" s="2"/>
@@ -7304,7 +7302,7 @@
         <v>194</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="S95" s="41"/>
       <c r="T95" s="2"/>
@@ -7347,7 +7345,7 @@
         <v>834</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="S96" s="41"/>
       <c r="T96" s="2"/>
@@ -7575,10 +7573,10 @@
         <v>899</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="S102" s="41"/>
       <c r="T102" s="2"/>
@@ -7609,7 +7607,7 @@
         <v>510</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="S103" s="41"/>
       <c r="T103" s="2"/>
@@ -7671,16 +7669,16 @@
         <v>279</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="L105" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="M105" s="1" t="s">
         <v>949</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>950</v>
       </c>
       <c r="S105" s="41"/>
       <c r="T105" s="2"/>
@@ -7777,10 +7775,10 @@
         <v>895</v>
       </c>
       <c r="E109" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>938</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>939</v>
       </c>
       <c r="S109" s="41"/>
       <c r="T109" s="2"/>
@@ -7832,7 +7830,7 @@
         <v>441</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="S110" s="41"/>
       <c r="T110" s="2"/>
@@ -7866,7 +7864,7 @@
         <v>804</v>
       </c>
       <c r="J111" s="39" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="S111" s="41"/>
       <c r="T111" s="2"/>
@@ -7921,7 +7919,7 @@
         <v>835</v>
       </c>
       <c r="Q112" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="S112" s="41"/>
       <c r="T112" s="2"/>
@@ -8020,7 +8018,7 @@
         <v>233</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="S115" s="41"/>
       <c r="T115" s="2"/>
@@ -8134,7 +8132,7 @@
         <v>882</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>170</v>
@@ -8168,10 +8166,10 @@
         <v>173</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="S119" s="41"/>
       <c r="T119" s="2"/>
@@ -8217,10 +8215,10 @@
         <v>901</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="S120" s="41"/>
       <c r="T120" s="2"/>
@@ -8263,7 +8261,7 @@
         <v>776</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="S121" s="41"/>
       <c r="T121" s="2"/>
@@ -8297,7 +8295,7 @@
         <v>314</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="S122" s="41"/>
       <c r="T122" s="2"/>
@@ -8377,7 +8375,7 @@
         <v>233</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="S124" s="41"/>
       <c r="T124" s="2"/>
@@ -8506,10 +8504,10 @@
         <v>170</v>
       </c>
       <c r="N127" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="O127" s="1" t="s">
         <v>930</v>
-      </c>
-      <c r="O127" s="1" t="s">
-        <v>931</v>
       </c>
       <c r="S127" s="41"/>
       <c r="T127" s="2"/>
@@ -8564,7 +8562,7 @@
         <v>173</v>
       </c>
       <c r="Q128" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="S128" s="41"/>
       <c r="T128" s="2"/>
@@ -8725,7 +8723,7 @@
         <v>170</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="S133" s="41"/>
       <c r="T133" s="2"/>
@@ -9153,7 +9151,7 @@
         <v>722</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="S143" s="41"/>
       <c r="T143" s="2"/>
@@ -9285,7 +9283,7 @@
         <v>441</v>
       </c>
       <c r="R146" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="S146" s="41"/>
       <c r="T146" s="2"/>
@@ -9337,7 +9335,7 @@
         <v>886</v>
       </c>
       <c r="P147" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="S147" s="41"/>
       <c r="T147" s="2"/>
@@ -9365,7 +9363,7 @@
         <v>196</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="S148" s="41"/>
       <c r="T148" s="2"/>
@@ -9421,7 +9419,7 @@
         <v>822</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="S150" s="41"/>
       <c r="T150" s="2"/>
@@ -9446,7 +9444,7 @@
         <v>596</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="S151" s="41"/>
       <c r="T151" s="2"/>
@@ -9520,7 +9518,7 @@
         <v>824</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="S153" s="41"/>
       <c r="T153" s="2"/>
@@ -9557,7 +9555,7 @@
         <v>877</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="S154" s="41"/>
       <c r="T154" s="2"/>
@@ -9680,10 +9678,10 @@
         <v>279</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="S157" s="41"/>
       <c r="T157" s="2"/>
@@ -9803,10 +9801,10 @@
         <v>842</v>
       </c>
       <c r="O160" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="P160" s="1" t="s">
         <v>922</v>
-      </c>
-      <c r="P160" s="1" t="s">
-        <v>923</v>
       </c>
       <c r="S160" s="41"/>
       <c r="T160" s="2"/>
@@ -9831,13 +9829,13 @@
         <v>881</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H161" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="I161" s="1" t="s">
         <v>942</v>
-      </c>
-      <c r="I161" s="1" t="s">
-        <v>943</v>
       </c>
       <c r="S161" s="41"/>
       <c r="T161" s="2"/>
@@ -9896,7 +9894,7 @@
         <v>846</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="S163" s="41"/>
       <c r="T163" s="2"/>
@@ -9964,7 +9962,7 @@
         <v>899</v>
       </c>
       <c r="M165" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="S165" s="41"/>
       <c r="T165" s="2"/>
@@ -9983,7 +9981,7 @@
         <v>881</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="S166" s="41"/>
       <c r="T166" s="2"/>
@@ -10026,7 +10024,7 @@
         <v>833</v>
       </c>
       <c r="M167" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="S167" s="41"/>
       <c r="T167" s="2"/>
@@ -10127,8 +10125,8 @@
       <c r="K170" s="18" t="s">
         <v>904</v>
       </c>
-      <c r="L170" s="39" t="s">
-        <v>937</v>
+      <c r="L170" s="44" t="s">
+        <v>936</v>
       </c>
       <c r="M170" s="3"/>
       <c r="N170" s="3"/>

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="954">
   <si>
     <t>Aatrox</t>
   </si>
@@ -2874,6 +2874,18 @@
   </si>
   <si>
     <t>Prestige Dragonmancer</t>
+  </si>
+  <si>
+    <t>Primal Ambush</t>
+  </si>
+  <si>
+    <t>Foreseen</t>
+  </si>
+  <si>
+    <t>Smolder</t>
+  </si>
+  <si>
+    <t>Heavenscale</t>
   </si>
 </sst>
 </file>
@@ -3535,10 +3547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T170"/>
+  <dimension ref="A1:T171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3798,6 +3810,9 @@
       <c r="D8" s="11" t="s">
         <v>677</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>916</v>
+      </c>
       <c r="S8" s="41"/>
       <c r="T8" s="2"/>
     </row>
@@ -7921,6 +7936,9 @@
       <c r="Q112" s="1" t="s">
         <v>909</v>
       </c>
+      <c r="R112" s="1" t="s">
+        <v>950</v>
+      </c>
       <c r="S112" s="41"/>
       <c r="T112" s="2"/>
     </row>
@@ -8435,7 +8453,9 @@
       <c r="R125" s="7" t="s">
         <v>905</v>
       </c>
-      <c r="S125" s="41"/>
+      <c r="S125" s="41" t="s">
+        <v>950</v>
+      </c>
       <c r="T125" s="2"/>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
@@ -8465,165 +8485,151 @@
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C127" s="11" t="s">
-        <v>666</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="E127" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="F127" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="G127" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="H127" s="11" t="s">
-        <v>669</v>
-      </c>
-      <c r="I127" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="J127" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="K127" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="L127" s="13" t="s">
-        <v>812</v>
-      </c>
-      <c r="M127" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="N127" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="O127" s="1" t="s">
-        <v>930</v>
-      </c>
+        <v>952</v>
+      </c>
+      <c r="B127" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C127" s="39" t="s">
+        <v>953</v>
+      </c>
+      <c r="D127" s="39"/>
+      <c r="E127" s="39"/>
+      <c r="F127" s="39"/>
+      <c r="G127" s="39"/>
       <c r="S127" s="41"/>
       <c r="T127" s="2"/>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>670</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>671</v>
-      </c>
-      <c r="E128" s="13" t="s">
-        <v>672</v>
+        <v>90</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>667</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="G128" s="10" t="s">
-        <v>673</v>
+        <v>668</v>
+      </c>
+      <c r="G128" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="I128" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="I128" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="J128" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="K128" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="L128" s="13" t="s">
+        <v>812</v>
+      </c>
+      <c r="M128" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="J128" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="K128" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="L128" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="M128" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="N128" s="7" t="s">
-        <v>868</v>
-      </c>
-      <c r="O128" s="11" t="s">
-        <v>824</v>
-      </c>
-      <c r="P128" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q128" s="1" t="s">
+      <c r="N128" s="1" t="s">
         <v>929</v>
+      </c>
+      <c r="O128" s="1" t="s">
+        <v>930</v>
       </c>
       <c r="S128" s="41"/>
       <c r="T128" s="2"/>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B129" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B129" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>674</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>675</v>
-      </c>
-      <c r="F129" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="G129" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="H129" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="I129" s="10" t="s">
-        <v>901</v>
+        <v>670</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="E129" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="G129" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="H129" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J129" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="K129" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="L129" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="M129" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="N129" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="O129" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="P129" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q129" s="1" t="s">
+        <v>929</v>
       </c>
       <c r="S129" s="41"/>
       <c r="T129" s="2"/>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E130" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="F130" s="11" t="s">
-        <v>856</v>
-      </c>
-      <c r="G130" s="13" t="s">
-        <v>838</v>
-      </c>
-      <c r="H130" s="9" t="s">
-        <v>894</v>
-      </c>
-      <c r="I130" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H130" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="I130" s="10" t="s">
         <v>901</v>
       </c>
       <c r="S130" s="41"/>
@@ -8631,218 +8637,200 @@
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B131" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D131" s="10" t="s">
-        <v>354</v>
+        <v>92</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>678</v>
+        <v>183</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="H131" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="I131" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="J131" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="K131" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="L131" s="5" t="s">
-        <v>868</v>
-      </c>
-      <c r="M131" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="N131" s="1" t="s">
-        <v>277</v>
+        <v>856</v>
+      </c>
+      <c r="G131" s="13" t="s">
+        <v>838</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>901</v>
       </c>
       <c r="S131" s="41"/>
       <c r="T131" s="2"/>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B132" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>680</v>
-      </c>
-      <c r="D132" s="12" t="s">
-        <v>681</v>
-      </c>
-      <c r="E132" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="F132" s="6" t="s">
-        <v>279</v>
+        <v>93</v>
+      </c>
+      <c r="B132" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="F132" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>431</v>
+        <v>192</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I132" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="J132" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="K132" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="L132" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="M132" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="S132" s="41"/>
       <c r="T132" s="2"/>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B133" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D133" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="E133" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="F133" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>925</v>
+        <v>94</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>431</v>
       </c>
       <c r="S133" s="41"/>
       <c r="T133" s="2"/>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C134" s="11" t="s">
-        <v>683</v>
-      </c>
-      <c r="D134" s="13" t="s">
-        <v>609</v>
-      </c>
-      <c r="E134" s="10" t="s">
-        <v>611</v>
-      </c>
-      <c r="F134" s="10" t="s">
-        <v>606</v>
-      </c>
-      <c r="G134" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="H134" s="8" t="s">
-        <v>684</v>
-      </c>
-      <c r="I134" s="11" t="s">
-        <v>685</v>
-      </c>
-      <c r="J134" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="K134" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="L134" s="6" t="s">
-        <v>874</v>
+        <v>95</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E134" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="F134" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>925</v>
       </c>
       <c r="S134" s="41"/>
       <c r="T134" s="2"/>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="B135" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C135" s="8" t="s">
-        <v>686</v>
-      </c>
-      <c r="D135" s="9" t="s">
-        <v>687</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="F135" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="G135" s="10" t="s">
-        <v>688</v>
-      </c>
-      <c r="H135" s="12" t="s">
-        <v>253</v>
+      <c r="C135" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="D135" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="F135" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H135" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="I135" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="J135" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="K135" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="L135" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>950</v>
       </c>
       <c r="S135" s="41"/>
       <c r="T135" s="2"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>689</v>
-      </c>
-      <c r="D136" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="E136" s="13" t="s">
-        <v>691</v>
+        <v>148</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>502</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="G136" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="H136" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="I136" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="J136" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="K136" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="L136" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="M136" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="N136" s="10" t="s">
-        <v>875</v>
-      </c>
-      <c r="O136" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="P136" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G136" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="H136" s="12" t="s">
         <v>253</v>
       </c>
       <c r="S136" s="41"/>
@@ -8850,1137 +8838,1176 @@
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E137" s="6" t="s">
-        <v>161</v>
+        <v>97</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="D137" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="E137" s="13" t="s">
+        <v>691</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>606</v>
+        <v>241</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="H137" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="I137" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="J137" s="13" t="s">
-        <v>863</v>
+        <v>358</v>
+      </c>
+      <c r="H137" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="I137" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="J137" s="9" t="s">
+        <v>359</v>
       </c>
       <c r="K137" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="L137" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="L137" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="M137" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="M137" s="11" t="s">
-        <v>805</v>
-      </c>
-      <c r="N137" s="8" t="s">
-        <v>819</v>
-      </c>
-      <c r="O137" s="8" t="s">
-        <v>906</v>
-      </c>
-      <c r="P137" s="1" t="s">
-        <v>901</v>
+      <c r="N137" s="10" t="s">
+        <v>875</v>
+      </c>
+      <c r="O137" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="P137" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="S137" s="41"/>
       <c r="T137" s="2"/>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B138" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C138" s="13" t="s">
-        <v>694</v>
+        <v>98</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>693</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="E138" s="11" t="s">
-        <v>696</v>
+        <v>231</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>697</v>
+        <v>606</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="H138" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="I138" s="6" t="s">
-        <v>404</v>
+        <v>290</v>
+      </c>
+      <c r="H138" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="I138" s="13" t="s">
+        <v>273</v>
       </c>
       <c r="J138" s="13" t="s">
-        <v>327</v>
+        <v>863</v>
       </c>
       <c r="K138" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="L138" s="13" t="s">
-        <v>700</v>
-      </c>
-      <c r="M138" s="13" t="s">
-        <v>701</v>
+        <v>374</v>
+      </c>
+      <c r="L138" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="M138" s="11" t="s">
+        <v>805</v>
       </c>
       <c r="N138" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="O138" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="P138" s="10" t="s">
-        <v>173</v>
+        <v>819</v>
+      </c>
+      <c r="O138" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="P138" s="1" t="s">
+        <v>901</v>
       </c>
       <c r="S138" s="41"/>
       <c r="T138" s="2"/>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B139" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B139" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>702</v>
-      </c>
-      <c r="D139" s="13" t="s">
-        <v>703</v>
+        <v>694</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>695</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>439</v>
+        <v>696</v>
       </c>
       <c r="F139" s="13" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="H139" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="I139" s="9" t="s">
-        <v>895</v>
-      </c>
-      <c r="P139" s="39"/>
+        <v>698</v>
+      </c>
+      <c r="H139" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="I139" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="J139" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="K139" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="L139" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="M139" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="N139" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="O139" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="P139" s="10" t="s">
+        <v>173</v>
+      </c>
       <c r="S139" s="41"/>
       <c r="T139" s="2"/>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B140" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C140" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>596</v>
+      <c r="C140" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="D140" s="13" t="s">
+        <v>703</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>706</v>
+        <v>439</v>
       </c>
       <c r="F140" s="13" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="H140" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="I140" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="J140" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="K140" s="11" t="s">
-        <v>708</v>
-      </c>
-      <c r="L140" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="M140" s="6" t="s">
-        <v>224</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="H140" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="I140" s="9" t="s">
+        <v>895</v>
+      </c>
+      <c r="P140" s="39"/>
       <c r="S140" s="41"/>
       <c r="T140" s="2"/>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C141" s="13" t="s">
-        <v>422</v>
+        <v>101</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>705</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="E141" s="13" t="s">
-        <v>829</v>
-      </c>
-      <c r="F141" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="G141" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="H141" s="13" t="s">
-        <v>710</v>
-      </c>
-      <c r="I141" s="10" t="s">
-        <v>711</v>
+        <v>596</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="F141" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="G141" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="H141" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="I141" s="11" t="s">
+        <v>285</v>
       </c>
       <c r="J141" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="K141" s="13" t="s">
-        <v>712</v>
-      </c>
-      <c r="L141" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="K141" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="L141" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="M141" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="N141" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="O141" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="P141" s="8" t="s">
-        <v>808</v>
-      </c>
-      <c r="Q141" s="12" t="s">
-        <v>253</v>
+      <c r="M141" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="S141" s="41"/>
       <c r="T141" s="2"/>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C142" s="11" t="s">
-        <v>713</v>
-      </c>
-      <c r="D142" s="12" t="s">
-        <v>714</v>
+        <v>102</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>709</v>
       </c>
       <c r="E142" s="13" t="s">
-        <v>715</v>
-      </c>
-      <c r="F142" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="G142" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="H142" s="11" t="s">
-        <v>716</v>
-      </c>
-      <c r="I142" s="13" t="s">
-        <v>606</v>
-      </c>
-      <c r="J142" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="K142" s="10" t="s">
-        <v>717</v>
-      </c>
-      <c r="L142" s="10" t="s">
-        <v>718</v>
-      </c>
-      <c r="M142" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="N142" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="G142" s="8" t="s">
         <v>233</v>
+      </c>
+      <c r="H142" s="13" t="s">
+        <v>710</v>
+      </c>
+      <c r="I142" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="J142" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="K142" s="13" t="s">
+        <v>712</v>
+      </c>
+      <c r="L142" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="M142" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="N142" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="O142" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="P142" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="Q142" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="S142" s="41"/>
       <c r="T142" s="2"/>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C143" s="13" t="s">
-        <v>719</v>
-      </c>
-      <c r="D143" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="E143" s="10" t="s">
-        <v>721</v>
-      </c>
-      <c r="F143" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="G143" s="10" t="s">
-        <v>722</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>921</v>
+        <v>103</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="E143" s="13" t="s">
+        <v>715</v>
+      </c>
+      <c r="F143" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="G143" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="H143" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="I143" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="J143" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="K143" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="L143" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="M143" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="N143" s="9" t="s">
+        <v>233</v>
       </c>
       <c r="S143" s="41"/>
       <c r="T143" s="2"/>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>799</v>
-      </c>
-      <c r="D144" s="10" t="s">
-        <v>574</v>
+        <v>104</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>720</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="F144" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="G144" s="13" t="s">
-        <v>723</v>
-      </c>
-      <c r="H144" s="10" t="s">
-        <v>895</v>
+        <v>721</v>
+      </c>
+      <c r="F144" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="G144" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>921</v>
       </c>
       <c r="S144" s="41"/>
       <c r="T144" s="2"/>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C145" s="11" t="s">
-        <v>724</v>
-      </c>
-      <c r="D145" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E145" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="F145" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="G145" s="10" t="s">
-        <v>725</v>
+      <c r="C145" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="E145" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="F145" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G145" s="13" t="s">
+        <v>723</v>
       </c>
       <c r="H145" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="I145" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="J145" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="K145" s="8" t="s">
-        <v>726</v>
-      </c>
-      <c r="L145" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="M145" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="N145" s="1" t="s">
-        <v>883</v>
+        <v>895</v>
       </c>
       <c r="S145" s="41"/>
       <c r="T145" s="2"/>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B146" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="D146" s="12" t="s">
-        <v>728</v>
-      </c>
-      <c r="E146" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="F146" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="F146" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="G146" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="H146" s="8" t="s">
-        <v>259</v>
+      <c r="G146" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="H146" s="10" t="s">
+        <v>290</v>
       </c>
       <c r="I146" s="8" t="s">
-        <v>729</v>
+        <v>195</v>
       </c>
       <c r="J146" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="K146" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="L146" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="K146" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="L146" s="10" t="s">
-        <v>876</v>
-      </c>
-      <c r="M146" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="N146" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="O146" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="P146" s="12" t="s">
-        <v>837</v>
-      </c>
-      <c r="Q146" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="R146" s="1" t="s">
-        <v>948</v>
+      <c r="M146" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="N146" s="1" t="s">
+        <v>883</v>
       </c>
       <c r="S146" s="41"/>
       <c r="T146" s="2"/>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B147" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C147" s="12" t="s">
-        <v>730</v>
+        <v>107</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>727</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>731</v>
-      </c>
-      <c r="E147" s="11" t="s">
-        <v>732</v>
-      </c>
-      <c r="F147" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="G147" s="13" t="s">
-        <v>734</v>
-      </c>
-      <c r="H147" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="I147" s="13" t="s">
-        <v>736</v>
-      </c>
-      <c r="J147" s="10" t="s">
-        <v>737</v>
+        <v>728</v>
+      </c>
+      <c r="E147" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F147" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H147" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I147" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="J147" s="11" t="s">
+        <v>183</v>
       </c>
       <c r="K147" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="L147" s="13" t="s">
-        <v>172</v>
+        <v>433</v>
+      </c>
+      <c r="L147" s="10" t="s">
+        <v>876</v>
       </c>
       <c r="M147" s="10" t="s">
-        <v>738</v>
+        <v>173</v>
       </c>
       <c r="N147" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="O147" s="12" t="s">
-        <v>886</v>
-      </c>
-      <c r="P147" s="1" t="s">
-        <v>945</v>
+        <v>374</v>
+      </c>
+      <c r="O147" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="P147" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q147" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R147" s="1" t="s">
+        <v>948</v>
       </c>
       <c r="S147" s="41"/>
       <c r="T147" s="2"/>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C148" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="E148" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="F148" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="G148" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>946</v>
+        <v>108</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="F148" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="G148" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="H148" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="I148" s="13" t="s">
+        <v>736</v>
+      </c>
+      <c r="J148" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="K148" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="L148" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="M148" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="N148" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="O148" s="12" t="s">
+        <v>886</v>
+      </c>
+      <c r="P148" s="1" t="s">
+        <v>945</v>
       </c>
       <c r="S148" s="41"/>
       <c r="T148" s="2"/>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="B149" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C149" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D149" s="11" t="s">
-        <v>899</v>
+        <v>109</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E149" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G149" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>946</v>
       </c>
       <c r="S149" s="41"/>
       <c r="T149" s="2"/>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C150" s="13" t="s">
-        <v>739</v>
-      </c>
-      <c r="D150" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="E150" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="F150" s="13" t="s">
-        <v>740</v>
-      </c>
-      <c r="G150" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="H150" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="I150" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="J150" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="K150" s="9" t="s">
-        <v>822</v>
-      </c>
-      <c r="L150" s="1" t="s">
-        <v>908</v>
+        <v>814</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>899</v>
       </c>
       <c r="S150" s="41"/>
       <c r="T150" s="2"/>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D151" s="11" t="s">
-        <v>813</v>
+        <v>110</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="D151" s="13" t="s">
+        <v>271</v>
       </c>
       <c r="E151" s="13" t="s">
-        <v>846</v>
-      </c>
-      <c r="F151" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>926</v>
+        <v>336</v>
+      </c>
+      <c r="F151" s="13" t="s">
+        <v>740</v>
+      </c>
+      <c r="G151" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="H151" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="I151" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="J151" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="K151" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="M151" s="1" t="s">
+        <v>950</v>
       </c>
       <c r="S151" s="41"/>
       <c r="T151" s="2"/>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C152" s="13" t="s">
-        <v>742</v>
+      <c r="C152" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>743</v>
-      </c>
-      <c r="E152" s="10" t="s">
-        <v>744</v>
+        <v>813</v>
+      </c>
+      <c r="E152" s="13" t="s">
+        <v>846</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="G152" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="H152" s="6" t="s">
-        <v>233</v>
+        <v>596</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>926</v>
       </c>
       <c r="S152" s="41"/>
       <c r="T152" s="2"/>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="D153" s="9" t="s">
-        <v>745</v>
-      </c>
-      <c r="E153" s="13" t="s">
-        <v>746</v>
-      </c>
-      <c r="F153" s="13" t="s">
-        <v>255</v>
+        <v>111</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="E153" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>459</v>
       </c>
       <c r="G153" s="10" t="s">
-        <v>747</v>
-      </c>
-      <c r="H153" s="9" t="s">
-        <v>729</v>
-      </c>
-      <c r="I153" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="J153" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="K153" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="L153" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="M153" s="11" t="s">
-        <v>824</v>
-      </c>
-      <c r="N153" s="1" t="s">
-        <v>909</v>
+        <v>340</v>
+      </c>
+      <c r="H153" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="S153" s="41"/>
       <c r="T153" s="2"/>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="D154" s="11" t="s">
-        <v>749</v>
-      </c>
-      <c r="E154" s="10" t="s">
-        <v>750</v>
-      </c>
-      <c r="F154" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="G154" s="13" t="s">
-        <v>751</v>
-      </c>
-      <c r="H154" s="8" t="s">
-        <v>752</v>
-      </c>
-      <c r="I154" s="6" t="s">
-        <v>821</v>
-      </c>
-      <c r="J154" s="8" t="s">
-        <v>877</v>
-      </c>
-      <c r="K154" s="1" t="s">
-        <v>921</v>
+        <v>150</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="E154" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="F154" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="G154" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="H154" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="I154" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J154" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="K154" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="L154" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="M154" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="N154" s="1" t="s">
+        <v>909</v>
       </c>
       <c r="S154" s="41"/>
       <c r="T154" s="2"/>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C155" s="11" t="s">
-        <v>753</v>
-      </c>
-      <c r="D155" s="13" t="s">
-        <v>754</v>
-      </c>
-      <c r="E155" s="13" t="s">
-        <v>755</v>
+        <v>112</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="E155" s="10" t="s">
+        <v>750</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="G155" s="11" t="s">
-        <v>757</v>
+        <v>373</v>
+      </c>
+      <c r="G155" s="13" t="s">
+        <v>751</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="I155" s="13" t="s">
-        <v>759</v>
-      </c>
-      <c r="J155" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="K155" s="13" t="s">
-        <v>760</v>
-      </c>
-      <c r="L155" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="M155" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="N155" s="8" t="s">
-        <v>807</v>
-      </c>
-      <c r="O155" s="11" t="s">
-        <v>901</v>
-      </c>
-      <c r="P155" s="6" t="s">
-        <v>902</v>
+        <v>752</v>
+      </c>
+      <c r="I155" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="J155" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>921</v>
       </c>
       <c r="S155" s="41"/>
       <c r="T155" s="2"/>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B156" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C156" s="13" t="s">
-        <v>761</v>
-      </c>
-      <c r="D156" s="9" t="s">
-        <v>762</v>
-      </c>
-      <c r="E156" s="11" t="s">
-        <v>763</v>
+        <v>113</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D156" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="E156" s="13" t="s">
+        <v>755</v>
       </c>
       <c r="F156" s="11" t="s">
-        <v>711</v>
-      </c>
-      <c r="G156" s="10" t="s">
-        <v>764</v>
+        <v>756</v>
+      </c>
+      <c r="G156" s="11" t="s">
+        <v>757</v>
       </c>
       <c r="H156" s="8" t="s">
-        <v>765</v>
-      </c>
-      <c r="I156" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="J156" s="1" t="s">
-        <v>172</v>
+        <v>758</v>
+      </c>
+      <c r="I156" s="13" t="s">
+        <v>759</v>
+      </c>
+      <c r="J156" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="K156" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="L156" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="M156" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="N156" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="O156" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="P156" s="6" t="s">
+        <v>902</v>
       </c>
       <c r="S156" s="41"/>
       <c r="T156" s="2"/>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>766</v>
-      </c>
-      <c r="D157" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="E157" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="F157" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G157" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="F157" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="G157" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="H157" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="I157" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="J157" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="H157" s="8" t="s">
-        <v>809</v>
-      </c>
-      <c r="I157" s="8" t="s">
-        <v>878</v>
-      </c>
-      <c r="J157" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="K157" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="L157" s="1" t="s">
-        <v>940</v>
       </c>
       <c r="S157" s="41"/>
       <c r="T157" s="2"/>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C158" s="11" t="s">
-        <v>767</v>
-      </c>
-      <c r="D158" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="E158" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="F158" s="11" t="s">
-        <v>418</v>
+        <v>114</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="G158" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="H158" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="H158" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="I158" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="J158" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="I158" s="1" t="s">
-        <v>241</v>
+      <c r="K158" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>940</v>
       </c>
       <c r="S158" s="41"/>
       <c r="T158" s="2"/>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B159" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B159" s="10" t="s">
         <v>157</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="D159" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="E159" s="10" t="s">
-        <v>768</v>
-      </c>
-      <c r="F159" s="8" t="s">
-        <v>769</v>
-      </c>
-      <c r="G159" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="H159" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="I159" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="J159" s="5" t="s">
-        <v>770</v>
-      </c>
-      <c r="K159" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="L159" s="10" t="s">
-        <v>433</v>
+        <v>767</v>
+      </c>
+      <c r="D159" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="E159" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="F159" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="G159" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="H159" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="S159" s="41"/>
       <c r="T159" s="2"/>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C160" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E160" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F160" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G160" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="H160" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="I160" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="J160" s="10" t="s">
-        <v>870</v>
-      </c>
-      <c r="K160" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L160" s="7" t="s">
-        <v>816</v>
-      </c>
-      <c r="M160" s="5" t="s">
-        <v>817</v>
-      </c>
-      <c r="N160" s="6" t="s">
-        <v>842</v>
-      </c>
-      <c r="O160" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="P160" s="1" t="s">
-        <v>922</v>
+      <c r="C160" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="E160" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="G160" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="H160" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="I160" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="J160" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="K160" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="L160" s="10" t="s">
+        <v>433</v>
       </c>
       <c r="S160" s="41"/>
       <c r="T160" s="2"/>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C161" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F161" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G161" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H161" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="I161" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J161" s="10" t="s">
+        <v>870</v>
+      </c>
+      <c r="K161" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D161" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="E161" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="F161" s="13" t="s">
-        <v>881</v>
-      </c>
-      <c r="G161" s="1" t="s">
+      <c r="L161" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="M161" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="N161" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="O161" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="H161" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="I161" s="1" t="s">
-        <v>942</v>
+      <c r="P161" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="Q161" s="1" t="s">
+        <v>951</v>
       </c>
       <c r="S161" s="41"/>
       <c r="T161" s="2"/>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B162" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>771</v>
-      </c>
-      <c r="D162" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="E162" s="8" t="s">
-        <v>259</v>
+        <v>152</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="F162" s="13" t="s">
-        <v>772</v>
-      </c>
-      <c r="G162" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="H162" s="12" t="s">
-        <v>812</v>
-      </c>
-      <c r="I162" s="10" t="s">
-        <v>173</v>
+        <v>881</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>942</v>
       </c>
       <c r="S162" s="41"/>
       <c r="T162" s="2"/>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C163" s="11" t="s">
-        <v>773</v>
+        <v>118</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>771</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="E163" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="F163" s="9" t="s">
-        <v>327</v>
+        <v>445</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F163" s="13" t="s">
+        <v>772</v>
       </c>
       <c r="G163" s="13" t="s">
-        <v>846</v>
-      </c>
-      <c r="H163" s="1" t="s">
-        <v>918</v>
+        <v>267</v>
+      </c>
+      <c r="H163" s="12" t="s">
+        <v>812</v>
+      </c>
+      <c r="I163" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="S163" s="41"/>
       <c r="T163" s="2"/>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B164" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B164" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>775</v>
-      </c>
-      <c r="D164" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E164" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="F164" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="G164" s="10" t="s">
-        <v>899</v>
+        <v>773</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="F164" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="G164" s="13" t="s">
+        <v>846</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>918</v>
       </c>
       <c r="S164" s="41"/>
       <c r="T164" s="2"/>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="D165" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="D165" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E165" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E165" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F165" s="7" t="s">
-        <v>231</v>
+      <c r="F165" s="10" t="s">
+        <v>482</v>
       </c>
       <c r="G165" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="H165" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="I165" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="J165" s="6" t="s">
-        <v>856</v>
-      </c>
-      <c r="K165" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="L165" s="10" t="s">
         <v>899</v>
-      </c>
-      <c r="M165" s="1" t="s">
-        <v>929</v>
       </c>
       <c r="S165" s="41"/>
       <c r="T165" s="2"/>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="B166" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C166" s="11" t="s">
-        <v>679</v>
-      </c>
-      <c r="D166" s="13" t="s">
-        <v>881</v>
-      </c>
-      <c r="E166" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E166" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F166" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G166" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="H166" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="I166" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="J166" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="K166" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="L166" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="M166" s="1" t="s">
         <v>929</v>
       </c>
       <c r="S166" s="41"/>
@@ -9988,154 +10015,173 @@
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B167" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C167" s="13" t="s">
-        <v>647</v>
+        <v>827</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>679</v>
       </c>
       <c r="D167" s="13" t="s">
-        <v>778</v>
-      </c>
-      <c r="E167" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="F167" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G167" s="8" t="s">
-        <v>779</v>
-      </c>
-      <c r="H167" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="I167" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="J167" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="K167" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="L167" s="11" t="s">
-        <v>833</v>
-      </c>
-      <c r="M167" s="1" t="s">
-        <v>937</v>
+        <v>881</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>929</v>
       </c>
       <c r="S167" s="41"/>
       <c r="T167" s="2"/>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B168" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>780</v>
-      </c>
-      <c r="D168" s="12" t="s">
-        <v>781</v>
+        <v>647</v>
+      </c>
+      <c r="D168" s="13" t="s">
+        <v>778</v>
       </c>
       <c r="E168" s="11" t="s">
-        <v>782</v>
-      </c>
-      <c r="F168" s="13" t="s">
-        <v>783</v>
-      </c>
-      <c r="G168" s="6" t="s">
-        <v>161</v>
+        <v>274</v>
+      </c>
+      <c r="F168" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G168" s="8" t="s">
+        <v>779</v>
       </c>
       <c r="H168" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="I168" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J168" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I168" s="9" t="s">
-        <v>901</v>
+      <c r="K168" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="L168" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="M168" s="1" t="s">
+        <v>937</v>
       </c>
       <c r="S168" s="41"/>
       <c r="T168" s="2"/>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="B169" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C169" s="10" t="s">
-        <v>784</v>
-      </c>
-      <c r="D169" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="E169" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F169" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="G169" s="9" t="s">
-        <v>879</v>
-      </c>
-      <c r="H169" s="10" t="s">
-        <v>846</v>
-      </c>
-      <c r="I169" s="10" t="s">
+      <c r="C169" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="D169" s="12" t="s">
+        <v>781</v>
+      </c>
+      <c r="E169" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="F169" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="G169" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H169" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="I169" s="9" t="s">
         <v>901</v>
       </c>
       <c r="S169" s="41"/>
       <c r="T169" s="2"/>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="s">
+      <c r="A170" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="D170" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F170" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="G170" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="H170" s="10" t="s">
+        <v>846</v>
+      </c>
+      <c r="I170" s="10" t="s">
+        <v>901</v>
+      </c>
+      <c r="S170" s="41"/>
+      <c r="T170" s="2"/>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B170" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C170" s="17" t="s">
+      <c r="B171" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C171" s="17" t="s">
         <v>785</v>
       </c>
-      <c r="D170" s="18" t="s">
+      <c r="D171" s="18" t="s">
         <v>527</v>
       </c>
-      <c r="E170" s="20" t="s">
+      <c r="E171" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="F170" s="19" t="s">
+      <c r="F171" s="19" t="s">
         <v>786</v>
       </c>
-      <c r="G170" s="16" t="s">
+      <c r="G171" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="H170" s="18" t="s">
+      <c r="H171" s="18" t="s">
         <v>861</v>
       </c>
-      <c r="I170" s="36" t="s">
+      <c r="I171" s="36" t="s">
         <v>677</v>
       </c>
-      <c r="J170" s="18" t="s">
+      <c r="J171" s="18" t="s">
         <v>808</v>
       </c>
-      <c r="K170" s="18" t="s">
+      <c r="K171" s="18" t="s">
         <v>904</v>
       </c>
-      <c r="L170" s="44" t="s">
+      <c r="L171" s="44" t="s">
         <v>936</v>
       </c>
-      <c r="M170" s="3"/>
-      <c r="N170" s="3"/>
-      <c r="O170" s="3"/>
-      <c r="P170" s="3"/>
-      <c r="Q170" s="3"/>
-      <c r="R170" s="3"/>
-      <c r="S170" s="3"/>
-      <c r="T170" s="4"/>
+      <c r="M171" s="3"/>
+      <c r="N171" s="3"/>
+      <c r="O171" s="3"/>
+      <c r="P171" s="3"/>
+      <c r="Q171" s="3"/>
+      <c r="R171" s="3"/>
+      <c r="S171" s="3"/>
+      <c r="T171" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/assets/resources/Tierlist.xlsx
+++ b/src/assets/resources/Tierlist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -2892,10 +2892,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3079,7 +3085,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3195,22 +3201,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3227,16 +3230,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF7030A0"/>
       <color rgb="FFFFCC00"/>
-      <color rgb="FFFF9933"/>
-      <color rgb="FF00CC66"/>
-      <color rgb="FF66FF33"/>
+      <color rgb="FF0099CC"/>
       <color rgb="FFCCFF33"/>
       <color rgb="FF00FFCC"/>
-      <color rgb="FF0099CC"/>
-      <color rgb="FF3333FF"/>
-      <color rgb="FF666699"/>
+      <color rgb="FF66FF33"/>
+      <color rgb="FF00CC66"/>
+      <color rgb="FFFF9933"/>
+      <color rgb="FFFF0000"/>
+      <color rgb="FFFFC000"/>
+      <color rgb="FF7030A0"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3549,8 +3552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView tabSelected="1" topLeftCell="C37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3605,36 +3608,33 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
       <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+ 